--- a/data_sheets.xlsx
+++ b/data_sheets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/Grassland restoration with biosolids/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/Grassland restoration with biosolids/Grassland-restoration-with-biosolids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC925C3-2796-3140-ABB8-11E9904E0D2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A43B45C1-D133-AB4D-9F9A-238127A16FB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32920" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
+    <workbookView xWindow="32920" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -1060,9 +1060,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9FE204-07F5-0F4A-B823-D83AA8F49599}">
   <dimension ref="A1:AM224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L179" sqref="A179:L181"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43809,9 +43809,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD349FBF-19EC-D146-ACA8-683A33E0AFBC}">
   <dimension ref="A1:AE165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L146" sqref="L146:L148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44046,6 +44046,9 @@
       <c r="M3">
         <v>0.85</v>
       </c>
+      <c r="N3">
+        <v>0.85</v>
+      </c>
       <c r="O3">
         <v>20</v>
       </c>
@@ -44131,6 +44134,9 @@
       <c r="M4">
         <v>0.85</v>
       </c>
+      <c r="N4">
+        <v>0.85</v>
+      </c>
       <c r="O4">
         <v>20</v>
       </c>
@@ -44216,6 +44222,9 @@
       <c r="M5">
         <v>0.85</v>
       </c>
+      <c r="N5">
+        <v>0.85</v>
+      </c>
       <c r="O5">
         <v>20</v>
       </c>
@@ -44301,6 +44310,9 @@
       <c r="M6">
         <v>0.85</v>
       </c>
+      <c r="N6">
+        <v>0.85</v>
+      </c>
       <c r="O6">
         <v>20</v>
       </c>
@@ -44386,6 +44398,9 @@
       <c r="M7">
         <v>0.85</v>
       </c>
+      <c r="N7">
+        <v>0.85</v>
+      </c>
       <c r="O7">
         <v>20</v>
       </c>
@@ -44469,6 +44484,9 @@
         <v>2.6</v>
       </c>
       <c r="M8">
+        <v>0.85</v>
+      </c>
+      <c r="N8">
         <v>0.85</v>
       </c>
       <c r="O8">
@@ -58515,7 +58533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A6ED4B-6E31-4049-86F7-8148E97C48E0}">
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView topLeftCell="K35" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
@@ -64080,8 +64098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFE696-4A9B-DC4D-B12B-45CD0688D0EA}">
   <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_sheets.xlsx
+++ b/data_sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/Grassland restoration with biosolids/Grassland-restoration-with-biosolids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A43B45C1-D133-AB4D-9F9A-238127A16FB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C173434-A01F-E840-9D9B-052F05714679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32920" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8047" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8047" uniqueCount="202">
   <si>
     <t>Paper ID#</t>
   </si>
@@ -633,6 +633,9 @@
   <si>
     <t xml:space="preserve">Zornoza, Gomez-Garrido, Martinez-Martinez, Gomez-Lopez, et. al. </t>
   </si>
+  <si>
+    <t>Paper ID</t>
+  </si>
 </sst>
 </file>
 
@@ -1060,9 +1063,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9FE204-07F5-0F4A-B823-D83AA8F49599}">
   <dimension ref="A1:AM224"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1073,7 +1076,7 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -20135,8 +20138,8 @@
   <dimension ref="A1:AC272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N279" sqref="N279"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43809,9 +43812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD349FBF-19EC-D146-ACA8-683A33E0AFBC}">
   <dimension ref="A1:AE165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_sheets.xlsx
+++ b/data_sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/Grassland restoration with biosolids/Grassland-restoration-with-biosolids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F470250-4618-4549-8581-CB9E642C1A2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1910C3-4A83-BB4D-91FD-92F61AC41F64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="5" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
+    <workbookView xWindow="260" yWindow="560" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13955" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13887" uniqueCount="206">
   <si>
     <t>Paper ID#</t>
   </si>
@@ -658,7 +658,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -688,21 +688,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
@@ -737,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -745,18 +733,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1074,11 +1060,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9FE204-07F5-0F4A-B823-D83AA8F49599}">
-  <dimension ref="A1:AM224"/>
+  <dimension ref="A1:AL220"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:AD1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A214" sqref="A214:XFD217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7470,7 +7456,7 @@
       <c r="L70">
         <v>71.31</v>
       </c>
-      <c r="N70" s="12">
+      <c r="N70" s="10">
         <f t="shared" ref="N70" si="0">0.253288233*L70</f>
         <v>18.06198389523</v>
       </c>
@@ -7739,7 +7725,7 @@
       <c r="L73">
         <v>67</v>
       </c>
-      <c r="N73" s="12">
+      <c r="N73" s="10">
         <f t="shared" ref="N73:N136" si="1">0.253288233*L73</f>
         <v>16.970311611</v>
       </c>
@@ -7824,7 +7810,7 @@
       <c r="L74">
         <v>67</v>
       </c>
-      <c r="N74" s="12">
+      <c r="N74" s="10">
         <f t="shared" si="1"/>
         <v>16.970311611</v>
       </c>
@@ -7909,7 +7895,7 @@
       <c r="L75">
         <v>67</v>
       </c>
-      <c r="N75" s="12">
+      <c r="N75" s="10">
         <f t="shared" si="1"/>
         <v>16.970311611</v>
       </c>
@@ -7994,7 +7980,7 @@
       <c r="L76">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N76" s="12">
+      <c r="N76" s="10">
         <f t="shared" si="1"/>
         <v>1.1144682252</v>
       </c>
@@ -8079,7 +8065,7 @@
       <c r="L77">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N77" s="12">
+      <c r="N77" s="10">
         <f t="shared" si="1"/>
         <v>1.1144682252</v>
       </c>
@@ -8164,7 +8150,7 @@
       <c r="L78">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N78" s="12">
+      <c r="N78" s="10">
         <f t="shared" si="1"/>
         <v>1.1144682252</v>
       </c>
@@ -8249,7 +8235,7 @@
       <c r="L79">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N79" s="12">
+      <c r="N79" s="10">
         <f t="shared" si="1"/>
         <v>1.1144682252</v>
       </c>
@@ -8334,7 +8320,7 @@
       <c r="L80">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N80" s="12">
+      <c r="N80" s="10">
         <f t="shared" si="1"/>
         <v>1.1144682252</v>
       </c>
@@ -8419,7 +8405,7 @@
       <c r="L81">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N81" s="12">
+      <c r="N81" s="10">
         <f t="shared" si="1"/>
         <v>1.1144682252</v>
       </c>
@@ -8504,7 +8490,7 @@
       <c r="L82">
         <v>9.1</v>
       </c>
-      <c r="N82" s="12">
+      <c r="N82" s="10">
         <f t="shared" si="1"/>
         <v>2.3049229202999997</v>
       </c>
@@ -8589,7 +8575,7 @@
       <c r="L83">
         <v>9.1</v>
       </c>
-      <c r="N83" s="12">
+      <c r="N83" s="10">
         <f t="shared" si="1"/>
         <v>2.3049229202999997</v>
       </c>
@@ -8674,7 +8660,7 @@
       <c r="L84">
         <v>9.1</v>
       </c>
-      <c r="N84" s="12">
+      <c r="N84" s="10">
         <f t="shared" si="1"/>
         <v>2.3049229202999997</v>
       </c>
@@ -8759,7 +8745,7 @@
       <c r="L85">
         <v>9.1</v>
       </c>
-      <c r="N85" s="12">
+      <c r="N85" s="10">
         <f t="shared" si="1"/>
         <v>2.3049229202999997</v>
       </c>
@@ -8844,7 +8830,7 @@
       <c r="L86">
         <v>9.1</v>
       </c>
-      <c r="N86" s="12">
+      <c r="N86" s="10">
         <f t="shared" si="1"/>
         <v>2.3049229202999997</v>
       </c>
@@ -8929,7 +8915,7 @@
       <c r="L87">
         <v>9.1</v>
       </c>
-      <c r="N87" s="12">
+      <c r="N87" s="10">
         <f t="shared" si="1"/>
         <v>2.3049229202999997</v>
       </c>
@@ -9014,7 +9000,7 @@
       <c r="L88">
         <v>3.63</v>
       </c>
-      <c r="N88" s="12">
+      <c r="N88" s="10">
         <f t="shared" si="1"/>
         <v>0.91943628578999992</v>
       </c>
@@ -9099,7 +9085,7 @@
       <c r="L89">
         <v>3.63</v>
       </c>
-      <c r="N89" s="12">
+      <c r="N89" s="10">
         <f t="shared" si="1"/>
         <v>0.91943628578999992</v>
       </c>
@@ -9184,7 +9170,7 @@
       <c r="L90">
         <v>3.63</v>
       </c>
-      <c r="N90" s="12">
+      <c r="N90" s="10">
         <f t="shared" si="1"/>
         <v>0.91943628578999992</v>
       </c>
@@ -9269,7 +9255,7 @@
       <c r="L91">
         <v>3.63</v>
       </c>
-      <c r="N91" s="12">
+      <c r="N91" s="10">
         <f t="shared" si="1"/>
         <v>0.91943628578999992</v>
       </c>
@@ -9354,7 +9340,7 @@
       <c r="L92">
         <v>5.09</v>
       </c>
-      <c r="N92" s="12">
+      <c r="N92" s="10">
         <f t="shared" si="1"/>
         <v>1.2892371059699999</v>
       </c>
@@ -9439,7 +9425,7 @@
       <c r="L93">
         <v>5.09</v>
       </c>
-      <c r="N93" s="12">
+      <c r="N93" s="10">
         <f t="shared" si="1"/>
         <v>1.2892371059699999</v>
       </c>
@@ -9524,7 +9510,7 @@
       <c r="L94">
         <v>5.09</v>
       </c>
-      <c r="N94" s="12">
+      <c r="N94" s="10">
         <f t="shared" si="1"/>
         <v>1.2892371059699999</v>
       </c>
@@ -9609,7 +9595,7 @@
       <c r="L95">
         <v>5.09</v>
       </c>
-      <c r="N95" s="12">
+      <c r="N95" s="10">
         <f t="shared" si="1"/>
         <v>1.2892371059699999</v>
       </c>
@@ -9694,7 +9680,7 @@
       <c r="L96">
         <v>9.0299999999999994</v>
       </c>
-      <c r="N96" s="12">
+      <c r="N96" s="10">
         <f t="shared" si="1"/>
         <v>2.2871927439899995</v>
       </c>
@@ -9779,7 +9765,7 @@
       <c r="L97">
         <v>9.0299999999999994</v>
       </c>
-      <c r="N97" s="12">
+      <c r="N97" s="10">
         <f t="shared" si="1"/>
         <v>2.2871927439899995</v>
       </c>
@@ -9864,7 +9850,7 @@
       <c r="L98">
         <v>9.0299999999999994</v>
       </c>
-      <c r="N98" s="12">
+      <c r="N98" s="10">
         <f t="shared" si="1"/>
         <v>2.2871927439899995</v>
       </c>
@@ -9949,7 +9935,7 @@
       <c r="L99">
         <v>9.0299999999999994</v>
       </c>
-      <c r="N99" s="12">
+      <c r="N99" s="10">
         <f t="shared" si="1"/>
         <v>2.2871927439899995</v>
       </c>
@@ -10034,7 +10020,7 @@
       <c r="L100">
         <v>8.1</v>
       </c>
-      <c r="N100" s="12">
+      <c r="N100" s="10">
         <f t="shared" si="1"/>
         <v>2.0516346872999995</v>
       </c>
@@ -10119,7 +10105,7 @@
       <c r="L101">
         <v>8.1</v>
       </c>
-      <c r="N101" s="12">
+      <c r="N101" s="10">
         <f t="shared" si="1"/>
         <v>2.0516346872999995</v>
       </c>
@@ -10204,7 +10190,7 @@
       <c r="L102">
         <v>8.1</v>
       </c>
-      <c r="N102" s="12">
+      <c r="N102" s="10">
         <f t="shared" si="1"/>
         <v>2.0516346872999995</v>
       </c>
@@ -10289,7 +10275,7 @@
       <c r="L103">
         <v>8.1</v>
       </c>
-      <c r="N103" s="12">
+      <c r="N103" s="10">
         <f t="shared" si="1"/>
         <v>2.0516346872999995</v>
       </c>
@@ -10374,7 +10360,7 @@
       <c r="L104">
         <v>6.13</v>
       </c>
-      <c r="N104" s="12">
+      <c r="N104" s="10">
         <f t="shared" si="1"/>
         <v>1.5526568682899997</v>
       </c>
@@ -10459,7 +10445,7 @@
       <c r="L105">
         <v>6.13</v>
       </c>
-      <c r="N105" s="12">
+      <c r="N105" s="10">
         <f t="shared" si="1"/>
         <v>1.5526568682899997</v>
       </c>
@@ -10544,7 +10530,7 @@
       <c r="L106">
         <v>6.13</v>
       </c>
-      <c r="N106" s="12">
+      <c r="N106" s="10">
         <f t="shared" si="1"/>
         <v>1.5526568682899997</v>
       </c>
@@ -10629,7 +10615,7 @@
       <c r="L107">
         <v>6.13</v>
       </c>
-      <c r="N107" s="12">
+      <c r="N107" s="10">
         <f t="shared" si="1"/>
         <v>1.5526568682899997</v>
       </c>
@@ -10714,7 +10700,7 @@
       <c r="L108">
         <v>1.72</v>
       </c>
-      <c r="N108" s="12">
+      <c r="N108" s="10">
         <f t="shared" si="1"/>
         <v>0.43565576075999995</v>
       </c>
@@ -10799,7 +10785,7 @@
       <c r="L109">
         <v>1.72</v>
       </c>
-      <c r="N109" s="12">
+      <c r="N109" s="10">
         <f t="shared" si="1"/>
         <v>0.43565576075999995</v>
       </c>
@@ -10884,7 +10870,7 @@
       <c r="L110">
         <v>1.72</v>
       </c>
-      <c r="N110" s="12">
+      <c r="N110" s="10">
         <f t="shared" si="1"/>
         <v>0.43565576075999995</v>
       </c>
@@ -10969,7 +10955,7 @@
       <c r="L111">
         <v>1.72</v>
       </c>
-      <c r="N111" s="12">
+      <c r="N111" s="10">
         <f t="shared" si="1"/>
         <v>0.43565576075999995</v>
       </c>
@@ -11054,7 +11040,7 @@
       <c r="L112">
         <v>4.7300000000000004</v>
       </c>
-      <c r="N112" s="12">
+      <c r="N112" s="10">
         <f t="shared" si="1"/>
         <v>1.1980533420899999</v>
       </c>
@@ -11139,7 +11125,7 @@
       <c r="L113">
         <v>4.7300000000000004</v>
       </c>
-      <c r="N113" s="12">
+      <c r="N113" s="10">
         <f t="shared" si="1"/>
         <v>1.1980533420899999</v>
       </c>
@@ -11224,7 +11210,7 @@
       <c r="L114">
         <v>4.7300000000000004</v>
       </c>
-      <c r="N114" s="12">
+      <c r="N114" s="10">
         <f t="shared" si="1"/>
         <v>1.1980533420899999</v>
       </c>
@@ -11309,7 +11295,7 @@
       <c r="L115">
         <v>4.7300000000000004</v>
       </c>
-      <c r="N115" s="12">
+      <c r="N115" s="10">
         <f t="shared" si="1"/>
         <v>1.1980533420899999</v>
       </c>
@@ -11394,7 +11380,7 @@
       <c r="L116">
         <v>69.040000000000006</v>
       </c>
-      <c r="N116" s="12">
+      <c r="N116" s="10">
         <f t="shared" si="1"/>
         <v>17.487019606320001</v>
       </c>
@@ -11479,7 +11465,7 @@
       <c r="L117">
         <v>69.040000000000006</v>
       </c>
-      <c r="N117" s="12">
+      <c r="N117" s="10">
         <f t="shared" si="1"/>
         <v>17.487019606320001</v>
       </c>
@@ -11564,7 +11550,7 @@
       <c r="L118">
         <v>69.040000000000006</v>
       </c>
-      <c r="N118" s="12">
+      <c r="N118" s="10">
         <f t="shared" si="1"/>
         <v>17.487019606320001</v>
       </c>
@@ -11649,7 +11635,7 @@
       <c r="L119">
         <v>63.05</v>
       </c>
-      <c r="N119" s="12">
+      <c r="N119" s="10">
         <f t="shared" si="1"/>
         <v>15.969823090649998</v>
       </c>
@@ -11734,7 +11720,7 @@
       <c r="L120">
         <v>63.05</v>
       </c>
-      <c r="N120" s="12">
+      <c r="N120" s="10">
         <f t="shared" si="1"/>
         <v>15.969823090649998</v>
       </c>
@@ -11819,7 +11805,7 @@
       <c r="L121">
         <v>63.05</v>
       </c>
-      <c r="N121" s="12">
+      <c r="N121" s="10">
         <f t="shared" si="1"/>
         <v>15.969823090649998</v>
       </c>
@@ -11904,7 +11890,7 @@
       <c r="L122">
         <v>63.05</v>
       </c>
-      <c r="N122" s="12">
+      <c r="N122" s="10">
         <f t="shared" si="1"/>
         <v>15.969823090649998</v>
       </c>
@@ -11989,7 +11975,7 @@
       <c r="L123">
         <v>30</v>
       </c>
-      <c r="N123" s="12">
+      <c r="N123" s="10">
         <f t="shared" si="1"/>
         <v>7.5986469899999989</v>
       </c>
@@ -12074,7 +12060,7 @@
       <c r="L124">
         <v>30</v>
       </c>
-      <c r="N124" s="12">
+      <c r="N124" s="10">
         <f t="shared" si="1"/>
         <v>7.5986469899999989</v>
       </c>
@@ -12159,7 +12145,7 @@
       <c r="L125">
         <v>30</v>
       </c>
-      <c r="N125" s="12">
+      <c r="N125" s="10">
         <f t="shared" si="1"/>
         <v>7.5986469899999989</v>
       </c>
@@ -12244,7 +12230,7 @@
       <c r="L126">
         <v>35</v>
       </c>
-      <c r="N126" s="12">
+      <c r="N126" s="10">
         <f t="shared" si="1"/>
         <v>8.8650881549999987</v>
       </c>
@@ -12329,7 +12315,7 @@
       <c r="L127">
         <v>35</v>
       </c>
-      <c r="N127" s="12">
+      <c r="N127" s="10">
         <f t="shared" si="1"/>
         <v>8.8650881549999987</v>
       </c>
@@ -12414,7 +12400,7 @@
       <c r="L128">
         <v>35</v>
       </c>
-      <c r="N128" s="12">
+      <c r="N128" s="10">
         <f t="shared" si="1"/>
         <v>8.8650881549999987</v>
       </c>
@@ -12499,7 +12485,7 @@
       <c r="L129">
         <v>31</v>
       </c>
-      <c r="N129" s="12">
+      <c r="N129" s="10">
         <f t="shared" si="1"/>
         <v>7.851935222999999</v>
       </c>
@@ -12584,7 +12570,7 @@
       <c r="L130">
         <v>31</v>
       </c>
-      <c r="N130" s="12">
+      <c r="N130" s="10">
         <f t="shared" si="1"/>
         <v>7.851935222999999</v>
       </c>
@@ -12669,7 +12655,7 @@
       <c r="L131">
         <v>31</v>
       </c>
-      <c r="N131" s="12">
+      <c r="N131" s="10">
         <f t="shared" si="1"/>
         <v>7.851935222999999</v>
       </c>
@@ -12754,7 +12740,7 @@
       <c r="L132">
         <v>25</v>
       </c>
-      <c r="N132" s="12">
+      <c r="N132" s="10">
         <f t="shared" si="1"/>
         <v>6.3322058249999991</v>
       </c>
@@ -12839,7 +12825,7 @@
       <c r="L133">
         <v>25</v>
       </c>
-      <c r="N133" s="12">
+      <c r="N133" s="10">
         <f t="shared" si="1"/>
         <v>6.3322058249999991</v>
       </c>
@@ -12924,7 +12910,7 @@
       <c r="L134">
         <v>25</v>
       </c>
-      <c r="N134" s="12">
+      <c r="N134" s="10">
         <f t="shared" si="1"/>
         <v>6.3322058249999991</v>
       </c>
@@ -13009,7 +12995,7 @@
       <c r="L135">
         <v>98.53</v>
       </c>
-      <c r="N135" s="12">
+      <c r="N135" s="10">
         <f t="shared" si="1"/>
         <v>24.956489597489998</v>
       </c>
@@ -13094,7 +13080,7 @@
       <c r="L136">
         <v>98.53</v>
       </c>
-      <c r="N136" s="12">
+      <c r="N136" s="10">
         <f t="shared" si="1"/>
         <v>24.956489597489998</v>
       </c>
@@ -13179,7 +13165,7 @@
       <c r="L137">
         <v>98.53</v>
       </c>
-      <c r="N137" s="12">
+      <c r="N137" s="10">
         <f t="shared" ref="N137:N200" si="3">0.253288233*L137</f>
         <v>24.956489597489998</v>
       </c>
@@ -13264,7 +13250,7 @@
       <c r="L138">
         <v>98.53</v>
       </c>
-      <c r="N138" s="12">
+      <c r="N138" s="10">
         <f t="shared" si="3"/>
         <v>24.956489597489998</v>
       </c>
@@ -13349,7 +13335,7 @@
       <c r="L139">
         <v>98.53</v>
       </c>
-      <c r="N139" s="12">
+      <c r="N139" s="10">
         <f t="shared" si="3"/>
         <v>24.956489597489998</v>
       </c>
@@ -13434,7 +13420,7 @@
       <c r="L140">
         <v>99.68</v>
       </c>
-      <c r="N140" s="12">
+      <c r="N140" s="10">
         <f t="shared" si="3"/>
         <v>25.247771065439998</v>
       </c>
@@ -13519,7 +13505,7 @@
       <c r="L141">
         <v>99.68</v>
       </c>
-      <c r="N141" s="12">
+      <c r="N141" s="10">
         <f t="shared" si="3"/>
         <v>25.247771065439998</v>
       </c>
@@ -13604,7 +13590,7 @@
       <c r="L142">
         <v>99.68</v>
       </c>
-      <c r="N142" s="12">
+      <c r="N142" s="10">
         <f t="shared" si="3"/>
         <v>25.247771065439998</v>
       </c>
@@ -13689,7 +13675,7 @@
       <c r="L143">
         <v>99.68</v>
       </c>
-      <c r="N143" s="12">
+      <c r="N143" s="10">
         <f t="shared" si="3"/>
         <v>25.247771065439998</v>
       </c>
@@ -13774,7 +13760,7 @@
       <c r="L144">
         <v>99.68</v>
       </c>
-      <c r="N144" s="12">
+      <c r="N144" s="10">
         <f t="shared" si="3"/>
         <v>25.247771065439998</v>
       </c>
@@ -13859,7 +13845,7 @@
       <c r="L145">
         <v>99.31</v>
       </c>
-      <c r="N145" s="12">
+      <c r="N145" s="10">
         <f t="shared" si="3"/>
         <v>25.154054419229997</v>
       </c>
@@ -13944,7 +13930,7 @@
       <c r="L146">
         <v>99.31</v>
       </c>
-      <c r="N146" s="12">
+      <c r="N146" s="10">
         <f t="shared" si="3"/>
         <v>25.154054419229997</v>
       </c>
@@ -14029,7 +14015,7 @@
       <c r="L147">
         <v>99.31</v>
       </c>
-      <c r="N147" s="12">
+      <c r="N147" s="10">
         <f t="shared" si="3"/>
         <v>25.154054419229997</v>
       </c>
@@ -14114,7 +14100,7 @@
       <c r="L148">
         <v>99.31</v>
       </c>
-      <c r="N148" s="12">
+      <c r="N148" s="10">
         <f t="shared" si="3"/>
         <v>25.154054419229997</v>
       </c>
@@ -14199,7 +14185,7 @@
       <c r="L149">
         <v>99.31</v>
       </c>
-      <c r="N149" s="12">
+      <c r="N149" s="10">
         <f t="shared" si="3"/>
         <v>25.154054419229997</v>
       </c>
@@ -14284,7 +14270,7 @@
       <c r="L150">
         <v>99.79</v>
       </c>
-      <c r="N150" s="12">
+      <c r="N150" s="10">
         <f t="shared" si="3"/>
         <v>25.275632771070001</v>
       </c>
@@ -14369,7 +14355,7 @@
       <c r="L151">
         <v>99.79</v>
       </c>
-      <c r="N151" s="12">
+      <c r="N151" s="10">
         <f t="shared" si="3"/>
         <v>25.275632771070001</v>
       </c>
@@ -14454,7 +14440,7 @@
       <c r="L152">
         <v>99.79</v>
       </c>
-      <c r="N152" s="12">
+      <c r="N152" s="10">
         <f t="shared" si="3"/>
         <v>25.275632771070001</v>
       </c>
@@ -14539,7 +14525,7 @@
       <c r="L153">
         <v>99.79</v>
       </c>
-      <c r="N153" s="12">
+      <c r="N153" s="10">
         <f t="shared" si="3"/>
         <v>25.275632771070001</v>
       </c>
@@ -14624,7 +14610,7 @@
       <c r="L154">
         <v>99.79</v>
       </c>
-      <c r="N154" s="12">
+      <c r="N154" s="10">
         <f t="shared" si="3"/>
         <v>25.275632771070001</v>
       </c>
@@ -14709,7 +14695,7 @@
       <c r="L155">
         <v>41</v>
       </c>
-      <c r="N155" s="12">
+      <c r="N155" s="10">
         <f t="shared" si="3"/>
         <v>10.384817553</v>
       </c>
@@ -14794,7 +14780,7 @@
       <c r="L156">
         <v>41</v>
       </c>
-      <c r="N156" s="12">
+      <c r="N156" s="10">
         <f t="shared" si="3"/>
         <v>10.384817553</v>
       </c>
@@ -14879,7 +14865,7 @@
       <c r="L157">
         <v>41</v>
       </c>
-      <c r="N157" s="12">
+      <c r="N157" s="10">
         <f t="shared" si="3"/>
         <v>10.384817553</v>
       </c>
@@ -14964,7 +14950,7 @@
       <c r="L158">
         <v>47</v>
       </c>
-      <c r="N158" s="12">
+      <c r="N158" s="10">
         <f t="shared" si="3"/>
         <v>11.904546950999999</v>
       </c>
@@ -15049,7 +15035,7 @@
       <c r="L159">
         <v>47</v>
       </c>
-      <c r="N159" s="12">
+      <c r="N159" s="10">
         <f t="shared" si="3"/>
         <v>11.904546950999999</v>
       </c>
@@ -15134,7 +15120,7 @@
       <c r="L160">
         <v>47</v>
       </c>
-      <c r="N160" s="12">
+      <c r="N160" s="10">
         <f t="shared" si="3"/>
         <v>11.904546950999999</v>
       </c>
@@ -15219,7 +15205,7 @@
       <c r="L161">
         <v>59</v>
       </c>
-      <c r="N161" s="12">
+      <c r="N161" s="10">
         <f t="shared" si="3"/>
         <v>14.944005746999999</v>
       </c>
@@ -15304,7 +15290,7 @@
       <c r="L162">
         <v>59</v>
       </c>
-      <c r="N162" s="12">
+      <c r="N162" s="10">
         <f t="shared" si="3"/>
         <v>14.944005746999999</v>
       </c>
@@ -15389,7 +15375,7 @@
       <c r="L163">
         <v>59</v>
       </c>
-      <c r="N163" s="12">
+      <c r="N163" s="10">
         <f t="shared" si="3"/>
         <v>14.944005746999999</v>
       </c>
@@ -15474,7 +15460,7 @@
       <c r="L164">
         <v>50</v>
       </c>
-      <c r="N164" s="12">
+      <c r="N164" s="10">
         <f t="shared" si="3"/>
         <v>12.664411649999998</v>
       </c>
@@ -15559,7 +15545,7 @@
       <c r="L165">
         <v>50</v>
       </c>
-      <c r="N165" s="12">
+      <c r="N165" s="10">
         <f t="shared" si="3"/>
         <v>12.664411649999998</v>
       </c>
@@ -15644,7 +15630,7 @@
       <c r="L166">
         <v>50</v>
       </c>
-      <c r="N166" s="12">
+      <c r="N166" s="10">
         <f t="shared" si="3"/>
         <v>12.664411649999998</v>
       </c>
@@ -15729,7 +15715,7 @@
       <c r="L167">
         <v>38</v>
       </c>
-      <c r="N167" s="12">
+      <c r="N167" s="10">
         <f t="shared" si="3"/>
         <v>9.6249528539999982</v>
       </c>
@@ -15814,7 +15800,7 @@
       <c r="L168">
         <v>38</v>
       </c>
-      <c r="N168" s="12">
+      <c r="N168" s="10">
         <f t="shared" si="3"/>
         <v>9.6249528539999982</v>
       </c>
@@ -15899,7 +15885,7 @@
       <c r="L169">
         <v>38</v>
       </c>
-      <c r="N169" s="12">
+      <c r="N169" s="10">
         <f t="shared" si="3"/>
         <v>9.6249528539999982</v>
       </c>
@@ -15984,7 +15970,7 @@
       <c r="L170">
         <v>50</v>
       </c>
-      <c r="N170" s="12">
+      <c r="N170" s="10">
         <f t="shared" si="3"/>
         <v>12.664411649999998</v>
       </c>
@@ -16069,7 +16055,7 @@
       <c r="L171">
         <v>50</v>
       </c>
-      <c r="N171" s="12">
+      <c r="N171" s="10">
         <f t="shared" si="3"/>
         <v>12.664411649999998</v>
       </c>
@@ -16154,7 +16140,7 @@
       <c r="L172">
         <v>50</v>
       </c>
-      <c r="N172" s="12">
+      <c r="N172" s="10">
         <f t="shared" si="3"/>
         <v>12.664411649999998</v>
       </c>
@@ -16239,7 +16225,7 @@
       <c r="L173">
         <v>50</v>
       </c>
-      <c r="N173" s="12">
+      <c r="N173" s="10">
         <f t="shared" si="3"/>
         <v>12.664411649999998</v>
       </c>
@@ -16324,7 +16310,7 @@
       <c r="L174">
         <v>50</v>
       </c>
-      <c r="N174" s="12">
+      <c r="N174" s="10">
         <f t="shared" si="3"/>
         <v>12.664411649999998</v>
       </c>
@@ -16409,7 +16395,7 @@
       <c r="L175">
         <v>50</v>
       </c>
-      <c r="N175" s="12">
+      <c r="N175" s="10">
         <f t="shared" si="3"/>
         <v>12.664411649999998</v>
       </c>
@@ -16494,7 +16480,7 @@
       <c r="L176">
         <v>38</v>
       </c>
-      <c r="N176" s="12">
+      <c r="N176" s="10">
         <f t="shared" si="3"/>
         <v>9.6249528539999982</v>
       </c>
@@ -16579,7 +16565,7 @@
       <c r="L177">
         <v>38</v>
       </c>
-      <c r="N177" s="12">
+      <c r="N177" s="10">
         <f t="shared" si="3"/>
         <v>9.6249528539999982</v>
       </c>
@@ -16664,7 +16650,7 @@
       <c r="L178">
         <v>38</v>
       </c>
-      <c r="N178" s="12">
+      <c r="N178" s="10">
         <f t="shared" si="3"/>
         <v>9.6249528539999982</v>
       </c>
@@ -16749,7 +16735,7 @@
       <c r="L179">
         <v>0</v>
       </c>
-      <c r="N179" s="12">
+      <c r="N179" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -16831,7 +16817,7 @@
       <c r="L180">
         <v>0</v>
       </c>
-      <c r="N180" s="12">
+      <c r="N180" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -16913,7 +16899,7 @@
       <c r="L181">
         <v>0</v>
       </c>
-      <c r="N181" s="12">
+      <c r="N181" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -16998,7 +16984,7 @@
         <f t="shared" ref="L182:L196" si="5">45.3+6.9+45.3+1.1+1.4</f>
         <v>100</v>
       </c>
-      <c r="N182" s="12">
+      <c r="N182" s="10">
         <f t="shared" si="3"/>
         <v>25.328823299999996</v>
       </c>
@@ -17080,7 +17066,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N183" s="12">
+      <c r="N183" s="10">
         <f t="shared" si="3"/>
         <v>25.328823299999996</v>
       </c>
@@ -17162,7 +17148,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N184" s="12">
+      <c r="N184" s="10">
         <f t="shared" si="3"/>
         <v>25.328823299999996</v>
       </c>
@@ -17244,7 +17230,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N185" s="12">
+      <c r="N185" s="10">
         <f t="shared" si="3"/>
         <v>25.328823299999996</v>
       </c>
@@ -17325,7 +17311,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N186" s="12">
+      <c r="N186" s="10">
         <f t="shared" si="3"/>
         <v>25.328823299999996</v>
       </c>
@@ -17407,7 +17393,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N187" s="12">
+      <c r="N187" s="10">
         <f t="shared" si="3"/>
         <v>25.328823299999996</v>
       </c>
@@ -17489,7 +17475,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N188" s="12">
+      <c r="N188" s="10">
         <f t="shared" si="3"/>
         <v>25.328823299999996</v>
       </c>
@@ -17571,7 +17557,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N189" s="12">
+      <c r="N189" s="10">
         <f t="shared" si="3"/>
         <v>25.328823299999996</v>
       </c>
@@ -17652,7 +17638,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N190" s="12">
+      <c r="N190" s="10">
         <f t="shared" si="3"/>
         <v>25.328823299999996</v>
       </c>
@@ -17734,7 +17720,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N191" s="12">
+      <c r="N191" s="10">
         <f t="shared" si="3"/>
         <v>25.328823299999996</v>
       </c>
@@ -17816,7 +17802,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N192" s="12">
+      <c r="N192" s="10">
         <f t="shared" si="3"/>
         <v>25.328823299999996</v>
       </c>
@@ -17898,7 +17884,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N193" s="12">
+      <c r="N193" s="10">
         <f t="shared" si="3"/>
         <v>25.328823299999996</v>
       </c>
@@ -17979,7 +17965,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N194" s="12">
+      <c r="N194" s="10">
         <f t="shared" si="3"/>
         <v>25.328823299999996</v>
       </c>
@@ -18061,7 +18047,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N195" s="12">
+      <c r="N195" s="10">
         <f t="shared" si="3"/>
         <v>25.328823299999996</v>
       </c>
@@ -18143,7 +18129,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="N196" s="12">
+      <c r="N196" s="10">
         <f t="shared" si="3"/>
         <v>25.328823299999996</v>
       </c>
@@ -18222,7 +18208,7 @@
       <c r="L197">
         <v>10.9</v>
       </c>
-      <c r="N197" s="12">
+      <c r="N197" s="10">
         <f t="shared" si="3"/>
         <v>2.7608417397</v>
       </c>
@@ -18301,7 +18287,7 @@
       <c r="L198">
         <v>10.9</v>
       </c>
-      <c r="N198" s="12">
+      <c r="N198" s="10">
         <f t="shared" si="3"/>
         <v>2.7608417397</v>
       </c>
@@ -18380,7 +18366,7 @@
       <c r="L199">
         <v>26.7</v>
       </c>
-      <c r="N199" s="12">
+      <c r="N199" s="10">
         <f t="shared" si="3"/>
         <v>6.7627958210999992</v>
       </c>
@@ -18459,7 +18445,7 @@
       <c r="L200">
         <v>26.7</v>
       </c>
-      <c r="N200" s="12">
+      <c r="N200" s="10">
         <f t="shared" si="3"/>
         <v>6.7627958210999992</v>
       </c>
@@ -18538,7 +18524,7 @@
       <c r="L201">
         <v>19.5</v>
       </c>
-      <c r="N201" s="12">
+      <c r="N201" s="10">
         <f t="shared" ref="N201:N204" si="6">0.253288233*L201</f>
         <v>4.9391205434999996</v>
       </c>
@@ -18617,7 +18603,7 @@
       <c r="L202">
         <v>14.7</v>
       </c>
-      <c r="N202" s="12">
+      <c r="N202" s="10">
         <f t="shared" si="6"/>
         <v>3.7233370250999993</v>
       </c>
@@ -18696,7 +18682,7 @@
       <c r="L203">
         <v>28.4</v>
       </c>
-      <c r="N203" s="12">
+      <c r="N203" s="10">
         <f t="shared" si="6"/>
         <v>7.1933858171999985</v>
       </c>
@@ -18775,7 +18761,7 @@
       <c r="L204">
         <v>28.4</v>
       </c>
-      <c r="N204" s="12">
+      <c r="N204" s="10">
         <f t="shared" si="6"/>
         <v>7.1933858171999985</v>
       </c>
@@ -18854,7 +18840,7 @@
       <c r="L205">
         <v>28.4</v>
       </c>
-      <c r="N205" s="12">
+      <c r="N205" s="10">
         <f>0.253288233*L205</f>
         <v>7.1933858171999985</v>
       </c>
@@ -18901,53 +18887,53 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="206" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="8">
+    <row r="206" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="7">
         <v>55</v>
       </c>
-      <c r="B206" s="8">
+      <c r="B206" s="7">
         <v>1</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C206" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D206" s="8">
+      <c r="D206" s="7">
         <v>2019</v>
       </c>
-      <c r="E206" s="12">
+      <c r="E206" s="10">
         <v>45.722110899999997</v>
       </c>
-      <c r="F206" s="8">
+      <c r="F206" s="7">
         <v>42</v>
       </c>
-      <c r="G206" s="8" t="s">
+      <c r="G206" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H206" s="8">
+      <c r="H206" s="7">
         <v>78</v>
       </c>
-      <c r="I206" s="13">
+      <c r="I206" s="11">
         <v>18.794148025382796</v>
       </c>
-      <c r="J206" s="11">
+      <c r="J206" s="9">
         <v>18.794148025382796</v>
       </c>
-      <c r="K206" s="8">
+      <c r="K206" s="7">
         <v>42</v>
       </c>
-      <c r="L206" s="8">
+      <c r="L206" s="7">
         <v>65</v>
       </c>
-      <c r="M206" s="16">
+      <c r="M206" s="14">
         <v>30.459481282516943</v>
       </c>
-      <c r="N206" s="12">
+      <c r="N206" s="10">
         <v>30.459481282516943</v>
       </c>
-      <c r="O206" s="8">
+      <c r="O206" s="7">
         <v>10</v>
       </c>
-      <c r="P206" s="8">
+      <c r="P206" s="7">
         <f t="shared" ref="P206:P213" si="8">O206+1</f>
         <v>11</v>
       </c>
@@ -18969,72 +18955,72 @@
       <c r="W206" t="s">
         <v>33</v>
       </c>
-      <c r="Y206" s="8" t="s">
+      <c r="Y206" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="Z206" s="8" t="s">
+      <c r="Z206" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AA206" s="17">
+      <c r="AA206" s="15">
         <v>41.9</v>
       </c>
-      <c r="AB206" s="17">
+      <c r="AB206" s="15">
         <v>-1.6</v>
       </c>
-      <c r="AC206" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD206" s="8">
+      <c r="AC206" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD206" s="7">
         <v>0.27639999999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="8">
+    <row r="207" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="7">
         <v>56</v>
       </c>
-      <c r="B207" s="8">
+      <c r="B207" s="7">
         <v>1</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D207" s="8">
+      <c r="D207" s="7">
         <v>2019</v>
       </c>
-      <c r="E207" s="8">
+      <c r="E207" s="7">
         <v>60</v>
       </c>
-      <c r="F207" s="8">
+      <c r="F207" s="7">
         <v>6</v>
       </c>
-      <c r="G207" s="8" t="s">
+      <c r="G207" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H207" s="8">
+      <c r="H207" s="7">
         <v>47.8</v>
       </c>
-      <c r="I207" s="8">
+      <c r="I207" s="7">
         <v>12.8</v>
       </c>
-      <c r="J207" s="8">
+      <c r="J207" s="7">
         <v>12.8</v>
       </c>
-      <c r="K207" s="8">
+      <c r="K207" s="7">
         <v>6</v>
       </c>
-      <c r="L207" s="8">
+      <c r="L207" s="7">
         <v>2.64</v>
       </c>
-      <c r="M207" s="8">
+      <c r="M207" s="7">
         <v>2.31</v>
       </c>
-      <c r="N207" s="8">
+      <c r="N207" s="7">
         <v>2.31</v>
       </c>
-      <c r="O207" s="8">
+      <c r="O207" s="7">
         <v>1</v>
       </c>
-      <c r="P207" s="8">
+      <c r="P207" s="7">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -19056,72 +19042,72 @@
       <c r="W207" t="s">
         <v>33</v>
       </c>
-      <c r="Y207" s="9" t="s">
+      <c r="Y207" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="Z207" s="8" t="s">
+      <c r="Z207" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AA207" s="8">
+      <c r="AA207" s="7">
         <v>-40.994753000000003</v>
       </c>
-      <c r="AB207" s="8">
+      <c r="AB207" s="7">
         <v>-71.496300000000005</v>
       </c>
-      <c r="AC207" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD207" s="8">
+      <c r="AC207" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD207" s="7">
         <v>0.97350000000000003</v>
       </c>
     </row>
-    <row r="208" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="8">
+    <row r="208" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="7">
         <v>58</v>
       </c>
-      <c r="B208" s="8">
+      <c r="B208" s="7">
         <v>1</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D208" s="8">
+      <c r="D208" s="7">
         <v>2018</v>
       </c>
-      <c r="E208" s="8">
+      <c r="E208" s="7">
         <v>150</v>
       </c>
-      <c r="F208" s="8">
+      <c r="F208" s="7">
         <v>15</v>
       </c>
-      <c r="G208" s="8" t="s">
+      <c r="G208" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H208" s="8">
+      <c r="H208" s="7">
         <v>86.7</v>
       </c>
-      <c r="I208" s="8">
+      <c r="I208" s="7">
         <v>9</v>
       </c>
-      <c r="J208" s="8">
+      <c r="J208" s="7">
         <v>9</v>
       </c>
-      <c r="K208" s="8">
+      <c r="K208" s="7">
         <v>15</v>
       </c>
-      <c r="L208" s="8">
+      <c r="L208" s="7">
         <v>5.7</v>
       </c>
-      <c r="M208" s="8">
+      <c r="M208" s="7">
         <v>1.8</v>
       </c>
-      <c r="N208" s="8">
+      <c r="N208" s="7">
         <v>1.8</v>
       </c>
-      <c r="O208" s="8">
+      <c r="O208" s="7">
         <v>20</v>
       </c>
-      <c r="P208" s="8">
+      <c r="P208" s="7">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
@@ -19143,69 +19129,69 @@
       <c r="W208" t="s">
         <v>33</v>
       </c>
-      <c r="Z208" s="8" t="s">
+      <c r="Z208" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AA208" s="8">
+      <c r="AA208" s="7">
         <v>18.968959999999999</v>
       </c>
-      <c r="AB208" s="8" t="s">
+      <c r="AB208" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="AC208" s="8" t="s">
+      <c r="AC208" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AD208" s="8">
+      <c r="AD208" s="7">
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="8">
+    <row r="209" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="7">
         <v>58</v>
       </c>
-      <c r="B209" s="8">
+      <c r="B209" s="7">
         <v>2</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D209" s="8">
+      <c r="D209" s="7">
         <v>2018</v>
       </c>
-      <c r="E209" s="8">
+      <c r="E209" s="7">
         <v>300</v>
       </c>
-      <c r="F209" s="8">
+      <c r="F209" s="7">
         <v>15</v>
       </c>
-      <c r="G209" s="8" t="s">
+      <c r="G209" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H209" s="8">
+      <c r="H209" s="7">
         <v>96</v>
       </c>
-      <c r="I209" s="8">
+      <c r="I209" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J209" s="8">
+      <c r="J209" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K209" s="8">
+      <c r="K209" s="7">
         <v>15</v>
       </c>
-      <c r="L209" s="8">
+      <c r="L209" s="7">
         <v>5.7</v>
       </c>
-      <c r="M209" s="8">
+      <c r="M209" s="7">
         <v>1.8</v>
       </c>
-      <c r="N209" s="8">
+      <c r="N209" s="7">
         <v>1.8</v>
       </c>
-      <c r="O209" s="8">
+      <c r="O209" s="7">
         <v>20</v>
       </c>
-      <c r="P209" s="8">
+      <c r="P209" s="7">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
@@ -19227,69 +19213,69 @@
       <c r="W209" t="s">
         <v>33</v>
       </c>
-      <c r="Z209" s="8" t="s">
+      <c r="Z209" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AA209" s="8">
+      <c r="AA209" s="7">
         <v>18.968959999999999</v>
       </c>
-      <c r="AB209" s="8" t="s">
+      <c r="AB209" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="AC209" s="8" t="s">
+      <c r="AC209" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AD209" s="8">
+      <c r="AD209" s="7">
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="8">
+    <row r="210" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="7">
         <v>58</v>
       </c>
-      <c r="B210" s="8">
+      <c r="B210" s="7">
         <v>3</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D210" s="8">
+      <c r="D210" s="7">
         <v>2018</v>
       </c>
-      <c r="E210" s="8">
+      <c r="E210" s="7">
         <v>150</v>
       </c>
-      <c r="F210" s="8">
+      <c r="F210" s="7">
         <v>15</v>
       </c>
-      <c r="G210" s="8" t="s">
+      <c r="G210" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H210" s="8">
+      <c r="H210" s="7">
         <v>94.7</v>
       </c>
-      <c r="I210" s="8">
+      <c r="I210" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J210" s="8">
+      <c r="J210" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K210" s="8">
+      <c r="K210" s="7">
         <v>15</v>
       </c>
-      <c r="L210" s="8">
+      <c r="L210" s="7">
         <v>5.7</v>
       </c>
-      <c r="M210" s="8">
+      <c r="M210" s="7">
         <v>1.8</v>
       </c>
-      <c r="N210" s="8">
+      <c r="N210" s="7">
         <v>1.8</v>
       </c>
-      <c r="O210" s="8">
+      <c r="O210" s="7">
         <v>20</v>
       </c>
-      <c r="P210" s="8">
+      <c r="P210" s="7">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
@@ -19311,69 +19297,69 @@
       <c r="W210" t="s">
         <v>33</v>
       </c>
-      <c r="Z210" s="8" t="s">
+      <c r="Z210" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AA210" s="8">
+      <c r="AA210" s="7">
         <v>18.968959999999999</v>
       </c>
-      <c r="AB210" s="8" t="s">
+      <c r="AB210" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="AC210" s="8" t="s">
+      <c r="AC210" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AD210" s="8">
+      <c r="AD210" s="7">
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="8">
+    <row r="211" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="7">
         <v>58</v>
       </c>
-      <c r="B211" s="8">
+      <c r="B211" s="7">
         <v>4</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D211" s="8">
+      <c r="D211" s="7">
         <v>2018</v>
       </c>
-      <c r="E211" s="8">
+      <c r="E211" s="7">
         <v>300</v>
       </c>
-      <c r="F211" s="8">
+      <c r="F211" s="7">
         <v>15</v>
       </c>
-      <c r="G211" s="8" t="s">
+      <c r="G211" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H211" s="8">
+      <c r="H211" s="7">
         <v>95</v>
       </c>
-      <c r="I211" s="8">
+      <c r="I211" s="7">
         <v>8.5</v>
       </c>
-      <c r="J211" s="8">
+      <c r="J211" s="7">
         <v>8.5</v>
       </c>
-      <c r="K211" s="8">
+      <c r="K211" s="7">
         <v>15</v>
       </c>
-      <c r="L211" s="8">
+      <c r="L211" s="7">
         <v>5.7</v>
       </c>
-      <c r="M211" s="8">
+      <c r="M211" s="7">
         <v>1.8</v>
       </c>
-      <c r="N211" s="8">
+      <c r="N211" s="7">
         <v>1.8</v>
       </c>
-      <c r="O211" s="8">
+      <c r="O211" s="7">
         <v>20</v>
       </c>
-      <c r="P211" s="8">
+      <c r="P211" s="7">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
@@ -19395,69 +19381,69 @@
       <c r="W211" t="s">
         <v>33</v>
       </c>
-      <c r="Z211" s="8" t="s">
+      <c r="Z211" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AA211" s="8">
+      <c r="AA211" s="7">
         <v>18.968959999999999</v>
       </c>
-      <c r="AB211" s="8" t="s">
+      <c r="AB211" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="AC211" s="8" t="s">
+      <c r="AC211" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AD211" s="8">
+      <c r="AD211" s="7">
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="8">
+    <row r="212" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="7">
         <v>58</v>
       </c>
-      <c r="B212" s="8">
+      <c r="B212" s="7">
         <v>5</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D212" s="8">
+      <c r="D212" s="7">
         <v>2018</v>
       </c>
-      <c r="E212" s="8">
+      <c r="E212" s="7">
         <v>150</v>
       </c>
-      <c r="F212" s="8">
+      <c r="F212" s="7">
         <v>15</v>
       </c>
-      <c r="G212" s="8" t="s">
+      <c r="G212" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H212" s="8">
+      <c r="H212" s="7">
         <v>97.9</v>
       </c>
-      <c r="I212" s="8">
+      <c r="I212" s="7">
         <v>4.3</v>
       </c>
-      <c r="J212" s="8">
+      <c r="J212" s="7">
         <v>4.3</v>
       </c>
-      <c r="K212" s="8">
+      <c r="K212" s="7">
         <v>15</v>
       </c>
-      <c r="L212" s="8">
+      <c r="L212" s="7">
         <v>5.7</v>
       </c>
-      <c r="M212" s="8">
+      <c r="M212" s="7">
         <v>1.8</v>
       </c>
-      <c r="N212" s="8">
+      <c r="N212" s="7">
         <v>1.8</v>
       </c>
-      <c r="O212" s="8">
+      <c r="O212" s="7">
         <v>20</v>
       </c>
-      <c r="P212" s="8">
+      <c r="P212" s="7">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
@@ -19479,69 +19465,69 @@
       <c r="W212" t="s">
         <v>33</v>
       </c>
-      <c r="Z212" s="8" t="s">
+      <c r="Z212" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AA212" s="8">
+      <c r="AA212" s="7">
         <v>18.968959999999999</v>
       </c>
-      <c r="AB212" s="8" t="s">
+      <c r="AB212" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="AC212" s="8" t="s">
+      <c r="AC212" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AD212" s="8">
+      <c r="AD212" s="7">
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="8">
+    <row r="213" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="7">
         <v>58</v>
       </c>
-      <c r="B213" s="8">
+      <c r="B213" s="7">
         <v>6</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D213" s="8">
+      <c r="D213" s="7">
         <v>2018</v>
       </c>
-      <c r="E213" s="8">
+      <c r="E213" s="7">
         <v>300</v>
       </c>
-      <c r="F213" s="8">
+      <c r="F213" s="7">
         <v>15</v>
       </c>
-      <c r="G213" s="8" t="s">
+      <c r="G213" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H213" s="8">
+      <c r="H213" s="7">
         <v>98.6</v>
       </c>
-      <c r="I213" s="8">
+      <c r="I213" s="7">
         <v>3.6</v>
       </c>
-      <c r="J213" s="8">
+      <c r="J213" s="7">
         <v>3.6</v>
       </c>
-      <c r="K213" s="8">
+      <c r="K213" s="7">
         <v>15</v>
       </c>
-      <c r="L213" s="8">
+      <c r="L213" s="7">
         <v>5.7</v>
       </c>
-      <c r="M213" s="8">
+      <c r="M213" s="7">
         <v>1.8</v>
       </c>
-      <c r="N213" s="8">
+      <c r="N213" s="7">
         <v>1.8</v>
       </c>
-      <c r="O213" s="8">
+      <c r="O213" s="7">
         <v>20</v>
       </c>
-      <c r="P213" s="8">
+      <c r="P213" s="7">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
@@ -19563,83 +19549,76 @@
       <c r="W213" t="s">
         <v>33</v>
       </c>
-      <c r="Z213" s="8" t="s">
+      <c r="Z213" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AA213" s="8">
+      <c r="AA213" s="7">
         <v>18.968959999999999</v>
       </c>
-      <c r="AB213" s="8" t="s">
+      <c r="AB213" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="AC213" s="8" t="s">
+      <c r="AC213" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AD213" s="8">
+      <c r="AD213" s="7">
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B214" s="1">
         <v>1</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D214" s="1">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="E214" s="1">
-        <v>0.02</v>
+        <v>250</v>
       </c>
       <c r="F214" s="1">
-        <v>10</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H214" s="1">
-        <v>23.5</v>
-      </c>
-      <c r="I214" s="1">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="J214" s="1">
-        <v>19.899999999999999</v>
+        <v>92.6</v>
+      </c>
+      <c r="J214" s="2">
+        <f t="shared" ref="J214:J215" si="9">0.053730321*H214</f>
+        <v>4.9754277245999994</v>
       </c>
       <c r="K214" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L214" s="1">
-        <v>65.3</v>
-      </c>
-      <c r="M214" s="1">
-        <v>28.8</v>
-      </c>
-      <c r="N214" s="1">
-        <v>28.8</v>
+        <v>20</v>
+      </c>
+      <c r="N214" s="10">
+        <f>0.253288233*L214</f>
+        <v>5.0657646599999993</v>
       </c>
       <c r="O214" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P214" s="8">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="P214" s="7">
+        <f>O214+1</f>
+        <v>17</v>
       </c>
       <c r="Q214">
-        <v>6.3</v>
+        <v>21.4</v>
       </c>
       <c r="R214">
-        <v>77.5</v>
-      </c>
-      <c r="S214" t="s">
-        <v>31</v>
-      </c>
-      <c r="T214" s="1"/>
+        <v>152.19999999999999</v>
+      </c>
+      <c r="S214" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="U214" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V214" s="1" t="s">
         <v>33</v>
@@ -19647,95 +19626,80 @@
       <c r="W214" t="s">
         <v>33</v>
       </c>
-      <c r="X214" s="1"/>
-      <c r="Y214" s="10" t="s">
-        <v>190</v>
-      </c>
       <c r="Z214" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA214" s="1">
-        <v>-41.23</v>
-      </c>
-      <c r="AB214" s="1">
-        <v>-71.283332999999999</v>
+        <v>188</v>
+      </c>
+      <c r="AA214" s="7">
+        <v>-15.750138</v>
+      </c>
+      <c r="AB214" s="7">
+        <v>-47.806060000000002</v>
       </c>
       <c r="AC214" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD214" s="8">
-        <v>0.70909999999999995</v>
+        <v>36</v>
+      </c>
+      <c r="AD214" s="7">
+        <v>0.96960000000000002</v>
       </c>
       <c r="AF214" s="1"/>
       <c r="AG214" s="1"/>
       <c r="AH214" s="1"/>
-      <c r="AI214" s="1"/>
-      <c r="AJ214" s="1"/>
-      <c r="AK214" s="1"/>
       <c r="AL214" s="1"/>
-      <c r="AM214" s="1"/>
-    </row>
-    <row r="215" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B215" s="1">
         <v>2</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D215" s="1">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="E215" s="1">
-        <v>0.02</v>
+        <v>250</v>
       </c>
       <c r="F215" s="1">
+        <v>1</v>
+      </c>
+      <c r="H215" s="1">
+        <v>89.9</v>
+      </c>
+      <c r="J215" s="2">
+        <f t="shared" si="9"/>
+        <v>4.8303558578999999</v>
+      </c>
+      <c r="K215" s="1">
+        <v>1</v>
+      </c>
+      <c r="L215" s="1">
         <v>10</v>
       </c>
-      <c r="G215" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H215" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="I215" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="J215" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="K215" s="1">
+      <c r="N215" s="10">
+        <f>0.253288233*L215</f>
+        <v>2.5328823299999996</v>
+      </c>
+      <c r="O215" s="1">
         <v>10</v>
       </c>
-      <c r="L215" s="1">
-        <v>47.2</v>
-      </c>
-      <c r="M215" s="1">
-        <v>31</v>
-      </c>
-      <c r="N215" s="1">
-        <v>31</v>
-      </c>
-      <c r="O215" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P215" s="8">
-        <v>1</v>
+      <c r="P215" s="7">
+        <f>O215+1</f>
+        <v>11</v>
       </c>
       <c r="Q215">
-        <v>6.3</v>
+        <v>21.4</v>
       </c>
       <c r="R215">
-        <v>77.5</v>
-      </c>
-      <c r="S215" t="s">
-        <v>31</v>
-      </c>
-      <c r="T215" s="1"/>
+        <v>152.19999999999999</v>
+      </c>
+      <c r="S215" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="U215" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V215" s="1" t="s">
         <v>33</v>
@@ -19743,403 +19707,41 @@
       <c r="W215" t="s">
         <v>33</v>
       </c>
-      <c r="X215" s="1"/>
-      <c r="Y215" s="10" t="s">
-        <v>190</v>
-      </c>
       <c r="Z215" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA215" s="1">
-        <v>-41.23</v>
-      </c>
-      <c r="AB215" s="1">
-        <v>-71.283332999999999</v>
+        <v>188</v>
+      </c>
+      <c r="AA215" s="7">
+        <v>-15.750138</v>
+      </c>
+      <c r="AB215" s="7">
+        <v>-47.806060000000002</v>
       </c>
       <c r="AC215" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD215" s="8">
-        <v>0.70909999999999995</v>
+        <v>36</v>
+      </c>
+      <c r="AD215" s="7">
+        <v>0.96960000000000002</v>
       </c>
       <c r="AF215" s="1"/>
       <c r="AG215" s="1"/>
       <c r="AH215" s="1"/>
-      <c r="AI215" s="1"/>
-      <c r="AJ215" s="1"/>
-      <c r="AK215" s="1"/>
       <c r="AL215" s="1"/>
-      <c r="AM215" s="1"/>
-    </row>
-    <row r="216" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
-        <v>54</v>
-      </c>
-      <c r="B216" s="1">
-        <v>3</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D216" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E216" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="F216" s="1">
-        <v>10</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H216" s="1">
-        <v>52.7</v>
-      </c>
-      <c r="I216" s="1">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="J216" s="1">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="K216" s="1">
-        <v>10</v>
-      </c>
-      <c r="L216" s="1">
-        <v>53.4</v>
-      </c>
-      <c r="M216" s="1">
-        <v>19.8</v>
-      </c>
-      <c r="N216" s="1">
-        <v>19.8</v>
-      </c>
-      <c r="O216" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="P216" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q216">
-        <v>6.3</v>
-      </c>
-      <c r="R216">
-        <v>77.5</v>
-      </c>
-      <c r="S216" t="s">
-        <v>31</v>
-      </c>
-      <c r="T216" s="1"/>
-      <c r="U216" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V216" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W216" t="s">
-        <v>33</v>
-      </c>
-      <c r="X216" s="1"/>
-      <c r="Y216" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z216" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA216" s="1">
-        <v>-41.23</v>
-      </c>
-      <c r="AB216" s="1">
-        <v>-71.283332999999999</v>
-      </c>
-      <c r="AC216" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD216" s="8">
-        <v>0.70909999999999995</v>
-      </c>
-      <c r="AF216" s="1"/>
-      <c r="AG216" s="1"/>
-      <c r="AH216" s="1"/>
-      <c r="AI216" s="1"/>
-      <c r="AJ216" s="1"/>
-      <c r="AK216" s="1"/>
-      <c r="AL216" s="1"/>
-      <c r="AM216" s="1"/>
-    </row>
-    <row r="217" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
-        <v>54</v>
-      </c>
-      <c r="B217" s="1">
-        <v>4</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D217" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E217" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="F217" s="1">
-        <v>10</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H217" s="1">
-        <v>46.2</v>
-      </c>
-      <c r="I217" s="1">
-        <v>21</v>
-      </c>
-      <c r="J217" s="1">
-        <v>21</v>
-      </c>
-      <c r="K217" s="1">
-        <v>10</v>
-      </c>
-      <c r="L217" s="1">
-        <v>46.5</v>
-      </c>
-      <c r="M217" s="1">
-        <v>30.9</v>
-      </c>
-      <c r="N217" s="1">
-        <v>30.9</v>
-      </c>
-      <c r="O217" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="P217" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q217">
-        <v>6.3</v>
-      </c>
-      <c r="R217">
-        <v>77.5</v>
-      </c>
-      <c r="S217" t="s">
-        <v>31</v>
-      </c>
-      <c r="T217" s="1"/>
-      <c r="U217" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V217" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W217" t="s">
-        <v>33</v>
-      </c>
-      <c r="X217" s="1"/>
-      <c r="Y217" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z217" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA217" s="1">
-        <v>-41.23</v>
-      </c>
-      <c r="AB217" s="1">
-        <v>-71.283332999999999</v>
-      </c>
-      <c r="AC217" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD217" s="8">
-        <v>0.70909999999999995</v>
-      </c>
-      <c r="AF217" s="1"/>
-      <c r="AG217" s="1"/>
-      <c r="AH217" s="1"/>
-      <c r="AI217" s="1"/>
-      <c r="AJ217" s="1"/>
-      <c r="AK217" s="1"/>
-      <c r="AL217" s="1"/>
-      <c r="AM217" s="1"/>
-    </row>
-    <row r="218" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
-        <v>57</v>
-      </c>
-      <c r="B218" s="1">
-        <v>1</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D218" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E218" s="1">
-        <v>250</v>
-      </c>
-      <c r="F218" s="1">
-        <v>1</v>
-      </c>
-      <c r="H218" s="1">
-        <v>92.6</v>
-      </c>
-      <c r="J218" s="2">
-        <f t="shared" ref="J218:J219" si="9">0.053730321*H218</f>
-        <v>4.9754277245999994</v>
-      </c>
-      <c r="K218" s="1">
-        <v>1</v>
-      </c>
-      <c r="L218" s="1">
-        <v>20</v>
-      </c>
-      <c r="N218" s="12">
-        <f>0.253288233*L218</f>
-        <v>5.0657646599999993</v>
-      </c>
-      <c r="O218" s="1">
-        <v>16</v>
-      </c>
-      <c r="P218" s="8">
-        <f>O218+1</f>
-        <v>17</v>
-      </c>
-      <c r="Q218">
-        <v>21.4</v>
-      </c>
-      <c r="R218">
-        <v>152.19999999999999</v>
-      </c>
-      <c r="S218" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U218" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V218" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W218" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z218" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA218" s="8">
-        <v>-15.750138</v>
-      </c>
-      <c r="AB218" s="8">
-        <v>-47.806060000000002</v>
-      </c>
-      <c r="AC218" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD218" s="8">
-        <v>0.96960000000000002</v>
-      </c>
-      <c r="AF218" s="1"/>
-      <c r="AG218" s="1"/>
-      <c r="AH218" s="1"/>
-      <c r="AL218" s="1"/>
-    </row>
-    <row r="219" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
-        <v>57</v>
-      </c>
-      <c r="B219" s="1">
-        <v>2</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D219" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E219" s="1">
-        <v>250</v>
-      </c>
-      <c r="F219" s="1">
-        <v>1</v>
-      </c>
-      <c r="H219" s="1">
-        <v>89.9</v>
-      </c>
-      <c r="J219" s="2">
-        <f t="shared" si="9"/>
-        <v>4.8303558578999999</v>
-      </c>
-      <c r="K219" s="1">
-        <v>1</v>
-      </c>
-      <c r="L219" s="1">
-        <v>10</v>
-      </c>
-      <c r="N219" s="12">
-        <f>0.253288233*L219</f>
-        <v>2.5328823299999996</v>
-      </c>
-      <c r="O219" s="1">
-        <v>10</v>
-      </c>
-      <c r="P219" s="8">
-        <f>O219+1</f>
-        <v>11</v>
-      </c>
-      <c r="Q219">
-        <v>21.4</v>
-      </c>
-      <c r="R219">
-        <v>152.19999999999999</v>
-      </c>
-      <c r="S219" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U219" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V219" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W219" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z219" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA219" s="8">
-        <v>-15.750138</v>
-      </c>
-      <c r="AB219" s="8">
-        <v>-47.806060000000002</v>
-      </c>
-      <c r="AC219" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD219" s="8">
-        <v>0.96960000000000002</v>
-      </c>
-      <c r="AF219" s="1"/>
-      <c r="AG219" s="1"/>
-      <c r="AH219" s="1"/>
-      <c r="AL219" s="1"/>
-    </row>
-    <row r="220" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="I220" s="15"/>
+    </row>
+    <row r="216" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="I216" s="13"/>
+      <c r="V216" s="1"/>
+    </row>
+    <row r="217" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="V217" s="1"/>
+    </row>
+    <row r="218" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="V218" s="1"/>
+    </row>
+    <row r="219" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="V219" s="1"/>
+    </row>
+    <row r="220" spans="1:38" x14ac:dyDescent="0.2">
       <c r="V220" s="1"/>
-    </row>
-    <row r="221" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="V221" s="1"/>
-    </row>
-    <row r="222" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="V222" s="1"/>
-    </row>
-    <row r="223" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="V223" s="1"/>
-    </row>
-    <row r="224" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="V224" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20150,7 +19752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4B7382-3EC3-C845-A515-1FD3C54C18F4}">
   <dimension ref="A1:AC272"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T272" sqref="T2:T272"/>
     </sheetView>
@@ -43825,8 +43427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD349FBF-19EC-D146-ACA8-683A33E0AFBC}">
   <dimension ref="A1:AE165"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AE2" sqref="AE2:AE165"/>
     </sheetView>
   </sheetViews>
@@ -44023,7 +43625,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>58</v>
       </c>
       <c r="B3">
@@ -44072,20 +43674,20 @@
         <f t="shared" ref="P3:P8" si="0">O3+1</f>
         <v>21</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14" t="s">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="12">
         <v>50.364505000000001</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="12">
         <v>18.968959999999999</v>
       </c>
       <c r="U3" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="12" t="s">
         <v>36</v>
       </c>
       <c r="W3" t="s">
@@ -44111,7 +43713,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>58</v>
       </c>
       <c r="B4">
@@ -44160,20 +43762,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14" t="s">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="12">
         <v>50.364505000000001</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="12">
         <v>18.968959999999999</v>
       </c>
       <c r="U4" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="12" t="s">
         <v>36</v>
       </c>
       <c r="W4" t="s">
@@ -44199,7 +43801,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>58</v>
       </c>
       <c r="B5">
@@ -44248,20 +43850,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14" t="s">
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="12">
         <v>50.364505000000001</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="12">
         <v>18.968959999999999</v>
       </c>
       <c r="U5" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="12" t="s">
         <v>36</v>
       </c>
       <c r="W5" t="s">
@@ -44287,7 +43889,7 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>58</v>
       </c>
       <c r="B6">
@@ -44336,20 +43938,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14" t="s">
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="12">
         <v>50.364505000000001</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="12">
         <v>18.968959999999999</v>
       </c>
       <c r="U6" t="s">
         <v>36</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="12" t="s">
         <v>36</v>
       </c>
       <c r="W6" t="s">
@@ -44375,7 +43977,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>58</v>
       </c>
       <c r="B7">
@@ -44424,20 +44026,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="12">
         <v>50.364505000000001</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="12">
         <v>18.968959999999999</v>
       </c>
       <c r="U7" t="s">
         <v>36</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="12" t="s">
         <v>36</v>
       </c>
       <c r="W7" t="s">
@@ -44463,7 +44065,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>58</v>
       </c>
       <c r="B8">
@@ -44512,20 +44114,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14" t="s">
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="12">
         <v>50.364505000000001</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="12">
         <v>18.968959999999999</v>
       </c>
       <c r="U8" t="s">
         <v>36</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="V8" s="12" t="s">
         <v>36</v>
       </c>
       <c r="W8" t="s">
@@ -44551,7 +44153,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>54</v>
       </c>
       <c r="B9">
@@ -44599,22 +44201,22 @@
       <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="12">
         <v>-41.233333000000002</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="12">
         <v>-71.283332999999999</v>
       </c>
       <c r="U9" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="V9" s="12" t="s">
         <v>46</v>
       </c>
       <c r="W9" t="s">
@@ -44640,7 +44242,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>54</v>
       </c>
       <c r="B10">
@@ -44688,22 +44290,22 @@
       <c r="P10">
         <v>1</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="Q10" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="12">
         <v>-41.233333000000002</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="12">
         <v>-71.283332999999999</v>
       </c>
       <c r="U10" t="s">
         <v>46</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="V10" s="12" t="s">
         <v>46</v>
       </c>
       <c r="W10" t="s">
@@ -44729,7 +44331,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>54</v>
       </c>
       <c r="B11">
@@ -44777,22 +44379,22 @@
       <c r="P11">
         <v>2</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="R11" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="12">
         <v>-41.233333000000002</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="12">
         <v>-71.283332999999999</v>
       </c>
       <c r="U11" t="s">
         <v>46</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="V11" s="12" t="s">
         <v>46</v>
       </c>
       <c r="W11" t="s">
@@ -44818,7 +44420,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>54</v>
       </c>
       <c r="B12">
@@ -44866,22 +44468,22 @@
       <c r="P12">
         <v>2</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="Q12" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="12">
         <v>-41.233333000000002</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="12">
         <v>-71.283332999999999</v>
       </c>
       <c r="U12" t="s">
         <v>46</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="V12" s="12" t="s">
         <v>46</v>
       </c>
       <c r="W12" t="s">
@@ -58414,22 +58016,22 @@
         <f>O164+1</f>
         <v>11</v>
       </c>
-      <c r="Q164" s="14" t="s">
+      <c r="Q164" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="R164" s="14" t="s">
+      <c r="R164" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="S164" s="14">
+      <c r="S164" s="12">
         <v>-5.9517920000000002</v>
       </c>
-      <c r="T164" s="14">
+      <c r="T164" s="12">
         <v>-48.177894000000002</v>
       </c>
       <c r="U164" t="s">
         <v>36</v>
       </c>
-      <c r="V164" s="14" t="s">
+      <c r="V164" s="12" t="s">
         <v>46</v>
       </c>
       <c r="W164" t="s">
@@ -58455,7 +58057,7 @@
       </c>
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A165" s="8">
+      <c r="A165" s="7">
         <v>59</v>
       </c>
       <c r="B165">
@@ -58497,22 +58099,22 @@
         <f>O165+1</f>
         <v>2</v>
       </c>
-      <c r="Q165" s="14" t="s">
+      <c r="Q165" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="R165" s="14" t="s">
+      <c r="R165" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="S165" s="14">
+      <c r="S165" s="12">
         <v>37.615689000000003</v>
       </c>
-      <c r="T165" s="14">
+      <c r="T165" s="12">
         <v>-0.87287099999999995</v>
       </c>
       <c r="U165" t="s">
         <v>36</v>
       </c>
-      <c r="V165" s="14" t="s">
+      <c r="V165" s="12" t="s">
         <v>46</v>
       </c>
       <c r="W165" t="s">
@@ -58547,10 +58149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A6ED4B-6E31-4049-86F7-8148E97C48E0}">
-  <dimension ref="A1:AK69"/>
+  <dimension ref="A1:AK65"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63843,266 +63445,6 @@
       </c>
       <c r="AK65" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:37" ht="24" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>54</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>189</v>
-      </c>
-      <c r="D66">
-        <v>2011</v>
-      </c>
-      <c r="E66">
-        <v>0.02</v>
-      </c>
-      <c r="F66">
-        <v>10</v>
-      </c>
-      <c r="H66">
-        <v>3.2</v>
-      </c>
-      <c r="I66">
-        <v>0.92</v>
-      </c>
-      <c r="K66">
-        <v>10</v>
-      </c>
-      <c r="L66">
-        <v>3.3</v>
-      </c>
-      <c r="M66">
-        <v>1.25</v>
-      </c>
-      <c r="O66">
-        <v>0.5</v>
-      </c>
-      <c r="Z66" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB66" s="5">
-        <v>-41.233333000000002</v>
-      </c>
-      <c r="AC66">
-        <v>-71.283332999999999</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF66" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK66" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:37" ht="24" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>54</v>
-      </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67">
-        <v>2011</v>
-      </c>
-      <c r="E67">
-        <v>0.02</v>
-      </c>
-      <c r="F67">
-        <v>10</v>
-      </c>
-      <c r="H67">
-        <v>3.2</v>
-      </c>
-      <c r="I67">
-        <v>1.32</v>
-      </c>
-      <c r="K67">
-        <v>10</v>
-      </c>
-      <c r="L67">
-        <v>3.9</v>
-      </c>
-      <c r="M67">
-        <v>0.88</v>
-      </c>
-      <c r="O67">
-        <v>0.5</v>
-      </c>
-      <c r="Z67" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB67" s="5">
-        <v>-41.233333000000002</v>
-      </c>
-      <c r="AC67">
-        <v>-71.283332999999999</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK67" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:37" ht="24" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>54</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>189</v>
-      </c>
-      <c r="D68">
-        <v>2011</v>
-      </c>
-      <c r="E68">
-        <v>0.02</v>
-      </c>
-      <c r="F68">
-        <v>10</v>
-      </c>
-      <c r="H68">
-        <v>3.29</v>
-      </c>
-      <c r="I68">
-        <v>1.25</v>
-      </c>
-      <c r="K68">
-        <v>10</v>
-      </c>
-      <c r="L68">
-        <v>3.57</v>
-      </c>
-      <c r="M68">
-        <v>1.4</v>
-      </c>
-      <c r="O68">
-        <v>1.5</v>
-      </c>
-      <c r="Z68" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB68" s="5">
-        <v>-41.233333000000002</v>
-      </c>
-      <c r="AC68">
-        <v>-71.283332999999999</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF68" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK68" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:37" ht="24" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>54</v>
-      </c>
-      <c r="B69">
-        <v>4</v>
-      </c>
-      <c r="C69" t="s">
-        <v>189</v>
-      </c>
-      <c r="D69">
-        <v>2011</v>
-      </c>
-      <c r="E69">
-        <v>0.02</v>
-      </c>
-      <c r="F69">
-        <v>10</v>
-      </c>
-      <c r="H69">
-        <v>3.86</v>
-      </c>
-      <c r="I69">
-        <v>1.21</v>
-      </c>
-      <c r="K69">
-        <v>10</v>
-      </c>
-      <c r="L69">
-        <v>3.86</v>
-      </c>
-      <c r="M69">
-        <v>1.46</v>
-      </c>
-      <c r="O69">
-        <v>1.5</v>
-      </c>
-      <c r="Z69" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB69" s="5">
-        <v>-41.233333000000002</v>
-      </c>
-      <c r="AC69">
-        <v>-71.283332999999999</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF69" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK69" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -64114,7 +63456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFE696-4A9B-DC4D-B12B-45CD0688D0EA}">
   <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
@@ -69352,7 +68694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD0CD3-B1EE-8D4B-B397-0F32146A4A84}">
   <dimension ref="A1:S654"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
@@ -81467,19 +80809,19 @@
       </c>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A206" s="8">
+      <c r="A206" s="7">
         <v>55</v>
       </c>
-      <c r="B206" s="8">
+      <c r="B206" s="7">
         <v>1</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C206" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D206" s="8">
+      <c r="D206" s="7">
         <v>2019</v>
       </c>
-      <c r="E206" s="12">
+      <c r="E206" s="10">
         <v>45.722110899999997</v>
       </c>
       <c r="F206">
@@ -81526,19 +80868,19 @@
       </c>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A207" s="8">
+      <c r="A207" s="7">
         <v>56</v>
       </c>
-      <c r="B207" s="8">
+      <c r="B207" s="7">
         <v>1</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D207" s="8">
+      <c r="D207" s="7">
         <v>2019</v>
       </c>
-      <c r="E207" s="8">
+      <c r="E207" s="7">
         <v>60</v>
       </c>
       <c r="F207">
@@ -81585,19 +80927,19 @@
       </c>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A208" s="8">
+      <c r="A208" s="7">
         <v>58</v>
       </c>
-      <c r="B208" s="8">
+      <c r="B208" s="7">
         <v>1</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D208" s="8">
+      <c r="D208" s="7">
         <v>2018</v>
       </c>
-      <c r="E208" s="8">
+      <c r="E208" s="7">
         <v>150</v>
       </c>
       <c r="F208">
@@ -81641,19 +80983,19 @@
       </c>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A209" s="8">
+      <c r="A209" s="7">
         <v>58</v>
       </c>
-      <c r="B209" s="8">
+      <c r="B209" s="7">
         <v>2</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D209" s="8">
+      <c r="D209" s="7">
         <v>2018</v>
       </c>
-      <c r="E209" s="8">
+      <c r="E209" s="7">
         <v>300</v>
       </c>
       <c r="F209">
@@ -81697,19 +81039,19 @@
       </c>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A210" s="8">
+      <c r="A210" s="7">
         <v>58</v>
       </c>
-      <c r="B210" s="8">
+      <c r="B210" s="7">
         <v>3</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D210" s="8">
+      <c r="D210" s="7">
         <v>2018</v>
       </c>
-      <c r="E210" s="8">
+      <c r="E210" s="7">
         <v>150</v>
       </c>
       <c r="F210">
@@ -81753,19 +81095,19 @@
       </c>
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A211" s="8">
+      <c r="A211" s="7">
         <v>58</v>
       </c>
-      <c r="B211" s="8">
+      <c r="B211" s="7">
         <v>4</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D211" s="8">
+      <c r="D211" s="7">
         <v>2018</v>
       </c>
-      <c r="E211" s="8">
+      <c r="E211" s="7">
         <v>300</v>
       </c>
       <c r="F211">
@@ -81809,19 +81151,19 @@
       </c>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A212" s="8">
+      <c r="A212" s="7">
         <v>58</v>
       </c>
-      <c r="B212" s="8">
+      <c r="B212" s="7">
         <v>5</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D212" s="8">
+      <c r="D212" s="7">
         <v>2018</v>
       </c>
-      <c r="E212" s="8">
+      <c r="E212" s="7">
         <v>150</v>
       </c>
       <c r="F212">
@@ -81865,19 +81207,19 @@
       </c>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A213" s="8">
+      <c r="A213" s="7">
         <v>58</v>
       </c>
-      <c r="B213" s="8">
+      <c r="B213" s="7">
         <v>6</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D213" s="8">
+      <c r="D213" s="7">
         <v>2018</v>
       </c>
-      <c r="E213" s="8">
+      <c r="E213" s="7">
         <v>300</v>
       </c>
       <c r="F213">
@@ -98329,7 +97671,7 @@
       </c>
     </row>
     <row r="492" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A492" s="8">
+      <c r="A492" s="7">
         <v>58</v>
       </c>
       <c r="B492">
@@ -98359,20 +97701,20 @@
       <c r="J492" t="s">
         <v>46</v>
       </c>
-      <c r="K492" s="14" t="s">
+      <c r="K492" s="12" t="s">
         <v>36</v>
       </c>
       <c r="L492" t="s">
         <v>33</v>
       </c>
-      <c r="M492" s="14"/>
-      <c r="N492" s="14" t="s">
+      <c r="M492" s="12"/>
+      <c r="N492" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="O492" s="14">
+      <c r="O492" s="12">
         <v>50.364505000000001</v>
       </c>
-      <c r="P492" s="14">
+      <c r="P492" s="12">
         <v>18.968959999999999</v>
       </c>
       <c r="Q492" t="s">
@@ -98386,7 +97728,7 @@
       </c>
     </row>
     <row r="493" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A493" s="8">
+      <c r="A493" s="7">
         <v>58</v>
       </c>
       <c r="B493">
@@ -98416,20 +97758,20 @@
       <c r="J493" t="s">
         <v>46</v>
       </c>
-      <c r="K493" s="14" t="s">
+      <c r="K493" s="12" t="s">
         <v>36</v>
       </c>
       <c r="L493" t="s">
         <v>33</v>
       </c>
-      <c r="M493" s="14"/>
-      <c r="N493" s="14" t="s">
+      <c r="M493" s="12"/>
+      <c r="N493" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="O493" s="14">
+      <c r="O493" s="12">
         <v>50.364505000000001</v>
       </c>
-      <c r="P493" s="14">
+      <c r="P493" s="12">
         <v>18.968959999999999</v>
       </c>
       <c r="Q493" t="s">
@@ -98443,7 +97785,7 @@
       </c>
     </row>
     <row r="494" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A494" s="8">
+      <c r="A494" s="7">
         <v>58</v>
       </c>
       <c r="B494">
@@ -98473,20 +97815,20 @@
       <c r="J494" t="s">
         <v>46</v>
       </c>
-      <c r="K494" s="14" t="s">
+      <c r="K494" s="12" t="s">
         <v>36</v>
       </c>
       <c r="L494" t="s">
         <v>33</v>
       </c>
-      <c r="M494" s="14"/>
-      <c r="N494" s="14" t="s">
+      <c r="M494" s="12"/>
+      <c r="N494" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="O494" s="14">
+      <c r="O494" s="12">
         <v>50.364505000000001</v>
       </c>
-      <c r="P494" s="14">
+      <c r="P494" s="12">
         <v>18.968959999999999</v>
       </c>
       <c r="Q494" t="s">
@@ -98500,7 +97842,7 @@
       </c>
     </row>
     <row r="495" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A495" s="8">
+      <c r="A495" s="7">
         <v>58</v>
       </c>
       <c r="B495">
@@ -98530,20 +97872,20 @@
       <c r="J495" t="s">
         <v>46</v>
       </c>
-      <c r="K495" s="14" t="s">
+      <c r="K495" s="12" t="s">
         <v>36</v>
       </c>
       <c r="L495" t="s">
         <v>33</v>
       </c>
-      <c r="M495" s="14"/>
-      <c r="N495" s="14" t="s">
+      <c r="M495" s="12"/>
+      <c r="N495" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="O495" s="14">
+      <c r="O495" s="12">
         <v>50.364505000000001</v>
       </c>
-      <c r="P495" s="14">
+      <c r="P495" s="12">
         <v>18.968959999999999</v>
       </c>
       <c r="Q495" t="s">
@@ -98557,7 +97899,7 @@
       </c>
     </row>
     <row r="496" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A496" s="8">
+      <c r="A496" s="7">
         <v>58</v>
       </c>
       <c r="B496">
@@ -98587,20 +97929,20 @@
       <c r="J496" t="s">
         <v>46</v>
       </c>
-      <c r="K496" s="14" t="s">
+      <c r="K496" s="12" t="s">
         <v>36</v>
       </c>
       <c r="L496" t="s">
         <v>33</v>
       </c>
-      <c r="M496" s="14"/>
-      <c r="N496" s="14" t="s">
+      <c r="M496" s="12"/>
+      <c r="N496" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="O496" s="14">
+      <c r="O496" s="12">
         <v>50.364505000000001</v>
       </c>
-      <c r="P496" s="14">
+      <c r="P496" s="12">
         <v>18.968959999999999</v>
       </c>
       <c r="Q496" t="s">
@@ -98614,7 +97956,7 @@
       </c>
     </row>
     <row r="497" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A497" s="8">
+      <c r="A497" s="7">
         <v>58</v>
       </c>
       <c r="B497">
@@ -98644,20 +97986,20 @@
       <c r="J497" t="s">
         <v>46</v>
       </c>
-      <c r="K497" s="14" t="s">
+      <c r="K497" s="12" t="s">
         <v>36</v>
       </c>
       <c r="L497" t="s">
         <v>33</v>
       </c>
-      <c r="M497" s="14"/>
-      <c r="N497" s="14" t="s">
+      <c r="M497" s="12"/>
+      <c r="N497" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="O497" s="14">
+      <c r="O497" s="12">
         <v>50.364505000000001</v>
       </c>
-      <c r="P497" s="14">
+      <c r="P497" s="12">
         <v>18.968959999999999</v>
       </c>
       <c r="Q497" t="s">
@@ -98671,7 +98013,7 @@
       </c>
     </row>
     <row r="498" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A498" s="8">
+      <c r="A498" s="7">
         <v>54</v>
       </c>
       <c r="B498">
@@ -98701,22 +98043,22 @@
       <c r="J498" t="s">
         <v>36</v>
       </c>
-      <c r="K498" s="14" t="s">
+      <c r="K498" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L498" t="s">
         <v>33</v>
       </c>
-      <c r="M498" s="14" t="s">
+      <c r="M498" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="N498" s="14" t="s">
+      <c r="N498" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="O498" s="14">
+      <c r="O498" s="12">
         <v>-41.233333000000002</v>
       </c>
-      <c r="P498" s="14">
+      <c r="P498" s="12">
         <v>-71.283332999999999</v>
       </c>
       <c r="Q498" t="s">
@@ -98730,7 +98072,7 @@
       </c>
     </row>
     <row r="499" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A499" s="8">
+      <c r="A499" s="7">
         <v>54</v>
       </c>
       <c r="B499">
@@ -98760,22 +98102,22 @@
       <c r="J499" t="s">
         <v>36</v>
       </c>
-      <c r="K499" s="14" t="s">
+      <c r="K499" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L499" t="s">
         <v>33</v>
       </c>
-      <c r="M499" s="14" t="s">
+      <c r="M499" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="N499" s="14" t="s">
+      <c r="N499" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="O499" s="14">
+      <c r="O499" s="12">
         <v>-41.233333000000002</v>
       </c>
-      <c r="P499" s="14">
+      <c r="P499" s="12">
         <v>-71.283332999999999</v>
       </c>
       <c r="Q499" t="s">
@@ -98789,7 +98131,7 @@
       </c>
     </row>
     <row r="500" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A500" s="8">
+      <c r="A500" s="7">
         <v>54</v>
       </c>
       <c r="B500">
@@ -98819,22 +98161,22 @@
       <c r="J500" t="s">
         <v>36</v>
       </c>
-      <c r="K500" s="14" t="s">
+      <c r="K500" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L500" t="s">
         <v>33</v>
       </c>
-      <c r="M500" s="14" t="s">
+      <c r="M500" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="N500" s="14" t="s">
+      <c r="N500" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="O500" s="14">
+      <c r="O500" s="12">
         <v>-41.233333000000002</v>
       </c>
-      <c r="P500" s="14">
+      <c r="P500" s="12">
         <v>-71.283332999999999</v>
       </c>
       <c r="Q500" t="s">
@@ -98848,7 +98190,7 @@
       </c>
     </row>
     <row r="501" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A501" s="8">
+      <c r="A501" s="7">
         <v>54</v>
       </c>
       <c r="B501">
@@ -98878,22 +98220,22 @@
       <c r="J501" t="s">
         <v>36</v>
       </c>
-      <c r="K501" s="14" t="s">
+      <c r="K501" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L501" t="s">
         <v>33</v>
       </c>
-      <c r="M501" s="14" t="s">
+      <c r="M501" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="N501" s="14" t="s">
+      <c r="N501" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="O501" s="14">
+      <c r="O501" s="12">
         <v>-41.233333000000002</v>
       </c>
-      <c r="P501" s="14">
+      <c r="P501" s="12">
         <v>-71.283332999999999</v>
       </c>
       <c r="Q501" t="s">
@@ -107858,22 +107200,22 @@
       <c r="J653" t="s">
         <v>46</v>
       </c>
-      <c r="K653" s="14" t="s">
+      <c r="K653" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L653" t="s">
         <v>33</v>
       </c>
-      <c r="M653" s="14" t="s">
+      <c r="M653" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="N653" s="14" t="s">
+      <c r="N653" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="O653" s="14">
+      <c r="O653" s="12">
         <v>-5.9517920000000002</v>
       </c>
-      <c r="P653" s="14">
+      <c r="P653" s="12">
         <v>-48.177894000000002</v>
       </c>
       <c r="Q653" t="s">
@@ -107887,7 +107229,7 @@
       </c>
     </row>
     <row r="654" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A654" s="8">
+      <c r="A654" s="7">
         <v>59</v>
       </c>
       <c r="B654">
@@ -107917,22 +107259,22 @@
       <c r="J654" t="s">
         <v>46</v>
       </c>
-      <c r="K654" s="14" t="s">
+      <c r="K654" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L654" t="s">
         <v>33</v>
       </c>
-      <c r="M654" s="14" t="s">
+      <c r="M654" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="N654" s="14" t="s">
+      <c r="N654" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="O654" s="14">
+      <c r="O654" s="12">
         <v>37.615689000000003</v>
       </c>
-      <c r="P654" s="14">
+      <c r="P654" s="12">
         <v>-0.87287099999999995</v>
       </c>
       <c r="Q654" t="s">

--- a/data_sheets.xlsx
+++ b/data_sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/Grassland restoration with biosolids/Grassland-restoration-with-biosolids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4B7354-D813-224E-916A-7BCEA9A46016}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D3333E-5E8C-FF4C-B26F-75141630A633}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="560" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
+    <workbookView xWindow="260" yWindow="560" windowWidth="28040" windowHeight="17040" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -668,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -689,6 +689,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,14 +1006,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9FE204-07F5-0F4A-B823-D83AA8F49599}">
   <dimension ref="A1:AK220"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="24" max="25" width="26" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
@@ -1094,7 +1096,7 @@
       <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="13" t="s">
         <v>24</v>
       </c>
       <c r="AB1" t="s">
@@ -1183,7 +1185,7 @@
       <c r="Z2">
         <v>37.084159999999997</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="13">
         <v>-94.513050000000007</v>
       </c>
       <c r="AB2" t="s">
@@ -1272,7 +1274,7 @@
       <c r="Z3">
         <v>37.084159999999997</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="13">
         <v>-94.513050000000007</v>
       </c>
       <c r="AB3" t="s">
@@ -1361,7 +1363,7 @@
       <c r="Z4">
         <v>39.200000000000003</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="13">
         <v>-106.35</v>
       </c>
       <c r="AB4" t="s">
@@ -1450,7 +1452,7 @@
       <c r="Z5">
         <v>39.200000000000003</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="13">
         <v>-106.35</v>
       </c>
       <c r="AB5" t="s">
@@ -1539,7 +1541,7 @@
       <c r="Z6">
         <v>39.200000000000003</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="13">
         <v>-106.35</v>
       </c>
       <c r="AB6" t="s">
@@ -1628,7 +1630,7 @@
       <c r="Z7">
         <v>39.200000000000003</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="13">
         <v>-106.35</v>
       </c>
       <c r="AB7" t="s">
@@ -1717,7 +1719,7 @@
       <c r="Z8">
         <v>39.200000000000003</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="13">
         <v>-106.35</v>
       </c>
       <c r="AB8" t="s">
@@ -1806,7 +1808,7 @@
       <c r="Z9">
         <v>-40.573329999999999</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="13">
         <v>-70.832499999999996</v>
       </c>
       <c r="AB9" t="s">
@@ -1895,7 +1897,7 @@
       <c r="Z10">
         <v>-40.573329999999999</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="13">
         <v>-70.832499999999996</v>
       </c>
       <c r="AB10" t="s">
@@ -1984,7 +1986,7 @@
       <c r="Z11">
         <v>37.439160000000001</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="13">
         <v>-6.21638</v>
       </c>
       <c r="AB11" t="s">
@@ -2073,7 +2075,7 @@
       <c r="Z12">
         <v>42.036110000000001</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="13">
         <v>2.8172199999999998</v>
       </c>
       <c r="AB12" t="s">
@@ -2162,7 +2164,7 @@
       <c r="Z13">
         <v>44.793660000000003</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="13">
         <v>-118.50112</v>
       </c>
       <c r="AB13" t="s">
@@ -2251,7 +2253,7 @@
       <c r="Z14">
         <v>44.793660000000003</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="13">
         <v>-118.50112</v>
       </c>
       <c r="AB14" t="s">
@@ -2340,7 +2342,7 @@
       <c r="Z15">
         <v>44.793660000000003</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="13">
         <v>-118.50112</v>
       </c>
       <c r="AB15" t="s">
@@ -2429,7 +2431,7 @@
       <c r="Z16">
         <v>44.793660000000003</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="13">
         <v>-118.50112</v>
       </c>
       <c r="AB16" t="s">
@@ -2518,7 +2520,7 @@
       <c r="Z17">
         <v>44.793660000000003</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="13">
         <v>-118.50112</v>
       </c>
       <c r="AB17" t="s">
@@ -2607,7 +2609,7 @@
       <c r="Z18">
         <v>44.793660000000003</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="13">
         <v>-118.50112</v>
       </c>
       <c r="AB18" t="s">
@@ -2696,7 +2698,7 @@
       <c r="Z19">
         <v>44.793660000000003</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="13">
         <v>-118.50112</v>
       </c>
       <c r="AB19" t="s">
@@ -2785,7 +2787,7 @@
       <c r="Z20">
         <v>44.793660000000003</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="13">
         <v>-118.50112</v>
       </c>
       <c r="AB20" t="s">
@@ -2874,7 +2876,7 @@
       <c r="Z21">
         <v>41.434519000000002</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="13">
         <v>2.1908799999999999</v>
       </c>
       <c r="AB21" t="s">
@@ -2963,7 +2965,7 @@
       <c r="Z22">
         <v>41.434519000000002</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="13">
         <v>2.1908799999999999</v>
       </c>
       <c r="AB22" t="s">
@@ -3052,7 +3054,7 @@
       <c r="Z23">
         <v>41.434519000000002</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="13">
         <v>2.1908799999999999</v>
       </c>
       <c r="AB23" t="s">
@@ -3141,7 +3143,7 @@
       <c r="Z24">
         <v>41.434519000000002</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="13">
         <v>2.1908799999999999</v>
       </c>
       <c r="AB24" t="s">
@@ -3230,7 +3232,7 @@
       <c r="Z25">
         <v>41.434519000000002</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="13">
         <v>2.1908799999999999</v>
       </c>
       <c r="AB25" t="s">
@@ -3319,7 +3321,7 @@
       <c r="Z26">
         <v>41.434519000000002</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="13">
         <v>2.1908799999999999</v>
       </c>
       <c r="AB26" t="s">
@@ -3408,7 +3410,7 @@
       <c r="Z27">
         <v>37.439169999999997</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="13">
         <v>-6.2163899999999996</v>
       </c>
       <c r="AB27" t="s">
@@ -3497,7 +3499,7 @@
       <c r="Z28">
         <v>37.439169999999997</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="13">
         <v>-6.2163899999999996</v>
       </c>
       <c r="AB28" t="s">
@@ -3586,7 +3588,7 @@
       <c r="Z29">
         <v>38.183329999999998</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="13">
         <v>-1.8333299999999999</v>
       </c>
       <c r="AB29" t="s">
@@ -3675,7 +3677,7 @@
       <c r="Z30">
         <v>38.183329999999998</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="13">
         <v>-1.8333299999999999</v>
       </c>
       <c r="AB30" t="s">
@@ -3764,7 +3766,7 @@
       <c r="Z31">
         <v>38.183329999999998</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" s="13">
         <v>-1.8333299999999999</v>
       </c>
       <c r="AB31" t="s">
@@ -3853,7 +3855,7 @@
       <c r="Z32">
         <v>38.183329999999998</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="13">
         <v>-1.8333299999999999</v>
       </c>
       <c r="AB32" t="s">
@@ -3942,7 +3944,7 @@
       <c r="Z33">
         <v>50.511940000000003</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" s="13">
         <v>-120.97472</v>
       </c>
       <c r="AB33" t="s">
@@ -4031,7 +4033,7 @@
       <c r="Z34">
         <v>50.511940000000003</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="13">
         <v>-120.97472</v>
       </c>
       <c r="AB34" t="s">
@@ -4120,7 +4122,7 @@
       <c r="Z35">
         <v>50.511940000000003</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="13">
         <v>-120.97472</v>
       </c>
       <c r="AB35" t="s">
@@ -4209,7 +4211,7 @@
       <c r="Z36">
         <v>50.511940000000003</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" s="13">
         <v>-120.97472</v>
       </c>
       <c r="AB36" t="s">
@@ -4298,7 +4300,7 @@
       <c r="Z37">
         <v>50.511940000000003</v>
       </c>
-      <c r="AA37">
+      <c r="AA37" s="13">
         <v>-120.97472</v>
       </c>
       <c r="AB37" t="s">
@@ -4387,7 +4389,7 @@
       <c r="Z38">
         <v>50.511940000000003</v>
       </c>
-      <c r="AA38">
+      <c r="AA38" s="13">
         <v>-120.97472</v>
       </c>
       <c r="AB38" t="s">
@@ -4476,7 +4478,7 @@
       <c r="Z39">
         <v>50.511940000000003</v>
       </c>
-      <c r="AA39">
+      <c r="AA39" s="13">
         <v>-120.97472</v>
       </c>
       <c r="AB39" t="s">
@@ -4565,7 +4567,7 @@
       <c r="Z40">
         <v>50.511940000000003</v>
       </c>
-      <c r="AA40">
+      <c r="AA40" s="13">
         <v>-120.97472</v>
       </c>
       <c r="AB40" t="s">
@@ -4654,7 +4656,7 @@
       <c r="Z41">
         <v>50.511940000000003</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" s="13">
         <v>-120.97472</v>
       </c>
       <c r="AB41" t="s">
@@ -4743,7 +4745,7 @@
       <c r="Z42">
         <v>50.511940000000003</v>
       </c>
-      <c r="AA42">
+      <c r="AA42" s="13">
         <v>-120.97472</v>
       </c>
       <c r="AB42" t="s">
@@ -4832,7 +4834,7 @@
       <c r="Z43">
         <v>-40.573329999999999</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="13">
         <v>-70.832499999999996</v>
       </c>
       <c r="AB43" t="s">
@@ -4921,7 +4923,7 @@
       <c r="Z44">
         <v>43.486109999999996</v>
       </c>
-      <c r="AA44">
+      <c r="AA44" s="13">
         <v>5.3016699999999997</v>
       </c>
       <c r="AB44" t="s">
@@ -5010,7 +5012,7 @@
       <c r="Z45">
         <v>43.486109999999996</v>
       </c>
-      <c r="AA45">
+      <c r="AA45" s="13">
         <v>5.3016699999999997</v>
       </c>
       <c r="AB45" t="s">
@@ -5099,7 +5101,7 @@
       <c r="Z46">
         <v>43.486109999999996</v>
       </c>
-      <c r="AA46">
+      <c r="AA46" s="13">
         <v>5.3016699999999997</v>
       </c>
       <c r="AB46" t="s">
@@ -5188,7 +5190,7 @@
       <c r="Z47">
         <v>43.486109999999996</v>
       </c>
-      <c r="AA47">
+      <c r="AA47" s="13">
         <v>5.3016699999999997</v>
       </c>
       <c r="AB47" t="s">
@@ -5277,7 +5279,7 @@
       <c r="Z48">
         <v>43.486109999999996</v>
       </c>
-      <c r="AA48">
+      <c r="AA48" s="13">
         <v>5.3016699999999997</v>
       </c>
       <c r="AB48" t="s">
@@ -5366,7 +5368,7 @@
       <c r="Z49">
         <v>43.486109999999996</v>
       </c>
-      <c r="AA49">
+      <c r="AA49" s="13">
         <v>5.3016699999999997</v>
       </c>
       <c r="AB49" t="s">
@@ -5455,7 +5457,7 @@
       <c r="Z50">
         <v>39.36788</v>
       </c>
-      <c r="AA50">
+      <c r="AA50" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB50" t="s">
@@ -5544,7 +5546,7 @@
       <c r="Z51">
         <v>39.36788</v>
       </c>
-      <c r="AA51">
+      <c r="AA51" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB51" t="s">
@@ -5633,7 +5635,7 @@
       <c r="Z52">
         <v>39.36788</v>
       </c>
-      <c r="AA52">
+      <c r="AA52" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB52" t="s">
@@ -5722,7 +5724,7 @@
       <c r="Z53">
         <v>39.36788</v>
       </c>
-      <c r="AA53">
+      <c r="AA53" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB53" t="s">
@@ -5811,7 +5813,7 @@
       <c r="Z54">
         <v>39.36788</v>
       </c>
-      <c r="AA54">
+      <c r="AA54" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB54" t="s">
@@ -5900,7 +5902,7 @@
       <c r="Z55">
         <v>39.36788</v>
       </c>
-      <c r="AA55">
+      <c r="AA55" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB55" t="s">
@@ -5989,7 +5991,7 @@
       <c r="Z56">
         <v>39.36788</v>
       </c>
-      <c r="AA56">
+      <c r="AA56" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB56" t="s">
@@ -6078,7 +6080,7 @@
       <c r="Z57">
         <v>39.36788</v>
       </c>
-      <c r="AA57">
+      <c r="AA57" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB57" t="s">
@@ -6167,7 +6169,7 @@
       <c r="Z58">
         <v>39.36788</v>
       </c>
-      <c r="AA58">
+      <c r="AA58" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB58" t="s">
@@ -6256,7 +6258,7 @@
       <c r="Z59">
         <v>39.36788</v>
       </c>
-      <c r="AA59">
+      <c r="AA59" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB59" t="s">
@@ -6345,7 +6347,7 @@
       <c r="Z60">
         <v>39.36788</v>
       </c>
-      <c r="AA60">
+      <c r="AA60" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB60" t="s">
@@ -6434,7 +6436,7 @@
       <c r="Z61">
         <v>39.36788</v>
       </c>
-      <c r="AA61">
+      <c r="AA61" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB61" t="s">
@@ -6523,7 +6525,7 @@
       <c r="Z62">
         <v>39.36788</v>
       </c>
-      <c r="AA62">
+      <c r="AA62" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB62" t="s">
@@ -6612,7 +6614,7 @@
       <c r="Z63">
         <v>39.36788</v>
       </c>
-      <c r="AA63">
+      <c r="AA63" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB63" t="s">
@@ -6701,7 +6703,7 @@
       <c r="Z64">
         <v>39.36788</v>
       </c>
-      <c r="AA64">
+      <c r="AA64" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB64" t="s">
@@ -6790,7 +6792,7 @@
       <c r="Z65">
         <v>39.36788</v>
       </c>
-      <c r="AA65">
+      <c r="AA65" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB65" t="s">
@@ -6879,7 +6881,7 @@
       <c r="Z66">
         <v>39.36788</v>
       </c>
-      <c r="AA66">
+      <c r="AA66" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB66" t="s">
@@ -6968,7 +6970,7 @@
       <c r="Z67">
         <v>39.36788</v>
       </c>
-      <c r="AA67">
+      <c r="AA67" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB67" t="s">
@@ -7057,7 +7059,7 @@
       <c r="Z68">
         <v>39.36788</v>
       </c>
-      <c r="AA68">
+      <c r="AA68" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB68" t="s">
@@ -7146,7 +7148,7 @@
       <c r="Z69">
         <v>39.36788</v>
       </c>
-      <c r="AA69">
+      <c r="AA69" s="13">
         <v>-105.24069</v>
       </c>
       <c r="AB69" t="s">
@@ -7231,7 +7233,7 @@
       <c r="Z70">
         <v>51.25</v>
       </c>
-      <c r="AA70">
+      <c r="AA70" s="13">
         <v>-121.11666</v>
       </c>
       <c r="AB70" t="s">
@@ -7320,7 +7322,7 @@
       <c r="Z71">
         <v>50.687779999999997</v>
       </c>
-      <c r="AA71">
+      <c r="AA71" s="13">
         <v>-121.34083</v>
       </c>
       <c r="AB71" t="s">
@@ -7409,7 +7411,7 @@
       <c r="Z72">
         <v>50.687779999999997</v>
       </c>
-      <c r="AA72">
+      <c r="AA72" s="13">
         <v>-121.34083</v>
       </c>
       <c r="AB72" t="s">
@@ -7491,7 +7493,7 @@
       <c r="Z73">
         <v>40.52187</v>
       </c>
-      <c r="AA73">
+      <c r="AA73" s="13">
         <v>-112.14612</v>
       </c>
       <c r="AB73" t="s">
@@ -7573,7 +7575,7 @@
       <c r="Z74">
         <v>40.52187</v>
       </c>
-      <c r="AA74">
+      <c r="AA74" s="13">
         <v>-112.14612</v>
       </c>
       <c r="AB74" t="s">
@@ -7655,7 +7657,7 @@
       <c r="Z75">
         <v>40.52187</v>
       </c>
-      <c r="AA75">
+      <c r="AA75" s="13">
         <v>-112.14612</v>
       </c>
       <c r="AB75" t="s">
@@ -7737,7 +7739,7 @@
       <c r="Z76">
         <v>39.317166999999998</v>
       </c>
-      <c r="AA76">
+      <c r="AA76" s="13">
         <v>21.896909999999998</v>
       </c>
       <c r="AB76" t="s">
@@ -7819,7 +7821,7 @@
       <c r="Z77">
         <v>39.317166999999998</v>
       </c>
-      <c r="AA77">
+      <c r="AA77" s="13">
         <v>21.896909999999998</v>
       </c>
       <c r="AB77" t="s">
@@ -7901,7 +7903,7 @@
       <c r="Z78">
         <v>39.317166999999998</v>
       </c>
-      <c r="AA78">
+      <c r="AA78" s="13">
         <v>21.896909999999998</v>
       </c>
       <c r="AB78" t="s">
@@ -7983,7 +7985,7 @@
       <c r="Z79">
         <v>39.317166999999998</v>
       </c>
-      <c r="AA79">
+      <c r="AA79" s="13">
         <v>21.896909999999998</v>
       </c>
       <c r="AB79" t="s">
@@ -8065,7 +8067,7 @@
       <c r="Z80">
         <v>39.317166999999998</v>
       </c>
-      <c r="AA80">
+      <c r="AA80" s="13">
         <v>21.896909999999998</v>
       </c>
       <c r="AB80" t="s">
@@ -8147,7 +8149,7 @@
       <c r="Z81">
         <v>39.317166999999998</v>
       </c>
-      <c r="AA81">
+      <c r="AA81" s="13">
         <v>21.896909999999998</v>
       </c>
       <c r="AB81" t="s">
@@ -8229,7 +8231,7 @@
       <c r="Z82">
         <v>39.317166999999998</v>
       </c>
-      <c r="AA82">
+      <c r="AA82" s="13">
         <v>21.896909999999998</v>
       </c>
       <c r="AB82" t="s">
@@ -8311,7 +8313,7 @@
       <c r="Z83">
         <v>39.317166999999998</v>
       </c>
-      <c r="AA83">
+      <c r="AA83" s="13">
         <v>21.896909999999998</v>
       </c>
       <c r="AB83" t="s">
@@ -8393,7 +8395,7 @@
       <c r="Z84">
         <v>39.317166999999998</v>
       </c>
-      <c r="AA84">
+      <c r="AA84" s="13">
         <v>21.896909999999998</v>
       </c>
       <c r="AB84" t="s">
@@ -8475,7 +8477,7 @@
       <c r="Z85">
         <v>39.317166999999998</v>
       </c>
-      <c r="AA85">
+      <c r="AA85" s="13">
         <v>21.896909999999998</v>
       </c>
       <c r="AB85" t="s">
@@ -8557,7 +8559,7 @@
       <c r="Z86">
         <v>39.317166999999998</v>
       </c>
-      <c r="AA86">
+      <c r="AA86" s="13">
         <v>21.896909999999998</v>
       </c>
       <c r="AB86" t="s">
@@ -8639,7 +8641,7 @@
       <c r="Z87">
         <v>39.317166999999998</v>
       </c>
-      <c r="AA87">
+      <c r="AA87" s="13">
         <v>21.896909999999998</v>
       </c>
       <c r="AB87" t="s">
@@ -8721,7 +8723,7 @@
       <c r="Z88">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA88">
+      <c r="AA88" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB88" t="s">
@@ -8803,7 +8805,7 @@
       <c r="Z89">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA89">
+      <c r="AA89" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB89" t="s">
@@ -8885,7 +8887,7 @@
       <c r="Z90">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA90">
+      <c r="AA90" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB90" t="s">
@@ -8967,7 +8969,7 @@
       <c r="Z91">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA91">
+      <c r="AA91" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB91" t="s">
@@ -9049,7 +9051,7 @@
       <c r="Z92">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA92">
+      <c r="AA92" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB92" t="s">
@@ -9131,7 +9133,7 @@
       <c r="Z93">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA93">
+      <c r="AA93" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB93" t="s">
@@ -9213,7 +9215,7 @@
       <c r="Z94">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA94">
+      <c r="AA94" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB94" t="s">
@@ -9295,7 +9297,7 @@
       <c r="Z95">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA95">
+      <c r="AA95" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB95" t="s">
@@ -9377,7 +9379,7 @@
       <c r="Z96">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA96">
+      <c r="AA96" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB96" t="s">
@@ -9459,7 +9461,7 @@
       <c r="Z97">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA97">
+      <c r="AA97" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB97" t="s">
@@ -9541,7 +9543,7 @@
       <c r="Z98">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA98">
+      <c r="AA98" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB98" t="s">
@@ -9623,7 +9625,7 @@
       <c r="Z99">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA99">
+      <c r="AA99" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB99" t="s">
@@ -9705,7 +9707,7 @@
       <c r="Z100">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA100">
+      <c r="AA100" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB100" t="s">
@@ -9787,7 +9789,7 @@
       <c r="Z101">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA101">
+      <c r="AA101" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB101" t="s">
@@ -9869,7 +9871,7 @@
       <c r="Z102">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA102">
+      <c r="AA102" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB102" t="s">
@@ -9951,7 +9953,7 @@
       <c r="Z103">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA103">
+      <c r="AA103" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB103" t="s">
@@ -10033,7 +10035,7 @@
       <c r="Z104">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA104">
+      <c r="AA104" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB104" t="s">
@@ -10115,7 +10117,7 @@
       <c r="Z105">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA105">
+      <c r="AA105" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB105" t="s">
@@ -10197,7 +10199,7 @@
       <c r="Z106">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA106">
+      <c r="AA106" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB106" t="s">
@@ -10279,7 +10281,7 @@
       <c r="Z107">
         <v>38.206281699999998</v>
       </c>
-      <c r="AA107">
+      <c r="AA107" s="13">
         <v>-1.0434985000000001</v>
       </c>
       <c r="AB107" t="s">
@@ -10361,7 +10363,7 @@
       <c r="Z108">
         <v>37.912779999999998</v>
       </c>
-      <c r="AA108">
+      <c r="AA108" s="13">
         <v>-4.1044400000000003</v>
       </c>
       <c r="AB108" t="s">
@@ -10443,7 +10445,7 @@
       <c r="Z109">
         <v>37.912779999999998</v>
       </c>
-      <c r="AA109">
+      <c r="AA109" s="13">
         <v>-4.1044400000000003</v>
       </c>
       <c r="AB109" t="s">
@@ -10525,7 +10527,7 @@
       <c r="Z110">
         <v>37.912779999999998</v>
       </c>
-      <c r="AA110">
+      <c r="AA110" s="13">
         <v>-4.1044400000000003</v>
       </c>
       <c r="AB110" t="s">
@@ -10607,7 +10609,7 @@
       <c r="Z111">
         <v>37.912779999999998</v>
       </c>
-      <c r="AA111">
+      <c r="AA111" s="13">
         <v>-4.1044400000000003</v>
       </c>
       <c r="AB111" t="s">
@@ -10689,7 +10691,7 @@
       <c r="Z112">
         <v>37.912779999999998</v>
       </c>
-      <c r="AA112">
+      <c r="AA112" s="13">
         <v>-4.1044400000000003</v>
       </c>
       <c r="AB112" t="s">
@@ -10771,7 +10773,7 @@
       <c r="Z113">
         <v>37.912779999999998</v>
       </c>
-      <c r="AA113">
+      <c r="AA113" s="13">
         <v>-4.1044400000000003</v>
       </c>
       <c r="AB113" t="s">
@@ -10853,7 +10855,7 @@
       <c r="Z114">
         <v>37.912779999999998</v>
       </c>
-      <c r="AA114">
+      <c r="AA114" s="13">
         <v>-4.1044400000000003</v>
       </c>
       <c r="AB114" t="s">
@@ -10935,7 +10937,7 @@
       <c r="Z115">
         <v>37.912779999999998</v>
       </c>
-      <c r="AA115">
+      <c r="AA115" s="13">
         <v>-4.1044400000000003</v>
       </c>
       <c r="AB115" t="s">
@@ -11017,7 +11019,7 @@
       <c r="Z116">
         <v>37.912779999999998</v>
       </c>
-      <c r="AA116">
+      <c r="AA116" s="13">
         <v>-4.1044400000000003</v>
       </c>
       <c r="AB116" t="s">
@@ -11099,7 +11101,7 @@
       <c r="Z117">
         <v>37.912779999999998</v>
       </c>
-      <c r="AA117">
+      <c r="AA117" s="13">
         <v>-4.1044400000000003</v>
       </c>
       <c r="AB117" t="s">
@@ -11181,7 +11183,7 @@
       <c r="Z118">
         <v>37.912779999999998</v>
       </c>
-      <c r="AA118">
+      <c r="AA118" s="13">
         <v>-4.1044400000000003</v>
       </c>
       <c r="AB118" t="s">
@@ -11263,7 +11265,7 @@
       <c r="Z119">
         <v>37.912779999999998</v>
       </c>
-      <c r="AA119">
+      <c r="AA119" s="13">
         <v>-4.1044400000000003</v>
       </c>
       <c r="AB119" t="s">
@@ -11345,7 +11347,7 @@
       <c r="Z120">
         <v>37.912779999999998</v>
       </c>
-      <c r="AA120">
+      <c r="AA120" s="13">
         <v>-4.1044400000000003</v>
       </c>
       <c r="AB120" t="s">
@@ -11427,7 +11429,7 @@
       <c r="Z121">
         <v>37.912779999999998</v>
       </c>
-      <c r="AA121">
+      <c r="AA121" s="13">
         <v>-4.1044400000000003</v>
       </c>
       <c r="AB121" t="s">
@@ -11509,7 +11511,7 @@
       <c r="Z122">
         <v>37.912779999999998</v>
       </c>
-      <c r="AA122">
+      <c r="AA122" s="13">
         <v>-4.1044400000000003</v>
       </c>
       <c r="AB122" t="s">
@@ -11591,7 +11593,7 @@
       <c r="Z123">
         <v>35.648300999999996</v>
       </c>
-      <c r="AA123">
+      <c r="AA123" s="13">
         <v>-106.58593999999999</v>
       </c>
       <c r="AB123" t="s">
@@ -11673,7 +11675,7 @@
       <c r="Z124">
         <v>35.648300999999996</v>
       </c>
-      <c r="AA124">
+      <c r="AA124" s="13">
         <v>-106.58593999999999</v>
       </c>
       <c r="AB124" t="s">
@@ -11755,7 +11757,7 @@
       <c r="Z125">
         <v>35.648300999999996</v>
       </c>
-      <c r="AA125">
+      <c r="AA125" s="13">
         <v>-106.58593999999999</v>
       </c>
       <c r="AB125" t="s">
@@ -11837,7 +11839,7 @@
       <c r="Z126">
         <v>35.648300999999996</v>
       </c>
-      <c r="AA126">
+      <c r="AA126" s="13">
         <v>-106.58593999999999</v>
       </c>
       <c r="AB126" t="s">
@@ -11919,7 +11921,7 @@
       <c r="Z127">
         <v>35.648300999999996</v>
       </c>
-      <c r="AA127">
+      <c r="AA127" s="13">
         <v>-106.58593999999999</v>
       </c>
       <c r="AB127" t="s">
@@ -12001,7 +12003,7 @@
       <c r="Z128">
         <v>35.648300999999996</v>
       </c>
-      <c r="AA128">
+      <c r="AA128" s="13">
         <v>-106.58593999999999</v>
       </c>
       <c r="AB128" t="s">
@@ -12083,7 +12085,7 @@
       <c r="Z129">
         <v>35.648300999999996</v>
       </c>
-      <c r="AA129">
+      <c r="AA129" s="13">
         <v>-106.58593999999999</v>
       </c>
       <c r="AB129" t="s">
@@ -12165,7 +12167,7 @@
       <c r="Z130">
         <v>35.648300999999996</v>
       </c>
-      <c r="AA130">
+      <c r="AA130" s="13">
         <v>-106.58593999999999</v>
       </c>
       <c r="AB130" t="s">
@@ -12247,7 +12249,7 @@
       <c r="Z131">
         <v>35.648300999999996</v>
       </c>
-      <c r="AA131">
+      <c r="AA131" s="13">
         <v>-106.58593999999999</v>
       </c>
       <c r="AB131" t="s">
@@ -12329,7 +12331,7 @@
       <c r="Z132">
         <v>35.648300999999996</v>
       </c>
-      <c r="AA132">
+      <c r="AA132" s="13">
         <v>-106.58593999999999</v>
       </c>
       <c r="AB132" t="s">
@@ -12411,7 +12413,7 @@
       <c r="Z133">
         <v>35.648300999999996</v>
       </c>
-      <c r="AA133">
+      <c r="AA133" s="13">
         <v>-106.58593999999999</v>
       </c>
       <c r="AB133" t="s">
@@ -12493,7 +12495,7 @@
       <c r="Z134">
         <v>35.648300999999996</v>
       </c>
-      <c r="AA134">
+      <c r="AA134" s="13">
         <v>-106.58593999999999</v>
       </c>
       <c r="AB134" t="s">
@@ -12575,7 +12577,7 @@
       <c r="Z135">
         <v>40.89611</v>
       </c>
-      <c r="AA135">
+      <c r="AA135" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB135" t="s">
@@ -12657,7 +12659,7 @@
       <c r="Z136">
         <v>40.89611</v>
       </c>
-      <c r="AA136">
+      <c r="AA136" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB136" t="s">
@@ -12739,7 +12741,7 @@
       <c r="Z137">
         <v>40.89611</v>
       </c>
-      <c r="AA137">
+      <c r="AA137" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB137" t="s">
@@ -12821,7 +12823,7 @@
       <c r="Z138">
         <v>40.89611</v>
       </c>
-      <c r="AA138">
+      <c r="AA138" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB138" t="s">
@@ -12903,7 +12905,7 @@
       <c r="Z139">
         <v>40.89611</v>
       </c>
-      <c r="AA139">
+      <c r="AA139" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB139" t="s">
@@ -12985,7 +12987,7 @@
       <c r="Z140">
         <v>40.89611</v>
       </c>
-      <c r="AA140">
+      <c r="AA140" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB140" t="s">
@@ -13067,7 +13069,7 @@
       <c r="Z141">
         <v>40.89611</v>
       </c>
-      <c r="AA141">
+      <c r="AA141" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB141" t="s">
@@ -13149,7 +13151,7 @@
       <c r="Z142">
         <v>40.89611</v>
       </c>
-      <c r="AA142">
+      <c r="AA142" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB142" t="s">
@@ -13231,7 +13233,7 @@
       <c r="Z143">
         <v>40.89611</v>
       </c>
-      <c r="AA143">
+      <c r="AA143" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB143" t="s">
@@ -13313,7 +13315,7 @@
       <c r="Z144">
         <v>40.89611</v>
       </c>
-      <c r="AA144">
+      <c r="AA144" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB144" t="s">
@@ -13395,7 +13397,7 @@
       <c r="Z145">
         <v>40.89611</v>
       </c>
-      <c r="AA145">
+      <c r="AA145" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB145" t="s">
@@ -13477,7 +13479,7 @@
       <c r="Z146">
         <v>40.89611</v>
       </c>
-      <c r="AA146">
+      <c r="AA146" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB146" t="s">
@@ -13559,7 +13561,7 @@
       <c r="Z147">
         <v>40.89611</v>
       </c>
-      <c r="AA147">
+      <c r="AA147" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB147" t="s">
@@ -13641,7 +13643,7 @@
       <c r="Z148">
         <v>40.89611</v>
       </c>
-      <c r="AA148">
+      <c r="AA148" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB148" t="s">
@@ -13723,7 +13725,7 @@
       <c r="Z149">
         <v>40.89611</v>
       </c>
-      <c r="AA149">
+      <c r="AA149" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB149" t="s">
@@ -13805,7 +13807,7 @@
       <c r="Z150">
         <v>40.89611</v>
       </c>
-      <c r="AA150">
+      <c r="AA150" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB150" t="s">
@@ -13887,7 +13889,7 @@
       <c r="Z151">
         <v>40.89611</v>
       </c>
-      <c r="AA151">
+      <c r="AA151" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB151" t="s">
@@ -13969,7 +13971,7 @@
       <c r="Z152">
         <v>40.89611</v>
       </c>
-      <c r="AA152">
+      <c r="AA152" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB152" t="s">
@@ -14051,7 +14053,7 @@
       <c r="Z153">
         <v>40.89611</v>
       </c>
-      <c r="AA153">
+      <c r="AA153" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB153" t="s">
@@ -14133,7 +14135,7 @@
       <c r="Z154">
         <v>40.89611</v>
       </c>
-      <c r="AA154">
+      <c r="AA154" s="13">
         <v>-104.87444000000001</v>
       </c>
       <c r="AB154" t="s">
@@ -14215,7 +14217,7 @@
       <c r="Z155">
         <v>40.418889999999998</v>
       </c>
-      <c r="AA155">
+      <c r="AA155" s="13">
         <v>-3.6919400000000002</v>
       </c>
       <c r="AB155" t="s">
@@ -14297,7 +14299,7 @@
       <c r="Z156">
         <v>40.418889999999998</v>
       </c>
-      <c r="AA156">
+      <c r="AA156" s="13">
         <v>-3.6919400000000002</v>
       </c>
       <c r="AB156" t="s">
@@ -14379,7 +14381,7 @@
       <c r="Z157">
         <v>40.418889999999998</v>
       </c>
-      <c r="AA157">
+      <c r="AA157" s="13">
         <v>-3.6919400000000002</v>
       </c>
       <c r="AB157" t="s">
@@ -14461,7 +14463,7 @@
       <c r="Z158">
         <v>40.418889999999998</v>
       </c>
-      <c r="AA158">
+      <c r="AA158" s="13">
         <v>-3.6919400000000002</v>
       </c>
       <c r="AB158" t="s">
@@ -14543,7 +14545,7 @@
       <c r="Z159">
         <v>40.418889999999998</v>
       </c>
-      <c r="AA159">
+      <c r="AA159" s="13">
         <v>-3.6919400000000002</v>
       </c>
       <c r="AB159" t="s">
@@ -14625,7 +14627,7 @@
       <c r="Z160">
         <v>40.418889999999998</v>
       </c>
-      <c r="AA160">
+      <c r="AA160" s="13">
         <v>-3.6919400000000002</v>
       </c>
       <c r="AB160" t="s">
@@ -14707,7 +14709,7 @@
       <c r="Z161">
         <v>40.418889999999998</v>
       </c>
-      <c r="AA161">
+      <c r="AA161" s="13">
         <v>-3.6919400000000002</v>
       </c>
       <c r="AB161" t="s">
@@ -14789,7 +14791,7 @@
       <c r="Z162">
         <v>40.418889999999998</v>
       </c>
-      <c r="AA162">
+      <c r="AA162" s="13">
         <v>-3.6919400000000002</v>
       </c>
       <c r="AB162" t="s">
@@ -14871,7 +14873,7 @@
       <c r="Z163">
         <v>40.418889999999998</v>
       </c>
-      <c r="AA163">
+      <c r="AA163" s="13">
         <v>-3.6919400000000002</v>
       </c>
       <c r="AB163" t="s">
@@ -14953,7 +14955,7 @@
       <c r="Z164">
         <v>40.208889999999997</v>
       </c>
-      <c r="AA164">
+      <c r="AA164" s="13">
         <v>-3.5686100000000001</v>
       </c>
       <c r="AB164" t="s">
@@ -15035,7 +15037,7 @@
       <c r="Z165">
         <v>40.208889999999997</v>
       </c>
-      <c r="AA165">
+      <c r="AA165" s="13">
         <v>-3.5686100000000001</v>
       </c>
       <c r="AB165" t="s">
@@ -15117,7 +15119,7 @@
       <c r="Z166">
         <v>40.208889999999997</v>
       </c>
-      <c r="AA166">
+      <c r="AA166" s="13">
         <v>-3.5686100000000001</v>
       </c>
       <c r="AB166" t="s">
@@ -15199,7 +15201,7 @@
       <c r="Z167">
         <v>40.208889999999997</v>
       </c>
-      <c r="AA167">
+      <c r="AA167" s="13">
         <v>-3.5686100000000001</v>
       </c>
       <c r="AB167" t="s">
@@ -15281,7 +15283,7 @@
       <c r="Z168">
         <v>40.208889999999997</v>
       </c>
-      <c r="AA168">
+      <c r="AA168" s="13">
         <v>-3.5686100000000001</v>
       </c>
       <c r="AB168" t="s">
@@ -15363,7 +15365,7 @@
       <c r="Z169">
         <v>40.208889999999997</v>
       </c>
-      <c r="AA169">
+      <c r="AA169" s="13">
         <v>-3.5686100000000001</v>
       </c>
       <c r="AB169" t="s">
@@ -15445,7 +15447,7 @@
       <c r="Z170">
         <v>40.208889999999997</v>
       </c>
-      <c r="AA170">
+      <c r="AA170" s="13">
         <v>-3.5686100000000001</v>
       </c>
       <c r="AB170" t="s">
@@ -15527,7 +15529,7 @@
       <c r="Z171">
         <v>40.208889999999997</v>
       </c>
-      <c r="AA171">
+      <c r="AA171" s="13">
         <v>-3.5686100000000001</v>
       </c>
       <c r="AB171" t="s">
@@ -15609,7 +15611,7 @@
       <c r="Z172">
         <v>40.208889999999997</v>
       </c>
-      <c r="AA172">
+      <c r="AA172" s="13">
         <v>-3.5686100000000001</v>
       </c>
       <c r="AB172" t="s">
@@ -15691,7 +15693,7 @@
       <c r="Z173">
         <v>40.208889999999997</v>
       </c>
-      <c r="AA173">
+      <c r="AA173" s="13">
         <v>-3.5686100000000001</v>
       </c>
       <c r="AB173" t="s">
@@ -15773,7 +15775,7 @@
       <c r="Z174">
         <v>40.208889999999997</v>
       </c>
-      <c r="AA174">
+      <c r="AA174" s="13">
         <v>-3.5686100000000001</v>
       </c>
       <c r="AB174" t="s">
@@ -15855,7 +15857,7 @@
       <c r="Z175">
         <v>40.208889999999997</v>
       </c>
-      <c r="AA175">
+      <c r="AA175" s="13">
         <v>-3.5686100000000001</v>
       </c>
       <c r="AB175" t="s">
@@ -15937,7 +15939,7 @@
       <c r="Z176">
         <v>40.208889999999997</v>
       </c>
-      <c r="AA176">
+      <c r="AA176" s="13">
         <v>-3.5686100000000001</v>
       </c>
       <c r="AB176" t="s">
@@ -16019,7 +16021,7 @@
       <c r="Z177">
         <v>40.208889999999997</v>
       </c>
-      <c r="AA177">
+      <c r="AA177" s="13">
         <v>-3.5686100000000001</v>
       </c>
       <c r="AB177" t="s">
@@ -16101,7 +16103,7 @@
       <c r="Z178">
         <v>40.208889999999997</v>
       </c>
-      <c r="AA178">
+      <c r="AA178" s="13">
         <v>-3.5686100000000001</v>
       </c>
       <c r="AB178" t="s">
@@ -16183,7 +16185,7 @@
       <c r="Z179">
         <v>37.6</v>
       </c>
-      <c r="AA179">
+      <c r="AA179" s="13">
         <v>-0.82</v>
       </c>
       <c r="AB179" t="s">
@@ -16265,7 +16267,7 @@
       <c r="Z180">
         <v>37.6</v>
       </c>
-      <c r="AA180">
+      <c r="AA180" s="13">
         <v>-0.82</v>
       </c>
       <c r="AB180" t="s">
@@ -16347,7 +16349,7 @@
       <c r="Z181">
         <v>37.6</v>
       </c>
-      <c r="AA181">
+      <c r="AA181" s="13">
         <v>-0.82</v>
       </c>
       <c r="AB181" t="s">
@@ -16429,7 +16431,7 @@
       <c r="Z182">
         <v>40.700000000000003</v>
       </c>
-      <c r="AA182">
+      <c r="AA182" s="13">
         <v>-111.916</v>
       </c>
       <c r="AB182" t="s">
@@ -16511,7 +16513,7 @@
       <c r="Z183">
         <v>40.700000000000003</v>
       </c>
-      <c r="AA183">
+      <c r="AA183" s="13">
         <v>-111.916</v>
       </c>
       <c r="AB183" t="s">
@@ -16593,7 +16595,7 @@
       <c r="Z184">
         <v>40.700000000000003</v>
       </c>
-      <c r="AA184">
+      <c r="AA184" s="13">
         <v>-111.916</v>
       </c>
       <c r="AB184" t="s">
@@ -16675,7 +16677,7 @@
       <c r="Z185">
         <v>40.700000000000003</v>
       </c>
-      <c r="AA185">
+      <c r="AA185" s="13">
         <v>-111.916</v>
       </c>
       <c r="AB185" t="s">
@@ -16756,7 +16758,7 @@
       <c r="Z186">
         <v>40.799999999999997</v>
       </c>
-      <c r="AA186">
+      <c r="AA186" s="13">
         <v>-111.6</v>
       </c>
       <c r="AB186" t="s">
@@ -16838,7 +16840,7 @@
       <c r="Z187">
         <v>40.799999999999997</v>
       </c>
-      <c r="AA187">
+      <c r="AA187" s="13">
         <v>-111.6</v>
       </c>
       <c r="AB187" t="s">
@@ -16920,7 +16922,7 @@
       <c r="Z188">
         <v>40.799999999999997</v>
       </c>
-      <c r="AA188">
+      <c r="AA188" s="13">
         <v>-111.6</v>
       </c>
       <c r="AB188" t="s">
@@ -17002,7 +17004,7 @@
       <c r="Z189">
         <v>40.799999999999997</v>
       </c>
-      <c r="AA189">
+      <c r="AA189" s="13">
         <v>-111.6</v>
       </c>
       <c r="AB189" t="s">
@@ -17083,7 +17085,7 @@
       <c r="Z190">
         <v>41</v>
       </c>
-      <c r="AA190">
+      <c r="AA190" s="13">
         <v>-112</v>
       </c>
       <c r="AB190" t="s">
@@ -17165,7 +17167,7 @@
       <c r="Z191">
         <v>41</v>
       </c>
-      <c r="AA191">
+      <c r="AA191" s="13">
         <v>-112</v>
       </c>
       <c r="AB191" t="s">
@@ -17247,7 +17249,7 @@
       <c r="Z192">
         <v>41</v>
       </c>
-      <c r="AA192">
+      <c r="AA192" s="13">
         <v>-112</v>
       </c>
       <c r="AB192" t="s">
@@ -17329,7 +17331,7 @@
       <c r="Z193">
         <v>41</v>
       </c>
-      <c r="AA193">
+      <c r="AA193" s="13">
         <v>-112</v>
       </c>
       <c r="AB193" t="s">
@@ -17410,7 +17412,7 @@
       <c r="Z194">
         <v>40.4</v>
       </c>
-      <c r="AA194">
+      <c r="AA194" s="13">
         <v>-113.2</v>
       </c>
       <c r="AB194" t="s">
@@ -17492,7 +17494,7 @@
       <c r="Z195">
         <v>40.4</v>
       </c>
-      <c r="AA195">
+      <c r="AA195" s="13">
         <v>-113.2</v>
       </c>
       <c r="AB195" t="s">
@@ -17574,7 +17576,7 @@
       <c r="Z196">
         <v>40.4</v>
       </c>
-      <c r="AA196">
+      <c r="AA196" s="13">
         <v>-113.2</v>
       </c>
       <c r="AB196" t="s">
@@ -17653,7 +17655,7 @@
       <c r="Z197">
         <v>38</v>
       </c>
-      <c r="AA197">
+      <c r="AA197" s="13">
         <v>-1.2</v>
       </c>
       <c r="AB197" t="s">
@@ -17732,7 +17734,7 @@
       <c r="Z198">
         <v>38</v>
       </c>
-      <c r="AA198">
+      <c r="AA198" s="13">
         <v>-1.2</v>
       </c>
       <c r="AB198" t="s">
@@ -17811,7 +17813,7 @@
       <c r="Z199">
         <v>38</v>
       </c>
-      <c r="AA199">
+      <c r="AA199" s="13">
         <v>-1.2</v>
       </c>
       <c r="AB199" t="s">
@@ -17890,7 +17892,7 @@
       <c r="Z200">
         <v>38</v>
       </c>
-      <c r="AA200">
+      <c r="AA200" s="13">
         <v>-1.2</v>
       </c>
       <c r="AB200" t="s">
@@ -17969,7 +17971,7 @@
       <c r="Z201">
         <v>39.700000000000003</v>
       </c>
-      <c r="AA201">
+      <c r="AA201" s="13">
         <v>-81.5</v>
       </c>
       <c r="AB201" t="s">
@@ -18048,7 +18050,7 @@
       <c r="Z202">
         <v>39.700000000000003</v>
       </c>
-      <c r="AA202">
+      <c r="AA202" s="13">
         <v>-81.5</v>
       </c>
       <c r="AB202" t="s">
@@ -18127,7 +18129,7 @@
       <c r="Z203">
         <v>40.700000000000003</v>
       </c>
-      <c r="AA203">
+      <c r="AA203" s="13">
         <v>-112.1</v>
       </c>
       <c r="AB203" t="s">
@@ -18206,7 +18208,7 @@
       <c r="Z204">
         <v>40.700000000000003</v>
       </c>
-      <c r="AA204">
+      <c r="AA204" s="13">
         <v>-112.1</v>
       </c>
       <c r="AB204" t="s">
@@ -18285,7 +18287,7 @@
       <c r="Z205">
         <v>40.700000000000003</v>
       </c>
-      <c r="AA205">
+      <c r="AA205" s="13">
         <v>-112.1</v>
       </c>
       <c r="AB205" t="s">
@@ -18459,7 +18461,7 @@
       <c r="Z207" s="5">
         <v>-40.994753000000003</v>
       </c>
-      <c r="AA207" s="5">
+      <c r="AA207" s="16">
         <v>-71.496300000000005</v>
       </c>
       <c r="AB207" s="5" t="s">
@@ -18543,7 +18545,7 @@
       <c r="Z208" s="5">
         <v>18.968959999999999</v>
       </c>
-      <c r="AA208" s="5" t="s">
+      <c r="AA208" s="16" t="s">
         <v>184</v>
       </c>
       <c r="AB208" s="5" t="s">
@@ -18627,7 +18629,7 @@
       <c r="Z209" s="5">
         <v>18.968959999999999</v>
       </c>
-      <c r="AA209" s="5" t="s">
+      <c r="AA209" s="16" t="s">
         <v>184</v>
       </c>
       <c r="AB209" s="5" t="s">
@@ -18711,7 +18713,7 @@
       <c r="Z210" s="5">
         <v>18.968959999999999</v>
       </c>
-      <c r="AA210" s="5" t="s">
+      <c r="AA210" s="16" t="s">
         <v>184</v>
       </c>
       <c r="AB210" s="5" t="s">
@@ -18795,7 +18797,7 @@
       <c r="Z211" s="5">
         <v>18.968959999999999</v>
       </c>
-      <c r="AA211" s="5" t="s">
+      <c r="AA211" s="16" t="s">
         <v>184</v>
       </c>
       <c r="AB211" s="5" t="s">
@@ -18879,7 +18881,7 @@
       <c r="Z212" s="5">
         <v>18.968959999999999</v>
       </c>
-      <c r="AA212" s="5" t="s">
+      <c r="AA212" s="16" t="s">
         <v>184</v>
       </c>
       <c r="AB212" s="5" t="s">
@@ -18963,7 +18965,7 @@
       <c r="Z213" s="5">
         <v>18.968959999999999</v>
       </c>
-      <c r="AA213" s="5" t="s">
+      <c r="AA213" s="16" t="s">
         <v>184</v>
       </c>
       <c r="AB213" s="5" t="s">
@@ -19040,7 +19042,7 @@
       <c r="Z214" s="5">
         <v>-15.750138</v>
       </c>
-      <c r="AA214" s="5">
+      <c r="AA214" s="16">
         <v>-47.806060000000002</v>
       </c>
       <c r="AB214" s="1" t="s">
@@ -19121,7 +19123,7 @@
       <c r="Z215" s="5">
         <v>-15.750138</v>
       </c>
-      <c r="AA215" s="5">
+      <c r="AA215" s="16">
         <v>-47.806060000000002</v>
       </c>
       <c r="AB215" s="1" t="s">
@@ -55107,7 +55109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFE696-4A9B-DC4D-B12B-45CD0688D0EA}">
   <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>

--- a/data_sheets.xlsx
+++ b/data_sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/Grassland restoration with biosolids/Grassland-restoration-with-biosolids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D3333E-5E8C-FF4C-B26F-75141630A633}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270F11C5-C924-5741-875E-B3F7D216B5F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="560" windowWidth="28040" windowHeight="17040" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12364" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12358" uniqueCount="192">
   <si>
     <t>Case</t>
   </si>
@@ -1006,9 +1006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9FE204-07F5-0F4A-B823-D83AA8F49599}">
   <dimension ref="A1:AK220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:R215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2046,10 +2046,10 @@
         <v>3</v>
       </c>
       <c r="Q12">
-        <v>7.5</v>
+        <v>14.5</v>
       </c>
       <c r="R12">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="S12" t="s">
         <v>36</v>
@@ -4805,10 +4805,10 @@
         <v>7</v>
       </c>
       <c r="Q43">
-        <v>14.7</v>
+        <v>9.4</v>
       </c>
       <c r="R43">
-        <v>24.8</v>
+        <v>56.5</v>
       </c>
       <c r="S43" t="s">
         <v>29</v>
@@ -18545,8 +18545,8 @@
       <c r="Z208" s="5">
         <v>18.968959999999999</v>
       </c>
-      <c r="AA208" s="16" t="s">
-        <v>184</v>
+      <c r="AA208" s="5">
+        <v>50.364505000000001</v>
       </c>
       <c r="AB208" s="5" t="s">
         <v>33</v>
@@ -18629,8 +18629,8 @@
       <c r="Z209" s="5">
         <v>18.968959999999999</v>
       </c>
-      <c r="AA209" s="16" t="s">
-        <v>184</v>
+      <c r="AA209" s="5">
+        <v>50.364505000000001</v>
       </c>
       <c r="AB209" s="5" t="s">
         <v>33</v>
@@ -18713,8 +18713,8 @@
       <c r="Z210" s="5">
         <v>18.968959999999999</v>
       </c>
-      <c r="AA210" s="16" t="s">
-        <v>184</v>
+      <c r="AA210" s="5">
+        <v>50.364505000000001</v>
       </c>
       <c r="AB210" s="5" t="s">
         <v>33</v>
@@ -18797,8 +18797,8 @@
       <c r="Z211" s="5">
         <v>18.968959999999999</v>
       </c>
-      <c r="AA211" s="16" t="s">
-        <v>184</v>
+      <c r="AA211" s="5">
+        <v>50.364505000000001</v>
       </c>
       <c r="AB211" s="5" t="s">
         <v>33</v>
@@ -18881,8 +18881,8 @@
       <c r="Z212" s="5">
         <v>18.968959999999999</v>
       </c>
-      <c r="AA212" s="16" t="s">
-        <v>184</v>
+      <c r="AA212" s="5">
+        <v>50.364505000000001</v>
       </c>
       <c r="AB212" s="5" t="s">
         <v>33</v>
@@ -18965,8 +18965,8 @@
       <c r="Z213" s="5">
         <v>18.968959999999999</v>
       </c>
-      <c r="AA213" s="16" t="s">
-        <v>184</v>
+      <c r="AA213" s="5">
+        <v>50.364505000000001</v>
       </c>
       <c r="AB213" s="5" t="s">
         <v>33</v>
@@ -19162,9 +19162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4B7382-3EC3-C845-A515-1FD3C54C18F4}">
   <dimension ref="A1:AB272"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC1" sqref="AC1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39579,10 +39579,10 @@
         <v>2</v>
       </c>
       <c r="Q243">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="R243">
-        <v>45.1</v>
+        <v>41.8</v>
       </c>
       <c r="S243" t="s">
         <v>33</v>
@@ -39661,10 +39661,10 @@
         <v>2</v>
       </c>
       <c r="Q244">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="R244">
-        <v>45.1</v>
+        <v>41.8</v>
       </c>
       <c r="S244" t="s">
         <v>33</v>
@@ -39743,10 +39743,10 @@
         <v>2</v>
       </c>
       <c r="Q245">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="R245">
-        <v>45.1</v>
+        <v>41.8</v>
       </c>
       <c r="S245" t="s">
         <v>33</v>
@@ -39825,10 +39825,10 @@
         <v>2</v>
       </c>
       <c r="Q246">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="R246">
-        <v>45.1</v>
+        <v>41.8</v>
       </c>
       <c r="S246" t="s">
         <v>41</v>
@@ -39907,10 +39907,10 @@
         <v>2</v>
       </c>
       <c r="Q247">
-        <v>5</v>
+        <v>10.6</v>
       </c>
       <c r="R247">
-        <v>67.8</v>
+        <v>41.8</v>
       </c>
       <c r="S247" t="s">
         <v>41</v>
@@ -39989,10 +39989,10 @@
         <v>2</v>
       </c>
       <c r="Q248">
-        <v>5</v>
+        <v>10.6</v>
       </c>
       <c r="R248">
-        <v>67.8</v>
+        <v>41.8</v>
       </c>
       <c r="S248" t="s">
         <v>41</v>
@@ -40071,10 +40071,10 @@
         <v>2</v>
       </c>
       <c r="Q249">
-        <v>5</v>
+        <v>10.6</v>
       </c>
       <c r="R249">
-        <v>67.8</v>
+        <v>41.8</v>
       </c>
       <c r="S249" t="s">
         <v>33</v>
@@ -40153,10 +40153,10 @@
         <v>2</v>
       </c>
       <c r="Q250">
-        <v>5</v>
+        <v>10.6</v>
       </c>
       <c r="R250">
-        <v>67.8</v>
+        <v>41.8</v>
       </c>
       <c r="S250" t="s">
         <v>33</v>
@@ -40235,10 +40235,10 @@
         <v>2</v>
       </c>
       <c r="Q251">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="R251">
-        <v>50.4</v>
+        <v>41.8</v>
       </c>
       <c r="S251" t="s">
         <v>33</v>
@@ -40317,10 +40317,10 @@
         <v>2</v>
       </c>
       <c r="Q252">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="R252">
-        <v>50.4</v>
+        <v>41.8</v>
       </c>
       <c r="S252" t="s">
         <v>41</v>
@@ -40399,10 +40399,10 @@
         <v>2</v>
       </c>
       <c r="Q253">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="R253">
-        <v>50.4</v>
+        <v>41.8</v>
       </c>
       <c r="S253" t="s">
         <v>41</v>
@@ -40481,10 +40481,10 @@
         <v>2</v>
       </c>
       <c r="Q254">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="R254">
-        <v>50.4</v>
+        <v>41.8</v>
       </c>
       <c r="S254" t="s">
         <v>41</v>
@@ -40563,10 +40563,10 @@
         <v>6</v>
       </c>
       <c r="Q255">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="R255">
-        <v>19.3</v>
+        <v>106.4</v>
       </c>
       <c r="S255" t="s">
         <v>41</v>
@@ -40645,10 +40645,10 @@
         <v>10</v>
       </c>
       <c r="Q256">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="R256">
-        <v>19.3</v>
+        <v>106.4</v>
       </c>
       <c r="S256" t="s">
         <v>41</v>
@@ -40731,10 +40731,10 @@
         <v>2</v>
       </c>
       <c r="Q257">
-        <v>10.7</v>
+        <v>6.4</v>
       </c>
       <c r="R257">
-        <v>19.3</v>
+        <v>96</v>
       </c>
       <c r="S257" t="s">
         <v>33</v>
@@ -40820,10 +40820,10 @@
         <v>2</v>
       </c>
       <c r="Q258">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="R258">
-        <v>41.8</v>
+        <v>45.1</v>
       </c>
       <c r="S258" t="s">
         <v>41</v>
@@ -40909,10 +40909,10 @@
         <v>2</v>
       </c>
       <c r="Q259">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="R259">
-        <v>41.8</v>
+        <v>45.1</v>
       </c>
       <c r="S259" t="s">
         <v>41</v>
@@ -40998,10 +40998,10 @@
         <v>2</v>
       </c>
       <c r="Q260">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="R260">
-        <v>41.8</v>
+        <v>45.1</v>
       </c>
       <c r="S260" t="s">
         <v>41</v>
@@ -41087,10 +41087,10 @@
         <v>2</v>
       </c>
       <c r="Q261">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="R261">
-        <v>41.8</v>
+        <v>45.1</v>
       </c>
       <c r="S261" t="s">
         <v>41</v>
@@ -41175,10 +41175,10 @@
         <v>2</v>
       </c>
       <c r="Q262">
-        <v>10.6</v>
+        <v>5</v>
       </c>
       <c r="R262">
-        <v>41.8</v>
+        <v>67.8</v>
       </c>
       <c r="S262" t="s">
         <v>41</v>
@@ -41264,10 +41264,10 @@
         <v>2</v>
       </c>
       <c r="Q263">
-        <v>10.6</v>
+        <v>5</v>
       </c>
       <c r="R263">
-        <v>41.8</v>
+        <v>67.8</v>
       </c>
       <c r="S263" t="s">
         <v>41</v>
@@ -41353,10 +41353,10 @@
         <v>2</v>
       </c>
       <c r="Q264">
-        <v>10.6</v>
+        <v>5</v>
       </c>
       <c r="R264">
-        <v>41.8</v>
+        <v>67.8</v>
       </c>
       <c r="S264" t="s">
         <v>41</v>
@@ -41442,10 +41442,10 @@
         <v>2</v>
       </c>
       <c r="Q265">
-        <v>10.6</v>
+        <v>5</v>
       </c>
       <c r="R265">
-        <v>41.8</v>
+        <v>67.8</v>
       </c>
       <c r="S265" t="s">
         <v>41</v>
@@ -41530,10 +41530,10 @@
         <v>2</v>
       </c>
       <c r="Q266">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="R266">
-        <v>41.8</v>
+        <v>50.4</v>
       </c>
       <c r="S266" t="s">
         <v>41</v>
@@ -41619,10 +41619,10 @@
         <v>2</v>
       </c>
       <c r="Q267">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="R267">
-        <v>41.8</v>
+        <v>50.4</v>
       </c>
       <c r="S267" t="s">
         <v>41</v>
@@ -41708,10 +41708,10 @@
         <v>2</v>
       </c>
       <c r="Q268">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="R268">
-        <v>41.8</v>
+        <v>50.4</v>
       </c>
       <c r="S268" t="s">
         <v>41</v>
@@ -41797,10 +41797,10 @@
         <v>2</v>
       </c>
       <c r="Q269">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="R269">
-        <v>41.8</v>
+        <v>50.4</v>
       </c>
       <c r="S269" t="s">
         <v>41</v>
@@ -41885,10 +41885,10 @@
         <v>2</v>
       </c>
       <c r="Q270">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="R270">
-        <v>106.4</v>
+        <v>19.3</v>
       </c>
       <c r="S270" t="s">
         <v>33</v>
@@ -41974,10 +41974,10 @@
         <v>2</v>
       </c>
       <c r="Q271">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="R271">
-        <v>106.4</v>
+        <v>19.3</v>
       </c>
       <c r="S271" t="s">
         <v>33</v>
@@ -42063,10 +42063,10 @@
         <v>2</v>
       </c>
       <c r="Q272">
-        <v>6.4</v>
+        <v>10.7</v>
       </c>
       <c r="R272">
-        <v>96</v>
+        <v>19.3</v>
       </c>
       <c r="S272" t="s">
         <v>33</v>

--- a/data_sheets.xlsx
+++ b/data_sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/Grassland restoration with biosolids/Grassland-restoration-with-biosolids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270F11C5-C924-5741-875E-B3F7D216B5F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6150A4-549F-7B49-9E8C-B42B8EC5EC7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="560" windowWidth="28040" windowHeight="17040" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
+    <workbookView xWindow="1340" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -1004,11 +1004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9FE204-07F5-0F4A-B823-D83AA8F49599}">
-  <dimension ref="A1:AK220"/>
+  <dimension ref="A1:AJ220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:R215"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18555,7 +18555,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
         <v>58</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
         <v>58</v>
       </c>
@@ -18723,7 +18723,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
         <v>58</v>
       </c>
@@ -18807,7 +18807,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
         <v>58</v>
       </c>
@@ -18891,7 +18891,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
         <v>58</v>
       </c>
@@ -18975,7 +18975,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>57</v>
       </c>
@@ -19051,12 +19051,12 @@
       <c r="AC214" s="5">
         <v>0.96960000000000002</v>
       </c>
+      <c r="AD214" s="1"/>
       <c r="AE214" s="1"/>
       <c r="AF214" s="1"/>
-      <c r="AG214" s="1"/>
-      <c r="AK214" s="1"/>
-    </row>
-    <row r="215" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AJ214" s="1"/>
+    </row>
+    <row r="215" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>57</v>
       </c>
@@ -19132,25 +19132,25 @@
       <c r="AC215" s="5">
         <v>0.96960000000000002</v>
       </c>
+      <c r="AD215" s="1"/>
       <c r="AE215" s="1"/>
       <c r="AF215" s="1"/>
-      <c r="AG215" s="1"/>
-      <c r="AK215" s="1"/>
-    </row>
-    <row r="216" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AJ215" s="1"/>
+    </row>
+    <row r="216" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I216" s="11"/>
       <c r="V216" s="1"/>
     </row>
-    <row r="217" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.2">
       <c r="V217" s="1"/>
     </row>
-    <row r="218" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.2">
       <c r="V218" s="1"/>
     </row>
-    <row r="219" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.2">
       <c r="V219" s="1"/>
     </row>
-    <row r="220" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.2">
       <c r="V220" s="1"/>
     </row>
   </sheetData>
@@ -42111,9 +42111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD349FBF-19EC-D146-ACA8-683A33E0AFBC}">
   <dimension ref="A1:AB160"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55109,8 +55109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFE696-4A9B-DC4D-B12B-45CD0688D0EA}">
   <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView topLeftCell="R14" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55272,7 +55272,7 @@
         <v>-121.34083</v>
       </c>
       <c r="Z2">
-        <v>0.20100000000000001</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="AA2" t="s">
         <v>164</v>
@@ -55355,7 +55355,7 @@
         <v>-121.34083</v>
       </c>
       <c r="Z3">
-        <v>0.20100000000000001</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="AA3" t="s">
         <v>164</v>
@@ -55438,7 +55438,7 @@
         <v>-121.34083</v>
       </c>
       <c r="Z4">
-        <v>0.20100000000000001</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="AA4" t="s">
         <v>164</v>
@@ -55521,7 +55521,7 @@
         <v>-121.34083</v>
       </c>
       <c r="Z5">
-        <v>0.20100000000000001</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="AA5" t="s">
         <v>164</v>
@@ -55604,7 +55604,7 @@
         <v>-121.34083</v>
       </c>
       <c r="Z6">
-        <v>0.20100000000000001</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="AA6" t="s">
         <v>164</v>
@@ -55687,7 +55687,7 @@
         <v>-121.34083</v>
       </c>
       <c r="Z7">
-        <v>0.20100000000000001</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="AA7" t="s">
         <v>164</v>
@@ -59228,6 +59228,9 @@
       <c r="Y50">
         <v>-111.916</v>
       </c>
+      <c r="Z50">
+        <v>0.2482</v>
+      </c>
       <c r="AA50" t="s">
         <v>164</v>
       </c>
@@ -59299,6 +59302,9 @@
       <c r="Y51">
         <v>-111.916</v>
       </c>
+      <c r="Z51">
+        <v>0.2482</v>
+      </c>
       <c r="AA51" t="s">
         <v>164</v>
       </c>
@@ -59370,6 +59376,9 @@
       <c r="Y52">
         <v>-111.916</v>
       </c>
+      <c r="Z52">
+        <v>0.2482</v>
+      </c>
       <c r="AA52" t="s">
         <v>164</v>
       </c>
@@ -59441,6 +59450,9 @@
       <c r="Y53">
         <v>-111.916</v>
       </c>
+      <c r="Z53">
+        <v>0.2482</v>
+      </c>
       <c r="AA53" t="s">
         <v>164</v>
       </c>
@@ -59509,6 +59521,9 @@
       <c r="Y54">
         <v>-111.6</v>
       </c>
+      <c r="Z54">
+        <v>0.34649999999999997</v>
+      </c>
       <c r="AA54" t="s">
         <v>164</v>
       </c>
@@ -59577,6 +59592,9 @@
       <c r="Y55">
         <v>-111.6</v>
       </c>
+      <c r="Z55">
+        <v>0.34649999999999997</v>
+      </c>
       <c r="AA55" t="s">
         <v>164</v>
       </c>
@@ -59643,6 +59661,9 @@
       <c r="Y56">
         <v>-111.6</v>
       </c>
+      <c r="Z56">
+        <v>0.34649999999999997</v>
+      </c>
       <c r="AA56" t="s">
         <v>164</v>
       </c>
@@ -59711,6 +59732,9 @@
       <c r="Y57">
         <v>-111.6</v>
       </c>
+      <c r="Z57">
+        <v>0.34649999999999997</v>
+      </c>
       <c r="AA57" t="s">
         <v>164</v>
       </c>
@@ -59779,6 +59803,9 @@
       <c r="Y58">
         <v>-112</v>
       </c>
+      <c r="Z58">
+        <v>0.26140000000000002</v>
+      </c>
       <c r="AA58" t="s">
         <v>164</v>
       </c>
@@ -59847,6 +59874,9 @@
       <c r="Y59">
         <v>-112</v>
       </c>
+      <c r="Z59">
+        <v>0.26140000000000002</v>
+      </c>
       <c r="AA59" t="s">
         <v>164</v>
       </c>
@@ -59915,6 +59945,9 @@
       <c r="Y60">
         <v>-112</v>
       </c>
+      <c r="Z60">
+        <v>0.26140000000000002</v>
+      </c>
       <c r="AA60" t="s">
         <v>164</v>
       </c>
@@ -59983,6 +60016,9 @@
       <c r="Y61">
         <v>-112</v>
       </c>
+      <c r="Z61">
+        <v>0.26140000000000002</v>
+      </c>
       <c r="AA61" t="s">
         <v>164</v>
       </c>
@@ -60051,6 +60087,9 @@
       <c r="Y62">
         <v>-113.2</v>
       </c>
+      <c r="Z62">
+        <v>9.5600000000000004E-2</v>
+      </c>
       <c r="AA62" t="s">
         <v>164</v>
       </c>
@@ -60119,6 +60158,9 @@
       <c r="Y63">
         <v>-113.2</v>
       </c>
+      <c r="Z63">
+        <v>9.5600000000000004E-2</v>
+      </c>
       <c r="AA63" t="s">
         <v>164</v>
       </c>
@@ -60186,6 +60228,9 @@
       </c>
       <c r="Y64">
         <v>-113.2</v>
+      </c>
+      <c r="Z64">
+        <v>9.5600000000000004E-2</v>
       </c>
       <c r="AA64" t="s">
         <v>164</v>

--- a/data_sheets.xlsx
+++ b/data_sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/Grassland restoration with biosolids/Grassland-restoration-with-biosolids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6150A4-549F-7B49-9E8C-B42B8EC5EC7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6220A24-ADF3-A947-89EF-E74475949EA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12358" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12340" uniqueCount="192">
   <si>
     <t>Case</t>
   </si>
@@ -1006,9 +1006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9FE204-07F5-0F4A-B823-D83AA8F49599}">
   <dimension ref="A1:AJ220"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD1" sqref="AD1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19160,11 +19160,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4B7382-3EC3-C845-A515-1FD3C54C18F4}">
-  <dimension ref="A1:AB272"/>
+  <dimension ref="A1:AB270"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC1" sqref="AC1:AG1048576"/>
+      <selection pane="bottomLeft" activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30337,7 +30337,7 @@
         <v>492</v>
       </c>
       <c r="J134" s="2">
-        <f t="shared" ref="J134:J150" si="8">0.400619702*H134</f>
+        <f t="shared" ref="J134:J148" si="8">0.400619702*H134</f>
         <v>197.10489338400001</v>
       </c>
       <c r="K134">
@@ -30347,7 +30347,7 @@
         <v>188</v>
       </c>
       <c r="N134" s="2">
-        <f t="shared" ref="N134:N150" si="9">0.478752551*L134</f>
+        <f t="shared" ref="N134:N148" si="9">0.478752551*L134</f>
         <v>90.005479588</v>
       </c>
       <c r="O134">
@@ -31461,63 +31461,63 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="D148">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="E148">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G148" t="s">
         <v>31</v>
       </c>
       <c r="H148">
-        <v>112.1</v>
+        <v>33.5</v>
       </c>
       <c r="J148" s="2">
         <f t="shared" si="8"/>
-        <v>44.9094685942</v>
+        <v>13.420760017000001</v>
       </c>
       <c r="K148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L148">
-        <v>14.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="N148" s="2">
         <f t="shared" si="9"/>
-        <v>7.0376624996999997</v>
+        <v>17.570218621700004</v>
       </c>
       <c r="O148">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P148">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q148">
-        <v>17.100000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="R148">
-        <v>67.2</v>
+        <v>56.5</v>
       </c>
       <c r="S148" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T148" t="s">
         <v>29</v>
       </c>
       <c r="U148" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V148" t="s">
         <v>31</v>
@@ -31526,59 +31526,63 @@
         <v>31</v>
       </c>
       <c r="X148" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="Y148" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="Z148">
-        <v>-32.25</v>
+        <v>-40.573329999999999</v>
       </c>
       <c r="AA148">
-        <v>150.88333</v>
+        <v>-70.832499999999996</v>
       </c>
       <c r="AB148">
-        <v>0.36870000000000003</v>
+        <v>0.44740000000000002</v>
       </c>
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149">
+        <v>2010</v>
+      </c>
+      <c r="E149">
         <v>40</v>
       </c>
-      <c r="B149">
-        <v>2</v>
-      </c>
-      <c r="C149" t="s">
-        <v>127</v>
-      </c>
-      <c r="D149">
-        <v>2005</v>
-      </c>
-      <c r="E149">
-        <v>60</v>
-      </c>
       <c r="F149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="H149">
-        <v>160.1</v>
-      </c>
-      <c r="J149" s="2">
-        <f t="shared" si="8"/>
-        <v>64.139214290200002</v>
+        <v>126.08</v>
+      </c>
+      <c r="I149">
+        <v>83.92</v>
+      </c>
+      <c r="J149">
+        <v>83.92</v>
       </c>
       <c r="K149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L149">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="N149" s="2">
-        <f t="shared" si="9"/>
-        <v>15.7030836728</v>
+        <v>85.29</v>
+      </c>
+      <c r="M149">
+        <v>20.92</v>
+      </c>
+      <c r="N149">
+        <v>20.92</v>
       </c>
       <c r="O149">
         <v>2</v>
@@ -31587,19 +31591,19 @@
         <v>3</v>
       </c>
       <c r="Q149">
-        <v>17.100000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="R149">
-        <v>67.2</v>
+        <v>56.5</v>
       </c>
       <c r="S149" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T149" t="s">
         <v>29</v>
       </c>
       <c r="U149" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V149" t="s">
         <v>31</v>
@@ -31608,33 +31612,33 @@
         <v>31</v>
       </c>
       <c r="X149" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="Y149" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="Z149">
-        <v>-32.25</v>
+        <v>-40.573329999999999</v>
       </c>
       <c r="AA149">
-        <v>150.88333</v>
+        <v>-70.832499999999996</v>
       </c>
       <c r="AB149">
-        <v>0.36870000000000003</v>
+        <v>0.44740000000000002</v>
       </c>
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D150">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E150">
         <v>40</v>
@@ -31643,30 +31647,34 @@
         <v>4</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="H150">
-        <v>33.5</v>
-      </c>
-      <c r="J150" s="2">
-        <f t="shared" si="8"/>
-        <v>13.420760017000001</v>
+        <v>125.29</v>
+      </c>
+      <c r="I150">
+        <v>72.94</v>
+      </c>
+      <c r="J150">
+        <v>72.94</v>
       </c>
       <c r="K150">
         <v>4</v>
       </c>
       <c r="L150">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="N150" s="2">
-        <f t="shared" si="9"/>
-        <v>17.570218621700004</v>
+        <v>85.29</v>
+      </c>
+      <c r="M150">
+        <v>20.92</v>
+      </c>
+      <c r="N150">
+        <v>20.92</v>
       </c>
       <c r="O150">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q150">
         <v>9.4</v>
@@ -31690,7 +31698,7 @@
         <v>31</v>
       </c>
       <c r="X150" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="Y150" t="s">
         <v>96</v>
@@ -31710,7 +31718,7 @@
         <v>3</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C151" t="s">
         <v>35</v>
@@ -31728,31 +31736,31 @@
         <v>117</v>
       </c>
       <c r="H151">
-        <v>126.08</v>
+        <v>139.9</v>
       </c>
       <c r="I151">
-        <v>83.92</v>
+        <v>44.3</v>
       </c>
       <c r="J151">
-        <v>83.92</v>
+        <v>44.3</v>
       </c>
       <c r="K151">
         <v>4</v>
       </c>
       <c r="L151">
-        <v>85.29</v>
+        <v>74.760000000000005</v>
       </c>
       <c r="M151">
-        <v>20.92</v>
+        <v>19.54</v>
       </c>
       <c r="N151">
-        <v>20.92</v>
+        <v>19.54</v>
       </c>
       <c r="O151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q151">
         <v>9.4</v>
@@ -31796,7 +31804,7 @@
         <v>3</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
         <v>35</v>
@@ -31814,31 +31822,31 @@
         <v>117</v>
       </c>
       <c r="H152">
-        <v>125.29</v>
+        <v>134.04</v>
       </c>
       <c r="I152">
-        <v>72.94</v>
+        <v>41.69</v>
       </c>
       <c r="J152">
-        <v>72.94</v>
+        <v>41.69</v>
       </c>
       <c r="K152">
         <v>4</v>
       </c>
       <c r="L152">
-        <v>85.29</v>
+        <v>74.760000000000005</v>
       </c>
       <c r="M152">
-        <v>20.92</v>
+        <v>19.54</v>
       </c>
       <c r="N152">
-        <v>20.92</v>
+        <v>19.54</v>
       </c>
       <c r="O152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q152">
         <v>9.4</v>
@@ -31879,67 +31887,67 @@
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="D153">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E153">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F153">
         <v>4</v>
       </c>
       <c r="G153" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="H153">
-        <v>139.9</v>
+        <v>154.1</v>
       </c>
       <c r="I153">
-        <v>44.3</v>
+        <v>26.52</v>
       </c>
       <c r="J153">
-        <v>44.3</v>
+        <v>26.52</v>
       </c>
       <c r="K153">
         <v>4</v>
       </c>
       <c r="L153">
-        <v>74.760000000000005</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="M153">
-        <v>19.54</v>
+        <v>12.7</v>
       </c>
       <c r="N153">
-        <v>19.54</v>
+        <v>12.7</v>
       </c>
       <c r="O153">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P153">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q153">
-        <v>9.4</v>
+        <v>3.3</v>
       </c>
       <c r="R153">
-        <v>56.5</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="S153" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T153" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U153" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V153" t="s">
         <v>31</v>
@@ -31948,191 +31956,183 @@
         <v>31</v>
       </c>
       <c r="X153" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="Y153" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z153">
-        <v>-40.573329999999999</v>
+        <v>51.41666</v>
       </c>
       <c r="AA153">
-        <v>-70.832499999999996</v>
+        <v>-122.15</v>
       </c>
       <c r="AB153">
-        <v>0.44740000000000002</v>
+        <v>0.45629999999999998</v>
       </c>
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A154">
+        <v>17</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154">
+        <v>2000</v>
+      </c>
+      <c r="E154">
+        <v>10</v>
+      </c>
+      <c r="F154">
         <v>3</v>
       </c>
-      <c r="B154">
-        <v>4</v>
-      </c>
-      <c r="C154" t="s">
-        <v>35</v>
-      </c>
-      <c r="D154">
-        <v>2010</v>
-      </c>
-      <c r="E154">
-        <v>40</v>
-      </c>
-      <c r="F154">
-        <v>4</v>
-      </c>
       <c r="G154" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="H154">
-        <v>134.04</v>
-      </c>
-      <c r="I154">
-        <v>41.69</v>
-      </c>
-      <c r="J154">
-        <v>41.69</v>
+        <v>49.5</v>
+      </c>
+      <c r="J154" s="2">
+        <f t="shared" ref="J154:J165" si="10">0.400619702*H154</f>
+        <v>19.830675249000002</v>
       </c>
       <c r="K154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L154">
-        <v>74.760000000000005</v>
-      </c>
-      <c r="M154">
-        <v>19.54</v>
-      </c>
-      <c r="N154">
-        <v>19.54</v>
+        <v>86.6</v>
+      </c>
+      <c r="N154" s="2">
+        <f t="shared" ref="N154:N165" si="11">0.478752551*L154</f>
+        <v>41.4599709166</v>
       </c>
       <c r="O154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q154">
-        <v>9.4</v>
+        <v>14.9</v>
       </c>
       <c r="R154">
-        <v>56.5</v>
+        <v>74.2</v>
       </c>
       <c r="S154" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T154" t="s">
         <v>29</v>
       </c>
       <c r="U154" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W154" t="s">
         <v>31</v>
       </c>
       <c r="X154" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="Y154" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Z154">
-        <v>-40.573329999999999</v>
+        <v>39.317166999999998</v>
       </c>
       <c r="AA154">
-        <v>-70.832499999999996</v>
+        <v>21.896909999999998</v>
       </c>
       <c r="AB154">
-        <v>0.44740000000000002</v>
+        <v>0.46450000000000002</v>
       </c>
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="D155">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="E155">
         <v>20</v>
       </c>
       <c r="F155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G155" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H155">
-        <v>154.1</v>
-      </c>
-      <c r="I155">
-        <v>26.52</v>
-      </c>
-      <c r="J155">
-        <v>26.52</v>
+        <v>63.5</v>
+      </c>
+      <c r="J155" s="2">
+        <f t="shared" si="10"/>
+        <v>25.439351077000001</v>
       </c>
       <c r="K155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L155">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="M155">
-        <v>12.7</v>
-      </c>
-      <c r="N155">
-        <v>12.7</v>
+        <v>86.6</v>
+      </c>
+      <c r="N155" s="2">
+        <f t="shared" si="11"/>
+        <v>41.4599709166</v>
       </c>
       <c r="O155">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P155">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="Q155">
-        <v>3.3</v>
+        <v>14.9</v>
       </c>
       <c r="R155">
-        <v>38.799999999999997</v>
+        <v>74.2</v>
       </c>
       <c r="S155" t="s">
         <v>41</v>
       </c>
       <c r="T155" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U155" t="s">
         <v>31</v>
       </c>
       <c r="V155" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W155" t="s">
         <v>31</v>
       </c>
       <c r="X155" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="Y155" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Z155">
-        <v>51.41666</v>
+        <v>39.317166999999998</v>
       </c>
       <c r="AA155">
-        <v>-122.15</v>
+        <v>21.896909999999998</v>
       </c>
       <c r="AB155">
-        <v>0.45629999999999998</v>
+        <v>0.46450000000000002</v>
       </c>
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.2">
@@ -32140,7 +32140,7 @@
         <v>17</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -32149,7 +32149,7 @@
         <v>2000</v>
       </c>
       <c r="E156">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F156">
         <v>3</v>
@@ -32158,11 +32158,11 @@
         <v>31</v>
       </c>
       <c r="H156">
-        <v>49.5</v>
+        <v>106.4</v>
       </c>
       <c r="J156" s="2">
-        <f t="shared" ref="J156:J167" si="10">0.400619702*H156</f>
-        <v>19.830675249000002</v>
+        <f t="shared" si="10"/>
+        <v>42.625936292800006</v>
       </c>
       <c r="K156">
         <v>3</v>
@@ -32171,7 +32171,7 @@
         <v>86.6</v>
       </c>
       <c r="N156" s="2">
-        <f t="shared" ref="N156:N167" si="11">0.478752551*L156</f>
+        <f t="shared" si="11"/>
         <v>41.4599709166</v>
       </c>
       <c r="O156">
@@ -32222,7 +32222,7 @@
         <v>17</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -32231,7 +32231,7 @@
         <v>2000</v>
       </c>
       <c r="E157">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F157">
         <v>3</v>
@@ -32240,11 +32240,11 @@
         <v>31</v>
       </c>
       <c r="H157">
-        <v>63.5</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="J157" s="2">
         <f t="shared" si="10"/>
-        <v>25.439351077000001</v>
+        <v>60.7740087934</v>
       </c>
       <c r="K157">
         <v>3</v>
@@ -32304,7 +32304,7 @@
         <v>17</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -32313,7 +32313,7 @@
         <v>2000</v>
       </c>
       <c r="E158">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F158">
         <v>3</v>
@@ -32322,11 +32322,11 @@
         <v>31</v>
       </c>
       <c r="H158">
-        <v>106.4</v>
+        <v>194.3</v>
       </c>
       <c r="J158" s="2">
         <f t="shared" si="10"/>
-        <v>42.625936292800006</v>
+        <v>77.840408098600008</v>
       </c>
       <c r="K158">
         <v>3</v>
@@ -32386,7 +32386,7 @@
         <v>17</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -32395,7 +32395,7 @@
         <v>2000</v>
       </c>
       <c r="E159">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F159">
         <v>3</v>
@@ -32404,11 +32404,11 @@
         <v>31</v>
       </c>
       <c r="H159">
-        <v>151.69999999999999</v>
+        <v>224.8</v>
       </c>
       <c r="J159" s="2">
         <f t="shared" si="10"/>
-        <v>60.7740087934</v>
+        <v>90.059309009600014</v>
       </c>
       <c r="K159">
         <v>3</v>
@@ -32468,7 +32468,7 @@
         <v>17</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -32477,7 +32477,7 @@
         <v>2000</v>
       </c>
       <c r="E160">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F160">
         <v>3</v>
@@ -32486,27 +32486,27 @@
         <v>31</v>
       </c>
       <c r="H160">
-        <v>194.3</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="J160" s="2">
         <f t="shared" si="10"/>
-        <v>77.840408098600008</v>
+        <v>15.503982467400002</v>
       </c>
       <c r="K160">
         <v>3</v>
       </c>
       <c r="L160">
-        <v>86.6</v>
+        <v>177</v>
       </c>
       <c r="N160" s="2">
         <f t="shared" si="11"/>
-        <v>41.4599709166</v>
+        <v>84.739201527000006</v>
       </c>
       <c r="O160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q160">
         <v>14.9</v>
@@ -32550,7 +32550,7 @@
         <v>17</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>68</v>
@@ -32559,7 +32559,7 @@
         <v>2000</v>
       </c>
       <c r="E161">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="F161">
         <v>3</v>
@@ -32568,27 +32568,27 @@
         <v>31</v>
       </c>
       <c r="H161">
-        <v>224.8</v>
+        <v>52.3</v>
       </c>
       <c r="J161" s="2">
         <f t="shared" si="10"/>
-        <v>90.059309009600014</v>
+        <v>20.952410414599999</v>
       </c>
       <c r="K161">
         <v>3</v>
       </c>
       <c r="L161">
-        <v>86.6</v>
+        <v>177</v>
       </c>
       <c r="N161" s="2">
         <f t="shared" si="11"/>
-        <v>41.4599709166</v>
+        <v>84.739201527000006</v>
       </c>
       <c r="O161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P161">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q161">
         <v>14.9</v>
@@ -32632,7 +32632,7 @@
         <v>17</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
         <v>68</v>
@@ -32641,7 +32641,7 @@
         <v>2000</v>
       </c>
       <c r="E162">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F162">
         <v>3</v>
@@ -32650,11 +32650,11 @@
         <v>31</v>
       </c>
       <c r="H162">
-        <v>38.700000000000003</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="J162" s="2">
         <f t="shared" si="10"/>
-        <v>15.503982467400002</v>
+        <v>28.484060812199999</v>
       </c>
       <c r="K162">
         <v>3</v>
@@ -32714,7 +32714,7 @@
         <v>17</v>
       </c>
       <c r="B163">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C163" t="s">
         <v>68</v>
@@ -32723,7 +32723,7 @@
         <v>2000</v>
       </c>
       <c r="E163">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F163">
         <v>3</v>
@@ -32732,11 +32732,11 @@
         <v>31</v>
       </c>
       <c r="H163">
-        <v>52.3</v>
+        <v>99</v>
       </c>
       <c r="J163" s="2">
         <f t="shared" si="10"/>
-        <v>20.952410414599999</v>
+        <v>39.661350498000004</v>
       </c>
       <c r="K163">
         <v>3</v>
@@ -32796,7 +32796,7 @@
         <v>17</v>
       </c>
       <c r="B164">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
         <v>68</v>
@@ -32805,7 +32805,7 @@
         <v>2000</v>
       </c>
       <c r="E164">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F164">
         <v>3</v>
@@ -32814,11 +32814,11 @@
         <v>31</v>
       </c>
       <c r="H164">
-        <v>71.099999999999994</v>
+        <v>122.2</v>
       </c>
       <c r="J164" s="2">
         <f t="shared" si="10"/>
-        <v>28.484060812199999</v>
+        <v>48.955727584400002</v>
       </c>
       <c r="K164">
         <v>3</v>
@@ -32878,7 +32878,7 @@
         <v>17</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C165" t="s">
         <v>68</v>
@@ -32887,7 +32887,7 @@
         <v>2000</v>
       </c>
       <c r="E165">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F165">
         <v>3</v>
@@ -32896,11 +32896,11 @@
         <v>31</v>
       </c>
       <c r="H165">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="J165" s="2">
         <f t="shared" si="10"/>
-        <v>39.661350498000004</v>
+        <v>56.887997684000005</v>
       </c>
       <c r="K165">
         <v>3</v>
@@ -32957,54 +32957,58 @@
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D166">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="E166">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F166">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H166">
-        <v>122.2</v>
+        <v>31</v>
+      </c>
+      <c r="I166">
+        <v>15.839191899999999</v>
       </c>
       <c r="J166" s="2">
-        <f t="shared" si="10"/>
-        <v>48.955727584400002</v>
+        <v>15.839191899999999</v>
       </c>
       <c r="K166">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L166">
-        <v>177</v>
+        <v>0.2</v>
+      </c>
+      <c r="M166" s="2">
+        <v>0.311126984</v>
       </c>
       <c r="N166" s="2">
-        <f t="shared" si="11"/>
-        <v>84.739201527000006</v>
+        <v>0.311126984</v>
       </c>
       <c r="O166">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P166">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q166">
-        <v>14.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R166">
-        <v>74.2</v>
+        <v>44.8</v>
       </c>
       <c r="S166" t="s">
         <v>41</v>
@@ -33022,71 +33026,75 @@
         <v>31</v>
       </c>
       <c r="X166" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="Y166" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Z166">
-        <v>39.317166999999998</v>
+        <v>50.473109999999998</v>
       </c>
       <c r="AA166">
-        <v>21.896909999999998</v>
+        <v>-121.0218</v>
       </c>
       <c r="AB166">
-        <v>0.46450000000000002</v>
+        <v>0.46660000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B167">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D167">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="E167">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F167">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H167">
-        <v>142</v>
+        <v>43.3</v>
+      </c>
+      <c r="I167">
+        <v>19.516147159999999</v>
       </c>
       <c r="J167" s="2">
-        <f t="shared" si="10"/>
-        <v>56.887997684000005</v>
+        <v>19.516147159999999</v>
       </c>
       <c r="K167">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L167">
-        <v>177</v>
+        <v>0.2</v>
+      </c>
+      <c r="M167" s="2">
+        <v>0.311126984</v>
       </c>
       <c r="N167" s="2">
-        <f t="shared" si="11"/>
-        <v>84.739201527000006</v>
+        <v>0.311126984</v>
       </c>
       <c r="O167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P167">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q167">
-        <v>14.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R167">
-        <v>74.2</v>
+        <v>44.8</v>
       </c>
       <c r="S167" t="s">
         <v>41</v>
@@ -33104,19 +33112,19 @@
         <v>31</v>
       </c>
       <c r="X167" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="Y167" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Z167">
-        <v>39.317166999999998</v>
+        <v>50.473109999999998</v>
       </c>
       <c r="AA167">
-        <v>21.896909999999998</v>
+        <v>-121.0218</v>
       </c>
       <c r="AB167">
-        <v>0.46450000000000002</v>
+        <v>0.46660000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.2">
@@ -33124,7 +33132,7 @@
         <v>37</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C168" t="s">
         <v>101</v>
@@ -33133,7 +33141,7 @@
         <v>2012</v>
       </c>
       <c r="E168">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F168">
         <v>8</v>
@@ -33142,13 +33150,13 @@
         <v>52</v>
       </c>
       <c r="H168">
-        <v>31</v>
+        <v>47.5</v>
       </c>
       <c r="I168">
-        <v>15.839191899999999</v>
+        <v>19.516147159999999</v>
       </c>
       <c r="J168" s="2">
-        <v>15.839191899999999</v>
+        <v>19.516147159999999</v>
       </c>
       <c r="K168">
         <v>8</v>
@@ -33210,7 +33218,7 @@
         <v>37</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C169" t="s">
         <v>101</v>
@@ -33219,7 +33227,7 @@
         <v>2012</v>
       </c>
       <c r="E169">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F169">
         <v>8</v>
@@ -33228,13 +33236,13 @@
         <v>52</v>
       </c>
       <c r="H169">
-        <v>43.3</v>
+        <v>37.5</v>
       </c>
       <c r="I169">
-        <v>19.516147159999999</v>
+        <v>9.3338095120000002</v>
       </c>
       <c r="J169" s="2">
-        <v>19.516147159999999</v>
+        <v>9.3338095120000002</v>
       </c>
       <c r="K169">
         <v>8</v>
@@ -33296,7 +33304,7 @@
         <v>37</v>
       </c>
       <c r="B170">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>101</v>
@@ -33305,7 +33313,7 @@
         <v>2012</v>
       </c>
       <c r="E170">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F170">
         <v>8</v>
@@ -33314,13 +33322,13 @@
         <v>52</v>
       </c>
       <c r="H170">
-        <v>47.5</v>
+        <v>43.5</v>
       </c>
       <c r="I170">
-        <v>19.516147159999999</v>
+        <v>19.233304449999999</v>
       </c>
       <c r="J170" s="2">
-        <v>19.516147159999999</v>
+        <v>19.233304449999999</v>
       </c>
       <c r="K170">
         <v>8</v>
@@ -33382,7 +33390,7 @@
         <v>37</v>
       </c>
       <c r="B171">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>101</v>
@@ -33391,7 +33399,7 @@
         <v>2012</v>
       </c>
       <c r="E171">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F171">
         <v>8</v>
@@ -33400,31 +33408,31 @@
         <v>52</v>
       </c>
       <c r="H171">
-        <v>37.5</v>
+        <v>178</v>
       </c>
       <c r="I171">
-        <v>9.3338095120000002</v>
+        <v>85.418499170000004</v>
       </c>
       <c r="J171" s="2">
-        <v>9.3338095120000002</v>
+        <v>85.418499170000004</v>
       </c>
       <c r="K171">
         <v>8</v>
       </c>
       <c r="L171">
-        <v>0.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M171" s="2">
-        <v>0.311126984</v>
+        <v>1.7536248169999999</v>
       </c>
       <c r="N171" s="2">
-        <v>0.311126984</v>
+        <v>1.7536248169999999</v>
       </c>
       <c r="O171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q171">
         <v>2.2999999999999998</v>
@@ -33468,7 +33476,7 @@
         <v>37</v>
       </c>
       <c r="B172">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>101</v>
@@ -33477,7 +33485,7 @@
         <v>2012</v>
       </c>
       <c r="E172">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F172">
         <v>8</v>
@@ -33486,31 +33494,31 @@
         <v>52</v>
       </c>
       <c r="H172">
-        <v>43.5</v>
+        <v>204.1</v>
       </c>
       <c r="I172">
-        <v>19.233304449999999</v>
+        <v>73.539105239999998</v>
       </c>
       <c r="J172" s="2">
-        <v>19.233304449999999</v>
+        <v>73.539105239999998</v>
       </c>
       <c r="K172">
         <v>8</v>
       </c>
       <c r="L172">
-        <v>0.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M172" s="2">
-        <v>0.311126984</v>
+        <v>1.7536248169999999</v>
       </c>
       <c r="N172" s="2">
-        <v>0.311126984</v>
+        <v>1.7536248169999999</v>
       </c>
       <c r="O172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q172">
         <v>2.2999999999999998</v>
@@ -33554,7 +33562,7 @@
         <v>37</v>
       </c>
       <c r="B173">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>101</v>
@@ -33563,7 +33571,7 @@
         <v>2012</v>
       </c>
       <c r="E173">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F173">
         <v>8</v>
@@ -33572,13 +33580,13 @@
         <v>52</v>
       </c>
       <c r="H173">
-        <v>178</v>
+        <v>189.8</v>
       </c>
       <c r="I173">
-        <v>85.418499170000004</v>
+        <v>132.37038939999999</v>
       </c>
       <c r="J173" s="2">
-        <v>85.418499170000004</v>
+        <v>132.37038939999999</v>
       </c>
       <c r="K173">
         <v>8</v>
@@ -33640,7 +33648,7 @@
         <v>37</v>
       </c>
       <c r="B174">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
         <v>101</v>
@@ -33649,7 +33657,7 @@
         <v>2012</v>
       </c>
       <c r="E174">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F174">
         <v>8</v>
@@ -33658,13 +33666,13 @@
         <v>52</v>
       </c>
       <c r="H174">
-        <v>204.1</v>
+        <v>224.8</v>
       </c>
       <c r="I174">
-        <v>73.539105239999998</v>
-      </c>
-      <c r="J174" s="2">
-        <v>73.539105239999998</v>
+        <v>149.4</v>
+      </c>
+      <c r="J174">
+        <v>149.4</v>
       </c>
       <c r="K174">
         <v>8</v>
@@ -33726,7 +33734,7 @@
         <v>37</v>
       </c>
       <c r="B175">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C175" t="s">
         <v>101</v>
@@ -33735,7 +33743,7 @@
         <v>2012</v>
       </c>
       <c r="E175">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F175">
         <v>8</v>
@@ -33744,13 +33752,13 @@
         <v>52</v>
       </c>
       <c r="H175">
-        <v>189.8</v>
+        <v>226.9</v>
       </c>
       <c r="I175">
-        <v>132.37038939999999</v>
+        <v>129.54196229999999</v>
       </c>
       <c r="J175" s="2">
-        <v>132.37038939999999</v>
+        <v>129.54196229999999</v>
       </c>
       <c r="K175">
         <v>8</v>
@@ -33812,7 +33820,7 @@
         <v>37</v>
       </c>
       <c r="B176">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
         <v>101</v>
@@ -33821,7 +33829,7 @@
         <v>2012</v>
       </c>
       <c r="E176">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F176">
         <v>8</v>
@@ -33830,31 +33838,31 @@
         <v>52</v>
       </c>
       <c r="H176">
-        <v>224.8</v>
+        <v>2.6</v>
       </c>
       <c r="I176">
-        <v>149.4</v>
-      </c>
-      <c r="J176">
-        <v>149.4</v>
+        <v>1.81019336</v>
+      </c>
+      <c r="J176" s="2">
+        <v>1.81019336</v>
       </c>
       <c r="K176">
         <v>8</v>
       </c>
       <c r="L176">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="M176" s="2">
-        <v>1.7536248169999999</v>
-      </c>
-      <c r="N176" s="2">
-        <v>1.7536248169999999</v>
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
       </c>
       <c r="O176">
+        <v>1</v>
+      </c>
+      <c r="P176">
         <v>2</v>
-      </c>
-      <c r="P176">
-        <v>3</v>
       </c>
       <c r="Q176">
         <v>2.2999999999999998</v>
@@ -33898,7 +33906,7 @@
         <v>37</v>
       </c>
       <c r="B177">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C177" t="s">
         <v>101</v>
@@ -33907,7 +33915,7 @@
         <v>2012</v>
       </c>
       <c r="E177">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F177">
         <v>8</v>
@@ -33916,31 +33924,31 @@
         <v>52</v>
       </c>
       <c r="H177">
-        <v>226.9</v>
+        <v>2.9</v>
       </c>
       <c r="I177">
-        <v>129.54196229999999</v>
+        <v>2.4041630559999998</v>
       </c>
       <c r="J177" s="2">
-        <v>129.54196229999999</v>
+        <v>2.4041630559999998</v>
       </c>
       <c r="K177">
         <v>8</v>
       </c>
       <c r="L177">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="M177" s="2">
-        <v>1.7536248169999999</v>
-      </c>
-      <c r="N177" s="2">
-        <v>1.7536248169999999</v>
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
       </c>
       <c r="O177">
+        <v>1</v>
+      </c>
+      <c r="P177">
         <v>2</v>
-      </c>
-      <c r="P177">
-        <v>3</v>
       </c>
       <c r="Q177">
         <v>2.2999999999999998</v>
@@ -33984,7 +33992,7 @@
         <v>37</v>
       </c>
       <c r="B178">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
         <v>101</v>
@@ -33993,7 +34001,7 @@
         <v>2012</v>
       </c>
       <c r="E178">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F178">
         <v>8</v>
@@ -34002,13 +34010,13 @@
         <v>52</v>
       </c>
       <c r="H178">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="I178">
-        <v>1.81019336</v>
+        <v>2.8001428530000001</v>
       </c>
       <c r="J178" s="2">
-        <v>1.81019336</v>
+        <v>2.8001428530000001</v>
       </c>
       <c r="K178">
         <v>8</v>
@@ -34070,7 +34078,7 @@
         <v>37</v>
       </c>
       <c r="B179">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C179" t="s">
         <v>101</v>
@@ -34079,7 +34087,7 @@
         <v>2012</v>
       </c>
       <c r="E179">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F179">
         <v>8</v>
@@ -34088,13 +34096,13 @@
         <v>52</v>
       </c>
       <c r="H179">
-        <v>2.9</v>
+        <v>7.1</v>
       </c>
       <c r="I179">
-        <v>2.4041630559999998</v>
+        <v>0.42426406900000002</v>
       </c>
       <c r="J179" s="2">
-        <v>2.4041630559999998</v>
+        <v>0.42426406900000002</v>
       </c>
       <c r="K179">
         <v>8</v>
@@ -34156,7 +34164,7 @@
         <v>37</v>
       </c>
       <c r="B180">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C180" t="s">
         <v>101</v>
@@ -34165,7 +34173,7 @@
         <v>2012</v>
       </c>
       <c r="E180">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F180">
         <v>8</v>
@@ -34174,13 +34182,13 @@
         <v>52</v>
       </c>
       <c r="H180">
-        <v>6.5</v>
+        <v>9.1</v>
       </c>
       <c r="I180">
-        <v>2.8001428530000001</v>
+        <v>0.50911688200000005</v>
       </c>
       <c r="J180" s="2">
-        <v>2.8001428530000001</v>
+        <v>0.50911688200000005</v>
       </c>
       <c r="K180">
         <v>8</v>
@@ -34242,7 +34250,7 @@
         <v>37</v>
       </c>
       <c r="B181">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
         <v>101</v>
@@ -34251,7 +34259,7 @@
         <v>2012</v>
       </c>
       <c r="E181">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F181">
         <v>8</v>
@@ -34260,13 +34268,13 @@
         <v>52</v>
       </c>
       <c r="H181">
-        <v>7.1</v>
+        <v>10.8</v>
       </c>
       <c r="I181">
-        <v>0.42426406900000002</v>
+        <v>10.74802307</v>
       </c>
       <c r="J181" s="2">
-        <v>0.42426406900000002</v>
+        <v>10.74802307</v>
       </c>
       <c r="K181">
         <v>8</v>
@@ -34281,10 +34289,10 @@
         <v>0</v>
       </c>
       <c r="O181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q181">
         <v>2.2999999999999998</v>
@@ -34328,7 +34336,7 @@
         <v>37</v>
       </c>
       <c r="B182">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C182" t="s">
         <v>101</v>
@@ -34337,7 +34345,7 @@
         <v>2012</v>
       </c>
       <c r="E182">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F182">
         <v>8</v>
@@ -34346,13 +34354,13 @@
         <v>52</v>
       </c>
       <c r="H182">
-        <v>9.1</v>
+        <v>19.2</v>
       </c>
       <c r="I182">
-        <v>0.50911688200000005</v>
+        <v>10.46518036</v>
       </c>
       <c r="J182" s="2">
-        <v>0.50911688200000005</v>
+        <v>10.46518036</v>
       </c>
       <c r="K182">
         <v>8</v>
@@ -34367,10 +34375,10 @@
         <v>0</v>
       </c>
       <c r="O182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q182">
         <v>2.2999999999999998</v>
@@ -34414,7 +34422,7 @@
         <v>37</v>
       </c>
       <c r="B183">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C183" t="s">
         <v>101</v>
@@ -34423,7 +34431,7 @@
         <v>2012</v>
       </c>
       <c r="E183">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F183">
         <v>8</v>
@@ -34432,13 +34440,13 @@
         <v>52</v>
       </c>
       <c r="H183">
-        <v>10.8</v>
+        <v>34</v>
       </c>
       <c r="I183">
-        <v>10.74802307</v>
+        <v>16.970562749999999</v>
       </c>
       <c r="J183" s="2">
-        <v>10.74802307</v>
+        <v>16.970562749999999</v>
       </c>
       <c r="K183">
         <v>8</v>
@@ -34500,7 +34508,7 @@
         <v>37</v>
       </c>
       <c r="B184">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C184" t="s">
         <v>101</v>
@@ -34509,7 +34517,7 @@
         <v>2012</v>
       </c>
       <c r="E184">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F184">
         <v>8</v>
@@ -34518,13 +34526,13 @@
         <v>52</v>
       </c>
       <c r="H184">
-        <v>19.2</v>
+        <v>31</v>
       </c>
       <c r="I184">
-        <v>10.46518036</v>
+        <v>16.687720039999999</v>
       </c>
       <c r="J184" s="2">
-        <v>10.46518036</v>
+        <v>16.687720039999999</v>
       </c>
       <c r="K184">
         <v>8</v>
@@ -34586,7 +34594,7 @@
         <v>37</v>
       </c>
       <c r="B185">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C185" t="s">
         <v>101</v>
@@ -34595,7 +34603,7 @@
         <v>2012</v>
       </c>
       <c r="E185">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F185">
         <v>8</v>
@@ -34604,13 +34612,13 @@
         <v>52</v>
       </c>
       <c r="H185">
-        <v>34</v>
+        <v>45.3</v>
       </c>
       <c r="I185">
-        <v>16.970562749999999</v>
+        <v>12.44507935</v>
       </c>
       <c r="J185" s="2">
-        <v>16.970562749999999</v>
+        <v>12.44507935</v>
       </c>
       <c r="K185">
         <v>8</v>
@@ -34669,61 +34677,61 @@
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B186">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D186">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="E186">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="F186">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G186" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="H186">
-        <v>31</v>
+        <v>768.7</v>
       </c>
       <c r="I186">
-        <v>16.687720039999999</v>
-      </c>
-      <c r="J186" s="2">
-        <v>16.687720039999999</v>
+        <v>323.3</v>
+      </c>
+      <c r="J186">
+        <v>323.3</v>
       </c>
       <c r="K186">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L186">
-        <v>0</v>
+        <v>293.8</v>
       </c>
       <c r="M186">
-        <v>0</v>
+        <v>262.10000000000002</v>
       </c>
       <c r="N186">
-        <v>0</v>
+        <v>262.10000000000002</v>
       </c>
       <c r="O186">
-        <v>2</v>
+        <v>2.58</v>
       </c>
       <c r="P186">
         <v>3</v>
       </c>
       <c r="Q186">
-        <v>2.2999999999999998</v>
+        <v>14.5</v>
       </c>
       <c r="R186">
-        <v>44.8</v>
+        <v>77.8</v>
       </c>
       <c r="S186" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T186" t="s">
         <v>29</v>
@@ -34738,36 +34746,36 @@
         <v>31</v>
       </c>
       <c r="X186" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Y186" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z186">
-        <v>50.473109999999998</v>
+        <v>42.036110000000001</v>
       </c>
       <c r="AA186">
-        <v>-121.0218</v>
+        <v>2.8172199999999998</v>
       </c>
       <c r="AB186">
-        <v>0.46660000000000001</v>
+        <v>0.51649999999999996</v>
       </c>
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B187">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D187">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="E187">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F187">
         <v>8</v>
@@ -34776,37 +34784,37 @@
         <v>52</v>
       </c>
       <c r="H187">
-        <v>45.3</v>
+        <v>598</v>
       </c>
       <c r="I187">
-        <v>12.44507935</v>
-      </c>
-      <c r="J187" s="2">
-        <v>12.44507935</v>
+        <v>151</v>
+      </c>
+      <c r="J187">
+        <v>151</v>
       </c>
       <c r="K187">
         <v>8</v>
       </c>
       <c r="L187">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="M187">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="N187">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="O187">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="P187">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q187">
-        <v>2.2999999999999998</v>
+        <v>3.4</v>
       </c>
       <c r="R187">
-        <v>44.8</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="S187" t="s">
         <v>41</v>
@@ -34830,72 +34838,72 @@
         <v>98</v>
       </c>
       <c r="Z187">
-        <v>50.473109999999998</v>
+        <v>50.511940000000003</v>
       </c>
       <c r="AA187">
-        <v>-121.0218</v>
+        <v>-120.97472</v>
       </c>
       <c r="AB187">
-        <v>0.46660000000000001</v>
+        <v>0.56010000000000004</v>
       </c>
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="D188">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="E188">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F188">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G188" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="H188">
-        <v>768.7</v>
+        <v>666</v>
       </c>
       <c r="I188">
-        <v>323.3</v>
+        <v>170</v>
       </c>
       <c r="J188">
-        <v>323.3</v>
+        <v>170</v>
       </c>
       <c r="K188">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L188">
-        <v>293.8</v>
+        <v>43.5</v>
       </c>
       <c r="M188">
-        <v>262.10000000000002</v>
+        <v>10.5</v>
       </c>
       <c r="N188">
-        <v>262.10000000000002</v>
+        <v>10.5</v>
       </c>
       <c r="O188">
-        <v>2.58</v>
+        <v>13</v>
       </c>
       <c r="P188">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q188">
-        <v>14.5</v>
+        <v>3.4</v>
       </c>
       <c r="R188">
-        <v>77.8</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="S188" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T188" t="s">
         <v>29</v>
@@ -34910,422 +34918,418 @@
         <v>31</v>
       </c>
       <c r="X188" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="Y188" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Z188">
-        <v>42.036110000000001</v>
+        <v>50.511940000000003</v>
       </c>
       <c r="AA188">
-        <v>2.8172199999999998</v>
+        <v>-120.97472</v>
       </c>
       <c r="AB188">
-        <v>0.51649999999999996</v>
+        <v>0.56010000000000004</v>
       </c>
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D189">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E189">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F189">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G189" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="H189">
-        <v>598</v>
+        <v>269.10000000000002</v>
       </c>
       <c r="I189">
-        <v>151</v>
+        <v>77.94</v>
       </c>
       <c r="J189">
-        <v>151</v>
+        <v>77.94</v>
       </c>
       <c r="K189">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L189">
-        <v>42.5</v>
+        <v>116.87</v>
       </c>
       <c r="M189">
-        <v>10.5</v>
+        <v>47.98</v>
       </c>
       <c r="N189">
-        <v>10.5</v>
+        <v>47.98</v>
       </c>
       <c r="O189">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="P189">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q189">
-        <v>3.4</v>
+        <v>10.7</v>
       </c>
       <c r="R189">
-        <v>39.200000000000003</v>
+        <v>95.3</v>
       </c>
       <c r="S189" t="s">
         <v>41</v>
       </c>
       <c r="T189" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U189" t="s">
         <v>31</v>
       </c>
       <c r="V189" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W189" t="s">
         <v>31</v>
       </c>
       <c r="X189" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="Y189" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z189">
-        <v>50.511940000000003</v>
+        <v>42.716670000000001</v>
       </c>
       <c r="AA189">
-        <v>-120.97472</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="AB189">
-        <v>0.56010000000000004</v>
+        <v>0.65369999999999995</v>
       </c>
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B190">
         <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D190">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E190">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F190">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G190" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="H190">
-        <v>666</v>
+        <v>406.48</v>
       </c>
       <c r="I190">
-        <v>170</v>
+        <v>171.31</v>
       </c>
       <c r="J190">
-        <v>170</v>
+        <v>171.31</v>
       </c>
       <c r="K190">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L190">
-        <v>43.5</v>
+        <v>167.61</v>
       </c>
       <c r="M190">
-        <v>10.5</v>
+        <v>70.38</v>
       </c>
       <c r="N190">
-        <v>10.5</v>
+        <v>70.38</v>
       </c>
       <c r="O190">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P190">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="Q190">
-        <v>3.4</v>
+        <v>10.7</v>
       </c>
       <c r="R190">
-        <v>39.200000000000003</v>
+        <v>95.3</v>
       </c>
       <c r="S190" t="s">
         <v>41</v>
       </c>
       <c r="T190" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U190" t="s">
         <v>31</v>
       </c>
       <c r="V190" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W190" t="s">
         <v>31</v>
       </c>
       <c r="X190" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="Y190" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z190">
-        <v>50.511940000000003</v>
+        <v>42.716670000000001</v>
       </c>
       <c r="AA190">
-        <v>-120.97472</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="AB190">
-        <v>0.56010000000000004</v>
+        <v>0.65369999999999995</v>
       </c>
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D191">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E191">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="F191">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G191" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="H191">
-        <v>269.10000000000002</v>
+        <v>14.6</v>
       </c>
       <c r="I191">
-        <v>77.94</v>
+        <v>4.2</v>
       </c>
       <c r="J191">
-        <v>77.94</v>
+        <v>4.2</v>
       </c>
       <c r="K191">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L191">
-        <v>116.87</v>
+        <v>0</v>
       </c>
       <c r="M191">
-        <v>47.98</v>
+        <v>0</v>
       </c>
       <c r="N191">
-        <v>47.98</v>
+        <v>0</v>
       </c>
       <c r="O191">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P191">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q191">
-        <v>10.7</v>
+        <v>14</v>
       </c>
       <c r="R191">
-        <v>95.3</v>
+        <v>108.7</v>
       </c>
       <c r="S191" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T191" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U191" t="s">
         <v>31</v>
       </c>
       <c r="V191" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W191" t="s">
         <v>31</v>
       </c>
       <c r="X191" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="Y191" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Z191">
-        <v>42.716670000000001</v>
+        <v>37.084159999999997</v>
       </c>
       <c r="AA191">
-        <v>-1.2166699999999999</v>
+        <v>-94.513050000000007</v>
       </c>
       <c r="AB191">
-        <v>0.65369999999999995</v>
+        <v>0.75939999999999996</v>
       </c>
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B192">
         <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D192">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E192">
-        <v>50</v>
+        <v>336</v>
       </c>
       <c r="F192">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G192" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="H192">
-        <v>406.48</v>
+        <v>47.1</v>
       </c>
       <c r="I192">
-        <v>171.31</v>
+        <v>20.8</v>
       </c>
       <c r="J192">
-        <v>171.31</v>
+        <v>20.8</v>
       </c>
       <c r="K192">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L192">
-        <v>167.61</v>
+        <v>0</v>
       </c>
       <c r="M192">
-        <v>70.38</v>
+        <v>0</v>
       </c>
       <c r="N192">
-        <v>70.38</v>
+        <v>0</v>
       </c>
       <c r="O192">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P192">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q192">
-        <v>10.7</v>
+        <v>14</v>
       </c>
       <c r="R192">
-        <v>95.3</v>
+        <v>108.7</v>
       </c>
       <c r="S192" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T192" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U192" t="s">
         <v>31</v>
       </c>
       <c r="V192" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W192" t="s">
         <v>31</v>
       </c>
       <c r="X192" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="Y192" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Z192">
-        <v>42.716670000000001</v>
+        <v>37.084159999999997</v>
       </c>
       <c r="AA192">
-        <v>-1.2166699999999999</v>
+        <v>-94.513050000000007</v>
       </c>
       <c r="AB192">
-        <v>0.65369999999999995</v>
+        <v>0.75939999999999996</v>
       </c>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D193">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E193">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="F193">
+        <v>4</v>
+      </c>
+      <c r="G193" t="s">
+        <v>31</v>
+      </c>
+      <c r="H193">
+        <v>744</v>
+      </c>
+      <c r="J193" s="2">
+        <f t="shared" ref="J193:J201" si="12">0.400619702*H193</f>
+        <v>298.06105828800003</v>
+      </c>
+      <c r="K193">
+        <v>4</v>
+      </c>
+      <c r="L193">
+        <v>2080</v>
+      </c>
+      <c r="N193" s="2">
+        <f t="shared" ref="N193:N201" si="13">0.478752551*L193</f>
+        <v>995.80530608000004</v>
+      </c>
+      <c r="O193">
+        <v>2.5</v>
+      </c>
+      <c r="P193">
         <v>3</v>
       </c>
-      <c r="G193" t="s">
-        <v>28</v>
-      </c>
-      <c r="H193">
-        <v>14.6</v>
-      </c>
-      <c r="I193">
-        <v>4.2</v>
-      </c>
-      <c r="J193">
-        <v>4.2</v>
-      </c>
-      <c r="K193">
-        <v>3</v>
-      </c>
-      <c r="L193">
-        <v>0</v>
-      </c>
-      <c r="M193">
-        <v>0</v>
-      </c>
-      <c r="N193">
-        <v>0</v>
-      </c>
-      <c r="O193">
-        <v>12</v>
-      </c>
-      <c r="P193">
-        <v>13</v>
-      </c>
       <c r="Q193">
-        <v>14</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="R193">
-        <v>108.7</v>
+        <v>93.4</v>
       </c>
       <c r="S193" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T193" t="s">
         <v>29</v>
@@ -35340,75 +35344,71 @@
         <v>31</v>
       </c>
       <c r="X193" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="Y193" t="s">
         <v>95</v>
       </c>
       <c r="Z193">
-        <v>37.084159999999997</v>
+        <v>41.798609999999996</v>
       </c>
       <c r="AA193">
-        <v>-94.513050000000007</v>
+        <v>-87.969440000000006</v>
       </c>
       <c r="AB193">
-        <v>0.75939999999999996</v>
+        <v>0.80220000000000002</v>
       </c>
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B194">
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D194">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E194">
-        <v>336</v>
+        <v>202</v>
       </c>
       <c r="F194">
+        <v>4</v>
+      </c>
+      <c r="G194" t="s">
+        <v>31</v>
+      </c>
+      <c r="H194">
+        <v>566</v>
+      </c>
+      <c r="J194" s="2">
+        <f t="shared" si="12"/>
+        <v>226.75075133200002</v>
+      </c>
+      <c r="K194">
+        <v>4</v>
+      </c>
+      <c r="L194">
+        <v>2080</v>
+      </c>
+      <c r="N194" s="2">
+        <f t="shared" si="13"/>
+        <v>995.80530608000004</v>
+      </c>
+      <c r="O194">
+        <v>2.5</v>
+      </c>
+      <c r="P194">
         <v>3</v>
       </c>
-      <c r="G194" t="s">
-        <v>28</v>
-      </c>
-      <c r="H194">
-        <v>47.1</v>
-      </c>
-      <c r="I194">
-        <v>20.8</v>
-      </c>
-      <c r="J194">
-        <v>20.8</v>
-      </c>
-      <c r="K194">
-        <v>3</v>
-      </c>
-      <c r="L194">
-        <v>0</v>
-      </c>
-      <c r="M194">
-        <v>0</v>
-      </c>
-      <c r="N194">
-        <v>0</v>
-      </c>
-      <c r="O194">
-        <v>12</v>
-      </c>
-      <c r="P194">
-        <v>13</v>
-      </c>
       <c r="Q194">
-        <v>14</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="R194">
-        <v>108.7</v>
+        <v>93.4</v>
       </c>
       <c r="S194" t="s">
         <v>33</v>
@@ -35426,19 +35426,19 @@
         <v>31</v>
       </c>
       <c r="X194" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="Y194" t="s">
         <v>95</v>
       </c>
       <c r="Z194">
-        <v>37.084159999999997</v>
+        <v>41.798609999999996</v>
       </c>
       <c r="AA194">
-        <v>-94.513050000000007</v>
+        <v>-87.969440000000006</v>
       </c>
       <c r="AB194">
-        <v>0.75939999999999996</v>
+        <v>0.80220000000000002</v>
       </c>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.2">
@@ -35446,7 +35446,7 @@
         <v>32</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C195" t="s">
         <v>114</v>
@@ -35455,7 +35455,7 @@
         <v>2015</v>
       </c>
       <c r="E195">
-        <v>202</v>
+        <v>404</v>
       </c>
       <c r="F195">
         <v>4</v>
@@ -35464,11 +35464,11 @@
         <v>31</v>
       </c>
       <c r="H195">
-        <v>744</v>
+        <v>459</v>
       </c>
       <c r="J195" s="2">
-        <f t="shared" ref="J195:J203" si="12">0.400619702*H195</f>
-        <v>298.06105828800003</v>
+        <f t="shared" si="12"/>
+        <v>183.884443218</v>
       </c>
       <c r="K195">
         <v>4</v>
@@ -35477,7 +35477,7 @@
         <v>2080</v>
       </c>
       <c r="N195" s="2">
-        <f t="shared" ref="N195:N203" si="13">0.478752551*L195</f>
+        <f t="shared" si="13"/>
         <v>995.80530608000004</v>
       </c>
       <c r="O195">
@@ -35525,57 +35525,57 @@
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D196">
-        <v>2015</v>
+        <v>1988</v>
       </c>
       <c r="E196">
-        <v>202</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="F196">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G196" t="s">
         <v>31</v>
       </c>
       <c r="H196">
-        <v>566</v>
+        <v>1048</v>
       </c>
       <c r="J196" s="2">
         <f t="shared" si="12"/>
-        <v>226.75075133200002</v>
+        <v>419.84944769600003</v>
       </c>
       <c r="K196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L196">
-        <v>2080</v>
+        <v>733</v>
       </c>
       <c r="N196" s="2">
         <f t="shared" si="13"/>
-        <v>995.80530608000004</v>
+        <v>350.92561988300002</v>
       </c>
       <c r="O196">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="P196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q196">
-        <v>9.6999999999999993</v>
+        <v>11.1</v>
       </c>
       <c r="R196">
-        <v>93.4</v>
+        <v>104.8</v>
       </c>
       <c r="S196" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T196" t="s">
         <v>29</v>
@@ -35587,74 +35587,74 @@
         <v>29</v>
       </c>
       <c r="W196" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X196" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Y196" t="s">
         <v>95</v>
       </c>
       <c r="Z196">
-        <v>41.798609999999996</v>
+        <v>39.5</v>
       </c>
       <c r="AA196">
-        <v>-87.969440000000006</v>
+        <v>-84.733329999999995</v>
       </c>
       <c r="AB196">
-        <v>0.80220000000000002</v>
+        <v>0.87609999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197" t="s">
+        <v>120</v>
+      </c>
+      <c r="D197">
+        <v>1988</v>
+      </c>
+      <c r="E197">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="F197">
         <v>3</v>
       </c>
-      <c r="C197" t="s">
-        <v>114</v>
-      </c>
-      <c r="D197">
-        <v>2015</v>
-      </c>
-      <c r="E197">
-        <v>404</v>
-      </c>
-      <c r="F197">
-        <v>4</v>
-      </c>
       <c r="G197" t="s">
         <v>31</v>
       </c>
       <c r="H197">
-        <v>459</v>
+        <v>747</v>
       </c>
       <c r="J197" s="2">
         <f t="shared" si="12"/>
-        <v>183.884443218</v>
+        <v>299.262917394</v>
       </c>
       <c r="K197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L197">
-        <v>2080</v>
+        <v>465</v>
       </c>
       <c r="N197" s="2">
         <f t="shared" si="13"/>
-        <v>995.80530608000004</v>
+        <v>222.61993621500002</v>
       </c>
       <c r="O197">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="P197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q197">
-        <v>9.6999999999999993</v>
+        <v>11.1</v>
       </c>
       <c r="R197">
-        <v>93.4</v>
+        <v>104.8</v>
       </c>
       <c r="S197" t="s">
         <v>41</v>
@@ -35669,22 +35669,22 @@
         <v>29</v>
       </c>
       <c r="W197" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X197" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Y197" t="s">
         <v>95</v>
       </c>
       <c r="Z197">
-        <v>41.798609999999996</v>
+        <v>39.5</v>
       </c>
       <c r="AA197">
-        <v>-87.969440000000006</v>
+        <v>-84.733329999999995</v>
       </c>
       <c r="AB197">
-        <v>0.80220000000000002</v>
+        <v>0.87609999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.2">
@@ -35692,7 +35692,7 @@
         <v>36</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C198" t="s">
         <v>120</v>
@@ -35701,7 +35701,7 @@
         <v>1988</v>
       </c>
       <c r="E198">
-        <v>8.9600000000000009</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="F198">
         <v>3</v>
@@ -35710,27 +35710,27 @@
         <v>31</v>
       </c>
       <c r="H198">
-        <v>1048</v>
+        <v>1142</v>
       </c>
       <c r="J198" s="2">
         <f t="shared" si="12"/>
-        <v>419.84944769600003</v>
+        <v>457.50769968400004</v>
       </c>
       <c r="K198">
         <v>2</v>
       </c>
       <c r="L198">
-        <v>733</v>
+        <v>1275</v>
       </c>
       <c r="N198" s="2">
         <f t="shared" si="13"/>
-        <v>350.92561988300002</v>
+        <v>610.40950252499999</v>
       </c>
       <c r="O198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q198">
         <v>11.1</v>
@@ -35774,7 +35774,7 @@
         <v>36</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C199" t="s">
         <v>120</v>
@@ -35783,7 +35783,7 @@
         <v>1988</v>
       </c>
       <c r="E199">
-        <v>8.9600000000000009</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="F199">
         <v>3</v>
@@ -35792,27 +35792,27 @@
         <v>31</v>
       </c>
       <c r="H199">
-        <v>747</v>
+        <v>1109</v>
       </c>
       <c r="J199" s="2">
         <f t="shared" si="12"/>
-        <v>299.262917394</v>
+        <v>444.28724951800001</v>
       </c>
       <c r="K199">
         <v>2</v>
       </c>
       <c r="L199">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="N199" s="2">
         <f t="shared" si="13"/>
-        <v>222.61993621500002</v>
+        <v>207.778607134</v>
       </c>
       <c r="O199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q199">
         <v>11.1</v>
@@ -35856,7 +35856,7 @@
         <v>36</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>120</v>
@@ -35865,7 +35865,7 @@
         <v>1988</v>
       </c>
       <c r="E200">
-        <v>17.920000000000002</v>
+        <v>26.94</v>
       </c>
       <c r="F200">
         <v>3</v>
@@ -35874,27 +35874,27 @@
         <v>31</v>
       </c>
       <c r="H200">
-        <v>1142</v>
+        <v>1171</v>
       </c>
       <c r="J200" s="2">
         <f t="shared" si="12"/>
-        <v>457.50769968400004</v>
+        <v>469.12567104200002</v>
       </c>
       <c r="K200">
         <v>2</v>
       </c>
       <c r="L200">
-        <v>1275</v>
+        <v>1597</v>
       </c>
       <c r="N200" s="2">
         <f t="shared" si="13"/>
-        <v>610.40950252499999</v>
+        <v>764.56782394700008</v>
       </c>
       <c r="O200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P200">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q200">
         <v>11.1</v>
@@ -35938,7 +35938,7 @@
         <v>36</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>120</v>
@@ -35947,7 +35947,7 @@
         <v>1988</v>
       </c>
       <c r="E201">
-        <v>17.920000000000002</v>
+        <v>26.94</v>
       </c>
       <c r="F201">
         <v>3</v>
@@ -35956,27 +35956,27 @@
         <v>31</v>
       </c>
       <c r="H201">
-        <v>1109</v>
+        <v>1971</v>
       </c>
       <c r="J201" s="2">
         <f t="shared" si="12"/>
-        <v>444.28724951800001</v>
+        <v>789.62143264200006</v>
       </c>
       <c r="K201">
         <v>2</v>
       </c>
       <c r="L201">
-        <v>434</v>
+        <v>648</v>
       </c>
       <c r="N201" s="2">
         <f t="shared" si="13"/>
-        <v>207.778607134</v>
+        <v>310.231653048</v>
       </c>
       <c r="O201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q201">
         <v>11.1</v>
@@ -36017,57 +36017,61 @@
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="D202">
-        <v>1988</v>
+        <v>2003</v>
       </c>
       <c r="E202">
-        <v>26.94</v>
+        <v>44</v>
       </c>
       <c r="F202">
         <v>3</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H202">
-        <v>1171</v>
-      </c>
-      <c r="J202" s="2">
-        <f t="shared" si="12"/>
-        <v>469.12567104200002</v>
+        <v>357.68</v>
+      </c>
+      <c r="I202">
+        <v>57.43</v>
+      </c>
+      <c r="J202">
+        <v>57.43</v>
       </c>
       <c r="K202">
+        <v>3</v>
+      </c>
+      <c r="L202">
+        <v>1.01</v>
+      </c>
+      <c r="M202">
+        <v>1.01</v>
+      </c>
+      <c r="N202">
+        <v>1.01</v>
+      </c>
+      <c r="O202">
+        <v>1</v>
+      </c>
+      <c r="P202">
         <v>2</v>
       </c>
-      <c r="L202">
-        <v>1597</v>
-      </c>
-      <c r="N202" s="2">
-        <f t="shared" si="13"/>
-        <v>764.56782394700008</v>
-      </c>
-      <c r="O202">
-        <v>3</v>
-      </c>
-      <c r="P202">
-        <v>4</v>
-      </c>
       <c r="Q202">
-        <v>11.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R202">
-        <v>104.8</v>
+        <v>100.7</v>
       </c>
       <c r="S202" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T202" t="s">
         <v>29</v>
@@ -36079,77 +36083,81 @@
         <v>29</v>
       </c>
       <c r="W202" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X202" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y202" t="s">
         <v>95</v>
       </c>
       <c r="Z202">
-        <v>39.5</v>
+        <v>47.486849999999997</v>
       </c>
       <c r="AA202">
-        <v>-84.733329999999995</v>
+        <v>-115.90071</v>
       </c>
       <c r="AB202">
-        <v>0.87609999999999999</v>
+        <v>0.92559999999999998</v>
       </c>
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B203">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="D203">
-        <v>1988</v>
+        <v>2003</v>
       </c>
       <c r="E203">
-        <v>26.94</v>
+        <v>44</v>
       </c>
       <c r="F203">
         <v>3</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H203">
-        <v>1971</v>
-      </c>
-      <c r="J203" s="2">
-        <f t="shared" si="12"/>
-        <v>789.62143264200006</v>
+        <v>274.06</v>
+      </c>
+      <c r="I203">
+        <v>78.59</v>
+      </c>
+      <c r="J203">
+        <v>78.59</v>
       </c>
       <c r="K203">
+        <v>3</v>
+      </c>
+      <c r="L203">
+        <v>1.01</v>
+      </c>
+      <c r="M203">
+        <v>1.01</v>
+      </c>
+      <c r="N203">
+        <v>1.01</v>
+      </c>
+      <c r="O203">
+        <v>1</v>
+      </c>
+      <c r="P203">
         <v>2</v>
       </c>
-      <c r="L203">
-        <v>648</v>
-      </c>
-      <c r="N203" s="2">
-        <f t="shared" si="13"/>
-        <v>310.231653048</v>
-      </c>
-      <c r="O203">
-        <v>3</v>
-      </c>
-      <c r="P203">
-        <v>4</v>
-      </c>
       <c r="Q203">
-        <v>11.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R203">
-        <v>104.8</v>
+        <v>100.7</v>
       </c>
       <c r="S203" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T203" t="s">
         <v>29</v>
@@ -36161,22 +36169,22 @@
         <v>29</v>
       </c>
       <c r="W203" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X203" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y203" t="s">
         <v>95</v>
       </c>
       <c r="Z203">
-        <v>39.5</v>
+        <v>47.486849999999997</v>
       </c>
       <c r="AA203">
-        <v>-84.733329999999995</v>
+        <v>-115.90071</v>
       </c>
       <c r="AB203">
-        <v>0.87609999999999999</v>
+        <v>0.92559999999999998</v>
       </c>
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.2">
@@ -36184,7 +36192,7 @@
         <v>34</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C204" t="s">
         <v>27</v>
@@ -36202,13 +36210,13 @@
         <v>52</v>
       </c>
       <c r="H204">
-        <v>357.68</v>
+        <v>293.2</v>
       </c>
       <c r="I204">
-        <v>57.43</v>
+        <v>109.82</v>
       </c>
       <c r="J204">
-        <v>57.43</v>
+        <v>109.82</v>
       </c>
       <c r="K204">
         <v>3</v>
@@ -36270,7 +36278,7 @@
         <v>34</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C205" t="s">
         <v>27</v>
@@ -36288,13 +36296,13 @@
         <v>52</v>
       </c>
       <c r="H205">
-        <v>274.06</v>
+        <v>231.74</v>
       </c>
       <c r="I205">
-        <v>78.59</v>
+        <v>107.81</v>
       </c>
       <c r="J205">
-        <v>78.59</v>
+        <v>107.81</v>
       </c>
       <c r="K205">
         <v>3</v>
@@ -36356,7 +36364,7 @@
         <v>34</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>27</v>
@@ -36365,7 +36373,7 @@
         <v>2003</v>
       </c>
       <c r="E206">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F206">
         <v>3</v>
@@ -36374,13 +36382,13 @@
         <v>52</v>
       </c>
       <c r="H206">
-        <v>293.2</v>
+        <v>35.26</v>
       </c>
       <c r="I206">
-        <v>109.82</v>
+        <v>4.03</v>
       </c>
       <c r="J206">
-        <v>109.82</v>
+        <v>4.03</v>
       </c>
       <c r="K206">
         <v>3</v>
@@ -36442,7 +36450,7 @@
         <v>34</v>
       </c>
       <c r="B207">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>27</v>
@@ -36451,7 +36459,7 @@
         <v>2003</v>
       </c>
       <c r="E207">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F207">
         <v>3</v>
@@ -36460,13 +36468,13 @@
         <v>52</v>
       </c>
       <c r="H207">
-        <v>231.74</v>
+        <v>243.83</v>
       </c>
       <c r="I207">
-        <v>107.81</v>
+        <v>82.62</v>
       </c>
       <c r="J207">
-        <v>107.81</v>
+        <v>82.62</v>
       </c>
       <c r="K207">
         <v>3</v>
@@ -36528,7 +36536,7 @@
         <v>34</v>
       </c>
       <c r="B208">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>27</v>
@@ -36546,13 +36554,13 @@
         <v>52</v>
       </c>
       <c r="H208">
-        <v>35.26</v>
+        <v>232.75</v>
       </c>
       <c r="I208">
-        <v>4.03</v>
+        <v>70.53</v>
       </c>
       <c r="J208">
-        <v>4.03</v>
+        <v>70.53</v>
       </c>
       <c r="K208">
         <v>3</v>
@@ -36614,7 +36622,7 @@
         <v>34</v>
       </c>
       <c r="B209">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>27</v>
@@ -36632,13 +36640,13 @@
         <v>52</v>
       </c>
       <c r="H209">
-        <v>243.83</v>
+        <v>281.11</v>
       </c>
       <c r="I209">
-        <v>82.62</v>
+        <v>43.32</v>
       </c>
       <c r="J209">
-        <v>82.62</v>
+        <v>43.32</v>
       </c>
       <c r="K209">
         <v>3</v>
@@ -36700,7 +36708,7 @@
         <v>34</v>
       </c>
       <c r="B210">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
         <v>27</v>
@@ -36709,7 +36717,7 @@
         <v>2003</v>
       </c>
       <c r="E210">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F210">
         <v>3</v>
@@ -36718,13 +36726,13 @@
         <v>52</v>
       </c>
       <c r="H210">
-        <v>232.75</v>
+        <v>181.36</v>
       </c>
       <c r="I210">
-        <v>70.53</v>
+        <v>109.82</v>
       </c>
       <c r="J210">
-        <v>70.53</v>
+        <v>109.82</v>
       </c>
       <c r="K210">
         <v>3</v>
@@ -36786,7 +36794,7 @@
         <v>34</v>
       </c>
       <c r="B211">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
@@ -36795,7 +36803,7 @@
         <v>2003</v>
       </c>
       <c r="E211">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F211">
         <v>3</v>
@@ -36804,13 +36812,13 @@
         <v>52</v>
       </c>
       <c r="H211">
-        <v>281.11</v>
+        <v>58.44</v>
       </c>
       <c r="I211">
-        <v>43.32</v>
+        <v>34.26</v>
       </c>
       <c r="J211">
-        <v>43.32</v>
+        <v>34.26</v>
       </c>
       <c r="K211">
         <v>3</v>
@@ -36872,7 +36880,7 @@
         <v>34</v>
       </c>
       <c r="B212">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -36881,7 +36889,7 @@
         <v>2003</v>
       </c>
       <c r="E212">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="F212">
         <v>3</v>
@@ -36890,13 +36898,13 @@
         <v>52</v>
       </c>
       <c r="H212">
-        <v>181.36</v>
+        <v>92.7</v>
       </c>
       <c r="I212">
-        <v>109.82</v>
+        <v>21.16</v>
       </c>
       <c r="J212">
-        <v>109.82</v>
+        <v>21.16</v>
       </c>
       <c r="K212">
         <v>3</v>
@@ -36958,7 +36966,7 @@
         <v>34</v>
       </c>
       <c r="B213">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -36967,7 +36975,7 @@
         <v>2003</v>
       </c>
       <c r="E213">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="F213">
         <v>3</v>
@@ -36976,31 +36984,31 @@
         <v>52</v>
       </c>
       <c r="H213">
-        <v>58.44</v>
+        <v>581.36</v>
       </c>
       <c r="I213">
-        <v>34.26</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="J213">
-        <v>34.26</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="K213">
         <v>3</v>
       </c>
       <c r="L213">
-        <v>1.01</v>
+        <v>6.05</v>
       </c>
       <c r="M213">
-        <v>1.01</v>
+        <v>8.06</v>
       </c>
       <c r="N213">
-        <v>1.01</v>
+        <v>8.06</v>
       </c>
       <c r="O213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q213">
         <v>4.9000000000000004</v>
@@ -37044,7 +37052,7 @@
         <v>34</v>
       </c>
       <c r="B214">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -37053,7 +37061,7 @@
         <v>2003</v>
       </c>
       <c r="E214">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="F214">
         <v>3</v>
@@ -37062,31 +37070,31 @@
         <v>52</v>
       </c>
       <c r="H214">
-        <v>92.7</v>
+        <v>363.73</v>
       </c>
       <c r="I214">
-        <v>21.16</v>
+        <v>14.11</v>
       </c>
       <c r="J214">
-        <v>21.16</v>
+        <v>14.11</v>
       </c>
       <c r="K214">
         <v>3</v>
       </c>
       <c r="L214">
-        <v>1.01</v>
+        <v>6.05</v>
       </c>
       <c r="M214">
-        <v>1.01</v>
+        <v>8.06</v>
       </c>
       <c r="N214">
-        <v>1.01</v>
+        <v>8.06</v>
       </c>
       <c r="O214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q214">
         <v>4.9000000000000004</v>
@@ -37130,7 +37138,7 @@
         <v>34</v>
       </c>
       <c r="B215">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
@@ -37148,13 +37156,13 @@
         <v>52</v>
       </c>
       <c r="H215">
-        <v>581.36</v>
+        <v>474.56</v>
       </c>
       <c r="I215">
-        <v>20.149999999999999</v>
+        <v>176.32</v>
       </c>
       <c r="J215">
-        <v>20.149999999999999</v>
+        <v>176.32</v>
       </c>
       <c r="K215">
         <v>3</v>
@@ -37216,7 +37224,7 @@
         <v>34</v>
       </c>
       <c r="B216">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C216" t="s">
         <v>27</v>
@@ -37234,13 +37242,13 @@
         <v>52</v>
       </c>
       <c r="H216">
-        <v>363.73</v>
+        <v>136.02000000000001</v>
       </c>
       <c r="I216">
-        <v>14.11</v>
+        <v>28.21</v>
       </c>
       <c r="J216">
-        <v>14.11</v>
+        <v>28.21</v>
       </c>
       <c r="K216">
         <v>3</v>
@@ -37302,7 +37310,7 @@
         <v>34</v>
       </c>
       <c r="B217">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C217" t="s">
         <v>27</v>
@@ -37311,7 +37319,7 @@
         <v>2003</v>
       </c>
       <c r="E217">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F217">
         <v>3</v>
@@ -37320,13 +37328,13 @@
         <v>52</v>
       </c>
       <c r="H217">
-        <v>474.56</v>
+        <v>517.88</v>
       </c>
       <c r="I217">
-        <v>176.32</v>
+        <v>57.43</v>
       </c>
       <c r="J217">
-        <v>176.32</v>
+        <v>57.43</v>
       </c>
       <c r="K217">
         <v>3</v>
@@ -37388,7 +37396,7 @@
         <v>34</v>
       </c>
       <c r="B218">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
@@ -37397,7 +37405,7 @@
         <v>2003</v>
       </c>
       <c r="E218">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F218">
         <v>3</v>
@@ -37406,13 +37414,13 @@
         <v>52</v>
       </c>
       <c r="H218">
-        <v>136.02000000000001</v>
+        <v>474.56</v>
       </c>
       <c r="I218">
-        <v>28.21</v>
+        <v>92.7</v>
       </c>
       <c r="J218">
-        <v>28.21</v>
+        <v>92.7</v>
       </c>
       <c r="K218">
         <v>3</v>
@@ -37474,7 +37482,7 @@
         <v>34</v>
       </c>
       <c r="B219">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -37492,13 +37500,13 @@
         <v>52</v>
       </c>
       <c r="H219">
-        <v>517.88</v>
+        <v>609.57000000000005</v>
       </c>
       <c r="I219">
-        <v>57.43</v>
+        <v>141.06</v>
       </c>
       <c r="J219">
-        <v>57.43</v>
+        <v>141.06</v>
       </c>
       <c r="K219">
         <v>3</v>
@@ -37560,7 +37568,7 @@
         <v>34</v>
       </c>
       <c r="B220">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -37569,7 +37577,7 @@
         <v>2003</v>
       </c>
       <c r="E220">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F220">
         <v>3</v>
@@ -37578,13 +37586,13 @@
         <v>52</v>
       </c>
       <c r="H220">
-        <v>474.56</v>
+        <v>235.77</v>
       </c>
       <c r="I220">
-        <v>92.7</v>
+        <v>28.21</v>
       </c>
       <c r="J220">
-        <v>92.7</v>
+        <v>28.21</v>
       </c>
       <c r="K220">
         <v>3</v>
@@ -37646,7 +37654,7 @@
         <v>34</v>
       </c>
       <c r="B221">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -37655,7 +37663,7 @@
         <v>2003</v>
       </c>
       <c r="E221">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F221">
         <v>3</v>
@@ -37664,13 +37672,13 @@
         <v>52</v>
       </c>
       <c r="H221">
-        <v>609.57000000000005</v>
+        <v>293.2</v>
       </c>
       <c r="I221">
-        <v>141.06</v>
+        <v>149.12</v>
       </c>
       <c r="J221">
-        <v>141.06</v>
+        <v>149.12</v>
       </c>
       <c r="K221">
         <v>3</v>
@@ -37732,7 +37740,7 @@
         <v>34</v>
       </c>
       <c r="B222">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -37750,13 +37758,13 @@
         <v>52</v>
       </c>
       <c r="H222">
-        <v>235.77</v>
+        <v>257.93</v>
       </c>
       <c r="I222">
-        <v>28.21</v>
+        <v>126.95</v>
       </c>
       <c r="J222">
-        <v>28.21</v>
+        <v>126.95</v>
       </c>
       <c r="K222">
         <v>3</v>
@@ -37818,7 +37826,7 @@
         <v>34</v>
       </c>
       <c r="B223">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C223" t="s">
         <v>27</v>
@@ -37827,7 +37835,7 @@
         <v>2003</v>
       </c>
       <c r="E223">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="F223">
         <v>3</v>
@@ -37836,13 +37844,13 @@
         <v>52</v>
       </c>
       <c r="H223">
-        <v>293.2</v>
+        <v>124.94</v>
       </c>
       <c r="I223">
-        <v>149.12</v>
+        <v>49.37</v>
       </c>
       <c r="J223">
-        <v>149.12</v>
+        <v>49.37</v>
       </c>
       <c r="K223">
         <v>3</v>
@@ -37901,64 +37909,64 @@
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B224">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="D224">
-        <v>2003</v>
+        <v>2019</v>
       </c>
       <c r="E224">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G224" t="s">
         <v>52</v>
       </c>
       <c r="H224">
-        <v>257.93</v>
+        <v>555.29999999999995</v>
       </c>
       <c r="I224">
-        <v>126.95</v>
+        <v>116.5</v>
       </c>
       <c r="J224">
-        <v>126.95</v>
+        <v>116.5</v>
       </c>
       <c r="K224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L224">
-        <v>6.05</v>
+        <v>242.46</v>
       </c>
       <c r="M224">
-        <v>8.06</v>
+        <v>90.62</v>
       </c>
       <c r="N224">
-        <v>8.06</v>
+        <v>90.62</v>
       </c>
       <c r="O224">
+        <v>1</v>
+      </c>
+      <c r="P224">
         <v>2</v>
       </c>
-      <c r="P224">
-        <v>3</v>
-      </c>
       <c r="Q224">
-        <v>4.9000000000000004</v>
+        <v>12.5</v>
       </c>
       <c r="R224">
-        <v>100.7</v>
+        <v>104.6</v>
       </c>
       <c r="S224" t="s">
         <v>33</v>
       </c>
       <c r="T224" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U224" t="s">
         <v>31</v>
@@ -37970,81 +37978,81 @@
         <v>31</v>
       </c>
       <c r="X224" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Y224" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Z224">
-        <v>47.486849999999997</v>
+        <v>43.011246</v>
       </c>
       <c r="AA224">
-        <v>-115.90071</v>
+        <v>-7.5602799999999997</v>
       </c>
       <c r="AB224">
-        <v>0.92559999999999998</v>
+        <v>1.2936000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B225">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="D225">
-        <v>2003</v>
+        <v>2019</v>
       </c>
       <c r="E225">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G225" t="s">
         <v>52</v>
       </c>
       <c r="H225">
-        <v>124.94</v>
+        <v>607.1</v>
       </c>
       <c r="I225">
-        <v>49.37</v>
+        <v>116.5</v>
       </c>
       <c r="J225">
-        <v>49.37</v>
+        <v>116.5</v>
       </c>
       <c r="K225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L225">
-        <v>6.05</v>
+        <v>242.46</v>
       </c>
       <c r="M225">
-        <v>8.06</v>
+        <v>90.62</v>
       </c>
       <c r="N225">
-        <v>8.06</v>
+        <v>90.62</v>
       </c>
       <c r="O225">
+        <v>1</v>
+      </c>
+      <c r="P225">
         <v>2</v>
       </c>
-      <c r="P225">
-        <v>3</v>
-      </c>
       <c r="Q225">
-        <v>4.9000000000000004</v>
+        <v>12.5</v>
       </c>
       <c r="R225">
-        <v>100.7</v>
+        <v>104.6</v>
       </c>
       <c r="S225" t="s">
         <v>33</v>
       </c>
       <c r="T225" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U225" t="s">
         <v>31</v>
@@ -38056,19 +38064,19 @@
         <v>31</v>
       </c>
       <c r="X225" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Y225" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Z225">
-        <v>47.486849999999997</v>
+        <v>43.011246</v>
       </c>
       <c r="AA225">
-        <v>-115.90071</v>
+        <v>-7.5602799999999997</v>
       </c>
       <c r="AB225">
-        <v>0.92559999999999998</v>
+        <v>1.2936000000000001</v>
       </c>
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.2">
@@ -38076,7 +38084,7 @@
         <v>41</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C226" t="s">
         <v>129</v>
@@ -38085,7 +38093,7 @@
         <v>2019</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F226">
         <v>4</v>
@@ -38094,13 +38102,13 @@
         <v>52</v>
       </c>
       <c r="H226">
-        <v>555.29999999999995</v>
+        <v>568.29999999999995</v>
       </c>
       <c r="I226">
-        <v>116.5</v>
+        <v>49.2</v>
       </c>
       <c r="J226">
-        <v>116.5</v>
+        <v>49.2</v>
       </c>
       <c r="K226">
         <v>4</v>
@@ -38162,7 +38170,7 @@
         <v>41</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C227" t="s">
         <v>129</v>
@@ -38171,7 +38179,7 @@
         <v>2019</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F227">
         <v>4</v>
@@ -38180,13 +38188,13 @@
         <v>52</v>
       </c>
       <c r="H227">
-        <v>607.1</v>
+        <v>543.70000000000005</v>
       </c>
       <c r="I227">
-        <v>116.5</v>
+        <v>108.7</v>
       </c>
       <c r="J227">
-        <v>116.5</v>
+        <v>108.7</v>
       </c>
       <c r="K227">
         <v>4</v>
@@ -38248,7 +38256,7 @@
         <v>41</v>
       </c>
       <c r="B228">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>129</v>
@@ -38257,7 +38265,7 @@
         <v>2019</v>
       </c>
       <c r="E228">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F228">
         <v>4</v>
@@ -38266,13 +38274,13 @@
         <v>52</v>
       </c>
       <c r="H228">
-        <v>568.29999999999995</v>
+        <v>564.4</v>
       </c>
       <c r="I228">
-        <v>49.2</v>
+        <v>145</v>
       </c>
       <c r="J228">
-        <v>49.2</v>
+        <v>145</v>
       </c>
       <c r="K228">
         <v>4</v>
@@ -38334,7 +38342,7 @@
         <v>41</v>
       </c>
       <c r="B229">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>129</v>
@@ -38343,7 +38351,7 @@
         <v>2019</v>
       </c>
       <c r="E229">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F229">
         <v>4</v>
@@ -38352,13 +38360,13 @@
         <v>52</v>
       </c>
       <c r="H229">
-        <v>543.70000000000005</v>
+        <v>585.1</v>
       </c>
       <c r="I229">
-        <v>108.7</v>
+        <v>62.1</v>
       </c>
       <c r="J229">
-        <v>108.7</v>
+        <v>62.1</v>
       </c>
       <c r="K229">
         <v>4</v>
@@ -38420,7 +38428,7 @@
         <v>41</v>
       </c>
       <c r="B230">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>129</v>
@@ -38429,7 +38437,7 @@
         <v>2019</v>
       </c>
       <c r="E230">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F230">
         <v>4</v>
@@ -38438,13 +38446,13 @@
         <v>52</v>
       </c>
       <c r="H230">
-        <v>564.4</v>
+        <v>735.3</v>
       </c>
       <c r="I230">
-        <v>145</v>
+        <v>80.3</v>
       </c>
       <c r="J230">
-        <v>145</v>
+        <v>80.3</v>
       </c>
       <c r="K230">
         <v>4</v>
@@ -38506,7 +38514,7 @@
         <v>41</v>
       </c>
       <c r="B231">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>129</v>
@@ -38515,7 +38523,7 @@
         <v>2019</v>
       </c>
       <c r="E231">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F231">
         <v>4</v>
@@ -38524,13 +38532,13 @@
         <v>52</v>
       </c>
       <c r="H231">
-        <v>585.1</v>
+        <v>687.4</v>
       </c>
       <c r="I231">
-        <v>62.1</v>
+        <v>178.6</v>
       </c>
       <c r="J231">
-        <v>62.1</v>
+        <v>178.6</v>
       </c>
       <c r="K231">
         <v>4</v>
@@ -38592,7 +38600,7 @@
         <v>41</v>
       </c>
       <c r="B232">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C232" t="s">
         <v>129</v>
@@ -38601,7 +38609,7 @@
         <v>2019</v>
       </c>
       <c r="E232">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F232">
         <v>4</v>
@@ -38610,31 +38618,31 @@
         <v>52</v>
       </c>
       <c r="H232">
-        <v>735.3</v>
+        <v>397.4</v>
       </c>
       <c r="I232">
-        <v>80.3</v>
+        <v>44</v>
       </c>
       <c r="J232">
-        <v>80.3</v>
+        <v>44</v>
       </c>
       <c r="K232">
         <v>4</v>
       </c>
       <c r="L232">
-        <v>242.46</v>
+        <v>138.74</v>
       </c>
       <c r="M232">
-        <v>90.62</v>
+        <v>51.78</v>
       </c>
       <c r="N232">
-        <v>90.62</v>
+        <v>51.78</v>
       </c>
       <c r="O232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q232">
         <v>12.5</v>
@@ -38678,7 +38686,7 @@
         <v>41</v>
       </c>
       <c r="B233">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C233" t="s">
         <v>129</v>
@@ -38687,7 +38695,7 @@
         <v>2019</v>
       </c>
       <c r="E233">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F233">
         <v>4</v>
@@ -38696,31 +38704,31 @@
         <v>52</v>
       </c>
       <c r="H233">
-        <v>687.4</v>
+        <v>407.8</v>
       </c>
       <c r="I233">
-        <v>178.6</v>
+        <v>98.4</v>
       </c>
       <c r="J233">
-        <v>178.6</v>
+        <v>98.4</v>
       </c>
       <c r="K233">
         <v>4</v>
       </c>
       <c r="L233">
-        <v>242.46</v>
+        <v>138.74</v>
       </c>
       <c r="M233">
-        <v>90.62</v>
+        <v>51.78</v>
       </c>
       <c r="N233">
-        <v>90.62</v>
+        <v>51.78</v>
       </c>
       <c r="O233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q233">
         <v>12.5</v>
@@ -38764,7 +38772,7 @@
         <v>41</v>
       </c>
       <c r="B234">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C234" t="s">
         <v>129</v>
@@ -38773,7 +38781,7 @@
         <v>2019</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F234">
         <v>4</v>
@@ -38782,13 +38790,13 @@
         <v>52</v>
       </c>
       <c r="H234">
-        <v>397.4</v>
+        <v>363.8</v>
       </c>
       <c r="I234">
-        <v>44</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="J234">
-        <v>44</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="K234">
         <v>4</v>
@@ -38850,7 +38858,7 @@
         <v>41</v>
       </c>
       <c r="B235">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C235" t="s">
         <v>129</v>
@@ -38859,7 +38867,7 @@
         <v>2019</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F235">
         <v>4</v>
@@ -38868,13 +38876,13 @@
         <v>52</v>
       </c>
       <c r="H235">
-        <v>407.8</v>
+        <v>401.3</v>
       </c>
       <c r="I235">
-        <v>98.4</v>
+        <v>82.8</v>
       </c>
       <c r="J235">
-        <v>98.4</v>
+        <v>82.8</v>
       </c>
       <c r="K235">
         <v>4</v>
@@ -38936,7 +38944,7 @@
         <v>41</v>
       </c>
       <c r="B236">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C236" t="s">
         <v>129</v>
@@ -38945,7 +38953,7 @@
         <v>2019</v>
       </c>
       <c r="E236">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F236">
         <v>4</v>
@@ -38954,13 +38962,13 @@
         <v>52</v>
       </c>
       <c r="H236">
-        <v>363.8</v>
+        <v>357.3</v>
       </c>
       <c r="I236">
-        <v>75.099999999999994</v>
+        <v>101</v>
       </c>
       <c r="J236">
-        <v>75.099999999999994</v>
+        <v>101</v>
       </c>
       <c r="K236">
         <v>4</v>
@@ -39022,7 +39030,7 @@
         <v>41</v>
       </c>
       <c r="B237">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C237" t="s">
         <v>129</v>
@@ -39031,7 +39039,7 @@
         <v>2019</v>
       </c>
       <c r="E237">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F237">
         <v>4</v>
@@ -39040,13 +39048,13 @@
         <v>52</v>
       </c>
       <c r="H237">
-        <v>401.3</v>
+        <v>331.4</v>
       </c>
       <c r="I237">
-        <v>82.8</v>
+        <v>57</v>
       </c>
       <c r="J237">
-        <v>82.8</v>
+        <v>57</v>
       </c>
       <c r="K237">
         <v>4</v>
@@ -39108,7 +39116,7 @@
         <v>41</v>
       </c>
       <c r="B238">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C238" t="s">
         <v>129</v>
@@ -39117,7 +39125,7 @@
         <v>2019</v>
       </c>
       <c r="E238">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F238">
         <v>4</v>
@@ -39126,13 +39134,13 @@
         <v>52</v>
       </c>
       <c r="H238">
-        <v>357.3</v>
+        <v>313.3</v>
       </c>
       <c r="I238">
-        <v>101</v>
+        <v>82.8</v>
       </c>
       <c r="J238">
-        <v>101</v>
+        <v>82.8</v>
       </c>
       <c r="K238">
         <v>4</v>
@@ -39194,7 +39202,7 @@
         <v>41</v>
       </c>
       <c r="B239">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C239" t="s">
         <v>129</v>
@@ -39203,7 +39211,7 @@
         <v>2019</v>
       </c>
       <c r="E239">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F239">
         <v>4</v>
@@ -39212,13 +39220,13 @@
         <v>52</v>
       </c>
       <c r="H239">
-        <v>331.4</v>
+        <v>319.7</v>
       </c>
       <c r="I239">
-        <v>57</v>
+        <v>113.9</v>
       </c>
       <c r="J239">
-        <v>57</v>
+        <v>113.9</v>
       </c>
       <c r="K239">
         <v>4</v>
@@ -39277,61 +39285,61 @@
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B240">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D240">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="E240">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="F240">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G240" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H240">
-        <v>313.3</v>
+        <v>212.07</v>
       </c>
       <c r="I240">
-        <v>82.8</v>
+        <v>22.17</v>
       </c>
       <c r="J240">
-        <v>82.8</v>
+        <v>22.17</v>
       </c>
       <c r="K240">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L240">
-        <v>138.74</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="M240">
-        <v>51.78</v>
+        <v>19.5</v>
       </c>
       <c r="N240">
-        <v>51.78</v>
+        <v>19.5</v>
       </c>
       <c r="O240">
-        <v>2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="P240">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q240">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="R240">
-        <v>104.6</v>
+        <v>116.5</v>
       </c>
       <c r="S240" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T240" t="s">
         <v>31</v>
@@ -39346,81 +39354,77 @@
         <v>31</v>
       </c>
       <c r="X240" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Y240" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="Z240">
-        <v>43.011246</v>
+        <v>54.010399999999997</v>
       </c>
       <c r="AA240">
-        <v>-7.5602799999999997</v>
+        <v>-2.7877000000000001</v>
       </c>
       <c r="AB240">
-        <v>1.2936000000000001</v>
+        <v>1.7728999999999999</v>
       </c>
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B241">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="D241">
-        <v>2019</v>
+        <v>1998</v>
       </c>
       <c r="E241">
-        <v>10</v>
+        <v>22.4</v>
       </c>
       <c r="F241">
         <v>4</v>
       </c>
       <c r="G241" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H241">
-        <v>319.7</v>
-      </c>
-      <c r="I241">
-        <v>113.9</v>
-      </c>
-      <c r="J241">
-        <v>113.9</v>
+        <v>1528</v>
+      </c>
+      <c r="J241" s="2">
+        <f t="shared" ref="J241:J254" si="14">0.400619702*H241</f>
+        <v>612.14690465600006</v>
       </c>
       <c r="K241">
         <v>4</v>
       </c>
       <c r="L241">
-        <v>138.74</v>
-      </c>
-      <c r="M241">
-        <v>51.78</v>
-      </c>
-      <c r="N241">
-        <v>51.78</v>
+        <v>69</v>
+      </c>
+      <c r="N241" s="2">
+        <f t="shared" ref="N241:N254" si="15">0.478752551*L241</f>
+        <v>33.033926018999999</v>
       </c>
       <c r="O241">
+        <v>1</v>
+      </c>
+      <c r="P241">
         <v>2</v>
       </c>
-      <c r="P241">
-        <v>3</v>
-      </c>
       <c r="Q241">
-        <v>12.5</v>
+        <v>10.6</v>
       </c>
       <c r="R241">
-        <v>104.6</v>
+        <v>41.8</v>
       </c>
       <c r="S241" t="s">
         <v>33</v>
       </c>
       <c r="T241" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U241" t="s">
         <v>31</v>
@@ -39432,81 +39436,77 @@
         <v>31</v>
       </c>
       <c r="X241" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="Y241" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Z241">
-        <v>43.011246</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="AA241">
-        <v>-7.5602799999999997</v>
+        <v>-112.1</v>
       </c>
       <c r="AB241">
-        <v>1.2936000000000001</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B242">
+        <v>2</v>
+      </c>
+      <c r="C242" t="s">
+        <v>92</v>
+      </c>
+      <c r="D242">
+        <v>1998</v>
+      </c>
+      <c r="E242">
+        <v>44.8</v>
+      </c>
+      <c r="F242">
+        <v>4</v>
+      </c>
+      <c r="G242" t="s">
+        <v>31</v>
+      </c>
+      <c r="H242">
+        <v>1639</v>
+      </c>
+      <c r="J242" s="2">
+        <f t="shared" si="14"/>
+        <v>656.615691578</v>
+      </c>
+      <c r="K242">
+        <v>4</v>
+      </c>
+      <c r="L242">
+        <v>69</v>
+      </c>
+      <c r="N242" s="2">
+        <f t="shared" si="15"/>
+        <v>33.033926018999999</v>
+      </c>
+      <c r="O242">
         <v>1</v>
       </c>
-      <c r="C242" t="s">
-        <v>125</v>
-      </c>
-      <c r="D242">
-        <v>2001</v>
-      </c>
-      <c r="E242">
-        <v>0.4</v>
-      </c>
-      <c r="F242">
-        <v>3</v>
-      </c>
-      <c r="G242" t="s">
-        <v>28</v>
-      </c>
-      <c r="H242">
-        <v>212.07</v>
-      </c>
-      <c r="I242">
-        <v>22.17</v>
-      </c>
-      <c r="J242">
-        <v>22.17</v>
-      </c>
-      <c r="K242">
-        <v>3</v>
-      </c>
-      <c r="L242">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="M242">
-        <v>19.5</v>
-      </c>
-      <c r="N242">
-        <v>19.5</v>
-      </c>
-      <c r="O242">
-        <v>9.2999999999999999E-2</v>
-      </c>
       <c r="P242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q242">
-        <v>8.6</v>
+        <v>10.6</v>
       </c>
       <c r="R242">
-        <v>116.5</v>
+        <v>41.8</v>
       </c>
       <c r="S242" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T242" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U242" t="s">
         <v>31</v>
@@ -39518,19 +39518,19 @@
         <v>31</v>
       </c>
       <c r="X242" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="Y242" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="Z242">
-        <v>54.010399999999997</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="AA242">
-        <v>-2.7877000000000001</v>
+        <v>-112.1</v>
       </c>
       <c r="AB242">
-        <v>1.7728999999999999</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.2">
@@ -39538,7 +39538,7 @@
         <v>28</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C243" t="s">
         <v>92</v>
@@ -39547,7 +39547,7 @@
         <v>1998</v>
       </c>
       <c r="E243">
-        <v>22.4</v>
+        <v>67.2</v>
       </c>
       <c r="F243">
         <v>4</v>
@@ -39556,11 +39556,11 @@
         <v>31</v>
       </c>
       <c r="H243">
-        <v>1528</v>
+        <v>1669</v>
       </c>
       <c r="J243" s="2">
-        <f t="shared" ref="J243:J256" si="14">0.400619702*H243</f>
-        <v>612.14690465600006</v>
+        <f t="shared" si="14"/>
+        <v>668.63428263800006</v>
       </c>
       <c r="K243">
         <v>4</v>
@@ -39569,7 +39569,7 @@
         <v>69</v>
       </c>
       <c r="N243" s="2">
-        <f t="shared" ref="N243:N256" si="15">0.478752551*L243</f>
+        <f t="shared" si="15"/>
         <v>33.033926018999999</v>
       </c>
       <c r="O243">
@@ -39620,7 +39620,7 @@
         <v>28</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C244" t="s">
         <v>92</v>
@@ -39629,30 +39629,30 @@
         <v>1998</v>
       </c>
       <c r="E244">
-        <v>44.8</v>
+        <v>22.4</v>
       </c>
       <c r="F244">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G244" t="s">
         <v>31</v>
       </c>
       <c r="H244">
-        <v>1639</v>
+        <v>1275</v>
       </c>
       <c r="J244" s="2">
         <f t="shared" si="14"/>
-        <v>656.615691578</v>
+        <v>510.79012005000004</v>
       </c>
       <c r="K244">
         <v>4</v>
       </c>
       <c r="L244">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="N244" s="2">
         <f t="shared" si="15"/>
-        <v>33.033926018999999</v>
+        <v>50.269017855000001</v>
       </c>
       <c r="O244">
         <v>1</v>
@@ -39667,7 +39667,7 @@
         <v>41.8</v>
       </c>
       <c r="S244" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T244" t="s">
         <v>29</v>
@@ -39702,7 +39702,7 @@
         <v>28</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>92</v>
@@ -39711,30 +39711,30 @@
         <v>1998</v>
       </c>
       <c r="E245">
-        <v>67.2</v>
+        <v>44.8</v>
       </c>
       <c r="F245">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G245" t="s">
         <v>31</v>
       </c>
       <c r="H245">
-        <v>1669</v>
+        <v>1606</v>
       </c>
       <c r="J245" s="2">
         <f t="shared" si="14"/>
-        <v>668.63428263800006</v>
+        <v>643.39524141200002</v>
       </c>
       <c r="K245">
         <v>4</v>
       </c>
       <c r="L245">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="N245" s="2">
         <f t="shared" si="15"/>
-        <v>33.033926018999999</v>
+        <v>50.269017855000001</v>
       </c>
       <c r="O245">
         <v>1</v>
@@ -39749,7 +39749,7 @@
         <v>41.8</v>
       </c>
       <c r="S245" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T245" t="s">
         <v>29</v>
@@ -39776,7 +39776,7 @@
         <v>-112.1</v>
       </c>
       <c r="AB245">
-        <v>0.2482</v>
+        <v>0.34649999999999997</v>
       </c>
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.2">
@@ -39784,7 +39784,7 @@
         <v>28</v>
       </c>
       <c r="B246">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>92</v>
@@ -39793,7 +39793,7 @@
         <v>1998</v>
       </c>
       <c r="E246">
-        <v>22.4</v>
+        <v>67.2</v>
       </c>
       <c r="F246">
         <v>8</v>
@@ -39802,11 +39802,11 @@
         <v>31</v>
       </c>
       <c r="H246">
-        <v>1275</v>
+        <v>2077</v>
       </c>
       <c r="J246" s="2">
         <f t="shared" si="14"/>
-        <v>510.79012005000004</v>
+        <v>832.08712105400002</v>
       </c>
       <c r="K246">
         <v>4</v>
@@ -39858,7 +39858,7 @@
         <v>-112.1</v>
       </c>
       <c r="AB246">
-        <v>0.2482</v>
+        <v>0.34649999999999997</v>
       </c>
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.2">
@@ -39866,7 +39866,7 @@
         <v>28</v>
       </c>
       <c r="B247">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>92</v>
@@ -39875,30 +39875,30 @@
         <v>1998</v>
       </c>
       <c r="E247">
-        <v>44.8</v>
+        <v>22.4</v>
       </c>
       <c r="F247">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G247" t="s">
         <v>31</v>
       </c>
       <c r="H247">
-        <v>1606</v>
+        <v>1085</v>
       </c>
       <c r="J247" s="2">
         <f t="shared" si="14"/>
-        <v>643.39524141200002</v>
+        <v>434.67237667000001</v>
       </c>
       <c r="K247">
         <v>4</v>
       </c>
       <c r="L247">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="N247" s="2">
         <f t="shared" si="15"/>
-        <v>50.269017855000001</v>
+        <v>111.07059183200001</v>
       </c>
       <c r="O247">
         <v>1</v>
@@ -39913,7 +39913,7 @@
         <v>41.8</v>
       </c>
       <c r="S247" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T247" t="s">
         <v>29</v>
@@ -39948,7 +39948,7 @@
         <v>28</v>
       </c>
       <c r="B248">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>92</v>
@@ -39957,30 +39957,30 @@
         <v>1998</v>
       </c>
       <c r="E248">
-        <v>67.2</v>
+        <v>44.8</v>
       </c>
       <c r="F248">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G248" t="s">
         <v>31</v>
       </c>
       <c r="H248">
-        <v>2077</v>
+        <v>1119</v>
       </c>
       <c r="J248" s="2">
         <f t="shared" si="14"/>
-        <v>832.08712105400002</v>
+        <v>448.29344653800001</v>
       </c>
       <c r="K248">
         <v>4</v>
       </c>
       <c r="L248">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="N248" s="2">
         <f t="shared" si="15"/>
-        <v>50.269017855000001</v>
+        <v>111.07059183200001</v>
       </c>
       <c r="O248">
         <v>1</v>
@@ -39995,7 +39995,7 @@
         <v>41.8</v>
       </c>
       <c r="S248" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T248" t="s">
         <v>29</v>
@@ -40030,7 +40030,7 @@
         <v>28</v>
       </c>
       <c r="B249">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C249" t="s">
         <v>92</v>
@@ -40039,7 +40039,7 @@
         <v>1998</v>
       </c>
       <c r="E249">
-        <v>22.4</v>
+        <v>67.2</v>
       </c>
       <c r="F249">
         <v>4</v>
@@ -40048,11 +40048,11 @@
         <v>31</v>
       </c>
       <c r="H249">
-        <v>1085</v>
+        <v>1448</v>
       </c>
       <c r="J249" s="2">
         <f t="shared" si="14"/>
-        <v>434.67237667000001</v>
+        <v>580.09732849600005</v>
       </c>
       <c r="K249">
         <v>4</v>
@@ -40104,7 +40104,7 @@
         <v>-112.1</v>
       </c>
       <c r="AB249">
-        <v>0.34649999999999997</v>
+        <v>0.26140000000000002</v>
       </c>
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.2">
@@ -40112,7 +40112,7 @@
         <v>28</v>
       </c>
       <c r="B250">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C250" t="s">
         <v>92</v>
@@ -40121,7 +40121,7 @@
         <v>1998</v>
       </c>
       <c r="E250">
-        <v>44.8</v>
+        <v>22.4</v>
       </c>
       <c r="F250">
         <v>4</v>
@@ -40130,21 +40130,21 @@
         <v>31</v>
       </c>
       <c r="H250">
-        <v>1119</v>
+        <v>416</v>
       </c>
       <c r="J250" s="2">
         <f t="shared" si="14"/>
-        <v>448.29344653800001</v>
+        <v>166.65779603200002</v>
       </c>
       <c r="K250">
         <v>4</v>
       </c>
       <c r="L250">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="N250" s="2">
         <f t="shared" si="15"/>
-        <v>111.07059183200001</v>
+        <v>22.501369897</v>
       </c>
       <c r="O250">
         <v>1</v>
@@ -40159,7 +40159,7 @@
         <v>41.8</v>
       </c>
       <c r="S250" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T250" t="s">
         <v>29</v>
@@ -40186,7 +40186,7 @@
         <v>-112.1</v>
       </c>
       <c r="AB250">
-        <v>0.34649999999999997</v>
+        <v>0.26140000000000002</v>
       </c>
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.2">
@@ -40194,7 +40194,7 @@
         <v>28</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C251" t="s">
         <v>92</v>
@@ -40203,7 +40203,7 @@
         <v>1998</v>
       </c>
       <c r="E251">
-        <v>67.2</v>
+        <v>44.8</v>
       </c>
       <c r="F251">
         <v>4</v>
@@ -40212,21 +40212,21 @@
         <v>31</v>
       </c>
       <c r="H251">
-        <v>1448</v>
+        <v>966</v>
       </c>
       <c r="J251" s="2">
         <f t="shared" si="14"/>
-        <v>580.09732849600005</v>
+        <v>386.99863213200001</v>
       </c>
       <c r="K251">
         <v>4</v>
       </c>
       <c r="L251">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="N251" s="2">
         <f t="shared" si="15"/>
-        <v>111.07059183200001</v>
+        <v>22.501369897</v>
       </c>
       <c r="O251">
         <v>1</v>
@@ -40241,7 +40241,7 @@
         <v>41.8</v>
       </c>
       <c r="S251" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T251" t="s">
         <v>29</v>
@@ -40276,7 +40276,7 @@
         <v>28</v>
       </c>
       <c r="B252">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C252" t="s">
         <v>92</v>
@@ -40285,7 +40285,7 @@
         <v>1998</v>
       </c>
       <c r="E252">
-        <v>22.4</v>
+        <v>67.2</v>
       </c>
       <c r="F252">
         <v>4</v>
@@ -40294,11 +40294,11 @@
         <v>31</v>
       </c>
       <c r="H252">
-        <v>416</v>
+        <v>1446</v>
       </c>
       <c r="J252" s="2">
         <f t="shared" si="14"/>
-        <v>166.65779603200002</v>
+        <v>579.29608909199999</v>
       </c>
       <c r="K252">
         <v>4</v>
@@ -40355,54 +40355,54 @@
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B253">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="D253">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="E253">
-        <v>44.8</v>
+        <v>224</v>
       </c>
       <c r="F253">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G253" t="s">
         <v>31</v>
       </c>
       <c r="H253">
-        <v>966</v>
+        <v>91.3</v>
       </c>
       <c r="J253" s="2">
         <f t="shared" si="14"/>
-        <v>386.99863213200001</v>
+        <v>36.576578792600003</v>
       </c>
       <c r="K253">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L253">
-        <v>47</v>
+        <v>19.5</v>
       </c>
       <c r="N253" s="2">
         <f t="shared" si="15"/>
-        <v>22.501369897</v>
+        <v>9.3356747445000003</v>
       </c>
       <c r="O253">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P253">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q253">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="R253">
-        <v>41.8</v>
+        <v>106.4</v>
       </c>
       <c r="S253" t="s">
         <v>41</v>
@@ -40420,71 +40420,71 @@
         <v>31</v>
       </c>
       <c r="X253" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="Y253" t="s">
         <v>95</v>
       </c>
       <c r="Z253">
-        <v>40.700000000000003</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="AA253">
-        <v>-112.1</v>
+        <v>-81.11</v>
       </c>
       <c r="AB253">
-        <v>0.26140000000000002</v>
+        <v>9.5600000000000004E-2</v>
       </c>
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B254">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C254" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="D254">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="E254">
-        <v>67.2</v>
+        <v>224</v>
       </c>
       <c r="F254">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G254" t="s">
         <v>31</v>
       </c>
       <c r="H254">
-        <v>1446</v>
+        <v>95.6</v>
       </c>
       <c r="J254" s="2">
         <f t="shared" si="14"/>
-        <v>579.29608909199999</v>
+        <v>38.299243511199997</v>
       </c>
       <c r="K254">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L254">
-        <v>47</v>
+        <v>14.7</v>
       </c>
       <c r="N254" s="2">
         <f t="shared" si="15"/>
-        <v>22.501369897</v>
+        <v>7.0376624996999997</v>
       </c>
       <c r="O254">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P254">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q254">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="R254">
-        <v>41.8</v>
+        <v>106.4</v>
       </c>
       <c r="S254" t="s">
         <v>41</v>
@@ -40502,77 +40502,81 @@
         <v>31</v>
       </c>
       <c r="X254" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="Y254" t="s">
         <v>95</v>
       </c>
       <c r="Z254">
-        <v>40.700000000000003</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="AA254">
-        <v>-112.1</v>
+        <v>-81.11</v>
       </c>
       <c r="AB254">
-        <v>0.26140000000000002</v>
+        <v>9.5600000000000004E-2</v>
       </c>
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B255">
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D255">
-        <v>1994</v>
+        <v>2019</v>
       </c>
       <c r="E255">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="F255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G255" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H255">
-        <v>91.3</v>
+        <v>367</v>
+      </c>
+      <c r="I255" s="2">
+        <v>327.1075969768969</v>
       </c>
       <c r="J255" s="2">
-        <f t="shared" si="14"/>
-        <v>36.576578792600003</v>
+        <v>327.1075969768969</v>
       </c>
       <c r="K255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L255">
-        <v>19.5</v>
-      </c>
-      <c r="N255" s="2">
-        <f t="shared" si="15"/>
-        <v>9.3356747445000003</v>
+        <v>12.4</v>
+      </c>
+      <c r="M255">
+        <v>21.9</v>
+      </c>
+      <c r="N255">
+        <v>21.9</v>
       </c>
       <c r="O255">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P255">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q255">
-        <v>10.3</v>
+        <v>6.4</v>
       </c>
       <c r="R255">
-        <v>106.4</v>
+        <v>96</v>
       </c>
       <c r="S255" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T255" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U255" t="s">
         <v>31</v>
@@ -40584,16 +40588,16 @@
         <v>31</v>
       </c>
       <c r="X255" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="Y255" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z255">
-        <v>39.700000000000003</v>
+        <v>-40.99</v>
       </c>
       <c r="AA255">
-        <v>-81.11</v>
+        <v>-71.496300000000005</v>
       </c>
       <c r="AB255">
         <v>9.5600000000000004E-2</v>
@@ -40601,128 +40605,138 @@
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
+        <v>83</v>
+      </c>
+      <c r="D256">
+        <v>2010</v>
+      </c>
+      <c r="E256">
+        <f>3.37</f>
+        <v>3.37</v>
+      </c>
+      <c r="F256">
+        <v>6</v>
+      </c>
+      <c r="G256" t="s">
+        <v>52</v>
+      </c>
+      <c r="H256">
+        <v>224.2</v>
+      </c>
+      <c r="I256" s="2">
+        <f>71.1*SQRT(6)</f>
+        <v>174.15872071188394</v>
+      </c>
+      <c r="J256" s="2">
+        <f>71.1*SQRT(6)</f>
+        <v>174.15872071188394</v>
+      </c>
+      <c r="K256">
+        <v>6</v>
+      </c>
+      <c r="L256">
+        <v>118.2</v>
+      </c>
+      <c r="M256">
+        <v>83.7</v>
+      </c>
+      <c r="N256">
+        <v>83.7</v>
+      </c>
+      <c r="O256">
+        <v>1</v>
+      </c>
+      <c r="P256">
         <v>2</v>
-      </c>
-      <c r="C256" t="s">
-        <v>138</v>
-      </c>
-      <c r="D256">
-        <v>1994</v>
-      </c>
-      <c r="E256">
-        <v>224</v>
-      </c>
-      <c r="F256">
-        <v>3</v>
-      </c>
-      <c r="G256" t="s">
-        <v>31</v>
-      </c>
-      <c r="H256">
-        <v>95.6</v>
-      </c>
-      <c r="J256" s="2">
-        <f t="shared" si="14"/>
-        <v>38.299243511199997</v>
-      </c>
-      <c r="K256">
-        <v>3</v>
-      </c>
-      <c r="L256">
-        <v>14.7</v>
-      </c>
-      <c r="N256" s="2">
-        <f t="shared" si="15"/>
-        <v>7.0376624996999997</v>
-      </c>
-      <c r="O256">
-        <v>9</v>
-      </c>
-      <c r="P256">
-        <v>10</v>
       </c>
       <c r="Q256">
         <v>10.3</v>
       </c>
       <c r="R256">
-        <v>106.4</v>
+        <v>45.1</v>
       </c>
       <c r="S256" t="s">
         <v>41</v>
       </c>
       <c r="T256" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U256" t="s">
         <v>31</v>
       </c>
       <c r="V256" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W256" t="s">
         <v>31</v>
       </c>
       <c r="X256" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="Y256" t="s">
         <v>95</v>
       </c>
       <c r="Z256">
-        <v>39.700000000000003</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="AA256">
-        <v>-81.11</v>
+        <v>-111.916</v>
       </c>
       <c r="AB256">
-        <v>9.5600000000000004E-2</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="D257">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="E257">
-        <v>60</v>
+        <f>3.37*5</f>
+        <v>16.850000000000001</v>
       </c>
       <c r="F257">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G257" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H257">
-        <v>367</v>
+        <v>441.3</v>
       </c>
       <c r="I257" s="2">
-        <v>327.1075969768969</v>
+        <f>89.1*SQRT(6)</f>
+        <v>218.24953608198115</v>
       </c>
       <c r="J257" s="2">
-        <v>327.1075969768969</v>
+        <f>89.1*SQRT(6)</f>
+        <v>218.24953608198115</v>
       </c>
       <c r="K257">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L257">
-        <v>12.4</v>
+        <v>118.2</v>
       </c>
       <c r="M257">
-        <v>21.9</v>
+        <v>83.7</v>
       </c>
       <c r="N257">
-        <v>21.9</v>
+        <v>83.7</v>
       </c>
       <c r="O257">
         <v>1</v>
@@ -40731,13 +40745,13 @@
         <v>2</v>
       </c>
       <c r="Q257">
-        <v>6.4</v>
+        <v>10.3</v>
       </c>
       <c r="R257">
-        <v>96</v>
+        <v>45.1</v>
       </c>
       <c r="S257" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T257" t="s">
         <v>31</v>
@@ -40746,25 +40760,25 @@
         <v>31</v>
       </c>
       <c r="V257" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W257" t="s">
         <v>31</v>
       </c>
       <c r="X257" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="Y257" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z257">
-        <v>-40.99</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="AA257">
-        <v>-71.496300000000005</v>
+        <v>-111.916</v>
       </c>
       <c r="AB257">
-        <v>9.5600000000000004E-2</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.2">
@@ -40772,7 +40786,7 @@
         <v>25</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C258" t="s">
         <v>83</v>
@@ -40781,8 +40795,8 @@
         <v>2010</v>
       </c>
       <c r="E258">
-        <f>3.37</f>
-        <v>3.37</v>
+        <f>3.37*10</f>
+        <v>33.700000000000003</v>
       </c>
       <c r="F258">
         <v>6</v>
@@ -40791,15 +40805,15 @@
         <v>52</v>
       </c>
       <c r="H258">
-        <v>224.2</v>
+        <v>411.7</v>
       </c>
       <c r="I258" s="2">
-        <f>71.1*SQRT(6)</f>
-        <v>174.15872071188394</v>
+        <f>89.1*SQRT(6)</f>
+        <v>218.24953608198115</v>
       </c>
       <c r="J258" s="2">
-        <f>71.1*SQRT(6)</f>
-        <v>174.15872071188394</v>
+        <f>89.1*SQRT(6)</f>
+        <v>218.24953608198115</v>
       </c>
       <c r="K258">
         <v>6</v>
@@ -40861,7 +40875,7 @@
         <v>25</v>
       </c>
       <c r="B259">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C259" t="s">
         <v>83</v>
@@ -40869,9 +40883,9 @@
       <c r="D259">
         <v>2010</v>
       </c>
-      <c r="E259">
-        <f>3.37*5</f>
-        <v>16.850000000000001</v>
+      <c r="E259" s="1">
+        <f>3.37*20</f>
+        <v>67.400000000000006</v>
       </c>
       <c r="F259">
         <v>6</v>
@@ -40880,15 +40894,15 @@
         <v>52</v>
       </c>
       <c r="H259">
-        <v>441.3</v>
+        <v>648.6</v>
       </c>
       <c r="I259" s="2">
-        <f>89.1*SQRT(6)</f>
-        <v>218.24953608198115</v>
+        <f>178.7*SQRT(6)</f>
+        <v>437.72381703535387</v>
       </c>
       <c r="J259" s="2">
-        <f>89.1*SQRT(6)</f>
-        <v>218.24953608198115</v>
+        <f>178.7*SQRT(6)</f>
+        <v>437.72381703535387</v>
       </c>
       <c r="K259">
         <v>6</v>
@@ -40950,7 +40964,7 @@
         <v>25</v>
       </c>
       <c r="B260">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C260" t="s">
         <v>83</v>
@@ -40959,8 +40973,7 @@
         <v>2010</v>
       </c>
       <c r="E260">
-        <f>3.37*10</f>
-        <v>33.700000000000003</v>
+        <v>1.8</v>
       </c>
       <c r="F260">
         <v>6</v>
@@ -40969,15 +40982,15 @@
         <v>52</v>
       </c>
       <c r="H260">
-        <v>411.7</v>
+        <v>620.9</v>
       </c>
       <c r="I260" s="2">
-        <f>89.1*SQRT(6)</f>
-        <v>218.24953608198115</v>
+        <f>151.2*SQRT(6)</f>
+        <v>370.36284910881648</v>
       </c>
       <c r="J260" s="2">
-        <f>89.1*SQRT(6)</f>
-        <v>218.24953608198115</v>
+        <f>151.2*SQRT(6)</f>
+        <v>370.36284910881648</v>
       </c>
       <c r="K260">
         <v>6</v>
@@ -40998,10 +41011,10 @@
         <v>2</v>
       </c>
       <c r="Q260">
-        <v>10.3</v>
+        <v>5</v>
       </c>
       <c r="R260">
-        <v>45.1</v>
+        <v>67.8</v>
       </c>
       <c r="S260" t="s">
         <v>41</v>
@@ -41019,16 +41032,16 @@
         <v>31</v>
       </c>
       <c r="X260" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y260" t="s">
         <v>95</v>
       </c>
       <c r="Z260">
-        <v>40.700000000000003</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="AA260">
-        <v>-111.916</v>
+        <v>-111.6</v>
       </c>
       <c r="AB260">
         <v>0.248</v>
@@ -41039,7 +41052,7 @@
         <v>25</v>
       </c>
       <c r="B261">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C261" t="s">
         <v>83</v>
@@ -41047,9 +41060,9 @@
       <c r="D261">
         <v>2010</v>
       </c>
-      <c r="E261" s="1">
-        <f>3.37*20</f>
-        <v>67.400000000000006</v>
+      <c r="E261">
+        <f>E260*5</f>
+        <v>9</v>
       </c>
       <c r="F261">
         <v>6</v>
@@ -41058,15 +41071,15 @@
         <v>52</v>
       </c>
       <c r="H261">
-        <v>648.6</v>
+        <v>692.9</v>
       </c>
       <c r="I261" s="2">
-        <f>178.7*SQRT(6)</f>
-        <v>437.72381703535387</v>
+        <f>142*SQRT(6)</f>
+        <v>347.82754347521126</v>
       </c>
       <c r="J261" s="2">
-        <f>178.7*SQRT(6)</f>
-        <v>437.72381703535387</v>
+        <f>142*SQRT(6)</f>
+        <v>347.82754347521126</v>
       </c>
       <c r="K261">
         <v>6</v>
@@ -41087,10 +41100,10 @@
         <v>2</v>
       </c>
       <c r="Q261">
-        <v>10.3</v>
+        <v>5</v>
       </c>
       <c r="R261">
-        <v>45.1</v>
+        <v>67.8</v>
       </c>
       <c r="S261" t="s">
         <v>41</v>
@@ -41108,16 +41121,16 @@
         <v>31</v>
       </c>
       <c r="X261" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y261" t="s">
         <v>95</v>
       </c>
       <c r="Z261">
-        <v>40.700000000000003</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="AA261">
-        <v>-111.916</v>
+        <v>-111.6</v>
       </c>
       <c r="AB261">
         <v>0.248</v>
@@ -41128,7 +41141,7 @@
         <v>25</v>
       </c>
       <c r="B262">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C262" t="s">
         <v>83</v>
@@ -41137,7 +41150,8 @@
         <v>2010</v>
       </c>
       <c r="E262">
-        <v>1.8</v>
+        <f>E260*10</f>
+        <v>18</v>
       </c>
       <c r="F262">
         <v>6</v>
@@ -41146,15 +41160,15 @@
         <v>52</v>
       </c>
       <c r="H262">
-        <v>620.9</v>
+        <v>687.6</v>
       </c>
       <c r="I262" s="2">
-        <f>151.2*SQRT(6)</f>
-        <v>370.36284910881648</v>
+        <f>91.8*SQRT(6)</f>
+        <v>224.86315838749573</v>
       </c>
       <c r="J262" s="2">
-        <f>151.2*SQRT(6)</f>
-        <v>370.36284910881648</v>
+        <f>91.8*SQRT(6)</f>
+        <v>224.86315838749573</v>
       </c>
       <c r="K262">
         <v>6</v>
@@ -41216,7 +41230,7 @@
         <v>25</v>
       </c>
       <c r="B263">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C263" t="s">
         <v>83</v>
@@ -41225,8 +41239,8 @@
         <v>2010</v>
       </c>
       <c r="E263">
-        <f>E262*5</f>
-        <v>9</v>
+        <f>E260*20</f>
+        <v>36</v>
       </c>
       <c r="F263">
         <v>6</v>
@@ -41235,15 +41249,15 @@
         <v>52</v>
       </c>
       <c r="H263">
-        <v>692.9</v>
+        <v>1052.8</v>
       </c>
       <c r="I263" s="2">
-        <f>142*SQRT(6)</f>
-        <v>347.82754347521126</v>
+        <f>303.6*SQRT(6)</f>
+        <v>743.66508590897286</v>
       </c>
       <c r="J263" s="2">
-        <f>142*SQRT(6)</f>
-        <v>347.82754347521126</v>
+        <f>303.6*SQRT(6)</f>
+        <v>743.66508590897286</v>
       </c>
       <c r="K263">
         <v>6</v>
@@ -41305,7 +41319,7 @@
         <v>25</v>
       </c>
       <c r="B264">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C264" t="s">
         <v>83</v>
@@ -41314,8 +41328,7 @@
         <v>2010</v>
       </c>
       <c r="E264">
-        <f>E262*10</f>
-        <v>18</v>
+        <v>7.63</v>
       </c>
       <c r="F264">
         <v>6</v>
@@ -41324,15 +41337,15 @@
         <v>52</v>
       </c>
       <c r="H264">
-        <v>687.6</v>
+        <v>127</v>
       </c>
       <c r="I264" s="2">
-        <f>91.8*SQRT(6)</f>
-        <v>224.86315838749573</v>
+        <f>150.5*SQRT(6)</f>
+        <v>368.64820628886827</v>
       </c>
       <c r="J264" s="2">
-        <f>91.8*SQRT(6)</f>
-        <v>224.86315838749573</v>
+        <f>150.5*SQRT(6)</f>
+        <v>368.64820628886827</v>
       </c>
       <c r="K264">
         <v>6</v>
@@ -41353,10 +41366,10 @@
         <v>2</v>
       </c>
       <c r="Q264">
-        <v>5</v>
+        <v>9.9</v>
       </c>
       <c r="R264">
-        <v>67.8</v>
+        <v>50.4</v>
       </c>
       <c r="S264" t="s">
         <v>41</v>
@@ -41374,16 +41387,16 @@
         <v>31</v>
       </c>
       <c r="X264" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y264" t="s">
         <v>95</v>
       </c>
       <c r="Z264">
-        <v>40.799999999999997</v>
+        <v>41</v>
       </c>
       <c r="AA264">
-        <v>-111.6</v>
+        <v>-112</v>
       </c>
       <c r="AB264">
         <v>0.248</v>
@@ -41394,7 +41407,7 @@
         <v>25</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C265" t="s">
         <v>83</v>
@@ -41403,8 +41416,8 @@
         <v>2010</v>
       </c>
       <c r="E265">
-        <f>E262*20</f>
-        <v>36</v>
+        <f>E264*5</f>
+        <v>38.15</v>
       </c>
       <c r="F265">
         <v>6</v>
@@ -41413,15 +41426,15 @@
         <v>52</v>
       </c>
       <c r="H265">
-        <v>1052.8</v>
+        <v>306.5</v>
       </c>
       <c r="I265" s="2">
-        <f>303.6*SQRT(6)</f>
-        <v>743.66508590897286</v>
+        <f>72.5*SQRT(6)</f>
+        <v>177.58800635178039</v>
       </c>
       <c r="J265" s="2">
-        <f>303.6*SQRT(6)</f>
-        <v>743.66508590897286</v>
+        <f>72.5*SQRT(6)</f>
+        <v>177.58800635178039</v>
       </c>
       <c r="K265">
         <v>6</v>
@@ -41442,10 +41455,10 @@
         <v>2</v>
       </c>
       <c r="Q265">
-        <v>5</v>
+        <v>9.9</v>
       </c>
       <c r="R265">
-        <v>67.8</v>
+        <v>50.4</v>
       </c>
       <c r="S265" t="s">
         <v>41</v>
@@ -41463,16 +41476,16 @@
         <v>31</v>
       </c>
       <c r="X265" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y265" t="s">
         <v>95</v>
       </c>
       <c r="Z265">
-        <v>40.799999999999997</v>
+        <v>41</v>
       </c>
       <c r="AA265">
-        <v>-111.6</v>
+        <v>-112</v>
       </c>
       <c r="AB265">
         <v>0.248</v>
@@ -41483,7 +41496,7 @@
         <v>25</v>
       </c>
       <c r="B266">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C266" t="s">
         <v>83</v>
@@ -41492,7 +41505,8 @@
         <v>2010</v>
       </c>
       <c r="E266">
-        <v>7.63</v>
+        <f>E264*10</f>
+        <v>76.3</v>
       </c>
       <c r="F266">
         <v>6</v>
@@ -41501,15 +41515,15 @@
         <v>52</v>
       </c>
       <c r="H266">
-        <v>127</v>
+        <v>326.7</v>
       </c>
       <c r="I266" s="2">
-        <f>150.5*SQRT(6)</f>
-        <v>368.64820628886827</v>
+        <f>141.9*SQRT(6)</f>
+        <v>347.58259450093294</v>
       </c>
       <c r="J266" s="2">
-        <f>150.5*SQRT(6)</f>
-        <v>368.64820628886827</v>
+        <f>141.9*SQRT(6)</f>
+        <v>347.58259450093294</v>
       </c>
       <c r="K266">
         <v>6</v>
@@ -41571,7 +41585,7 @@
         <v>25</v>
       </c>
       <c r="B267">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C267" t="s">
         <v>83</v>
@@ -41580,8 +41594,8 @@
         <v>2010</v>
       </c>
       <c r="E267">
-        <f>E266*5</f>
-        <v>38.15</v>
+        <f>E264*20</f>
+        <v>152.6</v>
       </c>
       <c r="F267">
         <v>6</v>
@@ -41590,15 +41604,15 @@
         <v>52</v>
       </c>
       <c r="H267">
-        <v>306.5</v>
+        <v>564.79999999999995</v>
       </c>
       <c r="I267" s="2">
-        <f>72.5*SQRT(6)</f>
-        <v>177.58800635178039</v>
+        <f>265.2*SQRT(6)</f>
+        <v>649.6046797860987</v>
       </c>
       <c r="J267" s="2">
-        <f>72.5*SQRT(6)</f>
-        <v>177.58800635178039</v>
+        <f>265.2*SQRT(6)</f>
+        <v>649.6046797860987</v>
       </c>
       <c r="K267">
         <v>6</v>
@@ -41660,7 +41674,7 @@
         <v>25</v>
       </c>
       <c r="B268">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C268" t="s">
         <v>83</v>
@@ -41669,8 +41683,7 @@
         <v>2010</v>
       </c>
       <c r="E268">
-        <f>E266*10</f>
-        <v>76.3</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="F268">
         <v>6</v>
@@ -41679,15 +41692,15 @@
         <v>52</v>
       </c>
       <c r="H268">
-        <v>326.7</v>
+        <v>1040.8</v>
       </c>
       <c r="I268" s="2">
-        <f>141.9*SQRT(6)</f>
-        <v>347.58259450093294</v>
+        <f>200.1*SQRT(6)</f>
+        <v>490.1428975309139</v>
       </c>
       <c r="J268" s="2">
-        <f>141.9*SQRT(6)</f>
-        <v>347.58259450093294</v>
+        <f>200.1*SQRT(6)</f>
+        <v>490.1428975309139</v>
       </c>
       <c r="K268">
         <v>6</v>
@@ -41708,13 +41721,13 @@
         <v>2</v>
       </c>
       <c r="Q268">
-        <v>9.9</v>
+        <v>10.7</v>
       </c>
       <c r="R268">
-        <v>50.4</v>
+        <v>19.3</v>
       </c>
       <c r="S268" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T268" t="s">
         <v>31</v>
@@ -41729,19 +41742,19 @@
         <v>31</v>
       </c>
       <c r="X268" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y268" t="s">
         <v>95</v>
       </c>
       <c r="Z268">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="AA268">
-        <v>-112</v>
+        <v>-113.2</v>
       </c>
       <c r="AB268">
-        <v>0.248</v>
+        <v>0.87990000000000002</v>
       </c>
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.2">
@@ -41749,7 +41762,7 @@
         <v>25</v>
       </c>
       <c r="B269">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C269" t="s">
         <v>83</v>
@@ -41758,8 +41771,8 @@
         <v>2010</v>
       </c>
       <c r="E269">
-        <f>E266*20</f>
-        <v>152.6</v>
+        <f>19.76*5</f>
+        <v>98.800000000000011</v>
       </c>
       <c r="F269">
         <v>6</v>
@@ -41768,15 +41781,15 @@
         <v>52</v>
       </c>
       <c r="H269">
-        <v>564.79999999999995</v>
+        <v>563.5</v>
       </c>
       <c r="I269" s="2">
-        <f>265.2*SQRT(6)</f>
-        <v>649.6046797860987</v>
+        <f>166.9*SQRT(6)</f>
+        <v>408.81983807051239</v>
       </c>
       <c r="J269" s="2">
-        <f>265.2*SQRT(6)</f>
-        <v>649.6046797860987</v>
+        <f>166.9*SQRT(6)</f>
+        <v>408.81983807051239</v>
       </c>
       <c r="K269">
         <v>6</v>
@@ -41797,13 +41810,13 @@
         <v>2</v>
       </c>
       <c r="Q269">
-        <v>9.9</v>
+        <v>10.7</v>
       </c>
       <c r="R269">
-        <v>50.4</v>
+        <v>19.3</v>
       </c>
       <c r="S269" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T269" t="s">
         <v>31</v>
@@ -41818,19 +41831,19 @@
         <v>31</v>
       </c>
       <c r="X269" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y269" t="s">
         <v>95</v>
       </c>
       <c r="Z269">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="AA269">
-        <v>-112</v>
+        <v>-113.2</v>
       </c>
       <c r="AB269">
-        <v>0.248</v>
+        <v>0.87990000000000002</v>
       </c>
     </row>
     <row r="270" spans="1:28" x14ac:dyDescent="0.2">
@@ -41838,7 +41851,7 @@
         <v>25</v>
       </c>
       <c r="B270">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C270" t="s">
         <v>83</v>
@@ -41847,7 +41860,8 @@
         <v>2010</v>
       </c>
       <c r="E270">
-        <v>19.760000000000002</v>
+        <f>19.76*10</f>
+        <v>197.60000000000002</v>
       </c>
       <c r="F270">
         <v>6</v>
@@ -41856,15 +41870,15 @@
         <v>52</v>
       </c>
       <c r="H270">
-        <v>1040.8</v>
+        <v>536.6</v>
       </c>
       <c r="I270" s="2">
-        <f>200.1*SQRT(6)</f>
-        <v>490.1428975309139</v>
+        <f>54.4*SQRT(6)</f>
+        <v>133.25224200740487</v>
       </c>
       <c r="J270" s="2">
-        <f>200.1*SQRT(6)</f>
-        <v>490.1428975309139</v>
+        <f>54.4*SQRT(6)</f>
+        <v>133.25224200740487</v>
       </c>
       <c r="K270">
         <v>6</v>
@@ -41918,190 +41932,12 @@
         <v>-113.2</v>
       </c>
       <c r="AB270">
-        <v>0.87990000000000002</v>
-      </c>
-    </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A271">
-        <v>25</v>
-      </c>
-      <c r="B271">
-        <v>14</v>
-      </c>
-      <c r="C271" t="s">
-        <v>83</v>
-      </c>
-      <c r="D271">
-        <v>2010</v>
-      </c>
-      <c r="E271">
-        <f>19.76*5</f>
-        <v>98.800000000000011</v>
-      </c>
-      <c r="F271">
-        <v>6</v>
-      </c>
-      <c r="G271" t="s">
-        <v>52</v>
-      </c>
-      <c r="H271">
-        <v>563.5</v>
-      </c>
-      <c r="I271" s="2">
-        <f>166.9*SQRT(6)</f>
-        <v>408.81983807051239</v>
-      </c>
-      <c r="J271" s="2">
-        <f>166.9*SQRT(6)</f>
-        <v>408.81983807051239</v>
-      </c>
-      <c r="K271">
-        <v>6</v>
-      </c>
-      <c r="L271">
-        <v>118.2</v>
-      </c>
-      <c r="M271">
-        <v>83.7</v>
-      </c>
-      <c r="N271">
-        <v>83.7</v>
-      </c>
-      <c r="O271">
-        <v>1</v>
-      </c>
-      <c r="P271">
-        <v>2</v>
-      </c>
-      <c r="Q271">
-        <v>10.7</v>
-      </c>
-      <c r="R271">
-        <v>19.3</v>
-      </c>
-      <c r="S271" t="s">
-        <v>33</v>
-      </c>
-      <c r="T271" t="s">
-        <v>31</v>
-      </c>
-      <c r="U271" t="s">
-        <v>31</v>
-      </c>
-      <c r="V271" t="s">
-        <v>31</v>
-      </c>
-      <c r="W271" t="s">
-        <v>31</v>
-      </c>
-      <c r="X271" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y271" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z271">
-        <v>40.4</v>
-      </c>
-      <c r="AA271">
-        <v>-113.2</v>
-      </c>
-      <c r="AB271">
-        <v>0.87990000000000002</v>
-      </c>
-    </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A272">
-        <v>25</v>
-      </c>
-      <c r="B272">
-        <v>15</v>
-      </c>
-      <c r="C272" t="s">
-        <v>83</v>
-      </c>
-      <c r="D272">
-        <v>2010</v>
-      </c>
-      <c r="E272">
-        <f>19.76*10</f>
-        <v>197.60000000000002</v>
-      </c>
-      <c r="F272">
-        <v>6</v>
-      </c>
-      <c r="G272" t="s">
-        <v>52</v>
-      </c>
-      <c r="H272">
-        <v>536.6</v>
-      </c>
-      <c r="I272" s="2">
-        <f>54.4*SQRT(6)</f>
-        <v>133.25224200740487</v>
-      </c>
-      <c r="J272" s="2">
-        <f>54.4*SQRT(6)</f>
-        <v>133.25224200740487</v>
-      </c>
-      <c r="K272">
-        <v>6</v>
-      </c>
-      <c r="L272">
-        <v>118.2</v>
-      </c>
-      <c r="M272">
-        <v>83.7</v>
-      </c>
-      <c r="N272">
-        <v>83.7</v>
-      </c>
-      <c r="O272">
-        <v>1</v>
-      </c>
-      <c r="P272">
-        <v>2</v>
-      </c>
-      <c r="Q272">
-        <v>10.7</v>
-      </c>
-      <c r="R272">
-        <v>19.3</v>
-      </c>
-      <c r="S272" t="s">
-        <v>33</v>
-      </c>
-      <c r="T272" t="s">
-        <v>31</v>
-      </c>
-      <c r="U272" t="s">
-        <v>31</v>
-      </c>
-      <c r="V272" t="s">
-        <v>31</v>
-      </c>
-      <c r="W272" t="s">
-        <v>31</v>
-      </c>
-      <c r="X272" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y272" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z272">
-        <v>40.4</v>
-      </c>
-      <c r="AA272">
-        <v>-113.2</v>
-      </c>
-      <c r="AB272">
         <v>0.99150000000000005</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AB272">
-    <sortCondition ref="AB2:AB272"/>
+  <sortState ref="A2:AB270">
+    <sortCondition ref="AB2:AB270"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42111,9 +41947,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD349FBF-19EC-D146-ACA8-683A33E0AFBC}">
   <dimension ref="A1:AB160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53673,7 +53509,7 @@
         <v>81</v>
       </c>
       <c r="D143">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E143">
         <v>10</v>
@@ -53752,7 +53588,7 @@
         <v>81</v>
       </c>
       <c r="D144">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E144">
         <v>20</v>
@@ -55110,7 +54946,7 @@
   <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView topLeftCell="R14" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z64"/>
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_sheets.xlsx
+++ b/data_sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/Grassland restoration with biosolids/Grassland-restoration-with-biosolids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4D9EFF-89FA-D241-83F4-3B4643DC6129}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CAC696-5EAF-974F-A27C-A3EF3E1D8E9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
   </bookViews>
@@ -1069,7 +1069,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89:G89"/>
+      <selection pane="bottomLeft" activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55058,12 +55058,14 @@
   <dimension ref="A1:AB108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27:AB36"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="11"/>
+    <col min="14" max="14" width="10.83203125" style="11"/>
     <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -55095,7 +55097,7 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="11" t="s">
         <v>142</v>
       </c>
       <c r="K1" t="s">
@@ -55107,7 +55109,7 @@
       <c r="M1" t="s">
         <v>144</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="11" t="s">
         <v>145</v>
       </c>
       <c r="O1" t="s">
@@ -55181,9 +55183,8 @@
       <c r="I2">
         <v>0.2</v>
       </c>
-      <c r="J2">
-        <f>0.2*SQRT(F2)</f>
-        <v>0.69282032302755092</v>
+      <c r="J2" s="11">
+        <v>0.2</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -55194,7 +55195,7 @@
       <c r="M2">
         <v>0.09</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="11">
         <f>M2*SQRT(K2)</f>
         <v>0.31176914536239786</v>
       </c>
@@ -55263,11 +55264,19 @@
       <c r="H3">
         <v>1.6</v>
       </c>
+      <c r="J3" s="11">
+        <f t="shared" ref="J3:J13" si="0">0.165315237*H3</f>
+        <v>0.26450437920000003</v>
+      </c>
       <c r="K3">
         <v>4</v>
       </c>
       <c r="L3">
         <v>1.8</v>
+      </c>
+      <c r="N3" s="11">
+        <f>0.135324914*L3</f>
+        <v>0.24358484519999998</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -55335,17 +55344,25 @@
       <c r="H4">
         <v>1.6</v>
       </c>
+      <c r="J4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.26450437920000003</v>
+      </c>
       <c r="K4">
         <v>4</v>
       </c>
       <c r="L4">
         <v>1.8</v>
       </c>
+      <c r="N4" s="11">
+        <f t="shared" ref="N4:N14" si="1">0.135324914*L4</f>
+        <v>0.24358484519999998</v>
+      </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P15" si="0">O4+1</f>
+        <f t="shared" ref="P4:P15" si="2">O4+1</f>
         <v>2</v>
       </c>
       <c r="Q4" t="s">
@@ -55407,17 +55424,25 @@
       <c r="H5">
         <v>1.3</v>
       </c>
+      <c r="J5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.21490980810000002</v>
+      </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5">
         <v>1.8</v>
       </c>
+      <c r="N5" s="11">
+        <f t="shared" si="1"/>
+        <v>0.24358484519999998</v>
+      </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q5" t="s">
@@ -55479,17 +55504,25 @@
       <c r="H6">
         <v>1.7</v>
       </c>
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.28103590290000002</v>
+      </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="L6">
         <v>1.8</v>
       </c>
+      <c r="N6" s="11">
+        <f t="shared" si="1"/>
+        <v>0.24358484519999998</v>
+      </c>
       <c r="O6">
         <v>2</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Q6" t="s">
@@ -55551,17 +55584,25 @@
       <c r="H7">
         <v>1.6</v>
       </c>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.26450437920000003</v>
+      </c>
       <c r="K7">
         <v>4</v>
       </c>
       <c r="L7">
         <v>1.8</v>
       </c>
+      <c r="N7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.24358484519999998</v>
+      </c>
       <c r="O7">
         <v>2</v>
       </c>
       <c r="P7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Q7" t="s">
@@ -55623,17 +55664,25 @@
       <c r="H8">
         <v>1.4</v>
       </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.23144133179999998</v>
+      </c>
       <c r="K8">
         <v>4</v>
       </c>
       <c r="L8">
         <v>1.8</v>
       </c>
+      <c r="N8" s="11">
+        <f t="shared" si="1"/>
+        <v>0.24358484519999998</v>
+      </c>
       <c r="O8">
         <v>2</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Q8" t="s">
@@ -55695,17 +55744,25 @@
       <c r="H9">
         <v>1.8</v>
       </c>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.29756742660000002</v>
+      </c>
       <c r="K9">
         <v>4</v>
       </c>
       <c r="L9">
         <v>1.7</v>
       </c>
+      <c r="N9" s="11">
+        <f t="shared" si="1"/>
+        <v>0.23005235379999997</v>
+      </c>
       <c r="O9">
         <v>3</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q9" t="s">
@@ -55767,17 +55824,25 @@
       <c r="H10">
         <v>1.8</v>
       </c>
+      <c r="J10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.29756742660000002</v>
+      </c>
       <c r="K10">
         <v>4</v>
       </c>
       <c r="L10">
         <v>1.7</v>
       </c>
+      <c r="N10" s="11">
+        <f t="shared" si="1"/>
+        <v>0.23005235379999997</v>
+      </c>
       <c r="O10">
         <v>3</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q10" t="s">
@@ -55839,17 +55904,25 @@
       <c r="H11">
         <v>1.6</v>
       </c>
+      <c r="J11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.26450437920000003</v>
+      </c>
       <c r="K11">
         <v>4</v>
       </c>
       <c r="L11">
         <v>1.7</v>
       </c>
+      <c r="N11" s="11">
+        <f t="shared" si="1"/>
+        <v>0.23005235379999997</v>
+      </c>
       <c r="O11">
         <v>3</v>
       </c>
       <c r="P11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q11" t="s">
@@ -55911,17 +55984,25 @@
       <c r="H12">
         <v>1.3</v>
       </c>
+      <c r="J12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.21490980810000002</v>
+      </c>
       <c r="K12">
         <v>4</v>
       </c>
       <c r="L12">
         <v>1.6</v>
       </c>
+      <c r="N12" s="11">
+        <f t="shared" si="1"/>
+        <v>0.21651986239999998</v>
+      </c>
       <c r="O12">
         <v>4</v>
       </c>
       <c r="P12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Q12" t="s">
@@ -55983,17 +56064,25 @@
       <c r="H13">
         <v>1.4</v>
       </c>
+      <c r="J13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.23144133179999998</v>
+      </c>
       <c r="K13">
         <v>4</v>
       </c>
       <c r="L13">
         <v>1.6</v>
       </c>
+      <c r="N13" s="11">
+        <f t="shared" si="1"/>
+        <v>0.21651986239999998</v>
+      </c>
       <c r="O13">
         <v>4</v>
       </c>
       <c r="P13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Q13" t="s">
@@ -56055,17 +56144,25 @@
       <c r="H14">
         <v>1.1000000000000001</v>
       </c>
+      <c r="J14" s="11">
+        <f>0.165315237*H14</f>
+        <v>0.18184676070000003</v>
+      </c>
       <c r="K14">
         <v>4</v>
       </c>
       <c r="L14">
         <v>1.6</v>
       </c>
+      <c r="N14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.21651986239999998</v>
+      </c>
       <c r="O14">
         <v>4</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Q14" t="s">
@@ -56133,8 +56230,9 @@
       <c r="I15">
         <v>6.2E-2</v>
       </c>
-      <c r="J15">
-        <v>6.2E-2</v>
+      <c r="J15" s="11">
+        <f>I15*SQRT(F15)</f>
+        <v>0.124</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -56145,14 +56243,15 @@
       <c r="M15">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N15">
-        <v>6.2E-2</v>
+      <c r="N15" s="11">
+        <f>M15*SQRT(K15)</f>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="O15">
         <v>6</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="Q15" t="s">
@@ -56220,20 +56319,22 @@
       <c r="I16">
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="J16" s="2">
-        <v>0.54772255750516607</v>
+      <c r="J16" s="11">
+        <f t="shared" ref="J16:J36" si="3">I16*SQRT(F16)</f>
+        <v>0.12247448713915846</v>
       </c>
       <c r="K16">
         <v>5</v>
       </c>
       <c r="L16">
-        <v>33.22</v>
+        <v>2.96</v>
       </c>
       <c r="M16">
-        <v>2.96</v>
-      </c>
-      <c r="N16">
         <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" ref="N16:N26" si="4">M16*SQRT(K16)</f>
+        <v>0.20124611797498076</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -56307,26 +56408,28 @@
       <c r="I17">
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="J17" s="2">
-        <v>0.70710678118654757</v>
+      <c r="J17" s="11">
+        <f t="shared" si="3"/>
+        <v>0.17146428199482205</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="L17">
-        <v>35.76</v>
+        <v>2.93</v>
       </c>
       <c r="M17">
-        <v>2.93</v>
-      </c>
-      <c r="N17">
         <v>0.13999999999999968</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="4"/>
+        <v>0.31304951684996984</v>
       </c>
       <c r="O17">
         <v>2</v>
       </c>
       <c r="P17">
-        <f t="shared" ref="P17:P26" si="1">O17+1</f>
+        <f t="shared" ref="P17:P26" si="5">O17+1</f>
         <v>3</v>
       </c>
       <c r="Q17" t="s">
@@ -56394,26 +56497,28 @@
       <c r="I18">
         <v>0.17999999999999972</v>
       </c>
-      <c r="J18" s="2">
-        <v>1.0954451150103321</v>
+      <c r="J18" s="11">
+        <f t="shared" si="3"/>
+        <v>0.44090815370097131</v>
       </c>
       <c r="K18">
         <v>5</v>
       </c>
       <c r="L18">
-        <v>36.450000000000003</v>
+        <v>2.91</v>
       </c>
       <c r="M18">
-        <v>2.91</v>
-      </c>
-      <c r="N18">
         <v>6.999999999999984E-2</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="4"/>
+        <v>0.15652475842498492</v>
       </c>
       <c r="O18">
         <v>3</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q18" t="s">
@@ -56481,26 +56586,28 @@
       <c r="I19">
         <v>0.16999999999999993</v>
       </c>
-      <c r="J19" s="2">
-        <v>1.1401754250991381</v>
+      <c r="J19" s="11">
+        <f t="shared" si="3"/>
+        <v>0.41641325627314008</v>
       </c>
       <c r="K19">
         <v>5</v>
       </c>
       <c r="L19">
-        <v>35.18</v>
+        <v>3.16</v>
       </c>
       <c r="M19">
-        <v>3.16</v>
-      </c>
-      <c r="N19">
         <v>9.0000000000000302E-2</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="4"/>
+        <v>0.20124611797498176</v>
       </c>
       <c r="O19">
         <v>4</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q19" t="s">
@@ -56568,26 +56675,28 @@
       <c r="I20">
         <v>0.27</v>
       </c>
-      <c r="J20" s="2">
-        <v>1.2649110640673518</v>
+      <c r="J20" s="11">
+        <f t="shared" si="3"/>
+        <v>0.66136223055145804</v>
       </c>
       <c r="K20">
         <v>5</v>
       </c>
       <c r="L20">
-        <v>35.18</v>
+        <v>2.9</v>
       </c>
       <c r="M20">
-        <v>2.9</v>
-      </c>
-      <c r="N20">
         <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="4"/>
+        <v>0.1341640786499875</v>
       </c>
       <c r="O20">
         <v>5</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q20" t="s">
@@ -56655,26 +56764,28 @@
       <c r="I21">
         <v>0.14999999999999991</v>
       </c>
-      <c r="J21" s="2">
-        <v>0.89442719099991586</v>
+      <c r="J21" s="11">
+        <f t="shared" si="3"/>
+        <v>0.36742346141747645</v>
       </c>
       <c r="K21">
         <v>5</v>
       </c>
       <c r="L21">
-        <v>36.57</v>
+        <v>3.03</v>
       </c>
       <c r="M21">
-        <v>3.03</v>
-      </c>
-      <c r="N21">
         <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="4"/>
+        <v>0.15652475842498592</v>
       </c>
       <c r="O21">
         <v>6</v>
       </c>
       <c r="P21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q21" t="s">
@@ -56742,26 +56853,28 @@
       <c r="I22">
         <v>0.14000000000000012</v>
       </c>
-      <c r="J22" s="2">
-        <v>0.94868329805051377</v>
+      <c r="J22" s="11">
+        <f t="shared" si="3"/>
+        <v>0.34292856398964522</v>
       </c>
       <c r="K22">
         <v>5</v>
       </c>
       <c r="L22">
-        <v>32.590000000000003</v>
+        <v>3.07</v>
       </c>
       <c r="M22">
-        <v>3.07</v>
-      </c>
-      <c r="N22">
         <v>0.08</v>
+      </c>
+      <c r="N22" s="11">
+        <f t="shared" si="4"/>
+        <v>0.17888543819998318</v>
       </c>
       <c r="O22">
         <v>7</v>
       </c>
       <c r="P22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q22" t="s">
@@ -56829,26 +56942,28 @@
       <c r="I23">
         <v>0.16000000000000014</v>
       </c>
-      <c r="J23" s="2">
-        <v>0.89442719099991586</v>
+      <c r="J23" s="11">
+        <f t="shared" si="3"/>
+        <v>0.39191835884530879</v>
       </c>
       <c r="K23">
         <v>5</v>
       </c>
       <c r="L23">
-        <v>31.37</v>
+        <v>2.9</v>
       </c>
       <c r="M23">
-        <v>2.9</v>
-      </c>
-      <c r="N23">
         <v>0.06</v>
+      </c>
+      <c r="N23" s="11">
+        <f t="shared" si="4"/>
+        <v>0.13416407864998739</v>
       </c>
       <c r="O23">
         <v>8</v>
       </c>
       <c r="P23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="Q23" t="s">
@@ -56916,26 +57031,28 @@
       <c r="I24">
         <v>0.1599999999999997</v>
       </c>
-      <c r="J24" s="2">
-        <v>1</v>
+      <c r="J24" s="11">
+        <f t="shared" si="3"/>
+        <v>0.39191835884530773</v>
       </c>
       <c r="K24">
         <v>5</v>
       </c>
       <c r="L24">
-        <v>37.380000000000003</v>
+        <v>2.98</v>
       </c>
       <c r="M24">
-        <v>2.98</v>
-      </c>
-      <c r="N24">
         <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="N24" s="11">
+        <f t="shared" si="4"/>
+        <v>0.1341640786499875</v>
       </c>
       <c r="O24">
         <v>9</v>
       </c>
       <c r="P24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="Q24" t="s">
@@ -57003,26 +57120,28 @@
       <c r="I25">
         <v>0.17000000000000037</v>
       </c>
-      <c r="J25" s="2">
-        <v>1</v>
+      <c r="J25" s="11">
+        <f t="shared" si="3"/>
+        <v>0.41641325627314113</v>
       </c>
       <c r="K25">
         <v>5</v>
       </c>
       <c r="L25">
-        <v>40.840000000000003</v>
+        <v>3.11</v>
       </c>
       <c r="M25">
-        <v>3.11</v>
-      </c>
-      <c r="N25">
         <v>0.08</v>
+      </c>
+      <c r="N25" s="11">
+        <f t="shared" si="4"/>
+        <v>0.17888543819998318</v>
       </c>
       <c r="O25">
         <v>10</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="Q25" t="s">
@@ -57090,26 +57209,28 @@
       <c r="I26">
         <v>0.11999999999999966</v>
       </c>
-      <c r="J26" s="2">
-        <v>0.83666002653407556</v>
+      <c r="J26" s="11">
+        <f t="shared" si="3"/>
+        <v>0.29393876913398054</v>
       </c>
       <c r="K26">
         <v>5</v>
       </c>
       <c r="L26">
-        <v>35.65</v>
+        <v>3.1</v>
       </c>
       <c r="M26">
-        <v>3.1</v>
-      </c>
-      <c r="N26">
         <v>0.1</v>
+      </c>
+      <c r="N26" s="11">
+        <f t="shared" si="4"/>
+        <v>0.22360679774997899</v>
       </c>
       <c r="O26">
         <v>11</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="Q26" t="s">
@@ -57169,7 +57290,7 @@
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H27">
         <v>0.96</v>
@@ -57190,7 +57311,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="N27">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="O27">
         <v>17</v>
@@ -57256,7 +57377,7 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H28">
         <v>0.76</v>
@@ -57277,13 +57398,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="N28">
-        <v>0.28000000000000003</v>
+        <v>0.38</v>
       </c>
       <c r="O28">
         <v>17</v>
       </c>
       <c r="P28">
-        <f t="shared" ref="P28:P36" si="2">O28+1</f>
+        <f t="shared" ref="P28:P36" si="6">O28+1</f>
         <v>18</v>
       </c>
       <c r="Q28" t="s">
@@ -57343,7 +57464,7 @@
         <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H29">
         <v>0.95</v>
@@ -57364,13 +57485,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="N29">
-        <v>0.28000000000000003</v>
+        <v>0.23</v>
       </c>
       <c r="O29">
         <v>17</v>
       </c>
       <c r="P29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="Q29" t="s">
@@ -57430,7 +57551,7 @@
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H30">
         <v>0.93</v>
@@ -57451,13 +57572,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="N30">
-        <v>0.28000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="O30">
         <v>17</v>
       </c>
       <c r="P30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="Q30" t="s">
@@ -57517,7 +57638,7 @@
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H31">
         <v>0.82</v>
@@ -57538,13 +57659,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="N31">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="O31">
         <v>17</v>
       </c>
       <c r="P31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="Q31" t="s">
@@ -57604,7 +57725,7 @@
         <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H32">
         <v>0.92</v>
@@ -57625,13 +57746,13 @@
         <v>0.08</v>
       </c>
       <c r="N32">
-        <v>0.08</v>
+        <v>0.38</v>
       </c>
       <c r="O32">
         <v>17</v>
       </c>
       <c r="P32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="Q32" t="s">
@@ -57691,7 +57812,7 @@
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H33">
         <v>1.05</v>
@@ -57712,13 +57833,13 @@
         <v>0.08</v>
       </c>
       <c r="N33">
-        <v>0.08</v>
+        <v>0.26</v>
       </c>
       <c r="O33">
         <v>17</v>
       </c>
       <c r="P33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="Q33" t="s">
@@ -57778,7 +57899,7 @@
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H34">
         <v>0.82</v>
@@ -57799,13 +57920,13 @@
         <v>0.08</v>
       </c>
       <c r="N34">
-        <v>0.08</v>
+        <v>0.31</v>
       </c>
       <c r="O34">
         <v>17</v>
       </c>
       <c r="P34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="Q34" t="s">
@@ -57865,7 +57986,7 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H35">
         <v>0.73</v>
@@ -57886,13 +58007,13 @@
         <v>0.08</v>
       </c>
       <c r="N35">
-        <v>0.08</v>
+        <v>0.34</v>
       </c>
       <c r="O35">
         <v>17</v>
       </c>
       <c r="P35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="Q35" t="s">
@@ -57952,7 +58073,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H36">
         <v>0.9</v>
@@ -57973,13 +58094,13 @@
         <v>0.08</v>
       </c>
       <c r="N36">
-        <v>0.08</v>
+        <v>0.31</v>
       </c>
       <c r="O36">
         <v>17</v>
       </c>
       <c r="P36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="Q36" t="s">
@@ -58020,27 +58141,46 @@
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="J37" s="2"/>
+      <c r="H37">
+        <f>SUM(H15:H36)+H2</f>
+        <v>44.769999999999996</v>
+      </c>
+      <c r="J37" s="11">
+        <f>SUM(J15:J36)+J2</f>
+        <v>7.4011631781644089</v>
+      </c>
+      <c r="L37">
+        <f>SUM(L15:L36)+L2</f>
+        <v>39.949999999999989</v>
+      </c>
+      <c r="N37" s="11">
+        <f>SUM(N15:N36)+N2</f>
+        <v>5.4062303251122072</v>
+      </c>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="J38" s="2"/>
+      <c r="I38">
+        <f>J37/H37</f>
+        <v>0.16531523739478243</v>
+      </c>
+      <c r="M38">
+        <f>N37/L37</f>
+        <v>0.13532491427064353</v>
+      </c>
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="J39" s="2"/>
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="J40" s="2"/>
       <c r="S40" s="13"/>
       <c r="T40" s="13"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="J41" s="2"/>
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
     </row>
@@ -58213,7 +58353,7 @@
         <v>10.4439511653718</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F108" si="3">E66^0.5</f>
+        <f t="shared" ref="F66:F108" si="7">E66^0.5</f>
         <v>3.2317102539323974</v>
       </c>
     </row>
@@ -58225,7 +58365,7 @@
         <v>12.184239733629299</v>
       </c>
       <c r="F67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.4905930346617748</v>
       </c>
       <c r="G67">
@@ -58244,7 +58384,7 @@
         <v>12.650388457269701</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.5567384578107091</v>
       </c>
     </row>
@@ -58256,7 +58396,7 @@
         <v>10.4905660377358</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.2389143301013381</v>
       </c>
       <c r="G69">
@@ -58275,7 +58415,7 @@
         <v>11.671476137624801</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.4163542172357948</v>
       </c>
     </row>
@@ -58287,7 +58427,7 @@
         <v>11.345172031076499</v>
       </c>
       <c r="F71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.3682594958043981</v>
       </c>
       <c r="G71">
@@ -58306,7 +58446,7 @@
         <v>12.5571587125416</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.5436081488423068</v>
       </c>
     </row>
@@ -58318,7 +58458,7 @@
         <v>7.9267480577136498</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.8154481095757475</v>
       </c>
       <c r="G73">
@@ -58337,7 +58477,7 @@
         <v>9.5427302996670296</v>
       </c>
       <c r="F74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.0891309942550236</v>
       </c>
     </row>
@@ -58349,7 +58489,7 @@
         <v>7.5538290788013303</v>
       </c>
       <c r="F75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.7484230167136445</v>
       </c>
       <c r="G75">
@@ -58368,7 +58508,7 @@
         <v>8.4239733629300702</v>
       </c>
       <c r="F76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9024082006034351</v>
       </c>
     </row>
@@ -58380,7 +58520,7 @@
         <v>8.9056603773584904</v>
       </c>
       <c r="F77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9842353086441578</v>
       </c>
       <c r="G77">
@@ -58399,7 +58539,7 @@
         <v>9.7602663706992203</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1241425016633317</v>
       </c>
     </row>
@@ -58411,7 +58551,7 @@
         <v>7.2586015538290702</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.6941791985369257</v>
       </c>
       <c r="G79">
@@ -58431,7 +58571,7 @@
         <v>8.1442841287458307</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.8538192179508903</v>
       </c>
     </row>
@@ -58443,7 +58583,7 @@
         <v>8.6881243063262996</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9475624346782374</v>
       </c>
       <c r="G81">
@@ -58462,7 +58602,7 @@
         <v>9.6825749167591493</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1116836145018261</v>
       </c>
     </row>
@@ -58474,7 +58614,7 @@
         <v>9.1853496115427298</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.0307341703855735</v>
       </c>
       <c r="G83">
@@ -58493,7 +58633,7 @@
         <v>10.2264150943396</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1978766540221031</v>
       </c>
     </row>
@@ -58505,7 +58645,7 @@
         <v>8.7192008879023302</v>
       </c>
       <c r="F85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9528293021951555</v>
       </c>
       <c r="G85">
@@ -58524,7 +58664,7 @@
         <v>9.4339622641509404</v>
       </c>
       <c r="F86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.0714755841697556</v>
       </c>
     </row>
@@ -58536,7 +58676,7 @@
         <v>8.7347391786903401</v>
       </c>
       <c r="F87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9554592162116431</v>
       </c>
       <c r="G87">
@@ -58555,7 +58695,7 @@
         <v>9.3407325194228594</v>
       </c>
       <c r="F88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.0562611994760625</v>
       </c>
     </row>
@@ -58567,7 +58707,7 @@
         <v>8.6104328523862392</v>
       </c>
       <c r="F89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9343539071465528</v>
       </c>
       <c r="G89">
@@ -58586,7 +58726,7 @@
         <v>9.4184239733629305</v>
       </c>
       <c r="F90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.0689450912916203</v>
       </c>
     </row>
@@ -58598,7 +58738,7 @@
         <v>8.4395116537180908</v>
       </c>
       <c r="F91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9050837601897284</v>
       </c>
       <c r="G91">
@@ -58617,7 +58757,7 @@
         <v>8.8590455049944499</v>
       </c>
       <c r="F92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9764148744747345</v>
       </c>
     </row>
@@ -58629,7 +58769,7 @@
         <v>9.9778024417314093</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1587659681798854</v>
       </c>
       <c r="G93">
@@ -58648,7 +58788,7 @@
         <v>9.4495005549389504</v>
       </c>
       <c r="F94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.0740039939692583</v>
       </c>
     </row>
@@ -58660,7 +58800,7 @@
         <v>8.4239733629300702</v>
       </c>
       <c r="F95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9024082006034351</v>
       </c>
       <c r="G95">
@@ -58679,7 +58819,7 @@
         <v>8.7347391786903401</v>
       </c>
       <c r="F96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9554592162116431</v>
       </c>
     </row>
@@ -58691,7 +58831,7 @@
         <v>9.1698113207547092</v>
       </c>
       <c r="F97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.0281696320970379</v>
       </c>
       <c r="G97">
@@ -58710,7 +58850,7 @@
         <v>9.6204217536071006</v>
       </c>
       <c r="F98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1016804725192277</v>
       </c>
     </row>
@@ -58722,7 +58862,7 @@
         <v>9.4495005549389504</v>
       </c>
       <c r="F99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.0740039939692583</v>
       </c>
       <c r="G99">
@@ -58740,7 +58880,7 @@
         <v>9.9778024417314093</v>
       </c>
       <c r="F100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1587659681798854</v>
       </c>
     </row>
@@ -58752,7 +58892,7 @@
         <v>8.3928967813540503</v>
       </c>
       <c r="F101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.8970496684306348</v>
       </c>
       <c r="G101">
@@ -58770,7 +58910,7 @@
         <v>8.7347391786903401</v>
       </c>
       <c r="F102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9554592162116431</v>
       </c>
     </row>
@@ -58782,7 +58922,7 @@
         <v>8.8590455049944499</v>
       </c>
       <c r="F103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9764148744747345</v>
       </c>
       <c r="G103">
@@ -58801,7 +58941,7 @@
         <v>9.2319644839067703</v>
       </c>
       <c r="F104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.0384147978685809</v>
       </c>
     </row>
@@ -58813,7 +58953,7 @@
         <v>9.6670366259711393</v>
       </c>
       <c r="F105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1091858461615218</v>
       </c>
       <c r="G105">
@@ -58831,7 +58971,7 @@
         <v>10.179800221975499</v>
       </c>
       <c r="F106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1905799193838571</v>
       </c>
     </row>
@@ -58843,7 +58983,7 @@
         <v>9.6204217536071006</v>
       </c>
       <c r="F107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1016804725192277</v>
       </c>
       <c r="G107">
@@ -58861,7 +59001,7 @@
         <v>10.210876803551599</v>
       </c>
       <c r="F108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1954462604699829</v>
       </c>
     </row>

--- a/data_sheets.xlsx
+++ b/data_sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/Grassland restoration with biosolids/Grassland-restoration-with-biosolids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A817C1-9B97-C849-8436-60736165EBA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F0A762-2D83-4841-893B-7D52C5104ADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="4" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
   </bookViews>
@@ -59008,7 +59008,7 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_sheets.xlsx
+++ b/data_sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/Grassland restoration with biosolids/Grassland-restoration-with-biosolids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F0A762-2D83-4841-893B-7D52C5104ADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582E567E-7763-4642-8A80-EBFF8A5E6028}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="4" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12948" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12949" uniqueCount="212">
   <si>
     <t>Case</t>
   </si>
@@ -665,6 +665,9 @@
   <si>
     <t>PCA, relative abundance by species</t>
   </si>
+  <si>
+    <t>Measured variable</t>
+  </si>
 </sst>
 </file>
 
@@ -19272,8 +19275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4B7382-3EC3-C845-A515-1FD3C54C18F4}">
   <dimension ref="A1:AB270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
@@ -59007,7 +59010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1C3D3E-AE61-AC42-A3EA-51A6EE0189D9}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -61114,9 +61117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFE696-4A9B-DC4D-B12B-45CD0688D0EA}">
   <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -61199,6 +61200,9 @@
       <c r="Z1" t="s">
         <v>26</v>
       </c>
+      <c r="AA1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -61368,55 +61372,58 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="D4">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
       <c r="H4">
-        <v>38.700000000000003</v>
+        <v>52</v>
       </c>
       <c r="I4">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="L4">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>14.9</v>
+        <v>11.1</v>
       </c>
       <c r="P4">
-        <v>74.2</v>
+        <v>104.8</v>
       </c>
       <c r="Q4" t="s">
         <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="S4" t="s">
         <v>29</v>
@@ -61428,75 +61435,78 @@
         <v>29</v>
       </c>
       <c r="V4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="X4">
-        <v>39.317166999999998</v>
+        <v>39.5</v>
       </c>
       <c r="Y4">
-        <v>21.896909999999998</v>
+        <v>-84.733329999999995</v>
       </c>
       <c r="Z4">
-        <v>0.46450000000000002</v>
+        <v>0.87609999999999999</v>
       </c>
       <c r="AA4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
       <c r="H5">
-        <v>52.3</v>
+        <v>130</v>
       </c>
       <c r="I5">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>161</v>
+      </c>
+      <c r="L5">
+        <v>90</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="K5">
-        <v>177</v>
-      </c>
-      <c r="L5">
-        <v>86</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
       <c r="O5">
-        <v>14.9</v>
+        <v>11.1</v>
       </c>
       <c r="P5">
-        <v>74.2</v>
+        <v>104.8</v>
       </c>
       <c r="Q5" t="s">
         <v>41</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s">
         <v>29</v>
@@ -61508,75 +61518,78 @@
         <v>29</v>
       </c>
       <c r="V5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W5" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="X5">
-        <v>39.317166999999998</v>
+        <v>39.5</v>
       </c>
       <c r="Y5">
-        <v>21.896909999999998</v>
+        <v>-84.733329999999995</v>
       </c>
       <c r="Z5">
-        <v>0.46450000000000002</v>
+        <v>0.87609999999999999</v>
       </c>
       <c r="AA5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="D6">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>26.94</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
       <c r="H6">
-        <v>71.099999999999994</v>
+        <v>374</v>
       </c>
       <c r="I6">
-        <v>108</v>
+        <v>339</v>
       </c>
       <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>61</v>
+      </c>
+      <c r="L6">
+        <v>34</v>
+      </c>
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="K6">
-        <v>177</v>
-      </c>
-      <c r="L6">
-        <v>86</v>
-      </c>
-      <c r="M6">
+      <c r="N6">
         <v>4</v>
       </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
       <c r="O6">
-        <v>14.9</v>
+        <v>11.1</v>
       </c>
       <c r="P6">
-        <v>74.2</v>
+        <v>104.8</v>
       </c>
       <c r="Q6" t="s">
         <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="S6" t="s">
         <v>29</v>
@@ -61588,22 +61601,22 @@
         <v>29</v>
       </c>
       <c r="V6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W6" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="X6">
-        <v>39.317166999999998</v>
+        <v>39.5</v>
       </c>
       <c r="Y6">
-        <v>21.896909999999998</v>
+        <v>-84.733329999999995</v>
       </c>
       <c r="Z6">
-        <v>0.46450000000000002</v>
+        <v>0.87609999999999999</v>
       </c>
       <c r="AA6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -61611,7 +61624,7 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>68</v>
@@ -61620,16 +61633,16 @@
         <v>2000</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="H7">
-        <v>99</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I7">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -61683,7 +61696,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="AA7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -61691,7 +61704,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
@@ -61700,16 +61713,16 @@
         <v>2000</v>
       </c>
       <c r="E8">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="H8">
-        <v>122.2</v>
+        <v>52.3</v>
       </c>
       <c r="I8">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -61763,7 +61776,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="AA8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -61771,7 +61784,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -61780,16 +61793,16 @@
         <v>2000</v>
       </c>
       <c r="E9">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="H9">
-        <v>142</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="I9">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -61843,63 +61856,60 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="AA9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>1988</v>
+        <v>2000</v>
       </c>
       <c r="E10">
-        <v>8.9600000000000009</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
       <c r="H10">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="I10">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O10">
-        <v>11.1</v>
+        <v>14.9</v>
       </c>
       <c r="P10">
-        <v>104.8</v>
+        <v>74.2</v>
       </c>
       <c r="Q10" t="s">
         <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="S10" t="s">
         <v>29</v>
@@ -61911,78 +61921,75 @@
         <v>29</v>
       </c>
       <c r="V10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="X10">
-        <v>39.5</v>
+        <v>39.317166999999998</v>
       </c>
       <c r="Y10">
-        <v>-84.733329999999995</v>
+        <v>21.896909999999998</v>
       </c>
       <c r="Z10">
-        <v>0.87609999999999999</v>
+        <v>0.46450000000000002</v>
       </c>
       <c r="AA10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>1988</v>
+        <v>2000</v>
       </c>
       <c r="E11">
-        <v>17.920000000000002</v>
+        <v>80</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
       <c r="H11">
-        <v>130</v>
+        <v>122.2</v>
       </c>
       <c r="I11">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L11">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11">
-        <v>11.1</v>
+        <v>14.9</v>
       </c>
       <c r="P11">
-        <v>104.8</v>
+        <v>74.2</v>
       </c>
       <c r="Q11" t="s">
         <v>41</v>
       </c>
       <c r="R11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="S11" t="s">
         <v>29</v>
@@ -61994,78 +62001,75 @@
         <v>29</v>
       </c>
       <c r="V11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W11" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="X11">
-        <v>39.5</v>
+        <v>39.317166999999998</v>
       </c>
       <c r="Y11">
-        <v>-84.733329999999995</v>
+        <v>21.896909999999998</v>
       </c>
       <c r="Z11">
-        <v>0.87609999999999999</v>
+        <v>0.46450000000000002</v>
       </c>
       <c r="AA11" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
         <v>120</v>
-      </c>
-      <c r="D12">
-        <v>1988</v>
-      </c>
-      <c r="E12">
-        <v>26.94</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
       <c r="H12">
-        <v>374</v>
+        <v>142</v>
       </c>
       <c r="I12">
-        <v>339</v>
+        <v>98</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O12">
-        <v>11.1</v>
+        <v>14.9</v>
       </c>
       <c r="P12">
-        <v>104.8</v>
+        <v>74.2</v>
       </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
       <c r="R12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="S12" t="s">
         <v>29</v>
@@ -62077,22 +62081,22 @@
         <v>29</v>
       </c>
       <c r="V12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W12" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="X12">
-        <v>39.5</v>
+        <v>39.317166999999998</v>
       </c>
       <c r="Y12">
-        <v>-84.733329999999995</v>
+        <v>21.896909999999998</v>
       </c>
       <c r="Z12">
-        <v>0.87609999999999999</v>
+        <v>0.46450000000000002</v>
       </c>
       <c r="AA12" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -62512,16 +62516,16 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E18">
         <v>40</v>
@@ -62533,25 +62537,25 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0.04</v>
       </c>
       <c r="I18">
-        <v>0.8</v>
+        <v>0.04</v>
       </c>
       <c r="J18">
         <v>4</v>
       </c>
       <c r="K18">
-        <v>1.5</v>
+        <v>0.01</v>
       </c>
       <c r="L18">
-        <v>1.28</v>
+        <v>0.01</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O18">
         <v>9.4</v>
@@ -62578,7 +62582,7 @@
         <v>31</v>
       </c>
       <c r="W18" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="X18">
         <v>-40.573329999999999</v>
@@ -62590,7 +62594,7 @@
         <v>0.44740000000000002</v>
       </c>
       <c r="AA18" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
@@ -62598,7 +62602,7 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -62681,7 +62685,7 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -62699,10 +62703,10 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I20">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -62714,10 +62718,10 @@
         <v>0.01</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O20">
         <v>9.4</v>
@@ -62764,7 +62768,7 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -62844,64 +62848,55 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="D22">
         <v>2010</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>3.37</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H22">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="I22">
-        <v>0.01</v>
+        <v>174.2</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K22">
-        <v>0.01</v>
+        <v>118.2</v>
       </c>
       <c r="L22">
-        <v>0.01</v>
+        <v>83.7</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>4</v>
-      </c>
-      <c r="O22">
-        <v>9.4</v>
-      </c>
-      <c r="P22">
-        <v>56.5</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="s">
-        <v>33</v>
-      </c>
-      <c r="R22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="S22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U22" t="s">
         <v>31</v>
@@ -62910,16 +62905,16 @@
         <v>31</v>
       </c>
       <c r="W22" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="X22">
-        <v>-40.573329999999999</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="Y22">
-        <v>-70.832499999999996</v>
+        <v>-111.916</v>
       </c>
       <c r="Z22">
-        <v>0.44740000000000002</v>
+        <v>0.2482</v>
       </c>
       <c r="AA22" t="s">
         <v>164</v>
@@ -62930,7 +62925,7 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
         <v>83</v>
@@ -62939,7 +62934,7 @@
         <v>2010</v>
       </c>
       <c r="E23">
-        <v>3.37</v>
+        <v>16.850000000000001</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -62951,7 +62946,7 @@
         <v>100</v>
       </c>
       <c r="I23">
-        <v>174.2</v>
+        <v>218.2</v>
       </c>
       <c r="J23">
         <v>6</v>
@@ -63004,7 +62999,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>83</v>
@@ -63013,7 +63008,7 @@
         <v>2010</v>
       </c>
       <c r="E24">
-        <v>16.850000000000001</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -63078,7 +63073,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>83</v>
@@ -63087,7 +63082,7 @@
         <v>2010</v>
       </c>
       <c r="E25">
-        <v>33.700000000000003</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -63099,7 +63094,7 @@
         <v>100</v>
       </c>
       <c r="I25">
-        <v>218.2</v>
+        <v>437.7</v>
       </c>
       <c r="J25">
         <v>6</v>
@@ -63152,7 +63147,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>83</v>
@@ -63161,7 +63156,7 @@
         <v>2010</v>
       </c>
       <c r="E26">
-        <v>67.400000000000006</v>
+        <v>1.8</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -63173,10 +63168,7 @@
         <v>100</v>
       </c>
       <c r="I26">
-        <v>437.7</v>
-      </c>
-      <c r="J26">
-        <v>6</v>
+        <v>370.36284910000001</v>
       </c>
       <c r="K26">
         <v>118.2</v>
@@ -63206,16 +63198,16 @@
         <v>31</v>
       </c>
       <c r="W26" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="X26">
-        <v>40.700000000000003</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="Y26">
-        <v>-111.916</v>
+        <v>-111.6</v>
       </c>
       <c r="Z26">
-        <v>0.2482</v>
+        <v>0.34649999999999997</v>
       </c>
       <c r="AA26" t="s">
         <v>164</v>
@@ -63226,7 +63218,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>83</v>
@@ -63235,7 +63227,7 @@
         <v>2010</v>
       </c>
       <c r="E27">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -63247,7 +63239,7 @@
         <v>100</v>
       </c>
       <c r="I27">
-        <v>370.36284910000001</v>
+        <v>347.82754349999999</v>
       </c>
       <c r="K27">
         <v>118.2</v>
@@ -63297,7 +63289,7 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>83</v>
@@ -63306,7 +63298,7 @@
         <v>2010</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -63314,11 +63306,9 @@
       <c r="G28" t="s">
         <v>52</v>
       </c>
-      <c r="H28">
-        <v>100</v>
-      </c>
+      <c r="H28" s="3"/>
       <c r="I28">
-        <v>347.82754349999999</v>
+        <v>224.8631584</v>
       </c>
       <c r="K28">
         <v>118.2</v>
@@ -63368,7 +63358,7 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>83</v>
@@ -63377,7 +63367,7 @@
         <v>2010</v>
       </c>
       <c r="E29">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -63385,9 +63375,11 @@
       <c r="G29" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29">
+        <v>100</v>
+      </c>
       <c r="I29">
-        <v>224.8631584</v>
+        <v>743.66508590000001</v>
       </c>
       <c r="K29">
         <v>118.2</v>
@@ -63437,7 +63429,7 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>83</v>
@@ -63446,7 +63438,7 @@
         <v>2010</v>
       </c>
       <c r="E30">
-        <v>36</v>
+        <v>7.63</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -63458,7 +63450,7 @@
         <v>100</v>
       </c>
       <c r="I30">
-        <v>743.66508590000001</v>
+        <v>368.64820630000003</v>
       </c>
       <c r="K30">
         <v>118.2</v>
@@ -63488,16 +63480,16 @@
         <v>31</v>
       </c>
       <c r="W30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X30">
-        <v>40.799999999999997</v>
+        <v>41</v>
       </c>
       <c r="Y30">
-        <v>-111.6</v>
+        <v>-112</v>
       </c>
       <c r="Z30">
-        <v>0.34649999999999997</v>
+        <v>0.26140000000000002</v>
       </c>
       <c r="AA30" t="s">
         <v>164</v>
@@ -63508,7 +63500,7 @@
         <v>25</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
         <v>83</v>
@@ -63517,7 +63509,7 @@
         <v>2010</v>
       </c>
       <c r="E31">
-        <v>7.63</v>
+        <v>38.15</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -63529,7 +63521,7 @@
         <v>100</v>
       </c>
       <c r="I31">
-        <v>368.64820630000003</v>
+        <v>177.58800640000001</v>
       </c>
       <c r="K31">
         <v>118.2</v>
@@ -63579,7 +63571,7 @@
         <v>25</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>83</v>
@@ -63588,7 +63580,7 @@
         <v>2010</v>
       </c>
       <c r="E32">
-        <v>38.15</v>
+        <v>76.3</v>
       </c>
       <c r="F32">
         <v>6</v>
@@ -63600,7 +63592,7 @@
         <v>100</v>
       </c>
       <c r="I32">
-        <v>177.58800640000001</v>
+        <v>347.58259450000003</v>
       </c>
       <c r="K32">
         <v>118.2</v>
@@ -63650,7 +63642,7 @@
         <v>25</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>83</v>
@@ -63659,7 +63651,7 @@
         <v>2010</v>
       </c>
       <c r="E33">
-        <v>76.3</v>
+        <v>152.6</v>
       </c>
       <c r="F33">
         <v>6</v>
@@ -63671,7 +63663,7 @@
         <v>100</v>
       </c>
       <c r="I33">
-        <v>347.58259450000003</v>
+        <v>649.60467979999999</v>
       </c>
       <c r="K33">
         <v>118.2</v>
@@ -63721,7 +63713,7 @@
         <v>25</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>83</v>
@@ -63730,7 +63722,7 @@
         <v>2010</v>
       </c>
       <c r="E34">
-        <v>152.6</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="F34">
         <v>6</v>
@@ -63739,10 +63731,10 @@
         <v>52</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="I34">
-        <v>649.60467979999999</v>
+        <v>490.1428975</v>
       </c>
       <c r="K34">
         <v>118.2</v>
@@ -63757,7 +63749,7 @@
         <v>2</v>
       </c>
       <c r="Q34" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="S34" t="s">
         <v>31</v>
@@ -63772,16 +63764,16 @@
         <v>31</v>
       </c>
       <c r="W34" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="X34">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="Y34">
-        <v>-112</v>
+        <v>-113.2</v>
       </c>
       <c r="Z34">
-        <v>0.26140000000000002</v>
+        <v>9.5600000000000004E-2</v>
       </c>
       <c r="AA34" t="s">
         <v>164</v>
@@ -63792,7 +63784,7 @@
         <v>25</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
         <v>83</v>
@@ -63801,7 +63793,7 @@
         <v>2010</v>
       </c>
       <c r="E35">
-        <v>19.760000000000002</v>
+        <v>98.8</v>
       </c>
       <c r="F35">
         <v>6</v>
@@ -63810,10 +63802,10 @@
         <v>52</v>
       </c>
       <c r="H35">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="I35">
-        <v>490.1428975</v>
+        <v>408.81983810000003</v>
       </c>
       <c r="K35">
         <v>118.2</v>
@@ -63863,7 +63855,7 @@
         <v>25</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>83</v>
@@ -63872,7 +63864,7 @@
         <v>2010</v>
       </c>
       <c r="E36">
-        <v>98.8</v>
+        <v>197.6</v>
       </c>
       <c r="F36">
         <v>6</v>
@@ -63884,7 +63876,7 @@
         <v>100</v>
       </c>
       <c r="I36">
-        <v>408.81983810000003</v>
+        <v>133.252242</v>
       </c>
       <c r="K36">
         <v>118.2</v>
@@ -63931,70 +63923,82 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D37">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="E37">
-        <v>197.6</v>
+        <v>350</v>
       </c>
       <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I37">
+        <v>0.03</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>0.11</v>
+      </c>
+      <c r="L37">
+        <v>0.04</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
         <v>6</v>
       </c>
-      <c r="G37" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37">
-        <v>100</v>
-      </c>
-      <c r="I37">
-        <v>133.252242</v>
-      </c>
-      <c r="K37">
-        <v>118.2</v>
-      </c>
-      <c r="L37">
-        <v>83.7</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>2</v>
+      <c r="O37">
+        <v>14.5</v>
+      </c>
+      <c r="P37">
+        <v>77.8</v>
       </c>
       <c r="Q37" t="s">
         <v>33</v>
       </c>
+      <c r="R37" t="s">
+        <v>30</v>
+      </c>
       <c r="S37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T37" t="s">
         <v>31</v>
       </c>
       <c r="U37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V37" t="s">
         <v>31</v>
       </c>
       <c r="W37" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="X37">
-        <v>40.4</v>
+        <v>42.036110000000001</v>
       </c>
       <c r="Y37">
-        <v>-113.2</v>
+        <v>2.8172199999999998</v>
       </c>
       <c r="Z37">
-        <v>9.5600000000000004E-2</v>
+        <v>0.51649999999999996</v>
       </c>
       <c r="AA37" t="s">
         <v>164</v>
@@ -64002,19 +64006,19 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D38">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -64023,81 +64027,81 @@
         <v>52</v>
       </c>
       <c r="H38">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="I38">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="J38">
         <v>4</v>
       </c>
       <c r="K38">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L38">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M38">
-        <v>0.17</v>
+        <v>8</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O38">
-        <v>5.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="P38">
-        <v>45.2</v>
+        <v>33.5</v>
       </c>
       <c r="Q38" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R38" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V38" t="s">
         <v>31</v>
       </c>
       <c r="W38" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="X38">
-        <v>39.36788</v>
+        <v>38.183329999999998</v>
       </c>
       <c r="Y38">
-        <v>-105.24069</v>
+        <v>-121.34083</v>
       </c>
       <c r="Z38">
-        <v>0.28749999999999998</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="AA38" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39">
+        <v>2016</v>
+      </c>
+      <c r="E39">
         <v>60</v>
-      </c>
-      <c r="D39">
-        <v>2004</v>
-      </c>
-      <c r="E39">
-        <v>10</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -64106,78 +64110,78 @@
         <v>52</v>
       </c>
       <c r="H39">
-        <v>0.5</v>
+        <v>6.9</v>
       </c>
       <c r="I39">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="J39">
         <v>4</v>
       </c>
       <c r="K39">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="L39">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M39">
-        <v>0.17</v>
+        <v>8</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O39">
-        <v>5.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="P39">
-        <v>45.2</v>
+        <v>33.5</v>
       </c>
       <c r="Q39" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R39" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V39" t="s">
         <v>31</v>
       </c>
       <c r="W39" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="X39">
-        <v>39.36788</v>
+        <v>38.183329999999998</v>
       </c>
       <c r="Y39">
-        <v>-105.24069</v>
+        <v>-121.34083</v>
       </c>
       <c r="Z39">
-        <v>0.28749999999999998</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="AA39" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D40">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="E40">
         <v>20</v>
@@ -64189,81 +64193,81 @@
         <v>52</v>
       </c>
       <c r="H40">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>4</v>
       </c>
       <c r="K40">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0.17</v>
+        <v>8</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O40">
-        <v>5.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="P40">
-        <v>45.2</v>
+        <v>33.5</v>
       </c>
       <c r="Q40" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R40" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V40" t="s">
         <v>31</v>
       </c>
       <c r="W40" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="X40">
-        <v>39.36788</v>
+        <v>38.183329999999998</v>
       </c>
       <c r="Y40">
-        <v>-105.24069</v>
+        <v>-121.34083</v>
       </c>
       <c r="Z40">
-        <v>0.28749999999999998</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="AA40" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41">
+        <v>2016</v>
+      </c>
+      <c r="E41">
         <v>60</v>
-      </c>
-      <c r="D41">
-        <v>2004</v>
-      </c>
-      <c r="E41">
-        <v>40</v>
       </c>
       <c r="F41">
         <v>4</v>
@@ -64272,81 +64276,81 @@
         <v>52</v>
       </c>
       <c r="H41">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I41">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>4</v>
       </c>
       <c r="K41">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>0.17</v>
+        <v>8</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O41">
-        <v>5.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="P41">
-        <v>45.2</v>
+        <v>33.5</v>
       </c>
       <c r="Q41" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R41" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V41" t="s">
         <v>31</v>
       </c>
       <c r="W41" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="X41">
-        <v>39.36788</v>
+        <v>38.183329999999998</v>
       </c>
       <c r="Y41">
-        <v>-105.24069</v>
+        <v>-121.34083</v>
       </c>
       <c r="Z41">
-        <v>0.28749999999999998</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="AA41" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D42">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="E42">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F42">
         <v>4</v>
@@ -64355,81 +64359,81 @@
         <v>52</v>
       </c>
       <c r="H42">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="I42">
-        <v>0.4</v>
+        <v>5.8</v>
       </c>
       <c r="J42">
         <v>4</v>
       </c>
       <c r="K42">
-        <v>4.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L42">
-        <v>0.8</v>
+        <v>7.6</v>
       </c>
       <c r="M42">
-        <v>0.17</v>
+        <v>8</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O42">
-        <v>5.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="P42">
-        <v>45.2</v>
+        <v>33.5</v>
       </c>
       <c r="Q42" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R42" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V42" t="s">
         <v>31</v>
       </c>
       <c r="W42" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="X42">
-        <v>39.36788</v>
+        <v>38.183329999999998</v>
       </c>
       <c r="Y42">
-        <v>-105.24069</v>
+        <v>-121.34083</v>
       </c>
       <c r="Z42">
-        <v>0.28749999999999998</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="AA42" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43">
+        <v>2016</v>
+      </c>
+      <c r="E43">
         <v>60</v>
-      </c>
-      <c r="D43">
-        <v>2004</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -64438,64 +64442,64 @@
         <v>52</v>
       </c>
       <c r="H43">
-        <v>0.3</v>
+        <v>12.1</v>
       </c>
       <c r="I43">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="J43">
         <v>4</v>
       </c>
       <c r="K43">
-        <v>1.1000000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L43">
-        <v>0.4</v>
+        <v>7.6</v>
       </c>
       <c r="M43">
-        <v>1.17</v>
+        <v>8</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O43">
-        <v>5.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="P43">
-        <v>45.2</v>
+        <v>33.5</v>
       </c>
       <c r="Q43" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R43" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V43" t="s">
         <v>31</v>
       </c>
       <c r="W43" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="X43">
-        <v>39.36788</v>
+        <v>38.183329999999998</v>
       </c>
       <c r="Y43">
-        <v>-105.24069</v>
+        <v>-121.34083</v>
       </c>
       <c r="Z43">
-        <v>0.28749999999999998</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="AA43" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
@@ -64503,7 +64507,7 @@
         <v>13</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>60</v>
@@ -64512,7 +64516,7 @@
         <v>2004</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -64521,7 +64525,7 @@
         <v>52</v>
       </c>
       <c r="H44">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I44">
         <v>0.4</v>
@@ -64530,16 +64534,16 @@
         <v>4</v>
       </c>
       <c r="K44">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="L44">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M44">
-        <v>1.17</v>
+        <v>0.17</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O44">
         <v>5.3</v>
@@ -64586,7 +64590,7 @@
         <v>13</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
@@ -64595,7 +64599,7 @@
         <v>2004</v>
       </c>
       <c r="E45">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -64604,25 +64608,25 @@
         <v>52</v>
       </c>
       <c r="H45">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I45">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J45">
         <v>4</v>
       </c>
       <c r="K45">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="L45">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M45">
-        <v>1.17</v>
+        <v>0.17</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45">
         <v>5.3</v>
@@ -64669,7 +64673,7 @@
         <v>13</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
         <v>60</v>
@@ -64678,7 +64682,7 @@
         <v>2004</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F46">
         <v>4</v>
@@ -64687,25 +64691,25 @@
         <v>52</v>
       </c>
       <c r="H46">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="I46">
-        <v>4.8</v>
+        <v>0.2</v>
       </c>
       <c r="J46">
         <v>4</v>
       </c>
       <c r="K46">
-        <v>1.1000000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="L46">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M46">
-        <v>1.17</v>
+        <v>0.17</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O46">
         <v>5.3</v>
@@ -64752,7 +64756,7 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
@@ -64761,7 +64765,7 @@
         <v>2004</v>
       </c>
       <c r="E47">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F47">
         <v>4</v>
@@ -64770,25 +64774,25 @@
         <v>52</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J47">
         <v>4</v>
       </c>
       <c r="K47">
-        <v>1.1000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="L47">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M47">
-        <v>1.17</v>
+        <v>0.17</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O47">
         <v>5.3</v>
@@ -64835,7 +64839,7 @@
         <v>13</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
@@ -64844,7 +64848,7 @@
         <v>2004</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="F48">
         <v>4</v>
@@ -64853,25 +64857,25 @@
         <v>52</v>
       </c>
       <c r="H48">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="I48">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="J48">
         <v>4</v>
       </c>
       <c r="K48">
-        <v>1.1000000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M48">
-        <v>2.17</v>
+        <v>0.17</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O48">
         <v>5.3</v>
@@ -64918,7 +64922,7 @@
         <v>13</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
@@ -64927,7 +64931,7 @@
         <v>2004</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F49">
         <v>4</v>
@@ -64936,10 +64940,10 @@
         <v>52</v>
       </c>
       <c r="H49">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I49">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -64948,13 +64952,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L49">
+        <v>0.4</v>
+      </c>
+      <c r="M49">
+        <v>1.17</v>
+      </c>
+      <c r="N49">
         <v>2</v>
-      </c>
-      <c r="M49">
-        <v>2.17</v>
-      </c>
-      <c r="N49">
-        <v>3</v>
       </c>
       <c r="O49">
         <v>5.3</v>
@@ -65001,7 +65005,7 @@
         <v>13</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
@@ -65010,7 +65014,7 @@
         <v>2004</v>
       </c>
       <c r="E50">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F50">
         <v>4</v>
@@ -65019,10 +65023,10 @@
         <v>52</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="J50">
         <v>4</v>
@@ -65031,13 +65035,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L50">
+        <v>0.4</v>
+      </c>
+      <c r="M50">
+        <v>1.17</v>
+      </c>
+      <c r="N50">
         <v>2</v>
-      </c>
-      <c r="M50">
-        <v>2.17</v>
-      </c>
-      <c r="N50">
-        <v>3</v>
       </c>
       <c r="O50">
         <v>5.3</v>
@@ -65084,7 +65088,7 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>60</v>
@@ -65093,7 +65097,7 @@
         <v>2004</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -65102,10 +65106,10 @@
         <v>52</v>
       </c>
       <c r="H51">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="I51">
-        <v>2.6</v>
+        <v>0.2</v>
       </c>
       <c r="J51">
         <v>4</v>
@@ -65114,13 +65118,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L51">
+        <v>0.4</v>
+      </c>
+      <c r="M51">
+        <v>1.17</v>
+      </c>
+      <c r="N51">
         <v>2</v>
-      </c>
-      <c r="M51">
-        <v>2.17</v>
-      </c>
-      <c r="N51">
-        <v>3</v>
       </c>
       <c r="O51">
         <v>5.3</v>
@@ -65167,7 +65171,7 @@
         <v>13</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
         <v>60</v>
@@ -65176,7 +65180,7 @@
         <v>2004</v>
       </c>
       <c r="E52">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -65185,25 +65189,25 @@
         <v>52</v>
       </c>
       <c r="H52">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="I52">
-        <v>0.2</v>
+        <v>4.8</v>
       </c>
       <c r="J52">
         <v>4</v>
       </c>
       <c r="K52">
-        <v>6.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L52">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="M52">
-        <v>2.17</v>
+        <v>1.17</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O52">
         <v>5.3</v>
@@ -65250,7 +65254,7 @@
         <v>13</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -65259,7 +65263,7 @@
         <v>2004</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="F53">
         <v>4</v>
@@ -65268,25 +65272,25 @@
         <v>52</v>
       </c>
       <c r="H53">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>4</v>
       </c>
       <c r="K53">
-        <v>6.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L53">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="M53">
-        <v>3.17</v>
+        <v>1.17</v>
       </c>
       <c r="N53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O53">
         <v>5.3</v>
@@ -65333,7 +65337,7 @@
         <v>13</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
         <v>60</v>
@@ -65342,7 +65346,7 @@
         <v>2004</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -65351,25 +65355,25 @@
         <v>52</v>
       </c>
       <c r="H54">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="I54">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="J54">
         <v>4</v>
       </c>
       <c r="K54">
-        <v>6.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L54">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="M54">
-        <v>3.17</v>
+        <v>2.17</v>
       </c>
       <c r="N54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O54">
         <v>5.3</v>
@@ -65416,7 +65420,7 @@
         <v>13</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>60</v>
@@ -65425,7 +65429,7 @@
         <v>2004</v>
       </c>
       <c r="E55">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F55">
         <v>4</v>
@@ -65434,7 +65438,7 @@
         <v>52</v>
       </c>
       <c r="H55">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I55">
         <v>0.4</v>
@@ -65443,16 +65447,16 @@
         <v>4</v>
       </c>
       <c r="K55">
-        <v>6.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L55">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="M55">
-        <v>3.17</v>
+        <v>2.17</v>
       </c>
       <c r="N55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O55">
         <v>5.3</v>
@@ -65499,7 +65503,7 @@
         <v>13</v>
       </c>
       <c r="B56">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>60</v>
@@ -65508,7 +65512,7 @@
         <v>2004</v>
       </c>
       <c r="E56">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -65517,25 +65521,25 @@
         <v>52</v>
       </c>
       <c r="H56">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J56">
         <v>4</v>
       </c>
       <c r="K56">
-        <v>6.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L56">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="M56">
-        <v>3.17</v>
+        <v>2.17</v>
       </c>
       <c r="N56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O56">
         <v>5.3</v>
@@ -65582,7 +65586,7 @@
         <v>13</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
@@ -65591,7 +65595,7 @@
         <v>2004</v>
       </c>
       <c r="E57">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F57">
         <v>4</v>
@@ -65600,25 +65604,25 @@
         <v>52</v>
       </c>
       <c r="H57">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="I57">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="J57">
         <v>4</v>
       </c>
       <c r="K57">
-        <v>6.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L57">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="M57">
-        <v>3.17</v>
+        <v>2.17</v>
       </c>
       <c r="N57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O57">
         <v>5.3</v>
@@ -65662,64 +65666,64 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D58">
         <v>2004</v>
       </c>
       <c r="E58">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="H58">
-        <v>7.0000000000000007E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I58">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="J58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K58">
-        <v>0.11</v>
+        <v>6.7</v>
       </c>
       <c r="L58">
-        <v>0.04</v>
+        <v>2.8</v>
       </c>
       <c r="M58">
-        <v>5</v>
+        <v>2.17</v>
       </c>
       <c r="N58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O58">
-        <v>14.5</v>
+        <v>5.3</v>
       </c>
       <c r="P58">
-        <v>77.8</v>
+        <v>45.2</v>
       </c>
       <c r="Q58" t="s">
         <v>33</v>
       </c>
       <c r="R58" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="S58" t="s">
         <v>29</v>
       </c>
       <c r="T58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U58" t="s">
         <v>29</v>
@@ -65728,36 +65732,36 @@
         <v>31</v>
       </c>
       <c r="W58" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="X58">
-        <v>42.036110000000001</v>
+        <v>39.36788</v>
       </c>
       <c r="Y58">
-        <v>2.8172199999999998</v>
+        <v>-105.24069</v>
       </c>
       <c r="Z58">
-        <v>0.51649999999999996</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="AA58" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D59">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="E59">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F59">
         <v>4</v>
@@ -65766,81 +65770,81 @@
         <v>52</v>
       </c>
       <c r="H59">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="I59">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J59">
         <v>4</v>
       </c>
       <c r="K59">
-        <v>0.1</v>
+        <v>6.7</v>
       </c>
       <c r="L59">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="M59">
-        <v>8</v>
+        <v>3.17</v>
       </c>
       <c r="N59">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O59">
-        <v>16.100000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="P59">
-        <v>33.5</v>
+        <v>45.2</v>
       </c>
       <c r="Q59" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="R59" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V59" t="s">
         <v>31</v>
       </c>
       <c r="W59" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="X59">
-        <v>38.183329999999998</v>
+        <v>39.36788</v>
       </c>
       <c r="Y59">
-        <v>-121.34083</v>
+        <v>-105.24069</v>
       </c>
       <c r="Z59">
-        <v>0.25109999999999999</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="AA59" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D60">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="E60">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F60">
         <v>4</v>
@@ -65849,78 +65853,78 @@
         <v>52</v>
       </c>
       <c r="H60">
-        <v>6.9</v>
+        <v>1.7</v>
       </c>
       <c r="I60">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J60">
         <v>4</v>
       </c>
       <c r="K60">
-        <v>0.1</v>
+        <v>6.7</v>
       </c>
       <c r="L60">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="M60">
-        <v>8</v>
+        <v>3.17</v>
       </c>
       <c r="N60">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O60">
-        <v>16.100000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="P60">
-        <v>33.5</v>
+        <v>45.2</v>
       </c>
       <c r="Q60" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="R60" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V60" t="s">
         <v>31</v>
       </c>
       <c r="W60" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="X60">
-        <v>38.183329999999998</v>
+        <v>39.36788</v>
       </c>
       <c r="Y60">
-        <v>-121.34083</v>
+        <v>-105.24069</v>
       </c>
       <c r="Z60">
-        <v>0.25109999999999999</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="AA60" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D61">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="E61">
         <v>20</v>
@@ -65932,81 +65936,81 @@
         <v>52</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J61">
         <v>4</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M61">
-        <v>8</v>
+        <v>3.17</v>
       </c>
       <c r="N61">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O61">
-        <v>16.100000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="P61">
-        <v>33.5</v>
+        <v>45.2</v>
       </c>
       <c r="Q61" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="R61" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V61" t="s">
         <v>31</v>
       </c>
       <c r="W61" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="X61">
-        <v>38.183329999999998</v>
+        <v>39.36788</v>
       </c>
       <c r="Y61">
-        <v>-121.34083</v>
+        <v>-105.24069</v>
       </c>
       <c r="Z61">
-        <v>0.25109999999999999</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="AA61" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D62">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="E62">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F62">
         <v>4</v>
@@ -66015,81 +66019,81 @@
         <v>52</v>
       </c>
       <c r="H62">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="J62">
         <v>4</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M62">
-        <v>8</v>
+        <v>3.17</v>
       </c>
       <c r="N62">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O62">
-        <v>16.100000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="P62">
-        <v>33.5</v>
+        <v>45.2</v>
       </c>
       <c r="Q62" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="R62" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V62" t="s">
         <v>31</v>
       </c>
       <c r="W62" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="X62">
-        <v>38.183329999999998</v>
+        <v>39.36788</v>
       </c>
       <c r="Y62">
-        <v>-121.34083</v>
+        <v>-105.24069</v>
       </c>
       <c r="Z62">
-        <v>0.25109999999999999</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="AA62" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D63">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="E63">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F63">
         <v>4</v>
@@ -66098,126 +66102,126 @@
         <v>52</v>
       </c>
       <c r="H63">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="I63">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="J63">
         <v>4</v>
       </c>
       <c r="K63">
-        <v>10.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="L63">
-        <v>7.6</v>
+        <v>2.8</v>
       </c>
       <c r="M63">
-        <v>8</v>
+        <v>3.17</v>
       </c>
       <c r="N63">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O63">
-        <v>16.100000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="P63">
-        <v>33.5</v>
+        <v>45.2</v>
       </c>
       <c r="Q63" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="R63" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V63" t="s">
         <v>31</v>
       </c>
       <c r="W63" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="X63">
-        <v>38.183329999999998</v>
+        <v>39.36788</v>
       </c>
       <c r="Y63">
-        <v>-121.34083</v>
+        <v>-105.24069</v>
       </c>
       <c r="Z63">
-        <v>0.25109999999999999</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="AA63" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="D64">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E64">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F64">
         <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>12.1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="J64">
         <v>4</v>
       </c>
       <c r="K64">
-        <v>10.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="L64">
-        <v>7.6</v>
+        <v>1.28</v>
       </c>
       <c r="M64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N64">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O64">
-        <v>16.100000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="P64">
-        <v>33.5</v>
+        <v>56.5</v>
       </c>
       <c r="Q64" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="R64" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U64" t="s">
         <v>31</v>
@@ -66226,24 +66230,24 @@
         <v>31</v>
       </c>
       <c r="W64" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="X64">
-        <v>38.183329999999998</v>
+        <v>-40.573329999999999</v>
       </c>
       <c r="Y64">
-        <v>-121.34083</v>
+        <v>-70.832499999999996</v>
       </c>
       <c r="Z64">
-        <v>0.25109999999999999</v>
+        <v>0.44740000000000002</v>
       </c>
       <c r="AA64" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:AA64">
-    <sortCondition ref="C2:C64"/>
+    <sortCondition ref="AA2:AA64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_sheets.xlsx
+++ b/data_sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/Grassland restoration with biosolids/Grassland-restoration-with-biosolids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582E567E-7763-4642-8A80-EBFF8A5E6028}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7765F7-A4BE-5B46-87C9-030BD66FB3A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12949" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12949" uniqueCount="207">
   <si>
     <t>Case</t>
   </si>
@@ -532,21 +532,6 @@
   </si>
   <si>
     <t>no of plants per m2</t>
-  </si>
-  <si>
-    <t>no of plants per m3</t>
-  </si>
-  <si>
-    <t>no of plants per m4</t>
-  </si>
-  <si>
-    <t>no of plants per m5</t>
-  </si>
-  <si>
-    <t>no of plants per m6</t>
-  </si>
-  <si>
-    <t>no of plants per m7</t>
   </si>
   <si>
     <t>richness</t>
@@ -1069,8 +1054,8 @@
   <dimension ref="A1:AJ220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N80" sqref="N80"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U189" sqref="U189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1081,7 +1066,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3385,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D28" s="5">
         <v>2019</v>
@@ -3447,7 +3432,7 @@
         <v>31</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>97</v>
@@ -3473,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D29" s="1">
         <v>2019</v>
@@ -3532,7 +3517,7 @@
       </c>
       <c r="X29" s="5"/>
       <c r="Y29" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Z29" s="5">
         <v>-15.750138</v>
@@ -3555,7 +3540,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D30" s="1">
         <v>2019</v>
@@ -3614,7 +3599,7 @@
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Z30" s="5">
         <v>-15.750138</v>
@@ -5277,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D51" s="5">
         <v>2019</v>
@@ -5339,7 +5324,7 @@
         <v>31</v>
       </c>
       <c r="X51" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Y51" s="5" t="s">
         <v>96</v>
@@ -15867,7 +15852,7 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D176">
         <v>1994</v>
@@ -15946,7 +15931,7 @@
         <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D177">
         <v>1994</v>
@@ -16341,7 +16326,7 @@
         <v>1</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D182" s="5">
         <v>2018</v>
@@ -16427,7 +16412,7 @@
         <v>2</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D183" s="5">
         <v>2018</v>
@@ -16513,7 +16498,7 @@
         <v>3</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D184" s="5">
         <v>2018</v>
@@ -16599,7 +16584,7 @@
         <v>4</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D185" s="5">
         <v>2018</v>
@@ -16685,7 +16670,7 @@
         <v>5</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D186" s="5">
         <v>2018</v>
@@ -16771,7 +16756,7 @@
         <v>6</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D187" s="5">
         <v>2018</v>
@@ -19275,16 +19260,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4B7382-3EC3-C845-A515-1FD3C54C18F4}">
   <dimension ref="A1:AB270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U169" sqref="U169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -26662,7 +26647,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D89">
         <v>2019</v>
@@ -26725,7 +26710,7 @@
         <v>31</v>
       </c>
       <c r="X89" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Y89" t="s">
         <v>96</v>
@@ -37778,7 +37763,7 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D220">
         <v>1994</v>
@@ -37860,7 +37845,7 @@
         <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D221">
         <v>1994</v>
@@ -42060,9 +42045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD349FBF-19EC-D146-ACA8-683A33E0AFBC}">
   <dimension ref="A1:AB160"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q50" sqref="Q50:AB59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W53" sqref="W53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42072,7 +42057,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -51067,7 +51052,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D111">
         <v>2018</v>
@@ -51152,7 +51137,7 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D112">
         <v>2018</v>
@@ -51237,7 +51222,7 @@
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D113">
         <v>2018</v>
@@ -51322,7 +51307,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D114">
         <v>2018</v>
@@ -51407,7 +51392,7 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D115">
         <v>2018</v>
@@ -51492,7 +51477,7 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D116">
         <v>2018</v>
@@ -54974,7 +54959,7 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D160">
         <v>2017</v>
@@ -55010,7 +54995,7 @@
         <v>2</v>
       </c>
       <c r="Q160" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="R160" s="10" t="s">
         <v>97</v>
@@ -55072,7 +55057,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -55164,7 +55149,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D2">
         <v>2004</v>
@@ -58193,7 +58178,7 @@
         <v>2010</v>
       </c>
       <c r="E47" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
@@ -58204,18 +58189,18 @@
         <v>2000</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D50">
         <v>2005</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.2">
@@ -58226,7 +58211,7 @@
         <v>2005</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.2">
@@ -58237,7 +58222,7 @@
         <v>2019</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.2">
@@ -58248,7 +58233,7 @@
         <v>2003</v>
       </c>
       <c r="E54" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.2">
@@ -58259,7 +58244,7 @@
         <v>1998</v>
       </c>
       <c r="E55" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.2">
@@ -58270,34 +58255,34 @@
         <v>1996</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D58">
         <v>2011</v>
       </c>
       <c r="E58" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D59">
         <v>2018</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.2">
@@ -58308,7 +58293,7 @@
         <v>2015</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.2">
@@ -58319,7 +58304,7 @@
         <v>2014</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.2">
@@ -59011,14 +58996,14 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="A25" sqref="A2:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -59110,7 +59095,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D2">
         <v>2004</v>
@@ -61117,13 +61102,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFE696-4A9B-DC4D-B12B-45CD0688D0EA}">
   <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -61201,7 +61188,7 @@
         <v>26</v>
       </c>
       <c r="AA1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -61776,7 +61763,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="AA8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -61856,7 +61843,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="AA9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -61936,7 +61923,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="AA10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
@@ -62016,7 +62003,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="AA11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -62096,7 +62083,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="AA12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -64582,7 +64569,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA44" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
@@ -64665,7 +64652,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA45" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
@@ -64748,7 +64735,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA46" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
@@ -64831,7 +64818,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA47" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
@@ -64914,7 +64901,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA48" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
@@ -64997,7 +64984,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA49" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
@@ -65080,7 +65067,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA50" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
@@ -65163,7 +65150,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA51" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.2">
@@ -65246,7 +65233,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA52" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
@@ -65329,7 +65316,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA53" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
@@ -65412,7 +65399,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA54" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
@@ -65495,7 +65482,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA55" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
@@ -65578,7 +65565,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA56" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
@@ -65661,7 +65648,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA57" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.2">
@@ -65744,7 +65731,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA58" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
@@ -65827,7 +65814,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA59" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.2">
@@ -65910,7 +65897,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA60" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
@@ -65993,7 +65980,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA61" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
@@ -66076,7 +66063,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA62" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.2">
@@ -66159,7 +66146,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AA63" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.2">
@@ -66242,7 +66229,7 @@
         <v>0.44740000000000002</v>
       </c>
       <c r="AA64" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -66266,7 +66253,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -66320,7 +66307,7 @@
         <v>26</v>
       </c>
       <c r="S1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -66379,7 +66366,7 @@
         <v>0.75939999999999996</v>
       </c>
       <c r="S2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -66438,7 +66425,7 @@
         <v>0.75939999999999996</v>
       </c>
       <c r="S3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -66497,7 +66484,7 @@
         <v>0.32</v>
       </c>
       <c r="S4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -66556,7 +66543,7 @@
         <v>0.32</v>
       </c>
       <c r="S5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -66615,7 +66602,7 @@
         <v>0.32</v>
       </c>
       <c r="S6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -66674,7 +66661,7 @@
         <v>0.32</v>
       </c>
       <c r="S7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -66733,7 +66720,7 @@
         <v>0.32</v>
       </c>
       <c r="S8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -66792,7 +66779,7 @@
         <v>0.44740000000000002</v>
       </c>
       <c r="S9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -66851,7 +66838,7 @@
         <v>0.44740000000000002</v>
       </c>
       <c r="S10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -66910,7 +66897,7 @@
         <v>0.29709999999999998</v>
       </c>
       <c r="S11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -66969,7 +66956,7 @@
         <v>0.51649999999999996</v>
       </c>
       <c r="S12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -67028,7 +67015,7 @@
         <v>0.50429999999999997</v>
       </c>
       <c r="S13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -67087,7 +67074,7 @@
         <v>0.50429999999999997</v>
       </c>
       <c r="S14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -67146,7 +67133,7 @@
         <v>0.50429999999999997</v>
       </c>
       <c r="S15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -67205,7 +67192,7 @@
         <v>0.50429999999999997</v>
       </c>
       <c r="S16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -67264,7 +67251,7 @@
         <v>0.50429999999999997</v>
       </c>
       <c r="S17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -67323,7 +67310,7 @@
         <v>0.50429999999999997</v>
       </c>
       <c r="S18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -67382,7 +67369,7 @@
         <v>0.50429999999999997</v>
       </c>
       <c r="S19" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -67441,7 +67428,7 @@
         <v>0.50429999999999997</v>
       </c>
       <c r="S20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -67500,7 +67487,7 @@
         <v>0.4587</v>
       </c>
       <c r="S21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -67559,7 +67546,7 @@
         <v>0.4587</v>
       </c>
       <c r="S22" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -67618,7 +67605,7 @@
         <v>0.4587</v>
       </c>
       <c r="S23" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -67677,7 +67664,7 @@
         <v>0.4587</v>
       </c>
       <c r="S24" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -67736,7 +67723,7 @@
         <v>0.4587</v>
       </c>
       <c r="S25" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -67795,7 +67782,7 @@
         <v>0.4587</v>
       </c>
       <c r="S26" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -67854,7 +67841,7 @@
         <v>0.29709999999999998</v>
       </c>
       <c r="S27" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -67913,7 +67900,7 @@
         <v>0.29709999999999998</v>
       </c>
       <c r="S28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -67972,7 +67959,7 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="S29" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -68031,7 +68018,7 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="S30" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -68090,7 +68077,7 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="S31" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -68149,7 +68136,7 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="S32" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -68208,7 +68195,7 @@
         <v>0.56010000000000004</v>
       </c>
       <c r="S33" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -68267,7 +68254,7 @@
         <v>0.56010000000000004</v>
       </c>
       <c r="S34" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -68326,7 +68313,7 @@
         <v>0.56010000000000004</v>
       </c>
       <c r="S35" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -68385,7 +68372,7 @@
         <v>0.56010000000000004</v>
       </c>
       <c r="S36" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -68444,7 +68431,7 @@
         <v>0.56010000000000004</v>
       </c>
       <c r="S37" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -68503,7 +68490,7 @@
         <v>0.56010000000000004</v>
       </c>
       <c r="S38" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -68562,7 +68549,7 @@
         <v>0.56010000000000004</v>
       </c>
       <c r="S39" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -68621,7 +68608,7 @@
         <v>0.56010000000000004</v>
       </c>
       <c r="S40" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -68680,7 +68667,7 @@
         <v>0.56010000000000004</v>
       </c>
       <c r="S41" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -68739,7 +68726,7 @@
         <v>0.56010000000000004</v>
       </c>
       <c r="S42" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
@@ -68798,7 +68785,7 @@
         <v>0.44740000000000002</v>
       </c>
       <c r="S43" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
@@ -68857,7 +68844,7 @@
         <v>0.4299</v>
       </c>
       <c r="S44" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
@@ -68916,7 +68903,7 @@
         <v>0.4299</v>
       </c>
       <c r="S45" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
@@ -68975,7 +68962,7 @@
         <v>0.4299</v>
       </c>
       <c r="S46" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
@@ -69034,7 +69021,7 @@
         <v>0.4299</v>
       </c>
       <c r="S47" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
@@ -69093,7 +69080,7 @@
         <v>0.4299</v>
       </c>
       <c r="S48" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
@@ -69152,7 +69139,7 @@
         <v>0.4299</v>
       </c>
       <c r="S49" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
@@ -69211,7 +69198,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S50" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
@@ -69270,7 +69257,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S51" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
@@ -69329,7 +69316,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S52" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
@@ -69388,7 +69375,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S53" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
@@ -69447,7 +69434,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S54" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
@@ -69506,7 +69493,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S55" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
@@ -69565,7 +69552,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S56" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
@@ -69624,7 +69611,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S57" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
@@ -69683,7 +69670,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S58" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
@@ -69742,7 +69729,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
@@ -69801,7 +69788,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
@@ -69860,7 +69847,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S61" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
@@ -69919,7 +69906,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S62" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
@@ -69978,7 +69965,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S63" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
@@ -70037,7 +70024,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S64" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
@@ -70096,7 +70083,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S65" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
@@ -70155,7 +70142,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S66" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
@@ -70214,7 +70201,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S67" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
@@ -70273,7 +70260,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S68" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
@@ -70332,7 +70319,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S69" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
@@ -70391,7 +70378,7 @@
         <v>0.44390000000000002</v>
       </c>
       <c r="S70" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
@@ -70450,7 +70437,7 @@
         <v>0.26579999999999998</v>
       </c>
       <c r="S71" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
@@ -70509,7 +70496,7 @@
         <v>0.26579999999999998</v>
       </c>
       <c r="S72" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
@@ -70568,7 +70555,7 @@
         <v>0.3347</v>
       </c>
       <c r="S73" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -70627,7 +70614,7 @@
         <v>0.3347</v>
       </c>
       <c r="S74" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -70686,7 +70673,7 @@
         <v>0.3347</v>
       </c>
       <c r="S75" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
@@ -70745,7 +70732,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S76" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
@@ -70804,7 +70791,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S77" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
@@ -70863,7 +70850,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S78" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
@@ -70922,7 +70909,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S79" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
@@ -70981,7 +70968,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S80" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
@@ -71040,7 +71027,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S81" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
@@ -71099,7 +71086,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S82" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
@@ -71158,7 +71145,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S83" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
@@ -71217,7 +71204,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S84" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
@@ -71276,7 +71263,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S85" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
@@ -71335,7 +71322,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S86" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
@@ -71394,7 +71381,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S87" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
@@ -71453,7 +71440,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S88" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
@@ -71512,7 +71499,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S89" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
@@ -71571,7 +71558,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S90" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
@@ -71630,7 +71617,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S91" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
@@ -71689,7 +71676,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S92" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
@@ -71748,7 +71735,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S93" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
@@ -71807,7 +71794,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S94" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
@@ -71866,7 +71853,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S95" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
@@ -71925,7 +71912,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S96" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
@@ -71984,7 +71971,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S97" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
@@ -72043,7 +72030,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S98" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
@@ -72102,7 +72089,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S99" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
@@ -72161,7 +72148,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S100" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
@@ -72220,7 +72207,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S101" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
@@ -72279,7 +72266,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S102" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
@@ -72338,7 +72325,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S103" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
@@ -72397,7 +72384,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S104" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
@@ -72456,7 +72443,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S105" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
@@ -72515,7 +72502,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S106" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
@@ -72574,7 +72561,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S107" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
@@ -72633,7 +72620,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="S108" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
@@ -72692,7 +72679,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="S109" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
@@ -72751,7 +72738,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="S110" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
@@ -72810,7 +72797,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="S111" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
@@ -72869,7 +72856,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="S112" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
@@ -72928,7 +72915,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="S113" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
@@ -72987,7 +72974,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="S114" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
@@ -73046,7 +73033,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="S115" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
@@ -73105,7 +73092,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="S116" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
@@ -73164,7 +73151,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="S117" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
@@ -73223,7 +73210,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="S118" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
@@ -73282,7 +73269,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="S119" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
@@ -73341,7 +73328,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="S120" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
@@ -73400,7 +73387,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="S121" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
@@ -73459,7 +73446,7 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="S122" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
@@ -73518,7 +73505,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S123" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
@@ -73577,7 +73564,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S124" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
@@ -73636,7 +73623,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S125" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
@@ -73695,7 +73682,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S126" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
@@ -73754,7 +73741,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S127" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
@@ -73813,7 +73800,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S128" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
@@ -73872,7 +73859,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S129" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.2">
@@ -73931,7 +73918,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S130" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.2">
@@ -73990,7 +73977,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S131" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.2">
@@ -74049,7 +74036,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S132" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
@@ -74108,7 +74095,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S133" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
@@ -74167,7 +74154,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S134" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.2">
@@ -74226,7 +74213,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S135" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
@@ -74285,7 +74272,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S136" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.2">
@@ -74344,7 +74331,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.2">
@@ -74403,7 +74390,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S138" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
@@ -74462,7 +74449,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S139" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.2">
@@ -74521,7 +74508,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S140" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.2">
@@ -74580,7 +74567,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S141" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.2">
@@ -74639,7 +74626,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S142" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.2">
@@ -74698,7 +74685,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S143" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.2">
@@ -74757,7 +74744,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S144" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.2">
@@ -74816,7 +74803,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S145" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.2">
@@ -74875,7 +74862,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S146" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.2">
@@ -74934,7 +74921,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S147" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.2">
@@ -74993,7 +74980,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S148" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.2">
@@ -75052,7 +75039,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S149" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.2">
@@ -75111,7 +75098,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S150" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.2">
@@ -75170,7 +75157,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S151" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.2">
@@ -75229,7 +75216,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S152" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.2">
@@ -75288,7 +75275,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S153" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.2">
@@ -75347,7 +75334,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S154" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.2">
@@ -75406,7 +75393,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S155" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.2">
@@ -75465,7 +75452,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S156" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.2">
@@ -75524,7 +75511,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S157" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.2">
@@ -75583,7 +75570,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S158" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.2">
@@ -75642,7 +75629,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S159" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.2">
@@ -75701,7 +75688,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S160" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.2">
@@ -75760,7 +75747,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S161" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.2">
@@ -75819,7 +75806,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S162" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.2">
@@ -75878,7 +75865,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S163" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.2">
@@ -75937,7 +75924,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S164" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.2">
@@ -75996,7 +75983,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S165" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.2">
@@ -76055,7 +76042,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S166" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.2">
@@ -76114,7 +76101,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S167" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.2">
@@ -76173,7 +76160,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S168" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.2">
@@ -76232,7 +76219,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S169" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.2">
@@ -76291,7 +76278,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S170" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.2">
@@ -76350,7 +76337,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S171" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.2">
@@ -76409,7 +76396,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S172" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.2">
@@ -76468,7 +76455,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S173" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.2">
@@ -76527,7 +76514,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S174" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.2">
@@ -76586,7 +76573,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S175" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.2">
@@ -76645,7 +76632,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S176" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.2">
@@ -76704,7 +76691,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S177" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.2">
@@ -76763,7 +76750,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S178" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.2">
@@ -76822,7 +76809,7 @@
         <v>0.1719</v>
       </c>
       <c r="S179" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
@@ -76881,7 +76868,7 @@
         <v>0.1719</v>
       </c>
       <c r="S180" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
@@ -76940,7 +76927,7 @@
         <v>0.1719</v>
       </c>
       <c r="S181" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
@@ -77000,7 +76987,7 @@
         <v>0.2482</v>
       </c>
       <c r="S182" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.2">
@@ -77060,7 +77047,7 @@
         <v>0.2482</v>
       </c>
       <c r="S183" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.2">
@@ -77120,7 +77107,7 @@
         <v>0.2482</v>
       </c>
       <c r="S184" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.2">
@@ -77180,7 +77167,7 @@
         <v>0.2482</v>
       </c>
       <c r="S185" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.2">
@@ -77239,7 +77226,7 @@
         <v>0.34649999999999997</v>
       </c>
       <c r="S186" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
@@ -77299,7 +77286,7 @@
         <v>0.34649999999999997</v>
       </c>
       <c r="S187" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.2">
@@ -77359,7 +77346,7 @@
         <v>0.34649999999999997</v>
       </c>
       <c r="S188" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.2">
@@ -77419,7 +77406,7 @@
         <v>0.34649999999999997</v>
       </c>
       <c r="S189" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.2">
@@ -77478,7 +77465,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S190" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
@@ -77538,7 +77525,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S191" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.2">
@@ -77598,7 +77585,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S192" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.2">
@@ -77658,7 +77645,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S193" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.2">
@@ -77717,7 +77704,7 @@
         <v>9.5600000000000004E-2</v>
       </c>
       <c r="S194" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.2">
@@ -77777,7 +77764,7 @@
         <v>9.5600000000000004E-2</v>
       </c>
       <c r="S195" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.2">
@@ -77837,7 +77824,7 @@
         <v>9.5600000000000004E-2</v>
       </c>
       <c r="S196" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.2">
@@ -77896,7 +77883,7 @@
         <v>0.1711</v>
       </c>
       <c r="S197" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.2">
@@ -77955,7 +77942,7 @@
         <v>0.1711</v>
       </c>
       <c r="S198" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.2">
@@ -78014,7 +78001,7 @@
         <v>0.1711</v>
       </c>
       <c r="S199" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.2">
@@ -78073,7 +78060,7 @@
         <v>0.1711</v>
       </c>
       <c r="S200" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.2">
@@ -78132,7 +78119,7 @@
         <v>0.83640000000000003</v>
       </c>
       <c r="S201" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.2">
@@ -78191,7 +78178,7 @@
         <v>0.83640000000000003</v>
       </c>
       <c r="S202" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.2">
@@ -78250,7 +78237,7 @@
         <v>0.248</v>
       </c>
       <c r="S203" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.2">
@@ -78309,7 +78296,7 @@
         <v>0.248</v>
       </c>
       <c r="S204" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.2">
@@ -78368,7 +78355,7 @@
         <v>0.248</v>
       </c>
       <c r="S205" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.2">
@@ -78379,7 +78366,7 @@
         <v>1</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D206" s="5">
         <v>2019</v>
@@ -78409,7 +78396,7 @@
         <v>31</v>
       </c>
       <c r="M206" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="N206" t="s">
         <v>97</v>
@@ -78427,7 +78414,7 @@
         <v>0.27639999999999998</v>
       </c>
       <c r="S206" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.2">
@@ -78438,7 +78425,7 @@
         <v>1</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D207" s="5">
         <v>2019</v>
@@ -78468,7 +78455,7 @@
         <v>31</v>
       </c>
       <c r="M207" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N207" t="s">
         <v>96</v>
@@ -78486,7 +78473,7 @@
         <v>0.97350000000000003</v>
       </c>
       <c r="S207" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.2">
@@ -78497,7 +78484,7 @@
         <v>1</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D208" s="5">
         <v>2018</v>
@@ -78533,7 +78520,7 @@
         <v>18.968959999999999</v>
       </c>
       <c r="P208" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q208" t="s">
         <v>29</v>
@@ -78542,7 +78529,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="S208" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.2">
@@ -78553,7 +78540,7 @@
         <v>2</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D209" s="5">
         <v>2018</v>
@@ -78589,7 +78576,7 @@
         <v>18.968959999999999</v>
       </c>
       <c r="P209" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q209" t="s">
         <v>29</v>
@@ -78598,7 +78585,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="S209" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.2">
@@ -78609,7 +78596,7 @@
         <v>3</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D210" s="5">
         <v>2018</v>
@@ -78645,7 +78632,7 @@
         <v>18.968959999999999</v>
       </c>
       <c r="P210" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q210" t="s">
         <v>29</v>
@@ -78654,7 +78641,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="S210" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.2">
@@ -78665,7 +78652,7 @@
         <v>4</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D211" s="5">
         <v>2018</v>
@@ -78701,7 +78688,7 @@
         <v>18.968959999999999</v>
       </c>
       <c r="P211" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q211" t="s">
         <v>29</v>
@@ -78710,7 +78697,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="S211" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.2">
@@ -78721,7 +78708,7 @@
         <v>5</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D212" s="5">
         <v>2018</v>
@@ -78757,7 +78744,7 @@
         <v>18.968959999999999</v>
       </c>
       <c r="P212" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q212" t="s">
         <v>29</v>
@@ -78766,7 +78753,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="S212" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.2">
@@ -78777,7 +78764,7 @@
         <v>6</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D213" s="5">
         <v>2018</v>
@@ -78813,7 +78800,7 @@
         <v>18.968959999999999</v>
       </c>
       <c r="P213" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q213" t="s">
         <v>29</v>
@@ -78822,7 +78809,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="S213" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.2">
@@ -78833,7 +78820,7 @@
         <v>1</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D214" s="1">
         <v>2011</v>
@@ -78863,7 +78850,7 @@
         <v>31</v>
       </c>
       <c r="M214" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N214" t="s">
         <v>96</v>
@@ -78881,7 +78868,7 @@
         <v>0.70909999999999995</v>
       </c>
       <c r="S214" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.2">
@@ -78892,7 +78879,7 @@
         <v>2</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D215" s="1">
         <v>2011</v>
@@ -78922,7 +78909,7 @@
         <v>31</v>
       </c>
       <c r="M215" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N215" t="s">
         <v>96</v>
@@ -78940,7 +78927,7 @@
         <v>0.70909999999999995</v>
       </c>
       <c r="S215" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.2">
@@ -78951,7 +78938,7 @@
         <v>3</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D216" s="1">
         <v>2011</v>
@@ -78981,7 +78968,7 @@
         <v>31</v>
       </c>
       <c r="M216" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N216" t="s">
         <v>96</v>
@@ -78999,7 +78986,7 @@
         <v>0.70909999999999995</v>
       </c>
       <c r="S216" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.2">
@@ -79010,7 +78997,7 @@
         <v>4</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D217" s="1">
         <v>2011</v>
@@ -79040,7 +79027,7 @@
         <v>31</v>
       </c>
       <c r="M217" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N217" t="s">
         <v>96</v>
@@ -79058,7 +79045,7 @@
         <v>0.70909999999999995</v>
       </c>
       <c r="S217" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.2">
@@ -79069,7 +79056,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D218" s="1">
         <v>2019</v>
@@ -79099,7 +79086,7 @@
         <v>31</v>
       </c>
       <c r="N218" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O218">
         <v>-15.750138</v>
@@ -79114,7 +79101,7 @@
         <v>0.96960000000000002</v>
       </c>
       <c r="S218" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.2">
@@ -79125,7 +79112,7 @@
         <v>2</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D219" s="1">
         <v>2019</v>
@@ -79155,7 +79142,7 @@
         <v>31</v>
       </c>
       <c r="N219" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O219">
         <v>-15.750138</v>
@@ -79170,7 +79157,7 @@
         <v>0.96960000000000002</v>
       </c>
       <c r="S219" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.2">
@@ -79229,7 +79216,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S220" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.2">
@@ -79288,7 +79275,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S221" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.2">
@@ -79347,7 +79334,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S222" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.2">
@@ -79406,7 +79393,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S223" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.2">
@@ -79465,7 +79452,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S224" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.2">
@@ -79524,7 +79511,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S225" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.2">
@@ -79583,7 +79570,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S226" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.2">
@@ -79642,7 +79629,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S227" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.2">
@@ -79701,7 +79688,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S228" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.2">
@@ -79760,7 +79747,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S229" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.2">
@@ -79819,7 +79806,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S230" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.2">
@@ -79878,7 +79865,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S231" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.2">
@@ -79937,7 +79924,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S232" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.2">
@@ -79996,7 +79983,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S233" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.2">
@@ -80055,7 +80042,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S234" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.2">
@@ -80114,7 +80101,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S235" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.2">
@@ -80173,7 +80160,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S236" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.2">
@@ -80232,7 +80219,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S237" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.2">
@@ -80291,7 +80278,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S238" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.2">
@@ -80350,7 +80337,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S239" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.2">
@@ -80409,7 +80396,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S240" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.2">
@@ -80468,7 +80455,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="S241" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.2">
@@ -80527,7 +80514,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S242" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.2">
@@ -80586,7 +80573,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S243" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.2">
@@ -80645,7 +80632,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S244" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.2">
@@ -80704,7 +80691,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S245" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.2">
@@ -80763,7 +80750,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S246" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.2">
@@ -80822,7 +80809,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S247" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.2">
@@ -80881,7 +80868,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S248" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.2">
@@ -80940,7 +80927,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S249" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.2">
@@ -80999,7 +80986,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S250" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.2">
@@ -81058,7 +81045,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S251" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.2">
@@ -81117,7 +81104,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S252" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.2">
@@ -81176,7 +81163,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S253" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.2">
@@ -81235,7 +81222,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S254" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.2">
@@ -81294,7 +81281,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S255" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.2">
@@ -81353,7 +81340,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S256" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.2">
@@ -81412,7 +81399,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S257" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.2">
@@ -81471,7 +81458,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S258" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.2">
@@ -81530,7 +81517,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S259" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.2">
@@ -81589,7 +81576,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S260" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.2">
@@ -81648,7 +81635,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S261" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.2">
@@ -81707,7 +81694,7 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="S262" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.2">
@@ -81766,7 +81753,7 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="S263" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.2">
@@ -81825,7 +81812,7 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="S264" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.2">
@@ -81884,7 +81871,7 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="S265" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.2">
@@ -81943,7 +81930,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S266" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.2">
@@ -82002,7 +81989,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S267" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.2">
@@ -82061,7 +82048,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S268" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.2">
@@ -82120,7 +82107,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S269" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.2">
@@ -82179,7 +82166,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S270" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.2">
@@ -82238,7 +82225,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S271" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.2">
@@ -82297,7 +82284,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S272" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.2">
@@ -82356,7 +82343,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S273" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.2">
@@ -82415,7 +82402,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S274" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.2">
@@ -82474,7 +82461,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S275" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.2">
@@ -82533,7 +82520,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S276" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.2">
@@ -82592,7 +82579,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S277" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.2">
@@ -82651,7 +82638,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S278" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.2">
@@ -82710,7 +82697,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S279" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.2">
@@ -82769,7 +82756,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S280" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.2">
@@ -82828,7 +82815,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S281" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.2">
@@ -82887,7 +82874,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S282" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.2">
@@ -82946,7 +82933,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S283" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.2">
@@ -83005,7 +82992,7 @@
         <v>0.2402</v>
       </c>
       <c r="S284" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.2">
@@ -83064,7 +83051,7 @@
         <v>0.2402</v>
       </c>
       <c r="S285" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.2">
@@ -83123,7 +83110,7 @@
         <v>0.2402</v>
       </c>
       <c r="S286" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.2">
@@ -83182,7 +83169,7 @@
         <v>0.2402</v>
       </c>
       <c r="S287" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.2">
@@ -83241,7 +83228,7 @@
         <v>0.2402</v>
       </c>
       <c r="S288" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.2">
@@ -83300,7 +83287,7 @@
         <v>0.2402</v>
       </c>
       <c r="S289" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.2">
@@ -83359,7 +83346,7 @@
         <v>0.2402</v>
       </c>
       <c r="S290" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.2">
@@ -83418,7 +83405,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S291" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.2">
@@ -83477,7 +83464,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S292" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.2">
@@ -83536,7 +83523,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S293" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.2">
@@ -83595,7 +83582,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S294" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.2">
@@ -83654,7 +83641,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S295" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.2">
@@ -83713,7 +83700,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S296" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.2">
@@ -83772,7 +83759,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S297" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.2">
@@ -83831,7 +83818,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S298" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.2">
@@ -83890,7 +83877,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S299" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.2">
@@ -83949,7 +83936,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S300" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.2">
@@ -84008,7 +83995,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S301" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.2">
@@ -84067,7 +84054,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S302" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.2">
@@ -84126,7 +84113,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S303" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.2">
@@ -84185,7 +84172,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S304" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.2">
@@ -84244,7 +84231,7 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S305" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.2">
@@ -84303,7 +84290,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S306" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="307" spans="1:19" x14ac:dyDescent="0.2">
@@ -84362,7 +84349,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S307" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="308" spans="1:19" x14ac:dyDescent="0.2">
@@ -84421,7 +84408,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S308" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.2">
@@ -84480,7 +84467,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S309" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.2">
@@ -84539,7 +84526,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S310" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.2">
@@ -84598,7 +84585,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S311" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.2">
@@ -84657,7 +84644,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S312" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.2">
@@ -84716,7 +84703,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S313" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.2">
@@ -84775,7 +84762,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S314" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.2">
@@ -84834,7 +84821,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S315" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.2">
@@ -84893,7 +84880,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S316" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.2">
@@ -84952,7 +84939,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S317" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.2">
@@ -85011,7 +84998,7 @@
         <v>0.26579999999999998</v>
       </c>
       <c r="S318" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.2">
@@ -85070,7 +85057,7 @@
         <v>0.26579999999999998</v>
       </c>
       <c r="S319" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.2">
@@ -85129,7 +85116,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S320" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="321" spans="1:19" x14ac:dyDescent="0.2">
@@ -85188,7 +85175,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S321" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="322" spans="1:19" x14ac:dyDescent="0.2">
@@ -85247,7 +85234,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S322" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="323" spans="1:19" x14ac:dyDescent="0.2">
@@ -85306,7 +85293,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S323" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="324" spans="1:19" x14ac:dyDescent="0.2">
@@ -85365,7 +85352,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S324" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="325" spans="1:19" x14ac:dyDescent="0.2">
@@ -85424,7 +85411,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S325" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="326" spans="1:19" x14ac:dyDescent="0.2">
@@ -85483,7 +85470,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S326" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="327" spans="1:19" x14ac:dyDescent="0.2">
@@ -85542,7 +85529,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S327" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="328" spans="1:19" x14ac:dyDescent="0.2">
@@ -85601,7 +85588,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="S328" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="329" spans="1:19" x14ac:dyDescent="0.2">
@@ -85660,7 +85647,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S329" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="330" spans="1:19" x14ac:dyDescent="0.2">
@@ -85719,7 +85706,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S330" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="331" spans="1:19" x14ac:dyDescent="0.2">
@@ -85778,7 +85765,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S331" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="332" spans="1:19" x14ac:dyDescent="0.2">
@@ -85837,7 +85824,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S332" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.2">
@@ -85896,7 +85883,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S333" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="334" spans="1:19" x14ac:dyDescent="0.2">
@@ -85955,7 +85942,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S334" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="335" spans="1:19" x14ac:dyDescent="0.2">
@@ -86014,7 +86001,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S335" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="336" spans="1:19" x14ac:dyDescent="0.2">
@@ -86073,7 +86060,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S336" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.2">
@@ -86132,7 +86119,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S337" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.2">
@@ -86191,7 +86178,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S338" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.2">
@@ -86250,7 +86237,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S339" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.2">
@@ -86309,7 +86296,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S340" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="341" spans="1:19" x14ac:dyDescent="0.2">
@@ -86368,7 +86355,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S341" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="342" spans="1:19" x14ac:dyDescent="0.2">
@@ -86427,7 +86414,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S342" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="343" spans="1:19" x14ac:dyDescent="0.2">
@@ -86486,7 +86473,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S343" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="344" spans="1:19" x14ac:dyDescent="0.2">
@@ -86545,7 +86532,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S344" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="345" spans="1:19" x14ac:dyDescent="0.2">
@@ -86604,7 +86591,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S345" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="346" spans="1:19" x14ac:dyDescent="0.2">
@@ -86663,7 +86650,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S346" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="347" spans="1:19" x14ac:dyDescent="0.2">
@@ -86722,7 +86709,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S347" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="348" spans="1:19" x14ac:dyDescent="0.2">
@@ -86781,7 +86768,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="S348" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="349" spans="1:19" x14ac:dyDescent="0.2">
@@ -86840,7 +86827,7 @@
         <v>0.29709999999999998</v>
       </c>
       <c r="S349" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="350" spans="1:19" x14ac:dyDescent="0.2">
@@ -86899,7 +86886,7 @@
         <v>0.29709999999999998</v>
       </c>
       <c r="S350" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="351" spans="1:19" x14ac:dyDescent="0.2">
@@ -86958,7 +86945,7 @@
         <v>0.29709999999999998</v>
       </c>
       <c r="S351" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="352" spans="1:19" x14ac:dyDescent="0.2">
@@ -87017,7 +87004,7 @@
         <v>0.31290000000000001</v>
       </c>
       <c r="S352" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="353" spans="1:19" x14ac:dyDescent="0.2">
@@ -87076,7 +87063,7 @@
         <v>0.31290000000000001</v>
       </c>
       <c r="S353" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="354" spans="1:19" x14ac:dyDescent="0.2">
@@ -87135,7 +87122,7 @@
         <v>0.31290000000000001</v>
       </c>
       <c r="S354" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="355" spans="1:19" x14ac:dyDescent="0.2">
@@ -87194,7 +87181,7 @@
         <v>0.31290000000000001</v>
       </c>
       <c r="S355" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.2">
@@ -87253,7 +87240,7 @@
         <v>0.31290000000000001</v>
       </c>
       <c r="S356" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.2">
@@ -87312,7 +87299,7 @@
         <v>0.31290000000000001</v>
       </c>
       <c r="S357" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="358" spans="1:19" x14ac:dyDescent="0.2">
@@ -87371,7 +87358,7 @@
         <v>0.31290000000000001</v>
       </c>
       <c r="S358" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="359" spans="1:19" x14ac:dyDescent="0.2">
@@ -87430,7 +87417,7 @@
         <v>0.31290000000000001</v>
       </c>
       <c r="S359" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="360" spans="1:19" x14ac:dyDescent="0.2">
@@ -87489,7 +87476,7 @@
         <v>0.34439999999999998</v>
       </c>
       <c r="S360" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="361" spans="1:19" x14ac:dyDescent="0.2">
@@ -87548,7 +87535,7 @@
         <v>0.34439999999999998</v>
       </c>
       <c r="S361" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="362" spans="1:19" x14ac:dyDescent="0.2">
@@ -87607,7 +87594,7 @@
         <v>0.34439999999999998</v>
       </c>
       <c r="S362" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="363" spans="1:19" x14ac:dyDescent="0.2">
@@ -87666,7 +87653,7 @@
         <v>0.34439999999999998</v>
       </c>
       <c r="S363" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="364" spans="1:19" x14ac:dyDescent="0.2">
@@ -87725,7 +87712,7 @@
         <v>0.34439999999999998</v>
       </c>
       <c r="S364" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.2">
@@ -87784,7 +87771,7 @@
         <v>0.34439999999999998</v>
       </c>
       <c r="S365" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="366" spans="1:19" x14ac:dyDescent="0.2">
@@ -87843,7 +87830,7 @@
         <v>0.36870000000000003</v>
       </c>
       <c r="S366" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="367" spans="1:19" x14ac:dyDescent="0.2">
@@ -87902,7 +87889,7 @@
         <v>0.36870000000000003</v>
       </c>
       <c r="S367" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="368" spans="1:19" x14ac:dyDescent="0.2">
@@ -87961,7 +87948,7 @@
         <v>0.44740000000000002</v>
       </c>
       <c r="S368" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.2">
@@ -88020,7 +88007,7 @@
         <v>0.44740000000000002</v>
       </c>
       <c r="S369" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.2">
@@ -88079,7 +88066,7 @@
         <v>0.44740000000000002</v>
       </c>
       <c r="S370" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.2">
@@ -88138,7 +88125,7 @@
         <v>0.44740000000000002</v>
       </c>
       <c r="S371" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.2">
@@ -88197,7 +88184,7 @@
         <v>0.44740000000000002</v>
       </c>
       <c r="S372" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="373" spans="1:19" x14ac:dyDescent="0.2">
@@ -88256,7 +88243,7 @@
         <v>0.45629999999999998</v>
       </c>
       <c r="S373" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="374" spans="1:19" x14ac:dyDescent="0.2">
@@ -88315,7 +88302,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S374" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.2">
@@ -88374,7 +88361,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S375" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.2">
@@ -88433,7 +88420,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S376" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.2">
@@ -88492,7 +88479,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S377" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="378" spans="1:19" x14ac:dyDescent="0.2">
@@ -88551,7 +88538,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S378" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.2">
@@ -88610,7 +88597,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S379" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="380" spans="1:19" x14ac:dyDescent="0.2">
@@ -88669,7 +88656,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S380" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="381" spans="1:19" x14ac:dyDescent="0.2">
@@ -88728,7 +88715,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S381" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="382" spans="1:19" x14ac:dyDescent="0.2">
@@ -88787,7 +88774,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S382" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="383" spans="1:19" x14ac:dyDescent="0.2">
@@ -88846,7 +88833,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S383" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="384" spans="1:19" x14ac:dyDescent="0.2">
@@ -88905,7 +88892,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S384" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="385" spans="1:19" x14ac:dyDescent="0.2">
@@ -88964,7 +88951,7 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="S385" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="386" spans="1:19" x14ac:dyDescent="0.2">
@@ -89023,7 +89010,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S386" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.2">
@@ -89082,7 +89069,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S387" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.2">
@@ -89141,7 +89128,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S388" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.2">
@@ -89200,7 +89187,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S389" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="390" spans="1:19" x14ac:dyDescent="0.2">
@@ -89259,7 +89246,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S390" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.2">
@@ -89318,7 +89305,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S391" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="392" spans="1:19" x14ac:dyDescent="0.2">
@@ -89377,7 +89364,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S392" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="393" spans="1:19" x14ac:dyDescent="0.2">
@@ -89436,7 +89423,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S393" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="394" spans="1:19" x14ac:dyDescent="0.2">
@@ -89495,7 +89482,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S394" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.2">
@@ -89554,7 +89541,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S395" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.2">
@@ -89613,7 +89600,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S396" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="397" spans="1:19" x14ac:dyDescent="0.2">
@@ -89672,7 +89659,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S397" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.2">
@@ -89731,7 +89718,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S398" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.2">
@@ -89790,7 +89777,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S399" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="400" spans="1:19" x14ac:dyDescent="0.2">
@@ -89849,7 +89836,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S400" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="401" spans="1:19" x14ac:dyDescent="0.2">
@@ -89908,7 +89895,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S401" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="402" spans="1:19" x14ac:dyDescent="0.2">
@@ -89967,7 +89954,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S402" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="403" spans="1:19" x14ac:dyDescent="0.2">
@@ -90026,7 +90013,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S403" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="404" spans="1:19" x14ac:dyDescent="0.2">
@@ -90085,7 +90072,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S404" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="405" spans="1:19" x14ac:dyDescent="0.2">
@@ -90144,7 +90131,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S405" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="406" spans="1:19" x14ac:dyDescent="0.2">
@@ -90203,7 +90190,7 @@
         <v>0.51649999999999996</v>
       </c>
       <c r="S406" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="407" spans="1:19" x14ac:dyDescent="0.2">
@@ -90262,7 +90249,7 @@
         <v>0.56010000000000004</v>
       </c>
       <c r="S407" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="408" spans="1:19" x14ac:dyDescent="0.2">
@@ -90321,7 +90308,7 @@
         <v>0.56010000000000004</v>
       </c>
       <c r="S408" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="409" spans="1:19" x14ac:dyDescent="0.2">
@@ -90380,7 +90367,7 @@
         <v>0.65369999999999995</v>
       </c>
       <c r="S409" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="410" spans="1:19" x14ac:dyDescent="0.2">
@@ -90439,7 +90426,7 @@
         <v>0.65369999999999995</v>
       </c>
       <c r="S410" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="411" spans="1:19" x14ac:dyDescent="0.2">
@@ -90498,7 +90485,7 @@
         <v>0.75939999999999996</v>
       </c>
       <c r="S411" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="412" spans="1:19" x14ac:dyDescent="0.2">
@@ -90557,7 +90544,7 @@
         <v>0.75939999999999996</v>
       </c>
       <c r="S412" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="413" spans="1:19" x14ac:dyDescent="0.2">
@@ -90616,7 +90603,7 @@
         <v>0.80220000000000002</v>
       </c>
       <c r="S413" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="414" spans="1:19" x14ac:dyDescent="0.2">
@@ -90675,7 +90662,7 @@
         <v>0.80220000000000002</v>
       </c>
       <c r="S414" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="415" spans="1:19" x14ac:dyDescent="0.2">
@@ -90734,7 +90721,7 @@
         <v>0.80220000000000002</v>
       </c>
       <c r="S415" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="416" spans="1:19" x14ac:dyDescent="0.2">
@@ -90793,7 +90780,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S416" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="417" spans="1:19" x14ac:dyDescent="0.2">
@@ -90852,7 +90839,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S417" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="418" spans="1:19" x14ac:dyDescent="0.2">
@@ -90911,7 +90898,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S418" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="419" spans="1:19" x14ac:dyDescent="0.2">
@@ -90970,7 +90957,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S419" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="420" spans="1:19" x14ac:dyDescent="0.2">
@@ -91029,7 +91016,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S420" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="421" spans="1:19" x14ac:dyDescent="0.2">
@@ -91088,7 +91075,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S421" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="422" spans="1:19" x14ac:dyDescent="0.2">
@@ -91147,7 +91134,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S422" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="423" spans="1:19" x14ac:dyDescent="0.2">
@@ -91206,7 +91193,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S423" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="424" spans="1:19" x14ac:dyDescent="0.2">
@@ -91265,7 +91252,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S424" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="425" spans="1:19" x14ac:dyDescent="0.2">
@@ -91324,7 +91311,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S425" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="426" spans="1:19" x14ac:dyDescent="0.2">
@@ -91383,7 +91370,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S426" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.2">
@@ -91442,7 +91429,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S427" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="428" spans="1:19" x14ac:dyDescent="0.2">
@@ -91501,7 +91488,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S428" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="429" spans="1:19" x14ac:dyDescent="0.2">
@@ -91560,7 +91547,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S429" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="430" spans="1:19" x14ac:dyDescent="0.2">
@@ -91619,7 +91606,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S430" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="431" spans="1:19" x14ac:dyDescent="0.2">
@@ -91678,7 +91665,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S431" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="432" spans="1:19" x14ac:dyDescent="0.2">
@@ -91737,7 +91724,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S432" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="433" spans="1:19" x14ac:dyDescent="0.2">
@@ -91796,7 +91783,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S433" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="434" spans="1:19" x14ac:dyDescent="0.2">
@@ -91855,7 +91842,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S434" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="435" spans="1:19" x14ac:dyDescent="0.2">
@@ -91914,7 +91901,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S435" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="436" spans="1:19" x14ac:dyDescent="0.2">
@@ -91973,7 +91960,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S436" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="437" spans="1:19" x14ac:dyDescent="0.2">
@@ -92032,7 +92019,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S437" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="438" spans="1:19" x14ac:dyDescent="0.2">
@@ -92091,7 +92078,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S438" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="439" spans="1:19" x14ac:dyDescent="0.2">
@@ -92150,7 +92137,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S439" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="440" spans="1:19" x14ac:dyDescent="0.2">
@@ -92209,7 +92196,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S440" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="441" spans="1:19" x14ac:dyDescent="0.2">
@@ -92268,7 +92255,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S441" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="442" spans="1:19" x14ac:dyDescent="0.2">
@@ -92327,7 +92314,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S442" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="443" spans="1:19" x14ac:dyDescent="0.2">
@@ -92386,7 +92373,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="S443" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="444" spans="1:19" x14ac:dyDescent="0.2">
@@ -92445,7 +92432,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S444" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="445" spans="1:19" x14ac:dyDescent="0.2">
@@ -92504,7 +92491,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S445" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="446" spans="1:19" x14ac:dyDescent="0.2">
@@ -92563,7 +92550,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S446" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="447" spans="1:19" x14ac:dyDescent="0.2">
@@ -92622,7 +92609,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S447" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="448" spans="1:19" x14ac:dyDescent="0.2">
@@ -92681,7 +92668,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S448" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="449" spans="1:19" x14ac:dyDescent="0.2">
@@ -92740,7 +92727,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S449" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="450" spans="1:19" x14ac:dyDescent="0.2">
@@ -92799,7 +92786,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S450" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="451" spans="1:19" x14ac:dyDescent="0.2">
@@ -92858,7 +92845,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S451" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="452" spans="1:19" x14ac:dyDescent="0.2">
@@ -92917,7 +92904,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S452" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="453" spans="1:19" x14ac:dyDescent="0.2">
@@ -92976,7 +92963,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S453" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="454" spans="1:19" x14ac:dyDescent="0.2">
@@ -93035,7 +93022,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S454" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="455" spans="1:19" x14ac:dyDescent="0.2">
@@ -93094,7 +93081,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S455" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="456" spans="1:19" x14ac:dyDescent="0.2">
@@ -93153,7 +93140,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S456" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="457" spans="1:19" x14ac:dyDescent="0.2">
@@ -93212,7 +93199,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S457" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="458" spans="1:19" x14ac:dyDescent="0.2">
@@ -93271,7 +93258,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S458" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="459" spans="1:19" x14ac:dyDescent="0.2">
@@ -93330,7 +93317,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S459" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="460" spans="1:19" x14ac:dyDescent="0.2">
@@ -93389,7 +93376,7 @@
         <v>1.7728999999999999</v>
       </c>
       <c r="S460" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="461" spans="1:19" x14ac:dyDescent="0.2">
@@ -93448,7 +93435,7 @@
         <v>0.2482</v>
       </c>
       <c r="S461" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="462" spans="1:19" x14ac:dyDescent="0.2">
@@ -93507,7 +93494,7 @@
         <v>0.2482</v>
       </c>
       <c r="S462" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="463" spans="1:19" x14ac:dyDescent="0.2">
@@ -93566,7 +93553,7 @@
         <v>0.2482</v>
       </c>
       <c r="S463" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="464" spans="1:19" x14ac:dyDescent="0.2">
@@ -93625,7 +93612,7 @@
         <v>0.2482</v>
       </c>
       <c r="S464" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="465" spans="1:19" x14ac:dyDescent="0.2">
@@ -93684,7 +93671,7 @@
         <v>0.34649999999999997</v>
       </c>
       <c r="S465" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="466" spans="1:19" x14ac:dyDescent="0.2">
@@ -93743,7 +93730,7 @@
         <v>0.34649999999999997</v>
       </c>
       <c r="S466" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.2">
@@ -93802,7 +93789,7 @@
         <v>0.34649999999999997</v>
       </c>
       <c r="S467" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="468" spans="1:19" x14ac:dyDescent="0.2">
@@ -93861,7 +93848,7 @@
         <v>0.34649999999999997</v>
       </c>
       <c r="S468" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.2">
@@ -93920,7 +93907,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S469" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="470" spans="1:19" x14ac:dyDescent="0.2">
@@ -93979,7 +93966,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S470" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="471" spans="1:19" x14ac:dyDescent="0.2">
@@ -94038,7 +94025,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S471" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="472" spans="1:19" x14ac:dyDescent="0.2">
@@ -94097,7 +94084,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S472" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="473" spans="1:19" x14ac:dyDescent="0.2">
@@ -94156,7 +94143,7 @@
         <v>9.5600000000000004E-2</v>
       </c>
       <c r="S473" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="474" spans="1:19" x14ac:dyDescent="0.2">
@@ -94215,7 +94202,7 @@
         <v>9.5600000000000004E-2</v>
       </c>
       <c r="S474" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="475" spans="1:19" x14ac:dyDescent="0.2">
@@ -94226,7 +94213,7 @@
         <v>1</v>
       </c>
       <c r="C475" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D475">
         <v>2019</v>
@@ -94256,7 +94243,7 @@
         <v>31</v>
       </c>
       <c r="M475" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N475" t="s">
         <v>96</v>
@@ -94274,7 +94261,7 @@
         <v>9.5600000000000004E-2</v>
       </c>
       <c r="S475" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="476" spans="1:19" x14ac:dyDescent="0.2">
@@ -94334,7 +94321,7 @@
         <v>0.248</v>
       </c>
       <c r="S476" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="477" spans="1:19" x14ac:dyDescent="0.2">
@@ -94394,7 +94381,7 @@
         <v>0.248</v>
       </c>
       <c r="S477" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="478" spans="1:19" x14ac:dyDescent="0.2">
@@ -94454,7 +94441,7 @@
         <v>0.248</v>
       </c>
       <c r="S478" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="479" spans="1:19" x14ac:dyDescent="0.2">
@@ -94514,7 +94501,7 @@
         <v>0.248</v>
       </c>
       <c r="S479" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.2">
@@ -94573,7 +94560,7 @@
         <v>0.248</v>
       </c>
       <c r="S480" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="481" spans="1:19" x14ac:dyDescent="0.2">
@@ -94633,7 +94620,7 @@
         <v>0.248</v>
       </c>
       <c r="S481" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.2">
@@ -94693,7 +94680,7 @@
         <v>0.248</v>
       </c>
       <c r="S482" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="483" spans="1:19" x14ac:dyDescent="0.2">
@@ -94753,7 +94740,7 @@
         <v>0.248</v>
       </c>
       <c r="S483" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="484" spans="1:19" x14ac:dyDescent="0.2">
@@ -94812,7 +94799,7 @@
         <v>0.248</v>
       </c>
       <c r="S484" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="485" spans="1:19" x14ac:dyDescent="0.2">
@@ -94872,7 +94859,7 @@
         <v>0.248</v>
       </c>
       <c r="S485" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="486" spans="1:19" x14ac:dyDescent="0.2">
@@ -94932,7 +94919,7 @@
         <v>0.248</v>
       </c>
       <c r="S486" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="487" spans="1:19" x14ac:dyDescent="0.2">
@@ -94992,7 +94979,7 @@
         <v>0.248</v>
       </c>
       <c r="S487" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="488" spans="1:19" x14ac:dyDescent="0.2">
@@ -95051,7 +95038,7 @@
         <v>0.87990000000000002</v>
       </c>
       <c r="S488" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="489" spans="1:19" x14ac:dyDescent="0.2">
@@ -95111,7 +95098,7 @@
         <v>0.87990000000000002</v>
       </c>
       <c r="S489" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="490" spans="1:19" x14ac:dyDescent="0.2">
@@ -95171,7 +95158,7 @@
         <v>0.99150000000000005</v>
       </c>
       <c r="S490" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="491" spans="1:19" x14ac:dyDescent="0.2">
@@ -95230,7 +95217,7 @@
         <v>0.51649999999999996</v>
       </c>
       <c r="S491" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="492" spans="1:19" x14ac:dyDescent="0.2">
@@ -95241,7 +95228,7 @@
         <v>1</v>
       </c>
       <c r="C492" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D492">
         <v>2018</v>
@@ -95287,7 +95274,7 @@
         <v>0.80020000000000002</v>
       </c>
       <c r="S492" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="493" spans="1:19" x14ac:dyDescent="0.2">
@@ -95298,7 +95285,7 @@
         <v>2</v>
       </c>
       <c r="C493" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D493">
         <v>2018</v>
@@ -95344,7 +95331,7 @@
         <v>0.80020000000000002</v>
       </c>
       <c r="S493" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="494" spans="1:19" x14ac:dyDescent="0.2">
@@ -95355,7 +95342,7 @@
         <v>3</v>
       </c>
       <c r="C494" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D494">
         <v>2018</v>
@@ -95401,7 +95388,7 @@
         <v>0.80020000000000002</v>
       </c>
       <c r="S494" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="495" spans="1:19" x14ac:dyDescent="0.2">
@@ -95412,7 +95399,7 @@
         <v>4</v>
       </c>
       <c r="C495" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D495">
         <v>2018</v>
@@ -95458,7 +95445,7 @@
         <v>0.80020000000000002</v>
       </c>
       <c r="S495" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="496" spans="1:19" x14ac:dyDescent="0.2">
@@ -95469,7 +95456,7 @@
         <v>5</v>
       </c>
       <c r="C496" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D496">
         <v>2018</v>
@@ -95515,7 +95502,7 @@
         <v>0.80020000000000002</v>
       </c>
       <c r="S496" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="497" spans="1:19" x14ac:dyDescent="0.2">
@@ -95526,7 +95513,7 @@
         <v>6</v>
       </c>
       <c r="C497" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D497">
         <v>2018</v>
@@ -95572,7 +95559,7 @@
         <v>0.80020000000000002</v>
       </c>
       <c r="S497" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="498" spans="1:19" x14ac:dyDescent="0.2">
@@ -95583,7 +95570,7 @@
         <v>1</v>
       </c>
       <c r="C498" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D498">
         <v>2011</v>
@@ -95613,7 +95600,7 @@
         <v>31</v>
       </c>
       <c r="M498" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N498" s="10" t="s">
         <v>96</v>
@@ -95631,7 +95618,7 @@
         <v>0.70909999999999995</v>
       </c>
       <c r="S498" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="499" spans="1:19" x14ac:dyDescent="0.2">
@@ -95642,7 +95629,7 @@
         <v>2</v>
       </c>
       <c r="C499" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D499">
         <v>2011</v>
@@ -95672,7 +95659,7 @@
         <v>31</v>
       </c>
       <c r="M499" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N499" s="10" t="s">
         <v>96</v>
@@ -95690,7 +95677,7 @@
         <v>0.70909999999999995</v>
       </c>
       <c r="S499" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="500" spans="1:19" x14ac:dyDescent="0.2">
@@ -95701,7 +95688,7 @@
         <v>3</v>
       </c>
       <c r="C500" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D500">
         <v>2011</v>
@@ -95731,7 +95718,7 @@
         <v>31</v>
       </c>
       <c r="M500" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N500" s="10" t="s">
         <v>96</v>
@@ -95749,7 +95736,7 @@
         <v>0.70909999999999995</v>
       </c>
       <c r="S500" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="501" spans="1:19" x14ac:dyDescent="0.2">
@@ -95760,7 +95747,7 @@
         <v>4</v>
       </c>
       <c r="C501" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D501">
         <v>2011</v>
@@ -95790,7 +95777,7 @@
         <v>31</v>
       </c>
       <c r="M501" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N501" s="10" t="s">
         <v>96</v>
@@ -95808,7 +95795,7 @@
         <v>0.70909999999999995</v>
       </c>
       <c r="S501" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="502" spans="1:19" x14ac:dyDescent="0.2">
@@ -95867,7 +95854,7 @@
         <v>1.6335</v>
       </c>
       <c r="S502" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="503" spans="1:19" x14ac:dyDescent="0.2">
@@ -95926,7 +95913,7 @@
         <v>1.6335</v>
       </c>
       <c r="S503" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="504" spans="1:19" x14ac:dyDescent="0.2">
@@ -95985,7 +95972,7 @@
         <v>1.6335</v>
       </c>
       <c r="S504" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="505" spans="1:19" x14ac:dyDescent="0.2">
@@ -96044,7 +96031,7 @@
         <v>1.6335</v>
       </c>
       <c r="S505" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="506" spans="1:19" x14ac:dyDescent="0.2">
@@ -96103,7 +96090,7 @@
         <v>1.6335</v>
       </c>
       <c r="S506" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="507" spans="1:19" x14ac:dyDescent="0.2">
@@ -96162,7 +96149,7 @@
         <v>1.6335</v>
       </c>
       <c r="S507" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="508" spans="1:19" x14ac:dyDescent="0.2">
@@ -96221,7 +96208,7 @@
         <v>1.6335</v>
       </c>
       <c r="S508" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="509" spans="1:19" x14ac:dyDescent="0.2">
@@ -96280,7 +96267,7 @@
         <v>1.6335</v>
       </c>
       <c r="S509" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="510" spans="1:19" x14ac:dyDescent="0.2">
@@ -96339,7 +96326,7 @@
         <v>1.6335</v>
       </c>
       <c r="S510" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="511" spans="1:19" x14ac:dyDescent="0.2">
@@ -96398,7 +96385,7 @@
         <v>1.6335</v>
       </c>
       <c r="S511" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="512" spans="1:19" x14ac:dyDescent="0.2">
@@ -96457,7 +96444,7 @@
         <v>1.6335</v>
       </c>
       <c r="S512" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="513" spans="1:19" x14ac:dyDescent="0.2">
@@ -96516,7 +96503,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S513" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="514" spans="1:19" x14ac:dyDescent="0.2">
@@ -96575,7 +96562,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S514" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="515" spans="1:19" x14ac:dyDescent="0.2">
@@ -96634,7 +96621,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S515" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="516" spans="1:19" x14ac:dyDescent="0.2">
@@ -96693,7 +96680,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S516" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="517" spans="1:19" x14ac:dyDescent="0.2">
@@ -96752,7 +96739,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S517" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="518" spans="1:19" x14ac:dyDescent="0.2">
@@ -96811,7 +96798,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S518" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="519" spans="1:19" x14ac:dyDescent="0.2">
@@ -96870,7 +96857,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S519" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="520" spans="1:19" x14ac:dyDescent="0.2">
@@ -96929,7 +96916,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S520" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="521" spans="1:19" x14ac:dyDescent="0.2">
@@ -96988,7 +96975,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S521" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="522" spans="1:19" x14ac:dyDescent="0.2">
@@ -97047,7 +97034,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S522" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="523" spans="1:19" x14ac:dyDescent="0.2">
@@ -97106,7 +97093,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S523" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="524" spans="1:19" x14ac:dyDescent="0.2">
@@ -97165,7 +97152,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S524" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="525" spans="1:19" x14ac:dyDescent="0.2">
@@ -97224,7 +97211,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S525" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="526" spans="1:19" x14ac:dyDescent="0.2">
@@ -97283,7 +97270,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S526" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="527" spans="1:19" x14ac:dyDescent="0.2">
@@ -97342,7 +97329,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S527" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="528" spans="1:19" x14ac:dyDescent="0.2">
@@ -97401,7 +97388,7 @@
         <v>1.2936000000000001</v>
       </c>
       <c r="S528" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="529" spans="1:19" x14ac:dyDescent="0.2">
@@ -97460,7 +97447,7 @@
         <v>8.1600000000000006E-2</v>
       </c>
       <c r="S529" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="530" spans="1:19" x14ac:dyDescent="0.2">
@@ -97519,7 +97506,7 @@
         <v>8.1600000000000006E-2</v>
       </c>
       <c r="S530" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="531" spans="1:19" x14ac:dyDescent="0.2">
@@ -97578,7 +97565,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S531" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="532" spans="1:19" x14ac:dyDescent="0.2">
@@ -97637,7 +97624,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S532" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="533" spans="1:19" x14ac:dyDescent="0.2">
@@ -97696,7 +97683,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S533" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="534" spans="1:19" x14ac:dyDescent="0.2">
@@ -97755,7 +97742,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S534" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="535" spans="1:19" x14ac:dyDescent="0.2">
@@ -97814,7 +97801,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S535" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="536" spans="1:19" x14ac:dyDescent="0.2">
@@ -97873,7 +97860,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S536" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="537" spans="1:19" x14ac:dyDescent="0.2">
@@ -97932,7 +97919,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S537" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="538" spans="1:19" x14ac:dyDescent="0.2">
@@ -97991,7 +97978,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S538" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="539" spans="1:19" x14ac:dyDescent="0.2">
@@ -98050,7 +98037,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S539" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="540" spans="1:19" x14ac:dyDescent="0.2">
@@ -98109,7 +98096,7 @@
         <v>0.46660000000000001</v>
       </c>
       <c r="S540" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="541" spans="1:19" x14ac:dyDescent="0.2">
@@ -98168,7 +98155,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S541" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="542" spans="1:19" x14ac:dyDescent="0.2">
@@ -98227,7 +98214,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S542" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="543" spans="1:19" x14ac:dyDescent="0.2">
@@ -98286,7 +98273,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S543" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="544" spans="1:19" x14ac:dyDescent="0.2">
@@ -98345,7 +98332,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S544" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="545" spans="1:19" x14ac:dyDescent="0.2">
@@ -98404,7 +98391,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S545" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="546" spans="1:19" x14ac:dyDescent="0.2">
@@ -98463,7 +98450,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S546" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="547" spans="1:19" x14ac:dyDescent="0.2">
@@ -98522,7 +98509,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S547" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="548" spans="1:19" x14ac:dyDescent="0.2">
@@ -98581,7 +98568,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S548" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="549" spans="1:19" x14ac:dyDescent="0.2">
@@ -98640,7 +98627,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S549" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="550" spans="1:19" x14ac:dyDescent="0.2">
@@ -98699,7 +98686,7 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="S550" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="551" spans="1:19" x14ac:dyDescent="0.2">
@@ -98758,7 +98745,7 @@
         <v>0.3347</v>
       </c>
       <c r="S551" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="552" spans="1:19" x14ac:dyDescent="0.2">
@@ -98817,7 +98804,7 @@
         <v>0.32</v>
       </c>
       <c r="S552" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="553" spans="1:19" x14ac:dyDescent="0.2">
@@ -98876,7 +98863,7 @@
         <v>0.23780000000000001</v>
       </c>
       <c r="S553" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="554" spans="1:19" x14ac:dyDescent="0.2">
@@ -98935,7 +98922,7 @@
         <v>0.23780000000000001</v>
       </c>
       <c r="S554" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="555" spans="1:19" x14ac:dyDescent="0.2">
@@ -98994,7 +98981,7 @@
         <v>0.23780000000000001</v>
       </c>
       <c r="S555" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="556" spans="1:19" x14ac:dyDescent="0.2">
@@ -99053,7 +99040,7 @@
         <v>0.23780000000000001</v>
       </c>
       <c r="S556" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="557" spans="1:19" x14ac:dyDescent="0.2">
@@ -99112,7 +99099,7 @@
         <v>0.23780000000000001</v>
       </c>
       <c r="S557" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="558" spans="1:19" x14ac:dyDescent="0.2">
@@ -99171,7 +99158,7 @@
         <v>0.23780000000000001</v>
       </c>
       <c r="S558" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="559" spans="1:19" x14ac:dyDescent="0.2">
@@ -99230,7 +99217,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S559" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="560" spans="1:19" x14ac:dyDescent="0.2">
@@ -99289,7 +99276,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S560" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="561" spans="1:19" x14ac:dyDescent="0.2">
@@ -99348,7 +99335,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S561" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="562" spans="1:19" x14ac:dyDescent="0.2">
@@ -99407,7 +99394,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S562" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="563" spans="1:19" x14ac:dyDescent="0.2">
@@ -99466,7 +99453,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S563" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="564" spans="1:19" x14ac:dyDescent="0.2">
@@ -99525,7 +99512,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S564" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="565" spans="1:19" x14ac:dyDescent="0.2">
@@ -99584,7 +99571,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S565" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="566" spans="1:19" x14ac:dyDescent="0.2">
@@ -99643,7 +99630,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S566" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="567" spans="1:19" x14ac:dyDescent="0.2">
@@ -99702,7 +99689,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S567" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="568" spans="1:19" x14ac:dyDescent="0.2">
@@ -99761,7 +99748,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S568" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="569" spans="1:19" x14ac:dyDescent="0.2">
@@ -99820,7 +99807,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S569" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="570" spans="1:19" x14ac:dyDescent="0.2">
@@ -99879,7 +99866,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S570" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="571" spans="1:19" x14ac:dyDescent="0.2">
@@ -99938,7 +99925,7 @@
         <v>0.4587</v>
       </c>
       <c r="S571" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="572" spans="1:19" x14ac:dyDescent="0.2">
@@ -99997,7 +99984,7 @@
         <v>0.4587</v>
       </c>
       <c r="S572" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="573" spans="1:19" x14ac:dyDescent="0.2">
@@ -100056,7 +100043,7 @@
         <v>0.4587</v>
       </c>
       <c r="S573" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="574" spans="1:19" x14ac:dyDescent="0.2">
@@ -100115,7 +100102,7 @@
         <v>0.4587</v>
       </c>
       <c r="S574" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="575" spans="1:19" x14ac:dyDescent="0.2">
@@ -100174,7 +100161,7 @@
         <v>0.4587</v>
       </c>
       <c r="S575" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="576" spans="1:19" x14ac:dyDescent="0.2">
@@ -100233,7 +100220,7 @@
         <v>0.4587</v>
       </c>
       <c r="S576" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="577" spans="1:19" x14ac:dyDescent="0.2">
@@ -100292,7 +100279,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S577" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="578" spans="1:19" x14ac:dyDescent="0.2">
@@ -100351,7 +100338,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S578" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="579" spans="1:19" x14ac:dyDescent="0.2">
@@ -100410,7 +100397,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S579" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="580" spans="1:19" x14ac:dyDescent="0.2">
@@ -100469,7 +100456,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S580" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="581" spans="1:19" x14ac:dyDescent="0.2">
@@ -100528,7 +100515,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S581" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="582" spans="1:19" x14ac:dyDescent="0.2">
@@ -100587,7 +100574,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S582" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="583" spans="1:19" x14ac:dyDescent="0.2">
@@ -100646,7 +100633,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S583" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="584" spans="1:19" x14ac:dyDescent="0.2">
@@ -100705,7 +100692,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S584" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="585" spans="1:19" x14ac:dyDescent="0.2">
@@ -100764,7 +100751,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S585" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="586" spans="1:19" x14ac:dyDescent="0.2">
@@ -100823,7 +100810,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S586" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="587" spans="1:19" x14ac:dyDescent="0.2">
@@ -100882,7 +100869,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S587" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="588" spans="1:19" x14ac:dyDescent="0.2">
@@ -100941,7 +100928,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S588" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="589" spans="1:19" x14ac:dyDescent="0.2">
@@ -101000,7 +100987,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S589" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="590" spans="1:19" x14ac:dyDescent="0.2">
@@ -101059,7 +101046,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S590" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="591" spans="1:19" x14ac:dyDescent="0.2">
@@ -101118,7 +101105,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S591" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="592" spans="1:19" x14ac:dyDescent="0.2">
@@ -101177,7 +101164,7 @@
         <v>0.18459999999999999</v>
       </c>
       <c r="S592" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="593" spans="1:19" x14ac:dyDescent="0.2">
@@ -101236,7 +101223,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S593" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="594" spans="1:19" x14ac:dyDescent="0.2">
@@ -101295,7 +101282,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S594" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="595" spans="1:19" x14ac:dyDescent="0.2">
@@ -101354,7 +101341,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S595" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="596" spans="1:19" x14ac:dyDescent="0.2">
@@ -101413,7 +101400,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S596" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="597" spans="1:19" x14ac:dyDescent="0.2">
@@ -101472,7 +101459,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S597" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="598" spans="1:19" x14ac:dyDescent="0.2">
@@ -101531,7 +101518,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S598" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="599" spans="1:19" x14ac:dyDescent="0.2">
@@ -101590,7 +101577,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S599" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="600" spans="1:19" x14ac:dyDescent="0.2">
@@ -101649,7 +101636,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S600" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="601" spans="1:19" x14ac:dyDescent="0.2">
@@ -101708,7 +101695,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S601" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="602" spans="1:19" x14ac:dyDescent="0.2">
@@ -101767,7 +101754,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S602" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="603" spans="1:19" x14ac:dyDescent="0.2">
@@ -101826,7 +101813,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S603" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="604" spans="1:19" x14ac:dyDescent="0.2">
@@ -101885,7 +101872,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S604" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="605" spans="1:19" x14ac:dyDescent="0.2">
@@ -101944,7 +101931,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S605" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="606" spans="1:19" x14ac:dyDescent="0.2">
@@ -102003,7 +101990,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S606" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="607" spans="1:19" x14ac:dyDescent="0.2">
@@ -102062,7 +102049,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S607" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="608" spans="1:19" x14ac:dyDescent="0.2">
@@ -102121,7 +102108,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S608" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="609" spans="1:19" x14ac:dyDescent="0.2">
@@ -102180,7 +102167,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S609" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="610" spans="1:19" x14ac:dyDescent="0.2">
@@ -102239,7 +102226,7 @@
         <v>0.87609999999999999</v>
       </c>
       <c r="S610" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="611" spans="1:19" x14ac:dyDescent="0.2">
@@ -102298,7 +102285,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S611" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="612" spans="1:19" x14ac:dyDescent="0.2">
@@ -102357,7 +102344,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S612" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="613" spans="1:19" x14ac:dyDescent="0.2">
@@ -102416,7 +102403,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S613" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="614" spans="1:19" x14ac:dyDescent="0.2">
@@ -102475,7 +102462,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S614" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="615" spans="1:19" x14ac:dyDescent="0.2">
@@ -102534,7 +102521,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S615" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="616" spans="1:19" x14ac:dyDescent="0.2">
@@ -102593,7 +102580,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S616" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="617" spans="1:19" x14ac:dyDescent="0.2">
@@ -102652,7 +102639,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S617" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="618" spans="1:19" x14ac:dyDescent="0.2">
@@ -102711,7 +102698,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S618" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="619" spans="1:19" x14ac:dyDescent="0.2">
@@ -102770,7 +102757,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S619" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="620" spans="1:19" x14ac:dyDescent="0.2">
@@ -102829,7 +102816,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S620" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="621" spans="1:19" x14ac:dyDescent="0.2">
@@ -102888,7 +102875,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S621" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="622" spans="1:19" x14ac:dyDescent="0.2">
@@ -102947,7 +102934,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S622" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="623" spans="1:19" x14ac:dyDescent="0.2">
@@ -103006,7 +102993,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S623" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="624" spans="1:19" x14ac:dyDescent="0.2">
@@ -103065,7 +103052,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S624" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="625" spans="1:19" x14ac:dyDescent="0.2">
@@ -103124,7 +103111,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S625" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="626" spans="1:19" x14ac:dyDescent="0.2">
@@ -103183,7 +103170,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S626" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="627" spans="1:19" x14ac:dyDescent="0.2">
@@ -103242,7 +103229,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S627" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="628" spans="1:19" x14ac:dyDescent="0.2">
@@ -103301,7 +103288,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S628" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="629" spans="1:19" x14ac:dyDescent="0.2">
@@ -103360,7 +103347,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S629" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="630" spans="1:19" x14ac:dyDescent="0.2">
@@ -103419,7 +103406,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S630" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="631" spans="1:19" x14ac:dyDescent="0.2">
@@ -103478,7 +103465,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S631" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="632" spans="1:19" x14ac:dyDescent="0.2">
@@ -103537,7 +103524,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S632" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="633" spans="1:19" x14ac:dyDescent="0.2">
@@ -103596,7 +103583,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S633" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="634" spans="1:19" x14ac:dyDescent="0.2">
@@ -103655,7 +103642,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="S634" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="635" spans="1:19" x14ac:dyDescent="0.2">
@@ -103714,7 +103701,7 @@
         <v>0.1719</v>
       </c>
       <c r="S635" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="636" spans="1:19" x14ac:dyDescent="0.2">
@@ -103773,7 +103760,7 @@
         <v>0.1719</v>
       </c>
       <c r="S636" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="637" spans="1:19" x14ac:dyDescent="0.2">
@@ -103832,7 +103819,7 @@
         <v>0.1719</v>
       </c>
       <c r="S637" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="638" spans="1:19" x14ac:dyDescent="0.2">
@@ -103892,7 +103879,7 @@
         <v>0.2482</v>
       </c>
       <c r="S638" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="639" spans="1:19" x14ac:dyDescent="0.2">
@@ -103952,7 +103939,7 @@
         <v>0.2482</v>
       </c>
       <c r="S639" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="640" spans="1:19" x14ac:dyDescent="0.2">
@@ -104012,7 +103999,7 @@
         <v>0.2482</v>
       </c>
       <c r="S640" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="641" spans="1:19" x14ac:dyDescent="0.2">
@@ -104072,7 +104059,7 @@
         <v>0.2482</v>
       </c>
       <c r="S641" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="642" spans="1:19" x14ac:dyDescent="0.2">
@@ -104131,7 +104118,7 @@
         <v>0.24890000000000001</v>
       </c>
       <c r="S642" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="643" spans="1:19" x14ac:dyDescent="0.2">
@@ -104191,7 +104178,7 @@
         <v>0.24890000000000001</v>
       </c>
       <c r="S643" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="644" spans="1:19" x14ac:dyDescent="0.2">
@@ -104251,7 +104238,7 @@
         <v>0.24890000000000001</v>
       </c>
       <c r="S644" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="645" spans="1:19" x14ac:dyDescent="0.2">
@@ -104311,7 +104298,7 @@
         <v>0.24890000000000001</v>
       </c>
       <c r="S645" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="646" spans="1:19" x14ac:dyDescent="0.2">
@@ -104370,7 +104357,7 @@
         <v>9.5600000000000004E-2</v>
       </c>
       <c r="S646" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="647" spans="1:19" x14ac:dyDescent="0.2">
@@ -104430,7 +104417,7 @@
         <v>9.5600000000000004E-2</v>
       </c>
       <c r="S647" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="648" spans="1:19" x14ac:dyDescent="0.2">
@@ -104490,7 +104477,7 @@
         <v>9.5600000000000004E-2</v>
       </c>
       <c r="S648" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="649" spans="1:19" x14ac:dyDescent="0.2">
@@ -104549,7 +104536,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S649" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="650" spans="1:19" x14ac:dyDescent="0.2">
@@ -104609,7 +104596,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S650" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="651" spans="1:19" x14ac:dyDescent="0.2">
@@ -104669,7 +104656,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S651" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="652" spans="1:19" x14ac:dyDescent="0.2">
@@ -104729,7 +104716,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="S652" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="653" spans="1:19" x14ac:dyDescent="0.2">
@@ -104740,7 +104727,7 @@
         <v>1</v>
       </c>
       <c r="C653" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D653">
         <v>2017</v>
@@ -104770,7 +104757,7 @@
         <v>31</v>
       </c>
       <c r="M653" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N653" s="10" t="s">
         <v>97</v>
@@ -104788,7 +104775,7 @@
         <v>0.17549999999999999</v>
       </c>
       <c r="S653" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data_sheets.xlsx
+++ b/data_sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/Grassland restoration with biosolids/Grassland-restoration-with-biosolids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7765F7-A4BE-5B46-87C9-030BD66FB3A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6DC706-E0E0-1B47-8CB3-F0D94DF5F3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -21,10 +21,18 @@
     <sheet name="Exotics" sheetId="6" r:id="rId6"/>
     <sheet name="Sys_review" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1053,9 +1061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9FE204-07F5-0F4A-B823-D83AA8F49599}">
   <dimension ref="A1:AJ220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U189" sqref="U189"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A146" sqref="A146:XFD165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10970,7 +10978,7 @@
         <v>-6.21638</v>
       </c>
       <c r="AB118" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="AC118">
         <v>0.29709999999999998</v>
@@ -19249,7 +19257,7 @@
       <c r="V220" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:AC215">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC215">
     <sortCondition ref="C2:C215"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19260,9 +19268,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4B7382-3EC3-C845-A515-1FD3C54C18F4}">
   <dimension ref="A1:AB270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U169" sqref="U169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T188" sqref="T169:T188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33484,7 +33492,7 @@
         <v>33</v>
       </c>
       <c r="T169" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U169" t="s">
         <v>29</v>
@@ -33570,7 +33578,7 @@
         <v>33</v>
       </c>
       <c r="T170" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U170" t="s">
         <v>29</v>
@@ -33656,7 +33664,7 @@
         <v>33</v>
       </c>
       <c r="T171" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U171" t="s">
         <v>29</v>
@@ -33742,7 +33750,7 @@
         <v>33</v>
       </c>
       <c r="T172" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U172" t="s">
         <v>29</v>
@@ -33828,7 +33836,7 @@
         <v>33</v>
       </c>
       <c r="T173" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U173" t="s">
         <v>29</v>
@@ -33914,7 +33922,7 @@
         <v>33</v>
       </c>
       <c r="T174" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U174" t="s">
         <v>29</v>
@@ -34000,7 +34008,7 @@
         <v>33</v>
       </c>
       <c r="T175" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U175" t="s">
         <v>29</v>
@@ -34086,7 +34094,7 @@
         <v>33</v>
       </c>
       <c r="T176" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U176" t="s">
         <v>29</v>
@@ -34172,7 +34180,7 @@
         <v>33</v>
       </c>
       <c r="T177" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U177" t="s">
         <v>29</v>
@@ -34258,7 +34266,7 @@
         <v>33</v>
       </c>
       <c r="T178" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U178" t="s">
         <v>29</v>
@@ -34344,7 +34352,7 @@
         <v>33</v>
       </c>
       <c r="T179" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U179" t="s">
         <v>29</v>
@@ -34430,7 +34438,7 @@
         <v>33</v>
       </c>
       <c r="T180" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U180" t="s">
         <v>29</v>
@@ -34516,7 +34524,7 @@
         <v>33</v>
       </c>
       <c r="T181" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U181" t="s">
         <v>29</v>
@@ -34602,7 +34610,7 @@
         <v>33</v>
       </c>
       <c r="T182" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U182" t="s">
         <v>29</v>
@@ -34688,7 +34696,7 @@
         <v>33</v>
       </c>
       <c r="T183" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U183" t="s">
         <v>29</v>
@@ -34774,7 +34782,7 @@
         <v>33</v>
       </c>
       <c r="T184" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U184" t="s">
         <v>29</v>
@@ -34860,7 +34868,7 @@
         <v>33</v>
       </c>
       <c r="T185" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U185" t="s">
         <v>29</v>
@@ -34946,7 +34954,7 @@
         <v>33</v>
       </c>
       <c r="T186" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U186" t="s">
         <v>29</v>
@@ -35032,7 +35040,7 @@
         <v>33</v>
       </c>
       <c r="T187" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U187" t="s">
         <v>29</v>
@@ -35118,7 +35126,7 @@
         <v>33</v>
       </c>
       <c r="T188" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U188" t="s">
         <v>29</v>
@@ -42034,7 +42042,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AB270">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB270">
     <sortCondition ref="C2:C270"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42045,9 +42053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD349FBF-19EC-D146-ACA8-683A33E0AFBC}">
   <dimension ref="A1:AB160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W53" sqref="W53"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V88" sqref="V88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55032,7 +55040,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AB160">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB160">
     <sortCondition ref="C2:C160"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -66233,7 +66241,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AA64">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA64">
     <sortCondition ref="AA2:AA64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
